--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choull\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D666057-D7C7-47E3-9FD5-668D57C3640A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3CA17-C22F-48F7-BC16-CA553DE04B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11770" yWindow="3680" windowWidth="21060" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -126,6 +126,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -147,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -581,6 +595,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +767,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,22 +1084,22 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5"/>
       <c r="C5" s="2"/>
@@ -1113,7 +1189,7 @@
       <c r="N5" s="1"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6"/>
       <c r="C6" s="2"/>
@@ -1130,7 +1206,7 @@
       <c r="N6" s="1"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7"/>
       <c r="C7" s="2"/>
@@ -1147,7 +1223,7 @@
       <c r="N7" s="1"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
@@ -1164,7 +1240,7 @@
       <c r="N8" s="1"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
@@ -1181,7 +1257,7 @@
       <c r="N9" s="1"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10"/>
       <c r="C10" s="2"/>
@@ -1198,7 +1274,7 @@
       <c r="N10" s="1"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11"/>
       <c r="C11" s="2"/>
@@ -1215,7 +1291,7 @@
       <c r="N11" s="1"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12"/>
       <c r="C12" s="2"/>
@@ -1232,7 +1308,7 @@
       <c r="N12" s="1"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13"/>
       <c r="C13" s="2"/>
@@ -1249,7 +1325,7 @@
       <c r="N13" s="1"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14"/>
       <c r="C14" s="2"/>
@@ -1266,7 +1342,7 @@
       <c r="N14" s="1"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15"/>
       <c r="C15" s="2"/>
@@ -1283,7 +1359,7 @@
       <c r="N15" s="1"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16"/>
       <c r="C16" s="2"/>
@@ -1300,7 +1376,7 @@
       <c r="N16" s="1"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17"/>
       <c r="C17" s="2"/>
@@ -1317,7 +1393,7 @@
       <c r="N17" s="1"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18"/>
       <c r="C18" s="2"/>
@@ -1334,7 +1410,7 @@
       <c r="N18" s="1"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19"/>
       <c r="C19" s="2"/>
@@ -1351,7 +1427,7 @@
       <c r="N19" s="1"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20"/>
       <c r="C20" s="2"/>
@@ -1368,7 +1444,7 @@
       <c r="N20" s="1"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21"/>
       <c r="C21" s="2"/>
@@ -1385,7 +1461,7 @@
       <c r="N21" s="1"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22"/>
       <c r="C22" s="2"/>
@@ -1402,7 +1478,7 @@
       <c r="N22" s="1"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23"/>
       <c r="C23" s="2"/>
@@ -1419,7 +1495,7 @@
       <c r="N23" s="1"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24"/>
       <c r="C24" s="2"/>
@@ -1436,7 +1512,7 @@
       <c r="N24" s="1"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25"/>
       <c r="C25" s="2"/>
@@ -1453,7 +1529,7 @@
       <c r="N25" s="1"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26"/>
       <c r="C26" s="2"/>
@@ -1470,7 +1546,7 @@
       <c r="N26" s="1"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27"/>
       <c r="C27" s="2"/>
@@ -1487,7 +1563,7 @@
       <c r="N27" s="1"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28"/>
       <c r="C28" s="2"/>
@@ -1504,7 +1580,7 @@
       <c r="N28" s="1"/>
       <c r="O28"/>
     </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -1521,7 +1597,7 @@
       <c r="N58" s="1"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -1538,7 +1614,7 @@
       <c r="N59" s="1"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60"/>
       <c r="C60" s="2"/>
@@ -1555,7 +1631,7 @@
       <c r="N60" s="1"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61"/>
       <c r="C61" s="2"/>
@@ -1572,7 +1648,7 @@
       <c r="N61" s="1"/>
       <c r="O61"/>
     </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62"/>
       <c r="C62" s="2"/>
@@ -1589,7 +1665,7 @@
       <c r="N62" s="1"/>
       <c r="O62"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63"/>
       <c r="C63" s="2"/>
@@ -1606,7 +1682,7 @@
       <c r="N63" s="1"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -1623,7 +1699,7 @@
       <c r="N64" s="1"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65"/>
       <c r="C65" s="2"/>
@@ -1640,7 +1716,7 @@
       <c r="N65" s="1"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66"/>
       <c r="C66" s="2"/>
@@ -1657,7 +1733,7 @@
       <c r="N66" s="1"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67"/>
       <c r="C67" s="2"/>
@@ -1684,18 +1760,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AI24"/>
+  <dimension ref="C2:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.69921875" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="26">
         <v>21</v>
       </c>
@@ -1712,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="19">
         <v>16</v>
       </c>
@@ -1729,7 +1805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19">
         <v>11</v>
       </c>
@@ -1746,7 +1822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="19">
         <v>6</v>
       </c>
@@ -1763,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -1780,7 +1856,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:35" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="26">
         <v>21</v>
       </c>
@@ -1798,7 +1879,7 @@
       </c>
       <c r="AI8" s="30"/>
     </row>
-    <row r="9" spans="3:35" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="19">
         <v>16</v>
       </c>
@@ -1815,7 +1896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="19">
         <v>11</v>
       </c>
@@ -1832,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:35" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="19">
         <v>6</v>
       </c>
@@ -1849,7 +1930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:35" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8">
         <v>1</v>
       </c>
@@ -1866,7 +1947,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:35" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="47">
+        <v>2</v>
+      </c>
+      <c r="I13" s="48">
+        <v>3</v>
+      </c>
+      <c r="O13" s="48">
+        <v>4</v>
+      </c>
+      <c r="U13" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="28">
         <v>21</v>
       </c>
@@ -1928,7 +2023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:35" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="31">
         <v>16</v>
       </c>
@@ -1990,7 +2085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:35" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="33">
         <v>11</v>
       </c>
@@ -2052,7 +2147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:25" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:25" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="34">
         <v>6</v>
       </c>
@@ -2114,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:25" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10">
         <v>1</v>
       </c>
@@ -2176,8 +2271,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:25" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="3:25" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="50">
+        <v>6</v>
+      </c>
+      <c r="I19" s="49">
+        <v>7</v>
+      </c>
+      <c r="O19" s="47">
+        <v>8</v>
+      </c>
+      <c r="U19" s="46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="26">
         <v>21</v>
       </c>
@@ -2239,7 +2347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="3:25" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:25" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19">
         <v>16</v>
       </c>
@@ -2301,7 +2409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:25" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:25" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="19">
         <v>11</v>
       </c>
@@ -2363,7 +2471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:25" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="19">
         <v>6</v>
       </c>
@@ -2425,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:25" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:25" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8">
         <v>1</v>
       </c>
@@ -2484,6 +2592,622 @@
         <v>4</v>
       </c>
       <c r="Y24" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="45">
+        <v>1</v>
+      </c>
+      <c r="I26" s="45">
+        <v>2</v>
+      </c>
+      <c r="O26" s="45">
+        <v>3</v>
+      </c>
+      <c r="U26" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="26">
+        <v>21</v>
+      </c>
+      <c r="D27" s="25">
+        <v>22</v>
+      </c>
+      <c r="E27" s="25">
+        <v>23</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="8"/>
+      <c r="I27" s="26">
+        <v>21</v>
+      </c>
+      <c r="J27" s="25">
+        <v>22</v>
+      </c>
+      <c r="K27" s="25">
+        <v>23</v>
+      </c>
+      <c r="L27" s="25">
+        <v>24</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="O27" s="26">
+        <v>21</v>
+      </c>
+      <c r="P27" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>23</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="8"/>
+      <c r="U27" s="26">
+        <v>21</v>
+      </c>
+      <c r="V27" s="25">
+        <v>22</v>
+      </c>
+      <c r="W27" s="25">
+        <v>23</v>
+      </c>
+      <c r="X27" s="25">
+        <v>24</v>
+      </c>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="19">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8">
+        <v>18</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="I28" s="19">
+        <v>16</v>
+      </c>
+      <c r="J28" s="8">
+        <v>17</v>
+      </c>
+      <c r="K28" s="8">
+        <v>18</v>
+      </c>
+      <c r="L28" s="8">
+        <v>19</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="O28" s="19">
+        <v>16</v>
+      </c>
+      <c r="P28" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>18</v>
+      </c>
+      <c r="R28" s="8">
+        <v>19</v>
+      </c>
+      <c r="S28" s="9">
+        <v>20</v>
+      </c>
+      <c r="U28" s="19">
+        <v>16</v>
+      </c>
+      <c r="V28" s="8">
+        <v>17</v>
+      </c>
+      <c r="W28" s="8">
+        <v>18</v>
+      </c>
+      <c r="X28" s="8">
+        <v>19</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="19">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8">
+        <v>13</v>
+      </c>
+      <c r="F29" s="8">
+        <v>14</v>
+      </c>
+      <c r="G29" s="9">
+        <v>15</v>
+      </c>
+      <c r="I29" s="19">
+        <v>11</v>
+      </c>
+      <c r="J29" s="8">
+        <v>12</v>
+      </c>
+      <c r="K29" s="8">
+        <v>13</v>
+      </c>
+      <c r="L29" s="8">
+        <v>14</v>
+      </c>
+      <c r="M29" s="9">
+        <v>15</v>
+      </c>
+      <c r="O29" s="19">
+        <v>11</v>
+      </c>
+      <c r="P29" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>13</v>
+      </c>
+      <c r="R29" s="8">
+        <v>14</v>
+      </c>
+      <c r="S29" s="9">
+        <v>15</v>
+      </c>
+      <c r="U29" s="19">
+        <v>11</v>
+      </c>
+      <c r="V29" s="8">
+        <v>12</v>
+      </c>
+      <c r="W29" s="8">
+        <v>13</v>
+      </c>
+      <c r="X29" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="I30" s="19">
+        <v>6</v>
+      </c>
+      <c r="J30" s="8">
+        <v>7</v>
+      </c>
+      <c r="K30" s="8">
+        <v>8</v>
+      </c>
+      <c r="L30" s="8">
+        <v>9</v>
+      </c>
+      <c r="M30" s="9">
+        <v>10</v>
+      </c>
+      <c r="O30" s="19">
+        <v>6</v>
+      </c>
+      <c r="P30" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>8</v>
+      </c>
+      <c r="R30" s="8">
+        <v>9</v>
+      </c>
+      <c r="S30" s="9">
+        <v>10</v>
+      </c>
+      <c r="U30" s="19">
+        <v>6</v>
+      </c>
+      <c r="V30" s="8">
+        <v>7</v>
+      </c>
+      <c r="W30" s="8">
+        <v>8</v>
+      </c>
+      <c r="X30" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+      <c r="F31" s="10">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10">
+        <v>4</v>
+      </c>
+      <c r="M31" s="8">
+        <v>5</v>
+      </c>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+      <c r="P31" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>3</v>
+      </c>
+      <c r="R31" s="10">
+        <v>4</v>
+      </c>
+      <c r="S31" s="8">
+        <v>5</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="10">
+        <v>2</v>
+      </c>
+      <c r="W31" s="10">
+        <v>3</v>
+      </c>
+      <c r="X31" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="52">
+        <v>21</v>
+      </c>
+      <c r="D33" s="55">
+        <v>22</v>
+      </c>
+      <c r="E33" s="55">
+        <v>23</v>
+      </c>
+      <c r="F33" s="25">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8">
+        <v>25</v>
+      </c>
+      <c r="I33" s="52">
+        <v>21</v>
+      </c>
+      <c r="J33" s="55">
+        <v>22</v>
+      </c>
+      <c r="K33" s="55">
+        <v>23</v>
+      </c>
+      <c r="L33" s="55">
+        <v>24</v>
+      </c>
+      <c r="M33" s="8">
+        <v>25</v>
+      </c>
+      <c r="O33" s="52">
+        <v>21</v>
+      </c>
+      <c r="P33" s="55">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>23</v>
+      </c>
+      <c r="R33" s="25">
+        <v>24</v>
+      </c>
+      <c r="S33" s="8">
+        <v>25</v>
+      </c>
+      <c r="U33" s="52">
+        <v>21</v>
+      </c>
+      <c r="V33" s="55">
+        <v>22</v>
+      </c>
+      <c r="W33" s="55">
+        <v>23</v>
+      </c>
+      <c r="X33" s="55">
+        <v>24</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="51">
+        <v>16</v>
+      </c>
+      <c r="D34" s="52">
+        <v>17</v>
+      </c>
+      <c r="E34" s="52">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8">
+        <v>19</v>
+      </c>
+      <c r="G34" s="9">
+        <v>20</v>
+      </c>
+      <c r="I34" s="51">
+        <v>16</v>
+      </c>
+      <c r="J34" s="52">
+        <v>17</v>
+      </c>
+      <c r="K34" s="52">
+        <v>18</v>
+      </c>
+      <c r="L34" s="52">
+        <v>19</v>
+      </c>
+      <c r="M34" s="9">
+        <v>20</v>
+      </c>
+      <c r="O34" s="51">
+        <v>16</v>
+      </c>
+      <c r="P34" s="52">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="52">
+        <v>18</v>
+      </c>
+      <c r="R34" s="52">
+        <v>19</v>
+      </c>
+      <c r="S34" s="53">
+        <v>20</v>
+      </c>
+      <c r="U34" s="51">
+        <v>16</v>
+      </c>
+      <c r="V34" s="52">
+        <v>17</v>
+      </c>
+      <c r="W34" s="52">
+        <v>18</v>
+      </c>
+      <c r="X34" s="52">
+        <v>19</v>
+      </c>
+      <c r="Y34" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="51">
+        <v>11</v>
+      </c>
+      <c r="D35" s="52">
+        <v>12</v>
+      </c>
+      <c r="E35" s="52">
+        <v>13</v>
+      </c>
+      <c r="F35" s="52">
+        <v>14</v>
+      </c>
+      <c r="G35" s="53">
+        <v>15</v>
+      </c>
+      <c r="I35" s="51">
+        <v>11</v>
+      </c>
+      <c r="J35" s="52">
+        <v>12</v>
+      </c>
+      <c r="K35" s="52">
+        <v>13</v>
+      </c>
+      <c r="L35" s="52">
+        <v>14</v>
+      </c>
+      <c r="M35" s="53">
+        <v>15</v>
+      </c>
+      <c r="O35" s="51">
+        <v>11</v>
+      </c>
+      <c r="P35" s="52">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="52">
+        <v>13</v>
+      </c>
+      <c r="R35" s="52">
+        <v>14</v>
+      </c>
+      <c r="S35" s="53">
+        <v>15</v>
+      </c>
+      <c r="U35" s="51">
+        <v>11</v>
+      </c>
+      <c r="V35" s="52">
+        <v>12</v>
+      </c>
+      <c r="W35" s="52">
+        <v>13</v>
+      </c>
+      <c r="X35" s="52">
+        <v>14</v>
+      </c>
+      <c r="Y35" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="51">
+        <v>6</v>
+      </c>
+      <c r="D36" s="52">
+        <v>7</v>
+      </c>
+      <c r="E36" s="52">
+        <v>8</v>
+      </c>
+      <c r="F36" s="52">
+        <v>9</v>
+      </c>
+      <c r="G36" s="53">
+        <v>10</v>
+      </c>
+      <c r="I36" s="51">
+        <v>6</v>
+      </c>
+      <c r="J36" s="52">
+        <v>7</v>
+      </c>
+      <c r="K36" s="52">
+        <v>8</v>
+      </c>
+      <c r="L36" s="52">
+        <v>9</v>
+      </c>
+      <c r="M36" s="53">
+        <v>10</v>
+      </c>
+      <c r="O36" s="51">
+        <v>6</v>
+      </c>
+      <c r="P36" s="52">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="52">
+        <v>8</v>
+      </c>
+      <c r="R36" s="52">
+        <v>9</v>
+      </c>
+      <c r="S36" s="53">
+        <v>10</v>
+      </c>
+      <c r="U36" s="51">
+        <v>6</v>
+      </c>
+      <c r="V36" s="52">
+        <v>7</v>
+      </c>
+      <c r="W36" s="52">
+        <v>8</v>
+      </c>
+      <c r="X36" s="52">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="52">
+        <v>1</v>
+      </c>
+      <c r="D37" s="54">
+        <v>2</v>
+      </c>
+      <c r="E37" s="54">
+        <v>3</v>
+      </c>
+      <c r="F37" s="54">
+        <v>4</v>
+      </c>
+      <c r="G37" s="52">
+        <v>5</v>
+      </c>
+      <c r="I37" s="52">
+        <v>1</v>
+      </c>
+      <c r="J37" s="54">
+        <v>2</v>
+      </c>
+      <c r="K37" s="54">
+        <v>3</v>
+      </c>
+      <c r="L37" s="54">
+        <v>4</v>
+      </c>
+      <c r="M37" s="52">
+        <v>5</v>
+      </c>
+      <c r="O37" s="52">
+        <v>1</v>
+      </c>
+      <c r="P37" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="54">
+        <v>3</v>
+      </c>
+      <c r="R37" s="54">
+        <v>4</v>
+      </c>
+      <c r="S37" s="52">
+        <v>5</v>
+      </c>
+      <c r="U37" s="52">
+        <v>1</v>
+      </c>
+      <c r="V37" s="54">
+        <v>2</v>
+      </c>
+      <c r="W37" s="54">
+        <v>3</v>
+      </c>
+      <c r="X37" s="54">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="52">
         <v>5</v>
       </c>
     </row>
@@ -2501,7 +3225,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3CA17-C22F-48F7-BC16-CA553DE04B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D9B1B-9F36-47BA-96CB-38FC5E596070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11770" yWindow="3680" windowWidth="21060" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="4420" windowWidth="21060" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -624,6 +624,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -724,9 +733,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +806,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AI37"/>
+  <dimension ref="C1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1780,10 @@
     <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="55"/>
+    </row>
+    <row r="2" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="26">
         <v>21</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="19">
         <v>16</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19">
         <v>11</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="19">
         <v>6</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -1856,1358 +1868,1435 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="46">
+    <row r="8" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26">
+      <c r="I8" s="46">
+        <v>2</v>
+      </c>
+      <c r="O8" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="26">
         <v>21</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D9" s="25">
         <v>22</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E9" s="25">
         <v>23</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F9" s="25">
         <v>24</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>25</v>
       </c>
-      <c r="AI8" s="30"/>
-    </row>
-    <row r="9" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="19">
+      <c r="I9" s="28">
+        <v>21</v>
+      </c>
+      <c r="J9" s="25">
+        <v>22</v>
+      </c>
+      <c r="K9" s="25">
+        <v>23</v>
+      </c>
+      <c r="L9" s="25">
+        <v>24</v>
+      </c>
+      <c r="M9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="26">
+        <v>21</v>
+      </c>
+      <c r="P9" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>23</v>
+      </c>
+      <c r="R9" s="25">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="19">
         <v>16</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="16">
         <v>17</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>18</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>19</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
+      <c r="I10" s="30">
+        <v>16</v>
+      </c>
+      <c r="J10" s="31">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12">
+        <v>18</v>
+      </c>
+      <c r="L10" s="9">
+        <v>19</v>
+      </c>
+      <c r="M10" s="9">
+        <v>20</v>
+      </c>
+      <c r="O10" s="21">
+        <v>16</v>
+      </c>
+      <c r="P10" s="25">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>18</v>
+      </c>
+      <c r="R10" s="8">
+        <v>19</v>
+      </c>
+      <c r="S10" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="19">
         <v>11</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>12</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>13</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>14</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="19">
+      <c r="I11" s="32">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
+        <v>12</v>
+      </c>
+      <c r="K11" s="13">
+        <v>13</v>
+      </c>
+      <c r="L11" s="9">
+        <v>14</v>
+      </c>
+      <c r="M11" s="9">
+        <v>15</v>
+      </c>
+      <c r="O11" s="24">
+        <v>11</v>
+      </c>
+      <c r="P11" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>13</v>
+      </c>
+      <c r="R11" s="9">
+        <v>14</v>
+      </c>
+      <c r="S11" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="18">
         <v>7</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
+      <c r="I12" s="33">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14">
+        <v>7</v>
+      </c>
+      <c r="K12" s="15">
+        <v>8</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9</v>
+      </c>
+      <c r="M12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="34">
+        <v>6</v>
+      </c>
+      <c r="P12" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>8</v>
+      </c>
+      <c r="R12" s="9">
+        <v>9</v>
+      </c>
+      <c r="S12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="3:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="47">
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
         <v>2</v>
       </c>
-      <c r="I13" s="48">
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="O13" s="48">
+      <c r="L13" s="10">
         <v>4</v>
       </c>
-      <c r="U13" s="48">
+      <c r="M13" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="3:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="28">
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>3</v>
+      </c>
+      <c r="R13" s="20">
+        <v>4</v>
+      </c>
+      <c r="S13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="47">
+        <v>4</v>
+      </c>
+      <c r="I14" s="47">
+        <v>5</v>
+      </c>
+      <c r="O14" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="26">
         <v>21</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D15" s="25">
         <v>22</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E15" s="25">
         <v>23</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F15" s="25">
         <v>24</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>25</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I15" s="26">
         <v>21</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J15" s="25">
         <v>22</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>23</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L15" s="25">
         <v>24</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M15" s="8">
         <v>25</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O15" s="26">
         <v>21</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P15" s="25">
         <v>22</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q15" s="25">
         <v>23</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R15" s="25">
         <v>24</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S15" s="25">
         <v>25</v>
       </c>
-      <c r="U14" s="26">
+    </row>
+    <row r="16" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="19">
+        <v>16</v>
+      </c>
+      <c r="D16" s="25">
+        <v>17</v>
+      </c>
+      <c r="E16" s="25">
+        <v>18</v>
+      </c>
+      <c r="F16" s="25">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9">
+        <v>20</v>
+      </c>
+      <c r="I16" s="19">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8">
+        <v>17</v>
+      </c>
+      <c r="K16" s="25">
+        <v>18</v>
+      </c>
+      <c r="L16" s="25">
+        <v>19</v>
+      </c>
+      <c r="M16" s="23">
+        <v>20</v>
+      </c>
+      <c r="O16" s="19">
+        <v>16</v>
+      </c>
+      <c r="P16" s="19">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>18</v>
+      </c>
+      <c r="R16" s="11">
+        <v>19</v>
+      </c>
+      <c r="S16" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="19">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19">
+        <v>11</v>
+      </c>
+      <c r="J17" s="19">
+        <v>12</v>
+      </c>
+      <c r="K17" s="16">
+        <v>13</v>
+      </c>
+      <c r="L17" s="11">
+        <v>14</v>
+      </c>
+      <c r="M17" s="38">
+        <v>15</v>
+      </c>
+      <c r="O17" s="19">
+        <v>11</v>
+      </c>
+      <c r="P17" s="19">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>13</v>
+      </c>
+      <c r="R17" s="8">
+        <v>14</v>
+      </c>
+      <c r="S17" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="13">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="I18" s="19">
+        <v>6</v>
+      </c>
+      <c r="J18" s="19">
+        <v>7</v>
+      </c>
+      <c r="K18" s="17">
+        <v>8</v>
+      </c>
+      <c r="L18" s="8">
+        <v>9</v>
+      </c>
+      <c r="M18" s="27">
+        <v>10</v>
+      </c>
+      <c r="O18" s="19">
+        <v>6</v>
+      </c>
+      <c r="P18" s="19">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>8</v>
+      </c>
+      <c r="R18" s="14">
+        <v>9</v>
+      </c>
+      <c r="S18" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
+        <v>2</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22">
+        <v>2</v>
+      </c>
+      <c r="K19" s="37">
+        <v>3</v>
+      </c>
+      <c r="L19" s="35">
+        <v>4</v>
+      </c>
+      <c r="M19" s="15">
+        <v>5</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>3</v>
+      </c>
+      <c r="R19" s="10">
+        <v>4</v>
+      </c>
+      <c r="S19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48">
+        <v>7</v>
+      </c>
+      <c r="I20" s="46">
+        <v>8</v>
+      </c>
+      <c r="O20" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="26">
         <v>21</v>
       </c>
-      <c r="V14" s="25">
+      <c r="D21" s="21">
         <v>22</v>
       </c>
-      <c r="W14" s="25">
+      <c r="E21" s="40">
         <v>23</v>
       </c>
-      <c r="X14" s="25">
+      <c r="F21" s="41">
         <v>24</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="G21" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="3:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="31">
+      <c r="I21" s="29">
+        <v>21</v>
+      </c>
+      <c r="J21" s="40">
+        <v>22</v>
+      </c>
+      <c r="K21" s="41">
+        <v>23</v>
+      </c>
+      <c r="L21" s="42">
+        <v>24</v>
+      </c>
+      <c r="M21" s="9">
+        <v>25</v>
+      </c>
+      <c r="O21" s="43">
+        <v>21</v>
+      </c>
+      <c r="P21" s="41">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>23</v>
+      </c>
+      <c r="R21" s="23">
+        <v>24</v>
+      </c>
+      <c r="S21" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="19">
         <v>16</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D22" s="19">
         <v>17</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E22" s="17">
         <v>18</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F22" s="8">
         <v>19</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G22" s="27">
         <v>20</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I22" s="19">
         <v>16</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J22" s="17">
         <v>17</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K22" s="8">
         <v>18</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L22" s="13">
         <v>19</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M22" s="9">
         <v>20</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O22" s="34">
         <v>16</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P22" s="8">
         <v>17</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q22" s="13">
         <v>18</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R22" s="9">
         <v>19</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S22" s="9">
         <v>20</v>
       </c>
-      <c r="U15" s="19">
+    </row>
+    <row r="23" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="19">
+        <v>11</v>
+      </c>
+      <c r="D23" s="19">
+        <v>12</v>
+      </c>
+      <c r="E23" s="18">
+        <v>13</v>
+      </c>
+      <c r="F23" s="14">
+        <v>14</v>
+      </c>
+      <c r="G23" s="39">
+        <v>15</v>
+      </c>
+      <c r="I23" s="19">
+        <v>11</v>
+      </c>
+      <c r="J23" s="18">
+        <v>12</v>
+      </c>
+      <c r="K23" s="14">
+        <v>13</v>
+      </c>
+      <c r="L23" s="15">
+        <v>14</v>
+      </c>
+      <c r="M23" s="9">
+        <v>15</v>
+      </c>
+      <c r="O23" s="33">
+        <v>11</v>
+      </c>
+      <c r="P23" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>13</v>
+      </c>
+      <c r="R23" s="9">
+        <v>14</v>
+      </c>
+      <c r="S23" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="19">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9</v>
+      </c>
+      <c r="G24" s="20">
+        <v>10</v>
+      </c>
+      <c r="I24" s="19">
+        <v>6</v>
+      </c>
+      <c r="J24" s="10">
+        <v>7</v>
+      </c>
+      <c r="K24" s="10">
+        <v>8</v>
+      </c>
+      <c r="L24" s="10">
+        <v>9</v>
+      </c>
+      <c r="M24" s="9">
+        <v>10</v>
+      </c>
+      <c r="O24" s="22">
+        <v>6</v>
+      </c>
+      <c r="P24" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>8</v>
+      </c>
+      <c r="R24" s="8">
+        <v>9</v>
+      </c>
+      <c r="S24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>3</v>
+      </c>
+      <c r="L25" s="10">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8">
+        <v>5</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>3</v>
+      </c>
+      <c r="R25" s="10">
+        <v>4</v>
+      </c>
+      <c r="S25" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="44">
+        <v>1</v>
+      </c>
+      <c r="I27" s="44">
+        <v>2</v>
+      </c>
+      <c r="O27" s="44">
+        <v>3</v>
+      </c>
+      <c r="U27" s="44">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="26">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25">
+        <v>22</v>
+      </c>
+      <c r="E28" s="25">
+        <v>23</v>
+      </c>
+      <c r="F28" s="25">
+        <v>24</v>
+      </c>
+      <c r="G28" s="8">
+        <v>25</v>
+      </c>
+      <c r="I28" s="26">
+        <v>21</v>
+      </c>
+      <c r="J28" s="25">
+        <v>22</v>
+      </c>
+      <c r="K28" s="25">
+        <v>23</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="26">
+        <v>21</v>
+      </c>
+      <c r="P28" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>23</v>
+      </c>
+      <c r="R28" s="25">
+        <v>24</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="U28" s="26">
+        <v>21</v>
+      </c>
+      <c r="V28" s="25">
+        <v>22</v>
+      </c>
+      <c r="W28" s="25">
+        <v>23</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="8"/>
+      <c r="AA28" s="26">
+        <v>21</v>
+      </c>
+      <c r="AB28" s="25">
+        <v>22</v>
+      </c>
+      <c r="AC28" s="25">
+        <v>23</v>
+      </c>
+      <c r="AD28" s="25">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="8"/>
+    </row>
+    <row r="29" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="19">
         <v>16</v>
       </c>
-      <c r="V15" s="8">
+      <c r="D29" s="8">
         <v>17</v>
       </c>
-      <c r="W15" s="25">
+      <c r="E29" s="8">
         <v>18</v>
       </c>
-      <c r="X15" s="25">
+      <c r="F29" s="8">
         <v>19</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="G29" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="3:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="33">
+      <c r="I29" s="19">
+        <v>16</v>
+      </c>
+      <c r="J29" s="8">
+        <v>17</v>
+      </c>
+      <c r="K29" s="8">
+        <v>18</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="O29" s="19">
+        <v>16</v>
+      </c>
+      <c r="P29" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>18</v>
+      </c>
+      <c r="R29" s="8">
+        <v>19</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="U29" s="19">
+        <v>16</v>
+      </c>
+      <c r="V29" s="8">
+        <v>17</v>
+      </c>
+      <c r="W29" s="8">
+        <v>18</v>
+      </c>
+      <c r="X29" s="8">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>16</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
         <v>11</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D30" s="8">
         <v>12</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E30" s="8">
         <v>13</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F30" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G30" s="9">
         <v>15</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I30" s="19">
         <v>11</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J30" s="8">
         <v>12</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K30" s="8">
         <v>13</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L30" s="8">
         <v>14</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M30" s="9">
         <v>15</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O30" s="19">
         <v>11</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P30" s="8">
         <v>12</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q30" s="8">
         <v>13</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R30" s="8">
         <v>14</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S30" s="9">
         <v>15</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U30" s="19">
         <v>11</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V30" s="8">
         <v>12</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W30" s="8">
         <v>13</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X30" s="8">
         <v>14</v>
       </c>
-      <c r="Y16" s="39">
+      <c r="Y30" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="3:25" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="34">
+      <c r="AA30" s="19">
+        <v>11</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>14</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="19">
         <v>6</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D31" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E31" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F31" s="8">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G31" s="9">
         <v>10</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I31" s="19">
         <v>6</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J31" s="8">
         <v>7</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K31" s="8">
         <v>8</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L31" s="8">
         <v>9</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M31" s="9">
         <v>10</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O31" s="19">
         <v>6</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P31" s="8">
         <v>7</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q31" s="8">
         <v>8</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R31" s="8">
         <v>9</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S31" s="9">
         <v>10</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U31" s="19">
         <v>6</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V31" s="8">
         <v>7</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W31" s="8">
         <v>8</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X31" s="8">
         <v>9</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y31" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10">
+      <c r="AA31" s="19">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E32" s="10">
         <v>3</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F32" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G32" s="8">
         <v>5</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I32" s="8">
         <v>1</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J32" s="10">
         <v>2</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K32" s="10">
         <v>3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L32" s="10">
         <v>4</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M32" s="8">
         <v>5</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O32" s="8">
         <v>1</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P32" s="10">
         <v>2</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q32" s="10">
         <v>3</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R32" s="10">
         <v>4</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S32" s="8">
         <v>5</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U32" s="8">
         <v>1</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V32" s="10">
         <v>2</v>
       </c>
-      <c r="W18" s="38">
+      <c r="W32" s="10">
         <v>3</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X32" s="10">
         <v>4</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y32" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="50">
+      <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="51">
+        <v>21</v>
+      </c>
+      <c r="J34" s="54">
+        <v>22</v>
+      </c>
+      <c r="K34" s="54">
+        <v>23</v>
+      </c>
+      <c r="L34" s="25">
+        <v>24</v>
+      </c>
+      <c r="M34" s="8">
+        <v>25</v>
+      </c>
+      <c r="O34" s="51">
+        <v>21</v>
+      </c>
+      <c r="P34" s="54">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="54">
+        <v>23</v>
+      </c>
+      <c r="R34" s="54">
+        <v>24</v>
+      </c>
+      <c r="S34" s="8">
+        <v>25</v>
+      </c>
+      <c r="U34" s="51">
+        <v>21</v>
+      </c>
+      <c r="V34" s="54">
+        <v>22</v>
+      </c>
+      <c r="W34" s="54">
+        <v>23</v>
+      </c>
+      <c r="X34" s="25">
+        <v>24</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA34" s="51">
+        <v>21</v>
+      </c>
+      <c r="AB34" s="54">
+        <v>22</v>
+      </c>
+      <c r="AC34" s="54">
+        <v>23</v>
+      </c>
+      <c r="AD34" s="54">
+        <v>24</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="50">
+        <v>16</v>
+      </c>
+      <c r="J35" s="51">
+        <v>17</v>
+      </c>
+      <c r="K35" s="51">
+        <v>18</v>
+      </c>
+      <c r="L35" s="8">
+        <v>19</v>
+      </c>
+      <c r="M35" s="9">
+        <v>20</v>
+      </c>
+      <c r="O35" s="50">
+        <v>16</v>
+      </c>
+      <c r="P35" s="51">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="51">
+        <v>18</v>
+      </c>
+      <c r="R35" s="51">
+        <v>19</v>
+      </c>
+      <c r="S35" s="9">
+        <v>20</v>
+      </c>
+      <c r="U35" s="50">
+        <v>16</v>
+      </c>
+      <c r="V35" s="51">
+        <v>17</v>
+      </c>
+      <c r="W35" s="51">
+        <v>18</v>
+      </c>
+      <c r="X35" s="51">
+        <v>19</v>
+      </c>
+      <c r="Y35" s="52">
+        <v>20</v>
+      </c>
+      <c r="AA35" s="50">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="51">
+        <v>17</v>
+      </c>
+      <c r="AC35" s="51">
+        <v>18</v>
+      </c>
+      <c r="AD35" s="51">
+        <v>19</v>
+      </c>
+      <c r="AE35" s="52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="50">
+        <v>11</v>
+      </c>
+      <c r="J36" s="51">
+        <v>12</v>
+      </c>
+      <c r="K36" s="51">
+        <v>13</v>
+      </c>
+      <c r="L36" s="51">
+        <v>14</v>
+      </c>
+      <c r="M36" s="52">
+        <v>15</v>
+      </c>
+      <c r="O36" s="50">
+        <v>11</v>
+      </c>
+      <c r="P36" s="51">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="51">
+        <v>13</v>
+      </c>
+      <c r="R36" s="51">
+        <v>14</v>
+      </c>
+      <c r="S36" s="52">
+        <v>15</v>
+      </c>
+      <c r="U36" s="50">
+        <v>11</v>
+      </c>
+      <c r="V36" s="51">
+        <v>12</v>
+      </c>
+      <c r="W36" s="51">
+        <v>13</v>
+      </c>
+      <c r="X36" s="51">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="50">
+        <v>11</v>
+      </c>
+      <c r="AB36" s="51">
+        <v>12</v>
+      </c>
+      <c r="AC36" s="51">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="51">
+        <v>14</v>
+      </c>
+      <c r="AE36" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="50">
         <v>6</v>
       </c>
-      <c r="I19" s="49">
+      <c r="J37" s="51">
         <v>7</v>
       </c>
-      <c r="O19" s="47">
+      <c r="K37" s="51">
         <v>8</v>
       </c>
-      <c r="U19" s="46">
+      <c r="L37" s="51">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="26">
-        <v>21</v>
-      </c>
-      <c r="D20" s="25">
-        <v>22</v>
-      </c>
-      <c r="E20" s="25">
-        <v>23</v>
-      </c>
-      <c r="F20" s="25">
-        <v>24</v>
-      </c>
-      <c r="G20" s="25">
-        <v>25</v>
-      </c>
-      <c r="I20" s="26">
-        <v>21</v>
-      </c>
-      <c r="J20" s="21">
-        <v>22</v>
-      </c>
-      <c r="K20" s="41">
-        <v>23</v>
-      </c>
-      <c r="L20" s="42">
-        <v>24</v>
-      </c>
-      <c r="M20" s="12">
-        <v>25</v>
-      </c>
-      <c r="O20" s="29">
-        <v>21</v>
-      </c>
-      <c r="P20" s="41">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>23</v>
-      </c>
-      <c r="R20" s="43">
-        <v>24</v>
-      </c>
-      <c r="S20" s="9">
-        <v>25</v>
-      </c>
-      <c r="U20" s="44">
-        <v>21</v>
-      </c>
-      <c r="V20" s="42">
-        <v>22</v>
-      </c>
-      <c r="W20" s="43">
-        <v>23</v>
-      </c>
-      <c r="X20" s="23">
-        <v>24</v>
-      </c>
-      <c r="Y20" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19">
-        <v>16</v>
-      </c>
-      <c r="D21" s="19">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11">
-        <v>19</v>
-      </c>
-      <c r="G21" s="39">
-        <v>20</v>
-      </c>
-      <c r="I21" s="19">
-        <v>16</v>
-      </c>
-      <c r="J21" s="19">
-        <v>17</v>
-      </c>
-      <c r="K21" s="17">
-        <v>18</v>
-      </c>
-      <c r="L21" s="8">
-        <v>19</v>
-      </c>
-      <c r="M21" s="27">
-        <v>20</v>
-      </c>
-      <c r="O21" s="19">
-        <v>16</v>
-      </c>
-      <c r="P21" s="17">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>18</v>
-      </c>
-      <c r="R21" s="13">
-        <v>19</v>
-      </c>
-      <c r="S21" s="9">
-        <v>20</v>
-      </c>
-      <c r="U21" s="35">
-        <v>16</v>
-      </c>
-      <c r="V21" s="8">
-        <v>17</v>
-      </c>
-      <c r="W21" s="13">
-        <v>18</v>
-      </c>
-      <c r="X21" s="9">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="19">
-        <v>11</v>
-      </c>
-      <c r="D22" s="19">
-        <v>12</v>
-      </c>
-      <c r="E22" s="17">
-        <v>13</v>
-      </c>
-      <c r="F22" s="8">
-        <v>14</v>
-      </c>
-      <c r="G22" s="27">
-        <v>15</v>
-      </c>
-      <c r="I22" s="19">
-        <v>11</v>
-      </c>
-      <c r="J22" s="19">
-        <v>12</v>
-      </c>
-      <c r="K22" s="18">
-        <v>13</v>
-      </c>
-      <c r="L22" s="14">
-        <v>14</v>
-      </c>
-      <c r="M22" s="40">
-        <v>15</v>
-      </c>
-      <c r="O22" s="19">
-        <v>11</v>
-      </c>
-      <c r="P22" s="18">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>13</v>
-      </c>
-      <c r="R22" s="15">
-        <v>14</v>
-      </c>
-      <c r="S22" s="9">
-        <v>15</v>
-      </c>
-      <c r="U22" s="34">
-        <v>11</v>
-      </c>
-      <c r="V22" s="14">
-        <v>12</v>
-      </c>
-      <c r="W22" s="15">
-        <v>13</v>
-      </c>
-      <c r="X22" s="9">
-        <v>14</v>
-      </c>
-      <c r="Y22" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="19">
+      <c r="M37" s="52">
+        <v>10</v>
+      </c>
+      <c r="O37" s="50">
         <v>6</v>
       </c>
-      <c r="D23" s="19">
+      <c r="P37" s="51">
         <v>7</v>
       </c>
-      <c r="E23" s="18">
+      <c r="Q37" s="51">
         <v>8</v>
       </c>
-      <c r="F23" s="14">
+      <c r="R37" s="51">
         <v>9</v>
       </c>
-      <c r="G23" s="40">
+      <c r="S37" s="52">
         <v>10</v>
       </c>
-      <c r="I23" s="19">
+      <c r="U37" s="50">
         <v>6</v>
       </c>
-      <c r="J23" s="8">
+      <c r="V37" s="51">
         <v>7</v>
       </c>
-      <c r="K23" s="10">
+      <c r="W37" s="51">
         <v>8</v>
       </c>
-      <c r="L23" s="10">
+      <c r="X37" s="51">
         <v>9</v>
       </c>
-      <c r="M23" s="20">
+      <c r="Y37" s="52">
         <v>10</v>
       </c>
-      <c r="O23" s="19">
+      <c r="AA37" s="50">
         <v>6</v>
       </c>
-      <c r="P23" s="10">
+      <c r="AB37" s="51">
         <v>7</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="AC37" s="51">
         <v>8</v>
       </c>
-      <c r="R23" s="10">
+      <c r="AD37" s="51">
         <v>9</v>
       </c>
-      <c r="S23" s="9">
+      <c r="AE37" s="52">
         <v>10</v>
       </c>
-      <c r="U23" s="22">
-        <v>6</v>
-      </c>
-      <c r="V23" s="10">
-        <v>7</v>
-      </c>
-      <c r="W23" s="10">
-        <v>8</v>
-      </c>
-      <c r="X23" s="8">
-        <v>9</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="8">
+    </row>
+    <row r="38" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="51">
         <v>1</v>
       </c>
-      <c r="D24" s="10">
+      <c r="J38" s="53">
         <v>2</v>
       </c>
-      <c r="E24" s="10">
+      <c r="K38" s="53">
         <v>3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="L38" s="53">
         <v>4</v>
       </c>
-      <c r="G24" s="10">
+      <c r="M38" s="51">
         <v>5</v>
       </c>
-      <c r="I24" s="8">
+      <c r="O38" s="51">
         <v>1</v>
       </c>
-      <c r="J24" s="10">
+      <c r="P38" s="53">
         <v>2</v>
       </c>
-      <c r="K24" s="10">
+      <c r="Q38" s="53">
         <v>3</v>
       </c>
-      <c r="L24" s="10">
+      <c r="R38" s="53">
         <v>4</v>
       </c>
-      <c r="M24" s="8">
+      <c r="S38" s="51">
         <v>5</v>
       </c>
-      <c r="O24" s="8">
+      <c r="U38" s="51">
         <v>1</v>
       </c>
-      <c r="P24" s="10">
+      <c r="V38" s="53">
         <v>2</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="W38" s="53">
         <v>3</v>
       </c>
-      <c r="R24" s="10">
+      <c r="X38" s="53">
         <v>4</v>
       </c>
-      <c r="S24" s="8">
+      <c r="Y38" s="51">
         <v>5</v>
       </c>
-      <c r="U24" s="8">
+      <c r="AA38" s="51">
         <v>1</v>
       </c>
-      <c r="V24" s="10">
+      <c r="AB38" s="53">
         <v>2</v>
       </c>
-      <c r="W24" s="10">
+      <c r="AC38" s="53">
         <v>3</v>
       </c>
-      <c r="X24" s="10">
+      <c r="AD38" s="53">
         <v>4</v>
       </c>
-      <c r="Y24" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="45">
-        <v>1</v>
-      </c>
-      <c r="I26" s="45">
-        <v>2</v>
-      </c>
-      <c r="O26" s="45">
-        <v>3</v>
-      </c>
-      <c r="U26" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="26">
-        <v>21</v>
-      </c>
-      <c r="D27" s="25">
-        <v>22</v>
-      </c>
-      <c r="E27" s="25">
-        <v>23</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="8"/>
-      <c r="I27" s="26">
-        <v>21</v>
-      </c>
-      <c r="J27" s="25">
-        <v>22</v>
-      </c>
-      <c r="K27" s="25">
-        <v>23</v>
-      </c>
-      <c r="L27" s="25">
-        <v>24</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="O27" s="26">
-        <v>21</v>
-      </c>
-      <c r="P27" s="25">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>23</v>
-      </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="8"/>
-      <c r="U27" s="26">
-        <v>21</v>
-      </c>
-      <c r="V27" s="25">
-        <v>22</v>
-      </c>
-      <c r="W27" s="25">
-        <v>23</v>
-      </c>
-      <c r="X27" s="25">
-        <v>24</v>
-      </c>
-      <c r="Y27" s="8"/>
-    </row>
-    <row r="28" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="19">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8">
-        <v>17</v>
-      </c>
-      <c r="E28" s="8">
-        <v>18</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="I28" s="19">
-        <v>16</v>
-      </c>
-      <c r="J28" s="8">
-        <v>17</v>
-      </c>
-      <c r="K28" s="8">
-        <v>18</v>
-      </c>
-      <c r="L28" s="8">
-        <v>19</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="O28" s="19">
-        <v>16</v>
-      </c>
-      <c r="P28" s="8">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>18</v>
-      </c>
-      <c r="R28" s="8">
-        <v>19</v>
-      </c>
-      <c r="S28" s="9">
-        <v>20</v>
-      </c>
-      <c r="U28" s="19">
-        <v>16</v>
-      </c>
-      <c r="V28" s="8">
-        <v>17</v>
-      </c>
-      <c r="W28" s="8">
-        <v>18</v>
-      </c>
-      <c r="X28" s="8">
-        <v>19</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="19">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8">
-        <v>13</v>
-      </c>
-      <c r="F29" s="8">
-        <v>14</v>
-      </c>
-      <c r="G29" s="9">
-        <v>15</v>
-      </c>
-      <c r="I29" s="19">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8">
-        <v>12</v>
-      </c>
-      <c r="K29" s="8">
-        <v>13</v>
-      </c>
-      <c r="L29" s="8">
-        <v>14</v>
-      </c>
-      <c r="M29" s="9">
-        <v>15</v>
-      </c>
-      <c r="O29" s="19">
-        <v>11</v>
-      </c>
-      <c r="P29" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>13</v>
-      </c>
-      <c r="R29" s="8">
-        <v>14</v>
-      </c>
-      <c r="S29" s="9">
-        <v>15</v>
-      </c>
-      <c r="U29" s="19">
-        <v>11</v>
-      </c>
-      <c r="V29" s="8">
-        <v>12</v>
-      </c>
-      <c r="W29" s="8">
-        <v>13</v>
-      </c>
-      <c r="X29" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="19">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8">
-        <v>7</v>
-      </c>
-      <c r="E30" s="8">
-        <v>8</v>
-      </c>
-      <c r="F30" s="8">
-        <v>9</v>
-      </c>
-      <c r="G30" s="9">
-        <v>10</v>
-      </c>
-      <c r="I30" s="19">
-        <v>6</v>
-      </c>
-      <c r="J30" s="8">
-        <v>7</v>
-      </c>
-      <c r="K30" s="8">
-        <v>8</v>
-      </c>
-      <c r="L30" s="8">
-        <v>9</v>
-      </c>
-      <c r="M30" s="9">
-        <v>10</v>
-      </c>
-      <c r="O30" s="19">
-        <v>6</v>
-      </c>
-      <c r="P30" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>8</v>
-      </c>
-      <c r="R30" s="8">
-        <v>9</v>
-      </c>
-      <c r="S30" s="9">
-        <v>10</v>
-      </c>
-      <c r="U30" s="19">
-        <v>6</v>
-      </c>
-      <c r="V30" s="8">
-        <v>7</v>
-      </c>
-      <c r="W30" s="8">
-        <v>8</v>
-      </c>
-      <c r="X30" s="8">
-        <v>9</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3</v>
-      </c>
-      <c r="F31" s="10">
-        <v>4</v>
-      </c>
-      <c r="G31" s="8">
-        <v>5</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="10">
-        <v>2</v>
-      </c>
-      <c r="K31" s="10">
-        <v>3</v>
-      </c>
-      <c r="L31" s="10">
-        <v>4</v>
-      </c>
-      <c r="M31" s="8">
-        <v>5</v>
-      </c>
-      <c r="O31" s="8">
-        <v>1</v>
-      </c>
-      <c r="P31" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>3</v>
-      </c>
-      <c r="R31" s="10">
-        <v>4</v>
-      </c>
-      <c r="S31" s="8">
-        <v>5</v>
-      </c>
-      <c r="U31" s="8">
-        <v>1</v>
-      </c>
-      <c r="V31" s="10">
-        <v>2</v>
-      </c>
-      <c r="W31" s="10">
-        <v>3</v>
-      </c>
-      <c r="X31" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="52">
-        <v>21</v>
-      </c>
-      <c r="D33" s="55">
-        <v>22</v>
-      </c>
-      <c r="E33" s="55">
-        <v>23</v>
-      </c>
-      <c r="F33" s="25">
-        <v>24</v>
-      </c>
-      <c r="G33" s="8">
-        <v>25</v>
-      </c>
-      <c r="I33" s="52">
-        <v>21</v>
-      </c>
-      <c r="J33" s="55">
-        <v>22</v>
-      </c>
-      <c r="K33" s="55">
-        <v>23</v>
-      </c>
-      <c r="L33" s="55">
-        <v>24</v>
-      </c>
-      <c r="M33" s="8">
-        <v>25</v>
-      </c>
-      <c r="O33" s="52">
-        <v>21</v>
-      </c>
-      <c r="P33" s="55">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="55">
-        <v>23</v>
-      </c>
-      <c r="R33" s="25">
-        <v>24</v>
-      </c>
-      <c r="S33" s="8">
-        <v>25</v>
-      </c>
-      <c r="U33" s="52">
-        <v>21</v>
-      </c>
-      <c r="V33" s="55">
-        <v>22</v>
-      </c>
-      <c r="W33" s="55">
-        <v>23</v>
-      </c>
-      <c r="X33" s="55">
-        <v>24</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="51">
-        <v>16</v>
-      </c>
-      <c r="D34" s="52">
-        <v>17</v>
-      </c>
-      <c r="E34" s="52">
-        <v>18</v>
-      </c>
-      <c r="F34" s="8">
-        <v>19</v>
-      </c>
-      <c r="G34" s="9">
-        <v>20</v>
-      </c>
-      <c r="I34" s="51">
-        <v>16</v>
-      </c>
-      <c r="J34" s="52">
-        <v>17</v>
-      </c>
-      <c r="K34" s="52">
-        <v>18</v>
-      </c>
-      <c r="L34" s="52">
-        <v>19</v>
-      </c>
-      <c r="M34" s="9">
-        <v>20</v>
-      </c>
-      <c r="O34" s="51">
-        <v>16</v>
-      </c>
-      <c r="P34" s="52">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="52">
-        <v>18</v>
-      </c>
-      <c r="R34" s="52">
-        <v>19</v>
-      </c>
-      <c r="S34" s="53">
-        <v>20</v>
-      </c>
-      <c r="U34" s="51">
-        <v>16</v>
-      </c>
-      <c r="V34" s="52">
-        <v>17</v>
-      </c>
-      <c r="W34" s="52">
-        <v>18</v>
-      </c>
-      <c r="X34" s="52">
-        <v>19</v>
-      </c>
-      <c r="Y34" s="53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="51">
-        <v>11</v>
-      </c>
-      <c r="D35" s="52">
-        <v>12</v>
-      </c>
-      <c r="E35" s="52">
-        <v>13</v>
-      </c>
-      <c r="F35" s="52">
-        <v>14</v>
-      </c>
-      <c r="G35" s="53">
-        <v>15</v>
-      </c>
-      <c r="I35" s="51">
-        <v>11</v>
-      </c>
-      <c r="J35" s="52">
-        <v>12</v>
-      </c>
-      <c r="K35" s="52">
-        <v>13</v>
-      </c>
-      <c r="L35" s="52">
-        <v>14</v>
-      </c>
-      <c r="M35" s="53">
-        <v>15</v>
-      </c>
-      <c r="O35" s="51">
-        <v>11</v>
-      </c>
-      <c r="P35" s="52">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="52">
-        <v>13</v>
-      </c>
-      <c r="R35" s="52">
-        <v>14</v>
-      </c>
-      <c r="S35" s="53">
-        <v>15</v>
-      </c>
-      <c r="U35" s="51">
-        <v>11</v>
-      </c>
-      <c r="V35" s="52">
-        <v>12</v>
-      </c>
-      <c r="W35" s="52">
-        <v>13</v>
-      </c>
-      <c r="X35" s="52">
-        <v>14</v>
-      </c>
-      <c r="Y35" s="53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="51">
-        <v>6</v>
-      </c>
-      <c r="D36" s="52">
-        <v>7</v>
-      </c>
-      <c r="E36" s="52">
-        <v>8</v>
-      </c>
-      <c r="F36" s="52">
-        <v>9</v>
-      </c>
-      <c r="G36" s="53">
-        <v>10</v>
-      </c>
-      <c r="I36" s="51">
-        <v>6</v>
-      </c>
-      <c r="J36" s="52">
-        <v>7</v>
-      </c>
-      <c r="K36" s="52">
-        <v>8</v>
-      </c>
-      <c r="L36" s="52">
-        <v>9</v>
-      </c>
-      <c r="M36" s="53">
-        <v>10</v>
-      </c>
-      <c r="O36" s="51">
-        <v>6</v>
-      </c>
-      <c r="P36" s="52">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="52">
-        <v>8</v>
-      </c>
-      <c r="R36" s="52">
-        <v>9</v>
-      </c>
-      <c r="S36" s="53">
-        <v>10</v>
-      </c>
-      <c r="U36" s="51">
-        <v>6</v>
-      </c>
-      <c r="V36" s="52">
-        <v>7</v>
-      </c>
-      <c r="W36" s="52">
-        <v>8</v>
-      </c>
-      <c r="X36" s="52">
-        <v>9</v>
-      </c>
-      <c r="Y36" s="53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:25" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="52">
-        <v>1</v>
-      </c>
-      <c r="D37" s="54">
-        <v>2</v>
-      </c>
-      <c r="E37" s="54">
-        <v>3</v>
-      </c>
-      <c r="F37" s="54">
-        <v>4</v>
-      </c>
-      <c r="G37" s="52">
-        <v>5</v>
-      </c>
-      <c r="I37" s="52">
-        <v>1</v>
-      </c>
-      <c r="J37" s="54">
-        <v>2</v>
-      </c>
-      <c r="K37" s="54">
-        <v>3</v>
-      </c>
-      <c r="L37" s="54">
-        <v>4</v>
-      </c>
-      <c r="M37" s="52">
-        <v>5</v>
-      </c>
-      <c r="O37" s="52">
-        <v>1</v>
-      </c>
-      <c r="P37" s="54">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="54">
-        <v>3</v>
-      </c>
-      <c r="R37" s="54">
-        <v>4</v>
-      </c>
-      <c r="S37" s="52">
-        <v>5</v>
-      </c>
-      <c r="U37" s="52">
-        <v>1</v>
-      </c>
-      <c r="V37" s="54">
-        <v>2</v>
-      </c>
-      <c r="W37" s="54">
-        <v>3</v>
-      </c>
-      <c r="X37" s="54">
-        <v>4</v>
-      </c>
-      <c r="Y37" s="52">
+      <c r="AE38" s="51">
         <v>5</v>
       </c>
     </row>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,92 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D9B1B-9F36-47BA-96CB-38FC5E596070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ECE51-144D-47FA-8D22-8C1BB0593028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="4420" windowWidth="21060" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5388" yWindow="1110" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3rd" sheetId="3" r:id="rId1"/>
+    <sheet name="5th" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>车主姓名</t>
-  </si>
-  <si>
-    <t>办公住宅电话</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>紧急联系人及电话</t>
-  </si>
-  <si>
-    <t>工作单位</t>
-  </si>
-  <si>
-    <t>家庭住址</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>办证日期</t>
-  </si>
-  <si>
-    <t>有效日期</t>
-  </si>
-  <si>
-    <t>办证类型</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>车证编号</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>车位编号</t>
-  </si>
-  <si>
-    <t>公司名称税号</t>
-  </si>
-  <si>
-    <t>周立隆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>京N0AY26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家气象中心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职工车证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区北三环西路47号院52号楼2单元5号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -101,23 +30,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -141,7 +61,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,18 +70,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -633,182 +547,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,683 +1153,1034 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.58203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="55">
+        <v>2</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57">
+        <v>3</v>
+      </c>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="V8" s="65">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="9" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="18">
+        <v>8</v>
+      </c>
+      <c r="K9" s="18">
+        <v>9</v>
+      </c>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="12">
+        <v>7</v>
+      </c>
+      <c r="P9" s="60">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>9</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="56"/>
+      <c r="V9" s="60">
+        <v>7</v>
+      </c>
+      <c r="W9" s="61">
+        <v>8</v>
+      </c>
+      <c r="X9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="60">
+        <v>4</v>
+      </c>
+      <c r="D10" s="61">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>58995338</v>
-      </c>
-      <c r="C2" s="2">
-        <v>13651356818</v>
-      </c>
-      <c r="D2" s="1">
-        <v>18813119320</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28"/>
-    </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58"/>
-    </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59"/>
-    </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60"/>
-    </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61"/>
-    </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62"/>
-    </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64"/>
-    </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65"/>
-    </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66"/>
-    </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="12">
+        <v>4</v>
+      </c>
+      <c r="J10" s="60">
+        <v>5</v>
+      </c>
+      <c r="K10" s="61">
+        <v>6</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="12">
+        <v>4</v>
+      </c>
+      <c r="P10" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="63">
+        <v>6</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="56"/>
+      <c r="V10" s="62">
+        <v>4</v>
+      </c>
+      <c r="W10" s="63">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="62">
+        <v>1</v>
+      </c>
+      <c r="D11" s="63">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="62">
+        <v>2</v>
+      </c>
+      <c r="K11" s="63">
+        <v>3</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="56"/>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="56"/>
+    </row>
+    <row r="13" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="56"/>
+    </row>
+    <row r="14" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+    </row>
+    <row r="15" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="58"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="56"/>
+    </row>
+    <row r="16" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="56"/>
+    </row>
+    <row r="17" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="56"/>
+    </row>
+    <row r="18" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="56"/>
+    </row>
+    <row r="19" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="56"/>
+    </row>
+    <row r="20" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+    </row>
+    <row r="21" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="58"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="56"/>
+    </row>
+    <row r="22" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="56"/>
+    </row>
+    <row r="23" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="56"/>
+    </row>
+    <row r="24" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="56"/>
+    </row>
+    <row r="25" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="56"/>
+    </row>
+    <row r="27" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="56"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+    </row>
+    <row r="28" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="56"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+    </row>
+    <row r="29" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="56"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+    </row>
+    <row r="30" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="56"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+    </row>
+    <row r="31" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="56"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+    </row>
+    <row r="32" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="56"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+    </row>
+    <row r="34" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+    </row>
+    <row r="35" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+    </row>
+    <row r="36" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+    </row>
+    <row r="37" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+    </row>
+    <row r="38" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="56"/>
+      <c r="AD40" s="56"/>
+      <c r="AE40" s="56"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="128" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1771,1553 +2189,1539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="256" width="2.6640625" customWidth="1"/>
+    <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P1" s="55"/>
-    </row>
-    <row r="2" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="26">
+    <row r="1" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="19">
         <v>21</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="18">
         <v>22</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="18">
         <v>23</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="18">
         <v>24</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="19">
+    <row r="3" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="12">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="1">
         <v>17</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="1">
         <v>18</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>19</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+    <row r="4" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="12">
         <v>11</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <v>14</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="19">
+    <row r="5" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="12">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="8">
+    <row r="6" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="45">
+    <row r="8" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="39">
         <v>2</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="26">
+    <row r="9" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="19">
         <v>21</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>22</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="18">
         <v>23</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <v>24</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="21">
         <v>21</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="18">
         <v>22</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="18">
         <v>23</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="18">
         <v>24</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="1">
         <v>25</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="19">
         <v>21</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="18">
         <v>22</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="18">
         <v>23</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="18">
         <v>24</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="19">
+    <row r="10" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="12">
         <v>16</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="9">
         <v>17</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>18</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <v>19</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="23">
         <v>16</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="24">
         <v>17</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="5">
         <v>18</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="2">
         <v>19</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="2">
         <v>20</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="14">
         <v>16</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="18">
         <v>17</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="18">
         <v>18</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="1">
         <v>19</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:19" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19">
+    <row r="11" spans="3:19" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="12">
         <v>11</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="10">
         <v>12</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="1">
         <v>13</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="6">
         <v>14</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="25">
         <v>11</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="1">
         <v>12</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="6">
         <v>13</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="2">
         <v>14</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="2">
         <v>15</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="17">
         <v>11</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="4">
         <v>12</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="5">
         <v>13</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="2">
         <v>14</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="19">
+    <row r="12" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="12">
         <v>6</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="11">
         <v>7</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="7">
         <v>8</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="26">
         <v>6</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="7">
         <v>7</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="2">
         <v>9</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="27">
         <v>6</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="1">
         <v>7</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="6">
         <v>8</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="2">
         <v>9</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+    <row r="13" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="3">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="3">
         <v>4</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="11">
         <v>1</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="28">
         <v>2</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="29">
         <v>3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="13">
         <v>4</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="47">
+    <row r="14" spans="3:19" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="40">
         <v>4</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="40">
         <v>5</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:19" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="26">
+    <row r="15" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="19">
         <v>21</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="18">
         <v>22</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="18">
         <v>23</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="18">
         <v>24</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="1">
         <v>25</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="19">
         <v>21</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="18">
         <v>22</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="18">
         <v>23</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="18">
         <v>24</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="1">
         <v>25</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="19">
         <v>21</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="18">
         <v>22</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="18">
         <v>23</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="18">
         <v>24</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:19" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19">
+    <row r="16" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="12">
         <v>16</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="18">
         <v>17</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>18</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="18">
         <v>19</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="2">
         <v>20</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="12">
         <v>16</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="1">
         <v>17</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="18">
         <v>18</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="18">
         <v>19</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="16">
         <v>20</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="12">
         <v>16</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="12">
         <v>17</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="9">
         <v>18</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="4">
         <v>19</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="19">
+    <row r="17" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="12">
         <v>11</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="9">
         <v>12</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="4">
         <v>13</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="12">
         <v>11</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="12">
         <v>12</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="9">
         <v>13</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="4">
         <v>14</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="31">
         <v>15</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="12">
         <v>11</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="12">
         <v>12</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="10">
         <v>13</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="1">
         <v>14</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19">
+    <row r="18" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <v>7</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="6">
         <v>9</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="12">
         <v>6</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="12">
         <v>7</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="10">
         <v>8</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="1">
         <v>9</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="20">
         <v>10</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="12">
         <v>6</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="12">
         <v>7</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="11">
         <v>8</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="7">
         <v>9</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:31" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="19">
+    <row r="19" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="30">
         <v>2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="28">
         <v>3</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="29">
         <v>4</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="15">
         <v>2</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="30">
         <v>3</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="28">
         <v>4</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="8">
         <v>5</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="1">
         <v>1</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="3">
         <v>3</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="3">
         <v>4</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:31" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48">
+    <row r="20" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="41">
         <v>7</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="39">
         <v>8</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="26">
+    <row r="21" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="19">
         <v>21</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="14">
         <v>22</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="33">
         <v>23</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="34">
         <v>24</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="5">
         <v>25</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="22">
         <v>21</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="33">
         <v>22</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="34">
         <v>23</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="35">
         <v>24</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="2">
         <v>25</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="36">
         <v>21</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="34">
         <v>22</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="35">
         <v>23</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="16">
         <v>24</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="19">
+    <row r="22" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="12">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="12">
         <v>17</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <v>18</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="1">
         <v>19</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="20">
         <v>20</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="12">
         <v>16</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="10">
         <v>17</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="1">
         <v>18</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="6">
         <v>19</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="2">
         <v>20</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="27">
         <v>16</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="1">
         <v>17</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="6">
         <v>18</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="2">
         <v>19</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="19">
+    <row r="23" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="12">
         <v>11</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="12">
         <v>12</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="11">
         <v>13</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="7">
         <v>14</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="32">
         <v>15</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="12">
         <v>11</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="11">
         <v>12</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="7">
         <v>13</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="8">
         <v>14</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="2">
         <v>15</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="26">
         <v>11</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="7">
         <v>12</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="8">
         <v>13</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="2">
         <v>14</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="19">
+    <row r="24" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="12">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="3">
         <v>9</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="13">
         <v>10</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="12">
         <v>6</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="3">
         <v>7</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="3">
         <v>8</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="3">
         <v>9</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="2">
         <v>10</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="15">
         <v>6</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="3">
         <v>7</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="3">
         <v>8</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="1">
         <v>9</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="8">
+    <row r="25" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="3">
         <v>3</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="3">
         <v>4</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="1">
         <v>5</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="3">
         <v>2</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="3">
         <v>3</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="3">
         <v>4</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="44">
+    <row r="27" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="37">
         <v>1</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="37">
         <v>2</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="37">
         <v>3</v>
       </c>
-      <c r="U27" s="44">
+      <c r="U27" s="37">
         <v>4</v>
       </c>
-      <c r="AA27" s="44">
+      <c r="AA27" s="37">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="26">
+    <row r="28" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="19">
         <v>21</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="18">
         <v>22</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="18">
         <v>23</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="18">
         <v>24</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="1">
         <v>25</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="19">
         <v>21</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="18">
         <v>22</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="18">
         <v>23</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="8"/>
-      <c r="O28" s="26">
+      <c r="L28" s="18"/>
+      <c r="M28" s="1"/>
+      <c r="O28" s="19">
         <v>21</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="18">
         <v>22</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="18">
         <v>23</v>
       </c>
-      <c r="R28" s="25">
+      <c r="R28" s="18">
         <v>24</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="U28" s="26">
+      <c r="S28" s="1"/>
+      <c r="U28" s="19">
         <v>21</v>
       </c>
-      <c r="V28" s="25">
+      <c r="V28" s="18">
         <v>22</v>
       </c>
-      <c r="W28" s="25">
+      <c r="W28" s="18">
         <v>23</v>
       </c>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="8"/>
-      <c r="AA28" s="26">
+      <c r="X28" s="18"/>
+      <c r="Y28" s="1"/>
+      <c r="AA28" s="19">
         <v>21</v>
       </c>
-      <c r="AB28" s="25">
+      <c r="AB28" s="18">
         <v>22</v>
       </c>
-      <c r="AC28" s="25">
+      <c r="AC28" s="18">
         <v>23</v>
       </c>
-      <c r="AD28" s="25">
+      <c r="AD28" s="18">
         <v>24</v>
       </c>
-      <c r="AE28" s="8"/>
-    </row>
-    <row r="29" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="19">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="12">
         <v>16</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="1">
         <v>17</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="1">
         <v>18</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="1">
         <v>19</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="2">
         <v>20</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="12">
         <v>16</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="1">
         <v>17</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="1">
         <v>18</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="O29" s="19">
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="12">
         <v>16</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="1">
         <v>17</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="1">
         <v>18</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="1">
         <v>19</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="U29" s="19">
+      <c r="S29" s="2"/>
+      <c r="U29" s="12">
         <v>16</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="1">
         <v>17</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="1">
         <v>18</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="1">
         <v>19</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="2">
         <v>20</v>
       </c>
-      <c r="AA29" s="19">
+      <c r="AA29" s="12">
         <v>16</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB29" s="1">
         <v>17</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AC29" s="1">
         <v>18</v>
       </c>
-      <c r="AD29" s="8">
+      <c r="AD29" s="1">
         <v>19</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AE29" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="19">
+    <row r="30" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="12">
         <v>11</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="1">
         <v>12</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="1">
         <v>13</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="1">
         <v>14</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="2">
         <v>15</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="12">
         <v>11</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="1">
         <v>12</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="1">
         <v>13</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="1">
         <v>14</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="2">
         <v>15</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="12">
         <v>11</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="1">
         <v>12</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="1">
         <v>13</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="1">
         <v>14</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="2">
         <v>15</v>
       </c>
-      <c r="U30" s="19">
+      <c r="U30" s="12">
         <v>11</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="1">
         <v>12</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="1">
         <v>13</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X30" s="1">
         <v>14</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="2">
         <v>15</v>
       </c>
-      <c r="AA30" s="19">
+      <c r="AA30" s="12">
         <v>11</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB30" s="1">
         <v>12</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="1">
         <v>13</v>
       </c>
-      <c r="AD30" s="8">
+      <c r="AD30" s="1">
         <v>14</v>
       </c>
-      <c r="AE30" s="9">
+      <c r="AE30" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="19">
+    <row r="31" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="12">
         <v>6</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="1">
         <v>7</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="1">
         <v>8</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="1">
         <v>9</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="12">
         <v>6</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="1">
         <v>7</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="1">
         <v>8</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="1">
         <v>9</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="2">
         <v>10</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="12">
         <v>6</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="1">
         <v>7</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="1">
         <v>8</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="1">
         <v>9</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="2">
         <v>10</v>
       </c>
-      <c r="U31" s="19">
+      <c r="U31" s="12">
         <v>6</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="1">
         <v>7</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W31" s="1">
         <v>8</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X31" s="1">
         <v>9</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Y31" s="2">
         <v>10</v>
       </c>
-      <c r="AA31" s="19">
+      <c r="AA31" s="12">
         <v>6</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB31" s="1">
         <v>7</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AC31" s="1">
         <v>8</v>
       </c>
-      <c r="AD31" s="8">
+      <c r="AD31" s="1">
         <v>9</v>
       </c>
-      <c r="AE31" s="9">
+      <c r="AE31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="8">
+    <row r="32" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="3">
         <v>2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="1">
         <v>5</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="3">
         <v>2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="3">
         <v>3</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="3">
         <v>4</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="1">
         <v>5</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="3">
         <v>2</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="3">
         <v>3</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="3">
         <v>4</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="1">
         <v>5</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="1">
         <v>1</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="3">
         <v>2</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W32" s="3">
         <v>3</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="3">
         <v>4</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="1">
         <v>5</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="1">
         <v>1</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="3">
         <v>2</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC32" s="3">
         <v>3</v>
       </c>
-      <c r="AD32" s="10">
+      <c r="AD32" s="3">
         <v>4</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="51">
+    <row r="34" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="44">
         <v>21</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="47">
         <v>22</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="47">
         <v>23</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="18">
         <v>24</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="1">
         <v>25</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="44">
         <v>21</v>
       </c>
-      <c r="P34" s="54">
+      <c r="P34" s="47">
         <v>22</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="Q34" s="47">
         <v>23</v>
       </c>
-      <c r="R34" s="54">
+      <c r="R34" s="47">
         <v>24</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="1">
         <v>25</v>
       </c>
-      <c r="U34" s="51">
+      <c r="U34" s="44">
         <v>21</v>
       </c>
-      <c r="V34" s="54">
+      <c r="V34" s="47">
         <v>22</v>
       </c>
-      <c r="W34" s="54">
+      <c r="W34" s="47">
         <v>23</v>
       </c>
-      <c r="X34" s="25">
+      <c r="X34" s="18">
         <v>24</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Y34" s="1">
         <v>25</v>
       </c>
-      <c r="AA34" s="51">
+      <c r="AA34" s="44">
         <v>21</v>
       </c>
-      <c r="AB34" s="54">
+      <c r="AB34" s="47">
         <v>22</v>
       </c>
-      <c r="AC34" s="54">
+      <c r="AC34" s="47">
         <v>23</v>
       </c>
-      <c r="AD34" s="54">
+      <c r="AD34" s="47">
         <v>24</v>
       </c>
-      <c r="AE34" s="8">
+      <c r="AE34" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="50">
+    <row r="35" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="43">
         <v>16</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="44">
         <v>17</v>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="44">
         <v>18</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="1">
         <v>19</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="2">
         <v>20</v>
       </c>
-      <c r="O35" s="50">
+      <c r="O35" s="43">
         <v>16</v>
       </c>
-      <c r="P35" s="51">
+      <c r="P35" s="44">
         <v>17</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35" s="44">
         <v>18</v>
       </c>
-      <c r="R35" s="51">
+      <c r="R35" s="44">
         <v>19</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="2">
         <v>20</v>
       </c>
-      <c r="U35" s="50">
+      <c r="U35" s="43">
         <v>16</v>
       </c>
-      <c r="V35" s="51">
+      <c r="V35" s="44">
         <v>17</v>
       </c>
-      <c r="W35" s="51">
+      <c r="W35" s="44">
         <v>18</v>
       </c>
-      <c r="X35" s="51">
+      <c r="X35" s="44">
         <v>19</v>
       </c>
-      <c r="Y35" s="52">
+      <c r="Y35" s="45">
         <v>20</v>
       </c>
-      <c r="AA35" s="50">
+      <c r="AA35" s="43">
         <v>16</v>
       </c>
-      <c r="AB35" s="51">
+      <c r="AB35" s="44">
         <v>17</v>
       </c>
-      <c r="AC35" s="51">
+      <c r="AC35" s="44">
         <v>18</v>
       </c>
-      <c r="AD35" s="51">
+      <c r="AD35" s="44">
         <v>19</v>
       </c>
-      <c r="AE35" s="52">
+      <c r="AE35" s="45">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="50">
+    <row r="36" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="43">
         <v>11</v>
       </c>
-      <c r="J36" s="51">
+      <c r="J36" s="44">
         <v>12</v>
       </c>
-      <c r="K36" s="51">
+      <c r="K36" s="44">
         <v>13</v>
       </c>
-      <c r="L36" s="51">
+      <c r="L36" s="44">
         <v>14</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="45">
         <v>15</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O36" s="43">
         <v>11</v>
       </c>
-      <c r="P36" s="51">
+      <c r="P36" s="44">
         <v>12</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="44">
         <v>13</v>
       </c>
-      <c r="R36" s="51">
+      <c r="R36" s="44">
         <v>14</v>
       </c>
-      <c r="S36" s="52">
+      <c r="S36" s="45">
         <v>15</v>
       </c>
-      <c r="U36" s="50">
+      <c r="U36" s="43">
         <v>11</v>
       </c>
-      <c r="V36" s="51">
+      <c r="V36" s="44">
         <v>12</v>
       </c>
-      <c r="W36" s="51">
+      <c r="W36" s="44">
         <v>13</v>
       </c>
-      <c r="X36" s="51">
+      <c r="X36" s="44">
         <v>14</v>
       </c>
-      <c r="Y36" s="52">
+      <c r="Y36" s="45">
         <v>15</v>
       </c>
-      <c r="AA36" s="50">
+      <c r="AA36" s="43">
         <v>11</v>
       </c>
-      <c r="AB36" s="51">
+      <c r="AB36" s="44">
         <v>12</v>
       </c>
-      <c r="AC36" s="51">
+      <c r="AC36" s="44">
         <v>13</v>
       </c>
-      <c r="AD36" s="51">
+      <c r="AD36" s="44">
         <v>14</v>
       </c>
-      <c r="AE36" s="52">
+      <c r="AE36" s="45">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="50">
+    <row r="37" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" s="43">
         <v>6</v>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="44">
         <v>7</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="44">
         <v>8</v>
       </c>
-      <c r="L37" s="51">
+      <c r="L37" s="44">
         <v>9</v>
       </c>
-      <c r="M37" s="52">
+      <c r="M37" s="45">
         <v>10</v>
       </c>
-      <c r="O37" s="50">
+      <c r="O37" s="43">
         <v>6</v>
       </c>
-      <c r="P37" s="51">
+      <c r="P37" s="44">
         <v>7</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="Q37" s="44">
         <v>8</v>
       </c>
-      <c r="R37" s="51">
+      <c r="R37" s="44">
         <v>9</v>
       </c>
-      <c r="S37" s="52">
+      <c r="S37" s="45">
         <v>10</v>
       </c>
-      <c r="U37" s="50">
+      <c r="U37" s="43">
         <v>6</v>
       </c>
-      <c r="V37" s="51">
+      <c r="V37" s="44">
         <v>7</v>
       </c>
-      <c r="W37" s="51">
+      <c r="W37" s="44">
         <v>8</v>
       </c>
-      <c r="X37" s="51">
+      <c r="X37" s="44">
         <v>9</v>
       </c>
-      <c r="Y37" s="52">
+      <c r="Y37" s="45">
         <v>10</v>
       </c>
-      <c r="AA37" s="50">
+      <c r="AA37" s="43">
         <v>6</v>
       </c>
-      <c r="AB37" s="51">
+      <c r="AB37" s="44">
         <v>7</v>
       </c>
-      <c r="AC37" s="51">
+      <c r="AC37" s="44">
         <v>8</v>
       </c>
-      <c r="AD37" s="51">
+      <c r="AD37" s="44">
         <v>9</v>
       </c>
-      <c r="AE37" s="52">
+      <c r="AE37" s="45">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="51">
+    <row r="38" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I38" s="44">
         <v>1</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="46">
         <v>2</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="46">
         <v>3</v>
       </c>
-      <c r="L38" s="53">
+      <c r="L38" s="46">
         <v>4</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="44">
         <v>5</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="44">
         <v>1</v>
       </c>
-      <c r="P38" s="53">
+      <c r="P38" s="46">
         <v>2</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="Q38" s="46">
         <v>3</v>
       </c>
-      <c r="R38" s="53">
+      <c r="R38" s="46">
         <v>4</v>
       </c>
-      <c r="S38" s="51">
+      <c r="S38" s="44">
         <v>5</v>
       </c>
-      <c r="U38" s="51">
+      <c r="U38" s="44">
         <v>1</v>
       </c>
-      <c r="V38" s="53">
+      <c r="V38" s="46">
         <v>2</v>
       </c>
-      <c r="W38" s="53">
+      <c r="W38" s="46">
         <v>3</v>
       </c>
-      <c r="X38" s="53">
+      <c r="X38" s="46">
         <v>4</v>
       </c>
-      <c r="Y38" s="51">
+      <c r="Y38" s="44">
         <v>5</v>
       </c>
-      <c r="AA38" s="51">
+      <c r="AA38" s="44">
         <v>1</v>
       </c>
-      <c r="AB38" s="53">
+      <c r="AB38" s="46">
         <v>2</v>
       </c>
-      <c r="AC38" s="53">
+      <c r="AC38" s="46">
         <v>3</v>
       </c>
-      <c r="AD38" s="53">
+      <c r="AD38" s="46">
         <v>4</v>
       </c>
-      <c r="AE38" s="51">
+      <c r="AE38" s="44">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,21 +8,303 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ECE51-144D-47FA-8D22-8C1BB0593028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E4C8E-E42C-41AA-8C34-E7D4F4BE01CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="1110" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="1446" windowWidth="16650" windowHeight="10206" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
     <sheet name="5th" sheetId="2" r:id="rId2"/>
+    <sheet name="7th" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -60,6 +342,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -75,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -670,6 +957,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +1230,156 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
@@ -3724,4 +4228,5638 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
+  <dimension ref="B1:AT83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AD75" sqref="AD75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="256" width="2.6484375" style="66" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="68"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="68"/>
+      <c r="C3" s="77">
+        <v>43</v>
+      </c>
+      <c r="D3" s="77">
+        <v>44</v>
+      </c>
+      <c r="E3" s="77">
+        <v>45</v>
+      </c>
+      <c r="F3" s="77">
+        <v>46</v>
+      </c>
+      <c r="G3" s="77">
+        <v>47</v>
+      </c>
+      <c r="H3" s="77">
+        <v>48</v>
+      </c>
+      <c r="I3" s="77">
+        <v>49</v>
+      </c>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="68"/>
+      <c r="C4" s="77">
+        <v>36</v>
+      </c>
+      <c r="D4" s="81">
+        <v>37</v>
+      </c>
+      <c r="E4" s="81">
+        <v>38</v>
+      </c>
+      <c r="F4" s="81">
+        <v>39</v>
+      </c>
+      <c r="G4" s="81">
+        <v>40</v>
+      </c>
+      <c r="H4" s="81">
+        <v>41</v>
+      </c>
+      <c r="I4" s="78">
+        <v>42</v>
+      </c>
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="68"/>
+      <c r="C5" s="77">
+        <v>29</v>
+      </c>
+      <c r="D5" s="77">
+        <v>30</v>
+      </c>
+      <c r="E5" s="77">
+        <v>31</v>
+      </c>
+      <c r="F5" s="77">
+        <v>32</v>
+      </c>
+      <c r="G5" s="77">
+        <v>33</v>
+      </c>
+      <c r="H5" s="77">
+        <v>34</v>
+      </c>
+      <c r="I5" s="77">
+        <v>35</v>
+      </c>
+      <c r="J5" s="69"/>
+    </row>
+    <row r="6" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="68"/>
+      <c r="C6" s="77">
+        <v>22</v>
+      </c>
+      <c r="D6" s="81">
+        <v>23</v>
+      </c>
+      <c r="E6" s="81">
+        <v>24</v>
+      </c>
+      <c r="F6" s="81">
+        <v>25</v>
+      </c>
+      <c r="G6" s="81">
+        <v>26</v>
+      </c>
+      <c r="H6" s="81">
+        <v>27</v>
+      </c>
+      <c r="I6" s="78">
+        <v>28</v>
+      </c>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.45">
+      <c r="B7" s="68"/>
+      <c r="C7" s="77">
+        <v>15</v>
+      </c>
+      <c r="D7" s="77">
+        <v>16</v>
+      </c>
+      <c r="E7" s="77">
+        <v>17</v>
+      </c>
+      <c r="F7" s="77">
+        <v>18</v>
+      </c>
+      <c r="G7" s="77">
+        <v>19</v>
+      </c>
+      <c r="H7" s="77">
+        <v>20</v>
+      </c>
+      <c r="I7" s="77">
+        <v>21</v>
+      </c>
+      <c r="J7" s="69"/>
+    </row>
+    <row r="8" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="68"/>
+      <c r="C8" s="77">
+        <v>8</v>
+      </c>
+      <c r="D8" s="81">
+        <v>9</v>
+      </c>
+      <c r="E8" s="81">
+        <v>10</v>
+      </c>
+      <c r="F8" s="81">
+        <v>11</v>
+      </c>
+      <c r="G8" s="81">
+        <v>12</v>
+      </c>
+      <c r="H8" s="81">
+        <v>13</v>
+      </c>
+      <c r="I8" s="78">
+        <v>14</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="V8" s="70"/>
+    </row>
+    <row r="9" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="77">
+        <v>1</v>
+      </c>
+      <c r="D9" s="77">
+        <v>2</v>
+      </c>
+      <c r="E9" s="77">
+        <v>3</v>
+      </c>
+      <c r="F9" s="77">
+        <v>4</v>
+      </c>
+      <c r="G9" s="77">
+        <v>5</v>
+      </c>
+      <c r="H9" s="77">
+        <v>6</v>
+      </c>
+      <c r="I9" s="77">
+        <v>7</v>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+    </row>
+    <row r="11" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+    </row>
+    <row r="12" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="U12" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="77">
+        <v>43</v>
+      </c>
+      <c r="D13" s="77">
+        <v>44</v>
+      </c>
+      <c r="E13" s="77">
+        <v>45</v>
+      </c>
+      <c r="F13" s="77">
+        <v>46</v>
+      </c>
+      <c r="G13" s="77">
+        <v>47</v>
+      </c>
+      <c r="H13" s="77">
+        <v>48</v>
+      </c>
+      <c r="I13" s="77">
+        <v>49</v>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="77">
+        <v>43</v>
+      </c>
+      <c r="M13" s="77">
+        <v>44</v>
+      </c>
+      <c r="N13" s="77">
+        <v>45</v>
+      </c>
+      <c r="O13" s="77">
+        <v>46</v>
+      </c>
+      <c r="P13" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="77">
+        <v>48</v>
+      </c>
+      <c r="R13" s="77">
+        <v>49</v>
+      </c>
+      <c r="S13" s="72"/>
+      <c r="U13" s="77">
+        <v>43</v>
+      </c>
+      <c r="V13" s="77">
+        <v>44</v>
+      </c>
+      <c r="W13" s="77">
+        <v>45</v>
+      </c>
+      <c r="X13" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="77">
+        <v>49</v>
+      </c>
+      <c r="AD13" s="77">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="77">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="77">
+        <v>45</v>
+      </c>
+      <c r="AG13" s="77">
+        <v>46</v>
+      </c>
+      <c r="AH13" s="77">
+        <v>47</v>
+      </c>
+      <c r="AI13" s="77">
+        <v>48</v>
+      </c>
+      <c r="AJ13" s="77">
+        <v>49</v>
+      </c>
+      <c r="AM13" s="77">
+        <v>43</v>
+      </c>
+      <c r="AN13" s="77">
+        <v>44</v>
+      </c>
+      <c r="AO13" s="77">
+        <v>45</v>
+      </c>
+      <c r="AP13" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ13" s="77">
+        <v>47</v>
+      </c>
+      <c r="AR13" s="77">
+        <v>48</v>
+      </c>
+      <c r="AS13" s="77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="77">
+        <v>36</v>
+      </c>
+      <c r="D14" s="81">
+        <v>37</v>
+      </c>
+      <c r="E14" s="81">
+        <v>38</v>
+      </c>
+      <c r="F14" s="81">
+        <v>39</v>
+      </c>
+      <c r="G14" s="81">
+        <v>40</v>
+      </c>
+      <c r="H14" s="81">
+        <v>41</v>
+      </c>
+      <c r="I14" s="78">
+        <v>42</v>
+      </c>
+      <c r="L14" s="77">
+        <v>36</v>
+      </c>
+      <c r="M14" s="81">
+        <v>37</v>
+      </c>
+      <c r="N14" s="81">
+        <v>38</v>
+      </c>
+      <c r="O14" s="81">
+        <v>39</v>
+      </c>
+      <c r="P14" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="81">
+        <v>41</v>
+      </c>
+      <c r="R14" s="78">
+        <v>42</v>
+      </c>
+      <c r="U14" s="77">
+        <v>36</v>
+      </c>
+      <c r="V14" s="81">
+        <v>37</v>
+      </c>
+      <c r="W14" s="81">
+        <v>38</v>
+      </c>
+      <c r="X14" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="81">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="81">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="78">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="77">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="81">
+        <v>37</v>
+      </c>
+      <c r="AF14" s="81">
+        <v>38</v>
+      </c>
+      <c r="AG14" s="81">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="81">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="81">
+        <v>41</v>
+      </c>
+      <c r="AJ14" s="78">
+        <v>42</v>
+      </c>
+      <c r="AM14" s="77">
+        <v>36</v>
+      </c>
+      <c r="AN14" s="81">
+        <v>37</v>
+      </c>
+      <c r="AO14" s="81">
+        <v>38</v>
+      </c>
+      <c r="AP14" s="81">
+        <v>39</v>
+      </c>
+      <c r="AQ14" s="81">
+        <v>40</v>
+      </c>
+      <c r="AR14" s="81">
+        <v>41</v>
+      </c>
+      <c r="AS14" s="78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="77">
+        <v>29</v>
+      </c>
+      <c r="D15" s="77">
+        <v>30</v>
+      </c>
+      <c r="E15" s="77">
+        <v>31</v>
+      </c>
+      <c r="F15" s="77">
+        <v>32</v>
+      </c>
+      <c r="G15" s="77">
+        <v>33</v>
+      </c>
+      <c r="H15" s="77">
+        <v>34</v>
+      </c>
+      <c r="I15" s="77">
+        <v>35</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="77">
+        <v>29</v>
+      </c>
+      <c r="M15" s="77">
+        <v>30</v>
+      </c>
+      <c r="N15" s="77">
+        <v>31</v>
+      </c>
+      <c r="O15" s="77">
+        <v>32</v>
+      </c>
+      <c r="P15" s="77">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="77">
+        <v>34</v>
+      </c>
+      <c r="R15" s="77">
+        <v>35</v>
+      </c>
+      <c r="S15" s="72"/>
+      <c r="U15" s="77">
+        <v>29</v>
+      </c>
+      <c r="V15" s="77">
+        <v>30</v>
+      </c>
+      <c r="W15" s="77">
+        <v>31</v>
+      </c>
+      <c r="X15" s="77">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="77">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="77">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="77">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="77">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="77">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="77">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="77">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="77">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="77">
+        <v>34</v>
+      </c>
+      <c r="AJ15" s="77">
+        <v>35</v>
+      </c>
+      <c r="AM15" s="77">
+        <v>29</v>
+      </c>
+      <c r="AN15" s="77">
+        <v>30</v>
+      </c>
+      <c r="AO15" s="77">
+        <v>31</v>
+      </c>
+      <c r="AP15" s="77">
+        <v>32</v>
+      </c>
+      <c r="AQ15" s="77">
+        <v>33</v>
+      </c>
+      <c r="AR15" s="77">
+        <v>34</v>
+      </c>
+      <c r="AS15" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="86">
+        <v>22</v>
+      </c>
+      <c r="D16" s="87">
+        <v>23</v>
+      </c>
+      <c r="E16" s="87">
+        <v>24</v>
+      </c>
+      <c r="F16" s="81">
+        <v>25</v>
+      </c>
+      <c r="G16" s="81">
+        <v>26</v>
+      </c>
+      <c r="H16" s="81">
+        <v>27</v>
+      </c>
+      <c r="I16" s="78">
+        <v>28</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="77">
+        <v>22</v>
+      </c>
+      <c r="M16" s="87">
+        <v>23</v>
+      </c>
+      <c r="N16" s="87">
+        <v>24</v>
+      </c>
+      <c r="O16" s="87">
+        <v>25</v>
+      </c>
+      <c r="P16" s="81">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="81">
+        <v>27</v>
+      </c>
+      <c r="R16" s="78">
+        <v>28</v>
+      </c>
+      <c r="S16" s="72"/>
+      <c r="U16" s="77">
+        <v>22</v>
+      </c>
+      <c r="V16" s="81">
+        <v>23</v>
+      </c>
+      <c r="W16" s="87">
+        <v>24</v>
+      </c>
+      <c r="X16" s="87">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="87">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="81">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="78">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="77">
+        <v>22</v>
+      </c>
+      <c r="AE16" s="81">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="81">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="87">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="87">
+        <v>26</v>
+      </c>
+      <c r="AI16" s="87">
+        <v>27</v>
+      </c>
+      <c r="AJ16" s="78">
+        <v>28</v>
+      </c>
+      <c r="AM16" s="77">
+        <v>22</v>
+      </c>
+      <c r="AN16" s="81">
+        <v>23</v>
+      </c>
+      <c r="AO16" s="81">
+        <v>24</v>
+      </c>
+      <c r="AP16" s="81">
+        <v>25</v>
+      </c>
+      <c r="AQ16" s="87">
+        <v>26</v>
+      </c>
+      <c r="AR16" s="87">
+        <v>27</v>
+      </c>
+      <c r="AS16" s="102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="68"/>
+      <c r="C17" s="89">
+        <v>15</v>
+      </c>
+      <c r="D17" s="90">
+        <v>16</v>
+      </c>
+      <c r="E17" s="91">
+        <v>17</v>
+      </c>
+      <c r="F17" s="84">
+        <v>18</v>
+      </c>
+      <c r="G17" s="77">
+        <v>19</v>
+      </c>
+      <c r="H17" s="77">
+        <v>20</v>
+      </c>
+      <c r="I17" s="77">
+        <v>21</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="98">
+        <v>15</v>
+      </c>
+      <c r="M17" s="89">
+        <v>16</v>
+      </c>
+      <c r="N17" s="90">
+        <v>17</v>
+      </c>
+      <c r="O17" s="91">
+        <v>18</v>
+      </c>
+      <c r="P17" s="84">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="77">
+        <v>20</v>
+      </c>
+      <c r="R17" s="77">
+        <v>21</v>
+      </c>
+      <c r="S17" s="72"/>
+      <c r="U17" s="77">
+        <v>15</v>
+      </c>
+      <c r="V17" s="98">
+        <v>16</v>
+      </c>
+      <c r="W17" s="89">
+        <v>17</v>
+      </c>
+      <c r="X17" s="90">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="91">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="84">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="77">
+        <v>21</v>
+      </c>
+      <c r="AD17" s="77">
+        <v>15</v>
+      </c>
+      <c r="AE17" s="77">
+        <v>16</v>
+      </c>
+      <c r="AF17" s="98">
+        <v>17</v>
+      </c>
+      <c r="AG17" s="89">
+        <v>18</v>
+      </c>
+      <c r="AH17" s="90">
+        <v>19</v>
+      </c>
+      <c r="AI17" s="91">
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="84">
+        <v>21</v>
+      </c>
+      <c r="AM17" s="77">
+        <v>15</v>
+      </c>
+      <c r="AN17" s="77">
+        <v>16</v>
+      </c>
+      <c r="AO17" s="77">
+        <v>17</v>
+      </c>
+      <c r="AP17" s="98">
+        <v>18</v>
+      </c>
+      <c r="AQ17" s="89">
+        <v>19</v>
+      </c>
+      <c r="AR17" s="90">
+        <v>20</v>
+      </c>
+      <c r="AS17" s="91">
+        <v>21</v>
+      </c>
+      <c r="AT17" s="69"/>
+    </row>
+    <row r="18" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="68"/>
+      <c r="C18" s="92">
+        <v>8</v>
+      </c>
+      <c r="D18" s="81">
+        <v>9</v>
+      </c>
+      <c r="E18" s="93">
+        <v>10</v>
+      </c>
+      <c r="F18" s="85">
+        <v>11</v>
+      </c>
+      <c r="G18" s="81">
+        <v>12</v>
+      </c>
+      <c r="H18" s="81">
+        <v>13</v>
+      </c>
+      <c r="I18" s="78">
+        <v>14</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="98">
+        <v>8</v>
+      </c>
+      <c r="M18" s="100">
+        <v>9</v>
+      </c>
+      <c r="N18" s="81">
+        <v>10</v>
+      </c>
+      <c r="O18" s="93">
+        <v>11</v>
+      </c>
+      <c r="P18" s="85">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="81">
+        <v>13</v>
+      </c>
+      <c r="R18" s="78">
+        <v>14</v>
+      </c>
+      <c r="S18" s="72"/>
+      <c r="U18" s="77">
+        <v>8</v>
+      </c>
+      <c r="V18" s="101">
+        <v>9</v>
+      </c>
+      <c r="W18" s="100">
+        <v>10</v>
+      </c>
+      <c r="X18" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="93">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="85">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="78">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="77">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="100">
+        <v>11</v>
+      </c>
+      <c r="AH18" s="81">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="93">
+        <v>13</v>
+      </c>
+      <c r="AJ18" s="99">
+        <v>14</v>
+      </c>
+      <c r="AM18" s="77">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="81">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="81">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="101">
+        <v>11</v>
+      </c>
+      <c r="AQ18" s="100">
+        <v>12</v>
+      </c>
+      <c r="AR18" s="81">
+        <v>13</v>
+      </c>
+      <c r="AS18" s="103">
+        <v>14</v>
+      </c>
+      <c r="AT18" s="69"/>
+    </row>
+    <row r="19" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="68"/>
+      <c r="C19" s="95">
+        <v>1</v>
+      </c>
+      <c r="D19" s="96">
+        <v>2</v>
+      </c>
+      <c r="E19" s="97">
+        <v>3</v>
+      </c>
+      <c r="F19" s="84">
+        <v>4</v>
+      </c>
+      <c r="G19" s="77">
+        <v>5</v>
+      </c>
+      <c r="H19" s="77">
+        <v>6</v>
+      </c>
+      <c r="I19" s="77">
+        <v>7</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="98">
+        <v>1</v>
+      </c>
+      <c r="M19" s="95">
+        <v>2</v>
+      </c>
+      <c r="N19" s="96">
+        <v>3</v>
+      </c>
+      <c r="O19" s="97">
+        <v>4</v>
+      </c>
+      <c r="P19" s="84">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="77">
+        <v>6</v>
+      </c>
+      <c r="R19" s="77">
+        <v>7</v>
+      </c>
+      <c r="S19" s="72"/>
+      <c r="U19" s="77">
+        <v>1</v>
+      </c>
+      <c r="V19" s="98">
+        <v>2</v>
+      </c>
+      <c r="W19" s="95">
+        <v>3</v>
+      </c>
+      <c r="X19" s="96">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="97">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="84">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="77">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="77">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="98">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="95">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="96">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="97">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="84">
+        <v>7</v>
+      </c>
+      <c r="AM19" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="77">
+        <v>3</v>
+      </c>
+      <c r="AP19" s="98">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="95">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="96">
+        <v>6</v>
+      </c>
+      <c r="AS19" s="97">
+        <v>7</v>
+      </c>
+      <c r="AT19" s="69"/>
+    </row>
+    <row r="20" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="88"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="88"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+    </row>
+    <row r="21" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="72"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="U21" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="77">
+        <v>43</v>
+      </c>
+      <c r="D22" s="77">
+        <v>44</v>
+      </c>
+      <c r="E22" s="77">
+        <v>45</v>
+      </c>
+      <c r="F22" s="77">
+        <v>46</v>
+      </c>
+      <c r="G22" s="77">
+        <v>47</v>
+      </c>
+      <c r="H22" s="77">
+        <v>48</v>
+      </c>
+      <c r="I22" s="77">
+        <v>49</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="77">
+        <v>43</v>
+      </c>
+      <c r="M22" s="77">
+        <v>44</v>
+      </c>
+      <c r="N22" s="77">
+        <v>45</v>
+      </c>
+      <c r="O22" s="77">
+        <v>46</v>
+      </c>
+      <c r="P22" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="77">
+        <v>48</v>
+      </c>
+      <c r="R22" s="77">
+        <v>49</v>
+      </c>
+      <c r="S22" s="72"/>
+      <c r="U22" s="77">
+        <v>43</v>
+      </c>
+      <c r="V22" s="77">
+        <v>44</v>
+      </c>
+      <c r="W22" s="77">
+        <v>45</v>
+      </c>
+      <c r="X22" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z22" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="77">
+        <v>49</v>
+      </c>
+      <c r="AD22" s="77">
+        <v>43</v>
+      </c>
+      <c r="AE22" s="77">
+        <v>44</v>
+      </c>
+      <c r="AF22" s="77">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="77">
+        <v>46</v>
+      </c>
+      <c r="AH22" s="77">
+        <v>47</v>
+      </c>
+      <c r="AI22" s="77">
+        <v>48</v>
+      </c>
+      <c r="AJ22" s="77">
+        <v>49</v>
+      </c>
+      <c r="AM22" s="77">
+        <v>43</v>
+      </c>
+      <c r="AN22" s="77">
+        <v>44</v>
+      </c>
+      <c r="AO22" s="77">
+        <v>45</v>
+      </c>
+      <c r="AP22" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ22" s="77">
+        <v>47</v>
+      </c>
+      <c r="AR22" s="77">
+        <v>48</v>
+      </c>
+      <c r="AS22" s="77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="77">
+        <v>36</v>
+      </c>
+      <c r="D23" s="81">
+        <v>37</v>
+      </c>
+      <c r="E23" s="81">
+        <v>38</v>
+      </c>
+      <c r="F23" s="81">
+        <v>39</v>
+      </c>
+      <c r="G23" s="81">
+        <v>40</v>
+      </c>
+      <c r="H23" s="81">
+        <v>41</v>
+      </c>
+      <c r="I23" s="78">
+        <v>42</v>
+      </c>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="77">
+        <v>36</v>
+      </c>
+      <c r="M23" s="81">
+        <v>37</v>
+      </c>
+      <c r="N23" s="81">
+        <v>38</v>
+      </c>
+      <c r="O23" s="81">
+        <v>39</v>
+      </c>
+      <c r="P23" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="81">
+        <v>41</v>
+      </c>
+      <c r="R23" s="78">
+        <v>42</v>
+      </c>
+      <c r="S23" s="72"/>
+      <c r="U23" s="77">
+        <v>36</v>
+      </c>
+      <c r="V23" s="81">
+        <v>37</v>
+      </c>
+      <c r="W23" s="81">
+        <v>38</v>
+      </c>
+      <c r="X23" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="81">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="81">
+        <v>41</v>
+      </c>
+      <c r="AA23" s="78">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="77">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="81">
+        <v>37</v>
+      </c>
+      <c r="AF23" s="81">
+        <v>38</v>
+      </c>
+      <c r="AG23" s="81">
+        <v>39</v>
+      </c>
+      <c r="AH23" s="81">
+        <v>40</v>
+      </c>
+      <c r="AI23" s="81">
+        <v>41</v>
+      </c>
+      <c r="AJ23" s="78">
+        <v>42</v>
+      </c>
+      <c r="AM23" s="77">
+        <v>36</v>
+      </c>
+      <c r="AN23" s="81">
+        <v>37</v>
+      </c>
+      <c r="AO23" s="81">
+        <v>38</v>
+      </c>
+      <c r="AP23" s="81">
+        <v>39</v>
+      </c>
+      <c r="AQ23" s="81">
+        <v>40</v>
+      </c>
+      <c r="AR23" s="81">
+        <v>41</v>
+      </c>
+      <c r="AS23" s="78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="86">
+        <v>29</v>
+      </c>
+      <c r="D24" s="86">
+        <v>30</v>
+      </c>
+      <c r="E24" s="86">
+        <v>31</v>
+      </c>
+      <c r="F24" s="77">
+        <v>32</v>
+      </c>
+      <c r="G24" s="77">
+        <v>33</v>
+      </c>
+      <c r="H24" s="77">
+        <v>34</v>
+      </c>
+      <c r="I24" s="77">
+        <v>35</v>
+      </c>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="77">
+        <v>29</v>
+      </c>
+      <c r="M24" s="86">
+        <v>30</v>
+      </c>
+      <c r="N24" s="86">
+        <v>31</v>
+      </c>
+      <c r="O24" s="86">
+        <v>32</v>
+      </c>
+      <c r="P24" s="77">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="77">
+        <v>34</v>
+      </c>
+      <c r="R24" s="77">
+        <v>35</v>
+      </c>
+      <c r="S24" s="72"/>
+      <c r="U24" s="77">
+        <v>29</v>
+      </c>
+      <c r="V24" s="77">
+        <v>30</v>
+      </c>
+      <c r="W24" s="86">
+        <v>31</v>
+      </c>
+      <c r="X24" s="86">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="86">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="77">
+        <v>34</v>
+      </c>
+      <c r="AA24" s="77">
+        <v>35</v>
+      </c>
+      <c r="AD24" s="77">
+        <v>29</v>
+      </c>
+      <c r="AE24" s="77">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="77">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="86">
+        <v>32</v>
+      </c>
+      <c r="AH24" s="86">
+        <v>33</v>
+      </c>
+      <c r="AI24" s="86">
+        <v>34</v>
+      </c>
+      <c r="AJ24" s="77">
+        <v>35</v>
+      </c>
+      <c r="AM24" s="77">
+        <v>29</v>
+      </c>
+      <c r="AN24" s="77">
+        <v>30</v>
+      </c>
+      <c r="AO24" s="77">
+        <v>31</v>
+      </c>
+      <c r="AP24" s="77">
+        <v>32</v>
+      </c>
+      <c r="AQ24" s="86">
+        <v>33</v>
+      </c>
+      <c r="AR24" s="86">
+        <v>34</v>
+      </c>
+      <c r="AS24" s="86">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="68"/>
+      <c r="C25" s="89">
+        <v>22</v>
+      </c>
+      <c r="D25" s="105">
+        <v>23</v>
+      </c>
+      <c r="E25" s="106">
+        <v>24</v>
+      </c>
+      <c r="F25" s="85">
+        <v>25</v>
+      </c>
+      <c r="G25" s="81">
+        <v>26</v>
+      </c>
+      <c r="H25" s="81">
+        <v>27</v>
+      </c>
+      <c r="I25" s="78">
+        <v>28</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="98">
+        <v>22</v>
+      </c>
+      <c r="M25" s="109">
+        <v>23</v>
+      </c>
+      <c r="N25" s="105">
+        <v>24</v>
+      </c>
+      <c r="O25" s="106">
+        <v>25</v>
+      </c>
+      <c r="P25" s="85">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="81">
+        <v>27</v>
+      </c>
+      <c r="R25" s="78">
+        <v>28</v>
+      </c>
+      <c r="S25" s="72"/>
+      <c r="U25" s="77">
+        <v>22</v>
+      </c>
+      <c r="V25" s="101">
+        <v>23</v>
+      </c>
+      <c r="W25" s="109">
+        <v>24</v>
+      </c>
+      <c r="X25" s="105">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="106">
+        <v>26</v>
+      </c>
+      <c r="Z25" s="85">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="78">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="77">
+        <v>22</v>
+      </c>
+      <c r="AE25" s="81">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="101">
+        <v>24</v>
+      </c>
+      <c r="AG25" s="109">
+        <v>25</v>
+      </c>
+      <c r="AH25" s="105">
+        <v>26</v>
+      </c>
+      <c r="AI25" s="106">
+        <v>27</v>
+      </c>
+      <c r="AJ25" s="99">
+        <v>28</v>
+      </c>
+      <c r="AM25" s="77">
+        <v>22</v>
+      </c>
+      <c r="AN25" s="81">
+        <v>23</v>
+      </c>
+      <c r="AO25" s="81">
+        <v>24</v>
+      </c>
+      <c r="AP25" s="101">
+        <v>25</v>
+      </c>
+      <c r="AQ25" s="109">
+        <v>26</v>
+      </c>
+      <c r="AR25" s="105">
+        <v>27</v>
+      </c>
+      <c r="AS25" s="111">
+        <v>28</v>
+      </c>
+      <c r="AT25" s="69"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B26" s="68"/>
+      <c r="C26" s="92">
+        <v>15</v>
+      </c>
+      <c r="D26" s="77">
+        <v>16</v>
+      </c>
+      <c r="E26" s="94">
+        <v>17</v>
+      </c>
+      <c r="F26" s="84">
+        <v>18</v>
+      </c>
+      <c r="G26" s="77">
+        <v>19</v>
+      </c>
+      <c r="H26" s="77">
+        <v>20</v>
+      </c>
+      <c r="I26" s="77">
+        <v>21</v>
+      </c>
+      <c r="L26" s="98">
+        <v>15</v>
+      </c>
+      <c r="M26" s="92">
+        <v>16</v>
+      </c>
+      <c r="N26" s="77">
+        <v>17</v>
+      </c>
+      <c r="O26" s="94">
+        <v>18</v>
+      </c>
+      <c r="P26" s="84">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="77">
+        <v>20</v>
+      </c>
+      <c r="R26" s="77">
+        <v>21</v>
+      </c>
+      <c r="U26" s="77">
+        <v>15</v>
+      </c>
+      <c r="V26" s="98">
+        <v>16</v>
+      </c>
+      <c r="W26" s="92">
+        <v>17</v>
+      </c>
+      <c r="X26" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="94">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="84">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="77">
+        <v>21</v>
+      </c>
+      <c r="AD26" s="77">
+        <v>15</v>
+      </c>
+      <c r="AE26" s="77">
+        <v>16</v>
+      </c>
+      <c r="AF26" s="98">
+        <v>17</v>
+      </c>
+      <c r="AG26" s="92">
+        <v>18</v>
+      </c>
+      <c r="AH26" s="77">
+        <v>19</v>
+      </c>
+      <c r="AI26" s="94">
+        <v>20</v>
+      </c>
+      <c r="AJ26" s="84">
+        <v>21</v>
+      </c>
+      <c r="AM26" s="77">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="77">
+        <v>16</v>
+      </c>
+      <c r="AO26" s="77">
+        <v>17</v>
+      </c>
+      <c r="AP26" s="98">
+        <v>18</v>
+      </c>
+      <c r="AQ26" s="92">
+        <v>19</v>
+      </c>
+      <c r="AR26" s="77">
+        <v>20</v>
+      </c>
+      <c r="AS26" s="94">
+        <v>21</v>
+      </c>
+      <c r="AT26" s="69"/>
+    </row>
+    <row r="27" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="68"/>
+      <c r="C27" s="95">
+        <v>8</v>
+      </c>
+      <c r="D27" s="107">
+        <v>9</v>
+      </c>
+      <c r="E27" s="108">
+        <v>10</v>
+      </c>
+      <c r="F27" s="85">
+        <v>11</v>
+      </c>
+      <c r="G27" s="81">
+        <v>12</v>
+      </c>
+      <c r="H27" s="81">
+        <v>13</v>
+      </c>
+      <c r="I27" s="78">
+        <v>14</v>
+      </c>
+      <c r="L27" s="98">
+        <v>8</v>
+      </c>
+      <c r="M27" s="110">
+        <v>9</v>
+      </c>
+      <c r="N27" s="107">
+        <v>10</v>
+      </c>
+      <c r="O27" s="108">
+        <v>11</v>
+      </c>
+      <c r="P27" s="85">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="81">
+        <v>13</v>
+      </c>
+      <c r="R27" s="78">
+        <v>14</v>
+      </c>
+      <c r="U27" s="77">
+        <v>8</v>
+      </c>
+      <c r="V27" s="101">
+        <v>9</v>
+      </c>
+      <c r="W27" s="110">
+        <v>10</v>
+      </c>
+      <c r="X27" s="107">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="108">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="85">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="78">
+        <v>14</v>
+      </c>
+      <c r="AD27" s="77">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="101">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="110">
+        <v>11</v>
+      </c>
+      <c r="AH27" s="107">
+        <v>12</v>
+      </c>
+      <c r="AI27" s="108">
+        <v>13</v>
+      </c>
+      <c r="AJ27" s="99">
+        <v>14</v>
+      </c>
+      <c r="AM27" s="77">
+        <v>8</v>
+      </c>
+      <c r="AN27" s="81">
+        <v>9</v>
+      </c>
+      <c r="AO27" s="81">
+        <v>10</v>
+      </c>
+      <c r="AP27" s="101">
+        <v>11</v>
+      </c>
+      <c r="AQ27" s="110">
+        <v>12</v>
+      </c>
+      <c r="AR27" s="107">
+        <v>13</v>
+      </c>
+      <c r="AS27" s="112">
+        <v>14</v>
+      </c>
+      <c r="AT27" s="69"/>
+    </row>
+    <row r="28" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="104">
+        <v>1</v>
+      </c>
+      <c r="D28" s="104">
+        <v>2</v>
+      </c>
+      <c r="E28" s="104">
+        <v>3</v>
+      </c>
+      <c r="F28" s="77">
+        <v>4</v>
+      </c>
+      <c r="G28" s="77">
+        <v>5</v>
+      </c>
+      <c r="H28" s="77">
+        <v>6</v>
+      </c>
+      <c r="I28" s="77">
+        <v>7</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="77">
+        <v>1</v>
+      </c>
+      <c r="M28" s="104">
+        <v>2</v>
+      </c>
+      <c r="N28" s="104">
+        <v>3</v>
+      </c>
+      <c r="O28" s="104">
+        <v>4</v>
+      </c>
+      <c r="P28" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="77">
+        <v>6</v>
+      </c>
+      <c r="R28" s="77">
+        <v>7</v>
+      </c>
+      <c r="S28" s="72"/>
+      <c r="U28" s="77">
+        <v>1</v>
+      </c>
+      <c r="V28" s="77">
+        <v>2</v>
+      </c>
+      <c r="W28" s="104">
+        <v>3</v>
+      </c>
+      <c r="X28" s="104">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="104">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA28" s="77">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="77">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="104">
+        <v>4</v>
+      </c>
+      <c r="AH28" s="104">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="104">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="77">
+        <v>7</v>
+      </c>
+      <c r="AM28" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="77">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="77">
+        <v>4</v>
+      </c>
+      <c r="AQ28" s="104">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="104">
+        <v>6</v>
+      </c>
+      <c r="AS28" s="104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+    </row>
+    <row r="30" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="U30" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE30" s="72"/>
+      <c r="AM30" s="83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="77">
+        <v>43</v>
+      </c>
+      <c r="D31" s="77">
+        <v>44</v>
+      </c>
+      <c r="E31" s="77">
+        <v>45</v>
+      </c>
+      <c r="F31" s="77">
+        <v>46</v>
+      </c>
+      <c r="G31" s="77">
+        <v>47</v>
+      </c>
+      <c r="H31" s="77">
+        <v>48</v>
+      </c>
+      <c r="I31" s="77">
+        <v>49</v>
+      </c>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="77">
+        <v>43</v>
+      </c>
+      <c r="M31" s="77">
+        <v>44</v>
+      </c>
+      <c r="N31" s="77">
+        <v>45</v>
+      </c>
+      <c r="O31" s="77">
+        <v>46</v>
+      </c>
+      <c r="P31" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="77">
+        <v>48</v>
+      </c>
+      <c r="R31" s="77">
+        <v>49</v>
+      </c>
+      <c r="S31" s="72"/>
+      <c r="U31" s="77">
+        <v>43</v>
+      </c>
+      <c r="V31" s="77">
+        <v>44</v>
+      </c>
+      <c r="W31" s="77">
+        <v>45</v>
+      </c>
+      <c r="X31" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y31" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z31" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA31" s="77">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="77">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="77">
+        <v>44</v>
+      </c>
+      <c r="AF31" s="77">
+        <v>45</v>
+      </c>
+      <c r="AG31" s="77">
+        <v>46</v>
+      </c>
+      <c r="AH31" s="77">
+        <v>47</v>
+      </c>
+      <c r="AI31" s="77">
+        <v>48</v>
+      </c>
+      <c r="AJ31" s="77">
+        <v>49</v>
+      </c>
+      <c r="AM31" s="77">
+        <v>43</v>
+      </c>
+      <c r="AN31" s="77">
+        <v>44</v>
+      </c>
+      <c r="AO31" s="77">
+        <v>45</v>
+      </c>
+      <c r="AP31" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ31" s="77">
+        <v>47</v>
+      </c>
+      <c r="AR31" s="77">
+        <v>48</v>
+      </c>
+      <c r="AS31" s="77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C32" s="86">
+        <v>36</v>
+      </c>
+      <c r="D32" s="87">
+        <v>37</v>
+      </c>
+      <c r="E32" s="87">
+        <v>38</v>
+      </c>
+      <c r="F32" s="81">
+        <v>39</v>
+      </c>
+      <c r="G32" s="81">
+        <v>40</v>
+      </c>
+      <c r="H32" s="81">
+        <v>41</v>
+      </c>
+      <c r="I32" s="78">
+        <v>42</v>
+      </c>
+      <c r="L32" s="77">
+        <v>36</v>
+      </c>
+      <c r="M32" s="87">
+        <v>37</v>
+      </c>
+      <c r="N32" s="87">
+        <v>38</v>
+      </c>
+      <c r="O32" s="87">
+        <v>39</v>
+      </c>
+      <c r="P32" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="81">
+        <v>41</v>
+      </c>
+      <c r="R32" s="78">
+        <v>42</v>
+      </c>
+      <c r="U32" s="77">
+        <v>36</v>
+      </c>
+      <c r="V32" s="81">
+        <v>37</v>
+      </c>
+      <c r="W32" s="87">
+        <v>38</v>
+      </c>
+      <c r="X32" s="87">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="87">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="81">
+        <v>41</v>
+      </c>
+      <c r="AA32" s="78">
+        <v>42</v>
+      </c>
+      <c r="AD32" s="77">
+        <v>36</v>
+      </c>
+      <c r="AE32" s="81">
+        <v>37</v>
+      </c>
+      <c r="AF32" s="81">
+        <v>38</v>
+      </c>
+      <c r="AG32" s="87">
+        <v>39</v>
+      </c>
+      <c r="AH32" s="87">
+        <v>40</v>
+      </c>
+      <c r="AI32" s="87">
+        <v>41</v>
+      </c>
+      <c r="AJ32" s="78">
+        <v>42</v>
+      </c>
+      <c r="AM32" s="77">
+        <v>36</v>
+      </c>
+      <c r="AN32" s="81">
+        <v>37</v>
+      </c>
+      <c r="AO32" s="81">
+        <v>38</v>
+      </c>
+      <c r="AP32" s="81">
+        <v>39</v>
+      </c>
+      <c r="AQ32" s="87">
+        <v>40</v>
+      </c>
+      <c r="AR32" s="87">
+        <v>41</v>
+      </c>
+      <c r="AS32" s="102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="68"/>
+      <c r="C33" s="89">
+        <v>29</v>
+      </c>
+      <c r="D33" s="90">
+        <v>30</v>
+      </c>
+      <c r="E33" s="91">
+        <v>31</v>
+      </c>
+      <c r="F33" s="84">
+        <v>32</v>
+      </c>
+      <c r="G33" s="77">
+        <v>33</v>
+      </c>
+      <c r="H33" s="77">
+        <v>34</v>
+      </c>
+      <c r="I33" s="77">
+        <v>35</v>
+      </c>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="98">
+        <v>29</v>
+      </c>
+      <c r="M33" s="89">
+        <v>30</v>
+      </c>
+      <c r="N33" s="90">
+        <v>31</v>
+      </c>
+      <c r="O33" s="91">
+        <v>32</v>
+      </c>
+      <c r="P33" s="84">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="77">
+        <v>34</v>
+      </c>
+      <c r="R33" s="77">
+        <v>35</v>
+      </c>
+      <c r="S33" s="72"/>
+      <c r="U33" s="77">
+        <v>29</v>
+      </c>
+      <c r="V33" s="98">
+        <v>30</v>
+      </c>
+      <c r="W33" s="89">
+        <v>31</v>
+      </c>
+      <c r="X33" s="90">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="91">
+        <v>33</v>
+      </c>
+      <c r="Z33" s="84">
+        <v>34</v>
+      </c>
+      <c r="AA33" s="77">
+        <v>35</v>
+      </c>
+      <c r="AD33" s="77">
+        <v>29</v>
+      </c>
+      <c r="AE33" s="77">
+        <v>30</v>
+      </c>
+      <c r="AF33" s="98">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="89">
+        <v>32</v>
+      </c>
+      <c r="AH33" s="90">
+        <v>33</v>
+      </c>
+      <c r="AI33" s="91">
+        <v>34</v>
+      </c>
+      <c r="AJ33" s="84">
+        <v>35</v>
+      </c>
+      <c r="AM33" s="77">
+        <v>29</v>
+      </c>
+      <c r="AN33" s="77">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="77">
+        <v>31</v>
+      </c>
+      <c r="AP33" s="98">
+        <v>32</v>
+      </c>
+      <c r="AQ33" s="89">
+        <v>33</v>
+      </c>
+      <c r="AR33" s="90">
+        <v>34</v>
+      </c>
+      <c r="AS33" s="91">
+        <v>35</v>
+      </c>
+      <c r="AT33" s="69"/>
+    </row>
+    <row r="34" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="68"/>
+      <c r="C34" s="92">
+        <v>22</v>
+      </c>
+      <c r="D34" s="81">
+        <v>23</v>
+      </c>
+      <c r="E34" s="93">
+        <v>24</v>
+      </c>
+      <c r="F34" s="85">
+        <v>25</v>
+      </c>
+      <c r="G34" s="81">
+        <v>26</v>
+      </c>
+      <c r="H34" s="81">
+        <v>27</v>
+      </c>
+      <c r="I34" s="78">
+        <v>28</v>
+      </c>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="98">
+        <v>22</v>
+      </c>
+      <c r="M34" s="100">
+        <v>23</v>
+      </c>
+      <c r="N34" s="81">
+        <v>24</v>
+      </c>
+      <c r="O34" s="93">
+        <v>25</v>
+      </c>
+      <c r="P34" s="85">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="81">
+        <v>27</v>
+      </c>
+      <c r="R34" s="78">
+        <v>28</v>
+      </c>
+      <c r="S34" s="72"/>
+      <c r="U34" s="77">
+        <v>22</v>
+      </c>
+      <c r="V34" s="101">
+        <v>23</v>
+      </c>
+      <c r="W34" s="100">
+        <v>24</v>
+      </c>
+      <c r="X34" s="81">
+        <v>25</v>
+      </c>
+      <c r="Y34" s="93">
+        <v>26</v>
+      </c>
+      <c r="Z34" s="85">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="78">
+        <v>28</v>
+      </c>
+      <c r="AD34" s="77">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="81">
+        <v>23</v>
+      </c>
+      <c r="AF34" s="101">
+        <v>24</v>
+      </c>
+      <c r="AG34" s="100">
+        <v>25</v>
+      </c>
+      <c r="AH34" s="81">
+        <v>26</v>
+      </c>
+      <c r="AI34" s="93">
+        <v>27</v>
+      </c>
+      <c r="AJ34" s="99">
+        <v>28</v>
+      </c>
+      <c r="AM34" s="77">
+        <v>22</v>
+      </c>
+      <c r="AN34" s="81">
+        <v>23</v>
+      </c>
+      <c r="AO34" s="81">
+        <v>24</v>
+      </c>
+      <c r="AP34" s="101">
+        <v>25</v>
+      </c>
+      <c r="AQ34" s="100">
+        <v>26</v>
+      </c>
+      <c r="AR34" s="81">
+        <v>27</v>
+      </c>
+      <c r="AS34" s="103">
+        <v>28</v>
+      </c>
+      <c r="AT34" s="69"/>
+    </row>
+    <row r="35" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="68"/>
+      <c r="C35" s="95">
+        <v>15</v>
+      </c>
+      <c r="D35" s="96">
+        <v>16</v>
+      </c>
+      <c r="E35" s="97">
+        <v>17</v>
+      </c>
+      <c r="F35" s="84">
+        <v>18</v>
+      </c>
+      <c r="G35" s="77">
+        <v>19</v>
+      </c>
+      <c r="H35" s="77">
+        <v>20</v>
+      </c>
+      <c r="I35" s="77">
+        <v>21</v>
+      </c>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="98">
+        <v>15</v>
+      </c>
+      <c r="M35" s="95">
+        <v>16</v>
+      </c>
+      <c r="N35" s="96">
+        <v>17</v>
+      </c>
+      <c r="O35" s="97">
+        <v>18</v>
+      </c>
+      <c r="P35" s="84">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="77">
+        <v>20</v>
+      </c>
+      <c r="R35" s="77">
+        <v>21</v>
+      </c>
+      <c r="S35" s="72"/>
+      <c r="U35" s="77">
+        <v>15</v>
+      </c>
+      <c r="V35" s="98">
+        <v>16</v>
+      </c>
+      <c r="W35" s="95">
+        <v>17</v>
+      </c>
+      <c r="X35" s="96">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="97">
+        <v>19</v>
+      </c>
+      <c r="Z35" s="84">
+        <v>20</v>
+      </c>
+      <c r="AA35" s="77">
+        <v>21</v>
+      </c>
+      <c r="AD35" s="77">
+        <v>15</v>
+      </c>
+      <c r="AE35" s="77">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="98">
+        <v>17</v>
+      </c>
+      <c r="AG35" s="95">
+        <v>18</v>
+      </c>
+      <c r="AH35" s="96">
+        <v>19</v>
+      </c>
+      <c r="AI35" s="97">
+        <v>20</v>
+      </c>
+      <c r="AJ35" s="84">
+        <v>21</v>
+      </c>
+      <c r="AM35" s="77">
+        <v>15</v>
+      </c>
+      <c r="AN35" s="77">
+        <v>16</v>
+      </c>
+      <c r="AO35" s="77">
+        <v>17</v>
+      </c>
+      <c r="AP35" s="98">
+        <v>18</v>
+      </c>
+      <c r="AQ35" s="95">
+        <v>19</v>
+      </c>
+      <c r="AR35" s="96">
+        <v>20</v>
+      </c>
+      <c r="AS35" s="97">
+        <v>21</v>
+      </c>
+      <c r="AT35" s="69"/>
+    </row>
+    <row r="36" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="104">
+        <v>8</v>
+      </c>
+      <c r="D36" s="113">
+        <v>9</v>
+      </c>
+      <c r="E36" s="113">
+        <v>10</v>
+      </c>
+      <c r="F36" s="81">
+        <v>11</v>
+      </c>
+      <c r="G36" s="81">
+        <v>12</v>
+      </c>
+      <c r="H36" s="81">
+        <v>13</v>
+      </c>
+      <c r="I36" s="78">
+        <v>14</v>
+      </c>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="77">
+        <v>8</v>
+      </c>
+      <c r="M36" s="113">
+        <v>9</v>
+      </c>
+      <c r="N36" s="113">
+        <v>10</v>
+      </c>
+      <c r="O36" s="113">
+        <v>11</v>
+      </c>
+      <c r="P36" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="81">
+        <v>13</v>
+      </c>
+      <c r="R36" s="78">
+        <v>14</v>
+      </c>
+      <c r="S36" s="72"/>
+      <c r="U36" s="77">
+        <v>8</v>
+      </c>
+      <c r="V36" s="81">
+        <v>9</v>
+      </c>
+      <c r="W36" s="113">
+        <v>10</v>
+      </c>
+      <c r="X36" s="113">
+        <v>11</v>
+      </c>
+      <c r="Y36" s="113">
+        <v>12</v>
+      </c>
+      <c r="Z36" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA36" s="78">
+        <v>14</v>
+      </c>
+      <c r="AD36" s="77">
+        <v>8</v>
+      </c>
+      <c r="AE36" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF36" s="81">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="113">
+        <v>11</v>
+      </c>
+      <c r="AH36" s="113">
+        <v>12</v>
+      </c>
+      <c r="AI36" s="113">
+        <v>13</v>
+      </c>
+      <c r="AJ36" s="78">
+        <v>14</v>
+      </c>
+      <c r="AM36" s="77">
+        <v>8</v>
+      </c>
+      <c r="AN36" s="81">
+        <v>9</v>
+      </c>
+      <c r="AO36" s="81">
+        <v>10</v>
+      </c>
+      <c r="AP36" s="81">
+        <v>11</v>
+      </c>
+      <c r="AQ36" s="113">
+        <v>12</v>
+      </c>
+      <c r="AR36" s="113">
+        <v>13</v>
+      </c>
+      <c r="AS36" s="114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="77">
+        <v>1</v>
+      </c>
+      <c r="D37" s="77">
+        <v>2</v>
+      </c>
+      <c r="E37" s="77">
+        <v>3</v>
+      </c>
+      <c r="F37" s="77">
+        <v>4</v>
+      </c>
+      <c r="G37" s="77">
+        <v>5</v>
+      </c>
+      <c r="H37" s="77">
+        <v>6</v>
+      </c>
+      <c r="I37" s="77">
+        <v>7</v>
+      </c>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="77">
+        <v>1</v>
+      </c>
+      <c r="M37" s="77">
+        <v>2</v>
+      </c>
+      <c r="N37" s="77">
+        <v>3</v>
+      </c>
+      <c r="O37" s="77">
+        <v>4</v>
+      </c>
+      <c r="P37" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="77">
+        <v>6</v>
+      </c>
+      <c r="R37" s="77">
+        <v>7</v>
+      </c>
+      <c r="S37" s="72"/>
+      <c r="U37" s="77">
+        <v>1</v>
+      </c>
+      <c r="V37" s="77">
+        <v>2</v>
+      </c>
+      <c r="W37" s="77">
+        <v>3</v>
+      </c>
+      <c r="X37" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="77">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="77">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="77">
+        <v>4</v>
+      </c>
+      <c r="AH37" s="77">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="77">
+        <v>6</v>
+      </c>
+      <c r="AJ37" s="77">
+        <v>7</v>
+      </c>
+      <c r="AM37" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO37" s="77">
+        <v>3</v>
+      </c>
+      <c r="AP37" s="77">
+        <v>4</v>
+      </c>
+      <c r="AQ37" s="77">
+        <v>5</v>
+      </c>
+      <c r="AR37" s="77">
+        <v>6</v>
+      </c>
+      <c r="AS37" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="O38" s="75"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C39" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="72"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="U39" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD39" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM39" s="83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="86">
+        <v>43</v>
+      </c>
+      <c r="D40" s="86">
+        <v>44</v>
+      </c>
+      <c r="E40" s="86">
+        <v>45</v>
+      </c>
+      <c r="F40" s="77">
+        <v>46</v>
+      </c>
+      <c r="G40" s="77">
+        <v>47</v>
+      </c>
+      <c r="H40" s="77">
+        <v>48</v>
+      </c>
+      <c r="I40" s="77">
+        <v>49</v>
+      </c>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="77">
+        <v>43</v>
+      </c>
+      <c r="M40" s="86">
+        <v>44</v>
+      </c>
+      <c r="N40" s="86">
+        <v>45</v>
+      </c>
+      <c r="O40" s="86">
+        <v>46</v>
+      </c>
+      <c r="P40" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="77">
+        <v>48</v>
+      </c>
+      <c r="R40" s="77">
+        <v>49</v>
+      </c>
+      <c r="S40" s="72"/>
+      <c r="U40" s="77">
+        <v>43</v>
+      </c>
+      <c r="V40" s="77">
+        <v>44</v>
+      </c>
+      <c r="W40" s="86">
+        <v>45</v>
+      </c>
+      <c r="X40" s="86">
+        <v>46</v>
+      </c>
+      <c r="Y40" s="86">
+        <v>47</v>
+      </c>
+      <c r="Z40" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA40" s="77">
+        <v>49</v>
+      </c>
+      <c r="AD40" s="77">
+        <v>43</v>
+      </c>
+      <c r="AE40" s="77">
+        <v>44</v>
+      </c>
+      <c r="AF40" s="77">
+        <v>45</v>
+      </c>
+      <c r="AG40" s="86">
+        <v>46</v>
+      </c>
+      <c r="AH40" s="86">
+        <v>47</v>
+      </c>
+      <c r="AI40" s="86">
+        <v>48</v>
+      </c>
+      <c r="AJ40" s="77">
+        <v>49</v>
+      </c>
+      <c r="AM40" s="77">
+        <v>43</v>
+      </c>
+      <c r="AN40" s="77">
+        <v>44</v>
+      </c>
+      <c r="AO40" s="77">
+        <v>45</v>
+      </c>
+      <c r="AP40" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ40" s="86">
+        <v>47</v>
+      </c>
+      <c r="AR40" s="86">
+        <v>48</v>
+      </c>
+      <c r="AS40" s="86">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="68"/>
+      <c r="C41" s="89">
+        <v>36</v>
+      </c>
+      <c r="D41" s="105">
+        <v>37</v>
+      </c>
+      <c r="E41" s="106">
+        <v>38</v>
+      </c>
+      <c r="F41" s="85">
+        <v>39</v>
+      </c>
+      <c r="G41" s="81">
+        <v>40</v>
+      </c>
+      <c r="H41" s="81">
+        <v>41</v>
+      </c>
+      <c r="I41" s="78">
+        <v>42</v>
+      </c>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="98">
+        <v>36</v>
+      </c>
+      <c r="M41" s="109">
+        <v>37</v>
+      </c>
+      <c r="N41" s="105">
+        <v>38</v>
+      </c>
+      <c r="O41" s="106">
+        <v>39</v>
+      </c>
+      <c r="P41" s="85">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="81">
+        <v>41</v>
+      </c>
+      <c r="R41" s="78">
+        <v>42</v>
+      </c>
+      <c r="S41" s="72"/>
+      <c r="U41" s="77">
+        <v>36</v>
+      </c>
+      <c r="V41" s="101">
+        <v>37</v>
+      </c>
+      <c r="W41" s="109">
+        <v>38</v>
+      </c>
+      <c r="X41" s="105">
+        <v>39</v>
+      </c>
+      <c r="Y41" s="106">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="85">
+        <v>41</v>
+      </c>
+      <c r="AA41" s="78">
+        <v>42</v>
+      </c>
+      <c r="AD41" s="77">
+        <v>36</v>
+      </c>
+      <c r="AE41" s="81">
+        <v>37</v>
+      </c>
+      <c r="AF41" s="101">
+        <v>38</v>
+      </c>
+      <c r="AG41" s="109">
+        <v>39</v>
+      </c>
+      <c r="AH41" s="105">
+        <v>40</v>
+      </c>
+      <c r="AI41" s="106">
+        <v>41</v>
+      </c>
+      <c r="AJ41" s="99">
+        <v>42</v>
+      </c>
+      <c r="AM41" s="77">
+        <v>36</v>
+      </c>
+      <c r="AN41" s="81">
+        <v>37</v>
+      </c>
+      <c r="AO41" s="81">
+        <v>38</v>
+      </c>
+      <c r="AP41" s="101">
+        <v>39</v>
+      </c>
+      <c r="AQ41" s="109">
+        <v>40</v>
+      </c>
+      <c r="AR41" s="105">
+        <v>41</v>
+      </c>
+      <c r="AS41" s="111">
+        <v>42</v>
+      </c>
+      <c r="AT41" s="69"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B42" s="68"/>
+      <c r="C42" s="92">
+        <v>29</v>
+      </c>
+      <c r="D42" s="77">
+        <v>30</v>
+      </c>
+      <c r="E42" s="94">
+        <v>31</v>
+      </c>
+      <c r="F42" s="84">
+        <v>32</v>
+      </c>
+      <c r="G42" s="77">
+        <v>33</v>
+      </c>
+      <c r="H42" s="77">
+        <v>34</v>
+      </c>
+      <c r="I42" s="77">
+        <v>35</v>
+      </c>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="98">
+        <v>29</v>
+      </c>
+      <c r="M42" s="92">
+        <v>30</v>
+      </c>
+      <c r="N42" s="77">
+        <v>31</v>
+      </c>
+      <c r="O42" s="94">
+        <v>32</v>
+      </c>
+      <c r="P42" s="84">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="77">
+        <v>34</v>
+      </c>
+      <c r="R42" s="77">
+        <v>35</v>
+      </c>
+      <c r="S42" s="72"/>
+      <c r="U42" s="77">
+        <v>29</v>
+      </c>
+      <c r="V42" s="98">
+        <v>30</v>
+      </c>
+      <c r="W42" s="92">
+        <v>31</v>
+      </c>
+      <c r="X42" s="77">
+        <v>32</v>
+      </c>
+      <c r="Y42" s="94">
+        <v>33</v>
+      </c>
+      <c r="Z42" s="84">
+        <v>34</v>
+      </c>
+      <c r="AA42" s="77">
+        <v>35</v>
+      </c>
+      <c r="AD42" s="77">
+        <v>29</v>
+      </c>
+      <c r="AE42" s="77">
+        <v>30</v>
+      </c>
+      <c r="AF42" s="98">
+        <v>31</v>
+      </c>
+      <c r="AG42" s="92">
+        <v>32</v>
+      </c>
+      <c r="AH42" s="77">
+        <v>33</v>
+      </c>
+      <c r="AI42" s="94">
+        <v>34</v>
+      </c>
+      <c r="AJ42" s="84">
+        <v>35</v>
+      </c>
+      <c r="AM42" s="77">
+        <v>29</v>
+      </c>
+      <c r="AN42" s="77">
+        <v>30</v>
+      </c>
+      <c r="AO42" s="77">
+        <v>31</v>
+      </c>
+      <c r="AP42" s="98">
+        <v>32</v>
+      </c>
+      <c r="AQ42" s="92">
+        <v>33</v>
+      </c>
+      <c r="AR42" s="77">
+        <v>34</v>
+      </c>
+      <c r="AS42" s="94">
+        <v>35</v>
+      </c>
+      <c r="AT42" s="69"/>
+    </row>
+    <row r="43" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="68"/>
+      <c r="C43" s="95">
+        <v>22</v>
+      </c>
+      <c r="D43" s="107">
+        <v>23</v>
+      </c>
+      <c r="E43" s="108">
+        <v>24</v>
+      </c>
+      <c r="F43" s="85">
+        <v>25</v>
+      </c>
+      <c r="G43" s="81">
+        <v>26</v>
+      </c>
+      <c r="H43" s="81">
+        <v>27</v>
+      </c>
+      <c r="I43" s="78">
+        <v>28</v>
+      </c>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="98">
+        <v>22</v>
+      </c>
+      <c r="M43" s="110">
+        <v>23</v>
+      </c>
+      <c r="N43" s="107">
+        <v>24</v>
+      </c>
+      <c r="O43" s="108">
+        <v>25</v>
+      </c>
+      <c r="P43" s="85">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="81">
+        <v>27</v>
+      </c>
+      <c r="R43" s="78">
+        <v>28</v>
+      </c>
+      <c r="S43" s="72"/>
+      <c r="U43" s="77">
+        <v>22</v>
+      </c>
+      <c r="V43" s="101">
+        <v>23</v>
+      </c>
+      <c r="W43" s="110">
+        <v>24</v>
+      </c>
+      <c r="X43" s="107">
+        <v>25</v>
+      </c>
+      <c r="Y43" s="108">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="85">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="78">
+        <v>28</v>
+      </c>
+      <c r="AD43" s="77">
+        <v>22</v>
+      </c>
+      <c r="AE43" s="81">
+        <v>23</v>
+      </c>
+      <c r="AF43" s="101">
+        <v>24</v>
+      </c>
+      <c r="AG43" s="110">
+        <v>25</v>
+      </c>
+      <c r="AH43" s="107">
+        <v>26</v>
+      </c>
+      <c r="AI43" s="108">
+        <v>27</v>
+      </c>
+      <c r="AJ43" s="99">
+        <v>28</v>
+      </c>
+      <c r="AM43" s="77">
+        <v>22</v>
+      </c>
+      <c r="AN43" s="81">
+        <v>23</v>
+      </c>
+      <c r="AO43" s="81">
+        <v>24</v>
+      </c>
+      <c r="AP43" s="101">
+        <v>25</v>
+      </c>
+      <c r="AQ43" s="110">
+        <v>26</v>
+      </c>
+      <c r="AR43" s="107">
+        <v>27</v>
+      </c>
+      <c r="AS43" s="112">
+        <v>28</v>
+      </c>
+      <c r="AT43" s="69"/>
+    </row>
+    <row r="44" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="104">
+        <v>15</v>
+      </c>
+      <c r="D44" s="104">
+        <v>16</v>
+      </c>
+      <c r="E44" s="104">
+        <v>17</v>
+      </c>
+      <c r="F44" s="77">
+        <v>18</v>
+      </c>
+      <c r="G44" s="77">
+        <v>19</v>
+      </c>
+      <c r="H44" s="77">
+        <v>20</v>
+      </c>
+      <c r="I44" s="77">
+        <v>21</v>
+      </c>
+      <c r="L44" s="77">
+        <v>15</v>
+      </c>
+      <c r="M44" s="104">
+        <v>16</v>
+      </c>
+      <c r="N44" s="104">
+        <v>17</v>
+      </c>
+      <c r="O44" s="104">
+        <v>18</v>
+      </c>
+      <c r="P44" s="77">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="77">
+        <v>20</v>
+      </c>
+      <c r="R44" s="77">
+        <v>21</v>
+      </c>
+      <c r="U44" s="77">
+        <v>15</v>
+      </c>
+      <c r="V44" s="77">
+        <v>16</v>
+      </c>
+      <c r="W44" s="104">
+        <v>17</v>
+      </c>
+      <c r="X44" s="104">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="104">
+        <v>19</v>
+      </c>
+      <c r="Z44" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="77">
+        <v>21</v>
+      </c>
+      <c r="AD44" s="77">
+        <v>15</v>
+      </c>
+      <c r="AE44" s="77">
+        <v>16</v>
+      </c>
+      <c r="AF44" s="77">
+        <v>17</v>
+      </c>
+      <c r="AG44" s="104">
+        <v>18</v>
+      </c>
+      <c r="AH44" s="104">
+        <v>19</v>
+      </c>
+      <c r="AI44" s="104">
+        <v>20</v>
+      </c>
+      <c r="AJ44" s="77">
+        <v>21</v>
+      </c>
+      <c r="AM44" s="77">
+        <v>15</v>
+      </c>
+      <c r="AN44" s="77">
+        <v>16</v>
+      </c>
+      <c r="AO44" s="77">
+        <v>17</v>
+      </c>
+      <c r="AP44" s="77">
+        <v>18</v>
+      </c>
+      <c r="AQ44" s="104">
+        <v>19</v>
+      </c>
+      <c r="AR44" s="104">
+        <v>20</v>
+      </c>
+      <c r="AS44" s="104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C45" s="77">
+        <v>8</v>
+      </c>
+      <c r="D45" s="81">
+        <v>9</v>
+      </c>
+      <c r="E45" s="81">
+        <v>10</v>
+      </c>
+      <c r="F45" s="81">
+        <v>11</v>
+      </c>
+      <c r="G45" s="81">
+        <v>12</v>
+      </c>
+      <c r="H45" s="81">
+        <v>13</v>
+      </c>
+      <c r="I45" s="78">
+        <v>14</v>
+      </c>
+      <c r="L45" s="77">
+        <v>8</v>
+      </c>
+      <c r="M45" s="81">
+        <v>9</v>
+      </c>
+      <c r="N45" s="81">
+        <v>10</v>
+      </c>
+      <c r="O45" s="81">
+        <v>11</v>
+      </c>
+      <c r="P45" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="81">
+        <v>13</v>
+      </c>
+      <c r="R45" s="78">
+        <v>14</v>
+      </c>
+      <c r="U45" s="77">
+        <v>8</v>
+      </c>
+      <c r="V45" s="81">
+        <v>9</v>
+      </c>
+      <c r="W45" s="81">
+        <v>10</v>
+      </c>
+      <c r="X45" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y45" s="81">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA45" s="78">
+        <v>14</v>
+      </c>
+      <c r="AD45" s="77">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF45" s="81">
+        <v>10</v>
+      </c>
+      <c r="AG45" s="81">
+        <v>11</v>
+      </c>
+      <c r="AH45" s="81">
+        <v>12</v>
+      </c>
+      <c r="AI45" s="81">
+        <v>13</v>
+      </c>
+      <c r="AJ45" s="78">
+        <v>14</v>
+      </c>
+      <c r="AM45" s="77">
+        <v>8</v>
+      </c>
+      <c r="AN45" s="81">
+        <v>9</v>
+      </c>
+      <c r="AO45" s="81">
+        <v>10</v>
+      </c>
+      <c r="AP45" s="81">
+        <v>11</v>
+      </c>
+      <c r="AQ45" s="81">
+        <v>12</v>
+      </c>
+      <c r="AR45" s="81">
+        <v>13</v>
+      </c>
+      <c r="AS45" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C46" s="77">
+        <v>1</v>
+      </c>
+      <c r="D46" s="77">
+        <v>2</v>
+      </c>
+      <c r="E46" s="77">
+        <v>3</v>
+      </c>
+      <c r="F46" s="77">
+        <v>4</v>
+      </c>
+      <c r="G46" s="77">
+        <v>5</v>
+      </c>
+      <c r="H46" s="77">
+        <v>6</v>
+      </c>
+      <c r="I46" s="77">
+        <v>7</v>
+      </c>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="77">
+        <v>1</v>
+      </c>
+      <c r="M46" s="77">
+        <v>2</v>
+      </c>
+      <c r="N46" s="77">
+        <v>3</v>
+      </c>
+      <c r="O46" s="77">
+        <v>4</v>
+      </c>
+      <c r="P46" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="77">
+        <v>6</v>
+      </c>
+      <c r="R46" s="77">
+        <v>7</v>
+      </c>
+      <c r="S46" s="72"/>
+      <c r="U46" s="77">
+        <v>1</v>
+      </c>
+      <c r="V46" s="77">
+        <v>2</v>
+      </c>
+      <c r="W46" s="77">
+        <v>3</v>
+      </c>
+      <c r="X46" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="77">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="77">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="77">
+        <v>4</v>
+      </c>
+      <c r="AH46" s="77">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="77">
+        <v>6</v>
+      </c>
+      <c r="AJ46" s="77">
+        <v>7</v>
+      </c>
+      <c r="AM46" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO46" s="77">
+        <v>3</v>
+      </c>
+      <c r="AP46" s="77">
+        <v>4</v>
+      </c>
+      <c r="AQ46" s="77">
+        <v>5</v>
+      </c>
+      <c r="AR46" s="77">
+        <v>6</v>
+      </c>
+      <c r="AS46" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="L48" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="U48" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="67"/>
+      <c r="AD48" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AM48" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ48" s="67"/>
+      <c r="AR48" s="67"/>
+      <c r="AS48" s="67"/>
+    </row>
+    <row r="49" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="68"/>
+      <c r="C49" s="89">
+        <v>43</v>
+      </c>
+      <c r="D49" s="90">
+        <v>44</v>
+      </c>
+      <c r="E49" s="91">
+        <v>45</v>
+      </c>
+      <c r="F49" s="84">
+        <v>46</v>
+      </c>
+      <c r="G49" s="77">
+        <v>47</v>
+      </c>
+      <c r="H49" s="77">
+        <v>48</v>
+      </c>
+      <c r="I49" s="77">
+        <v>49</v>
+      </c>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="98">
+        <v>43</v>
+      </c>
+      <c r="M49" s="89">
+        <v>44</v>
+      </c>
+      <c r="N49" s="90">
+        <v>45</v>
+      </c>
+      <c r="O49" s="91">
+        <v>46</v>
+      </c>
+      <c r="P49" s="84">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="77">
+        <v>48</v>
+      </c>
+      <c r="R49" s="77">
+        <v>49</v>
+      </c>
+      <c r="S49" s="72"/>
+      <c r="U49" s="77">
+        <v>43</v>
+      </c>
+      <c r="V49" s="98">
+        <v>44</v>
+      </c>
+      <c r="W49" s="89">
+        <v>45</v>
+      </c>
+      <c r="X49" s="90">
+        <v>46</v>
+      </c>
+      <c r="Y49" s="91">
+        <v>47</v>
+      </c>
+      <c r="Z49" s="84">
+        <v>48</v>
+      </c>
+      <c r="AA49" s="77">
+        <v>49</v>
+      </c>
+      <c r="AD49" s="77">
+        <v>43</v>
+      </c>
+      <c r="AE49" s="77">
+        <v>44</v>
+      </c>
+      <c r="AF49" s="98">
+        <v>45</v>
+      </c>
+      <c r="AG49" s="89">
+        <v>46</v>
+      </c>
+      <c r="AH49" s="90">
+        <v>47</v>
+      </c>
+      <c r="AI49" s="91">
+        <v>48</v>
+      </c>
+      <c r="AJ49" s="84">
+        <v>49</v>
+      </c>
+      <c r="AM49" s="77">
+        <v>43</v>
+      </c>
+      <c r="AN49" s="77">
+        <v>44</v>
+      </c>
+      <c r="AO49" s="77">
+        <v>45</v>
+      </c>
+      <c r="AP49" s="98">
+        <v>46</v>
+      </c>
+      <c r="AQ49" s="89">
+        <v>47</v>
+      </c>
+      <c r="AR49" s="90">
+        <v>48</v>
+      </c>
+      <c r="AS49" s="91">
+        <v>49</v>
+      </c>
+      <c r="AT49" s="69"/>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B50" s="68"/>
+      <c r="C50" s="92">
+        <v>36</v>
+      </c>
+      <c r="D50" s="81">
+        <v>37</v>
+      </c>
+      <c r="E50" s="93">
+        <v>38</v>
+      </c>
+      <c r="F50" s="85">
+        <v>39</v>
+      </c>
+      <c r="G50" s="81">
+        <v>40</v>
+      </c>
+      <c r="H50" s="81">
+        <v>41</v>
+      </c>
+      <c r="I50" s="78">
+        <v>42</v>
+      </c>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="98">
+        <v>36</v>
+      </c>
+      <c r="M50" s="100">
+        <v>37</v>
+      </c>
+      <c r="N50" s="81">
+        <v>38</v>
+      </c>
+      <c r="O50" s="93">
+        <v>39</v>
+      </c>
+      <c r="P50" s="85">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="81">
+        <v>41</v>
+      </c>
+      <c r="R50" s="78">
+        <v>42</v>
+      </c>
+      <c r="S50" s="72"/>
+      <c r="U50" s="77">
+        <v>36</v>
+      </c>
+      <c r="V50" s="101">
+        <v>37</v>
+      </c>
+      <c r="W50" s="100">
+        <v>38</v>
+      </c>
+      <c r="X50" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y50" s="93">
+        <v>40</v>
+      </c>
+      <c r="Z50" s="85">
+        <v>41</v>
+      </c>
+      <c r="AA50" s="78">
+        <v>42</v>
+      </c>
+      <c r="AD50" s="77">
+        <v>36</v>
+      </c>
+      <c r="AE50" s="81">
+        <v>37</v>
+      </c>
+      <c r="AF50" s="101">
+        <v>38</v>
+      </c>
+      <c r="AG50" s="100">
+        <v>39</v>
+      </c>
+      <c r="AH50" s="81">
+        <v>40</v>
+      </c>
+      <c r="AI50" s="93">
+        <v>41</v>
+      </c>
+      <c r="AJ50" s="99">
+        <v>42</v>
+      </c>
+      <c r="AM50" s="77">
+        <v>36</v>
+      </c>
+      <c r="AN50" s="81">
+        <v>37</v>
+      </c>
+      <c r="AO50" s="81">
+        <v>38</v>
+      </c>
+      <c r="AP50" s="101">
+        <v>39</v>
+      </c>
+      <c r="AQ50" s="100">
+        <v>40</v>
+      </c>
+      <c r="AR50" s="81">
+        <v>41</v>
+      </c>
+      <c r="AS50" s="103">
+        <v>42</v>
+      </c>
+      <c r="AT50" s="69"/>
+    </row>
+    <row r="51" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="68"/>
+      <c r="C51" s="95">
+        <v>29</v>
+      </c>
+      <c r="D51" s="96">
+        <v>30</v>
+      </c>
+      <c r="E51" s="97">
+        <v>31</v>
+      </c>
+      <c r="F51" s="84">
+        <v>32</v>
+      </c>
+      <c r="G51" s="77">
+        <v>33</v>
+      </c>
+      <c r="H51" s="77">
+        <v>34</v>
+      </c>
+      <c r="I51" s="77">
+        <v>35</v>
+      </c>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="98">
+        <v>29</v>
+      </c>
+      <c r="M51" s="95">
+        <v>30</v>
+      </c>
+      <c r="N51" s="96">
+        <v>31</v>
+      </c>
+      <c r="O51" s="97">
+        <v>32</v>
+      </c>
+      <c r="P51" s="84">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="77">
+        <v>34</v>
+      </c>
+      <c r="R51" s="77">
+        <v>35</v>
+      </c>
+      <c r="S51" s="72"/>
+      <c r="U51" s="77">
+        <v>29</v>
+      </c>
+      <c r="V51" s="98">
+        <v>30</v>
+      </c>
+      <c r="W51" s="95">
+        <v>31</v>
+      </c>
+      <c r="X51" s="96">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="97">
+        <v>33</v>
+      </c>
+      <c r="Z51" s="84">
+        <v>34</v>
+      </c>
+      <c r="AA51" s="77">
+        <v>35</v>
+      </c>
+      <c r="AD51" s="77">
+        <v>29</v>
+      </c>
+      <c r="AE51" s="77">
+        <v>30</v>
+      </c>
+      <c r="AF51" s="98">
+        <v>31</v>
+      </c>
+      <c r="AG51" s="95">
+        <v>32</v>
+      </c>
+      <c r="AH51" s="96">
+        <v>33</v>
+      </c>
+      <c r="AI51" s="97">
+        <v>34</v>
+      </c>
+      <c r="AJ51" s="84">
+        <v>35</v>
+      </c>
+      <c r="AM51" s="77">
+        <v>29</v>
+      </c>
+      <c r="AN51" s="77">
+        <v>30</v>
+      </c>
+      <c r="AO51" s="77">
+        <v>31</v>
+      </c>
+      <c r="AP51" s="98">
+        <v>32</v>
+      </c>
+      <c r="AQ51" s="95">
+        <v>33</v>
+      </c>
+      <c r="AR51" s="96">
+        <v>34</v>
+      </c>
+      <c r="AS51" s="97">
+        <v>35</v>
+      </c>
+      <c r="AT51" s="69"/>
+    </row>
+    <row r="52" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="104">
+        <v>22</v>
+      </c>
+      <c r="D52" s="113">
+        <v>23</v>
+      </c>
+      <c r="E52" s="113">
+        <v>24</v>
+      </c>
+      <c r="F52" s="81">
+        <v>25</v>
+      </c>
+      <c r="G52" s="81">
+        <v>26</v>
+      </c>
+      <c r="H52" s="81">
+        <v>27</v>
+      </c>
+      <c r="I52" s="78">
+        <v>28</v>
+      </c>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="77">
+        <v>22</v>
+      </c>
+      <c r="M52" s="113">
+        <v>23</v>
+      </c>
+      <c r="N52" s="113">
+        <v>24</v>
+      </c>
+      <c r="O52" s="113">
+        <v>25</v>
+      </c>
+      <c r="P52" s="81">
+        <v>26</v>
+      </c>
+      <c r="Q52" s="81">
+        <v>27</v>
+      </c>
+      <c r="R52" s="78">
+        <v>28</v>
+      </c>
+      <c r="S52" s="72"/>
+      <c r="U52" s="77">
+        <v>22</v>
+      </c>
+      <c r="V52" s="81">
+        <v>23</v>
+      </c>
+      <c r="W52" s="113">
+        <v>24</v>
+      </c>
+      <c r="X52" s="113">
+        <v>25</v>
+      </c>
+      <c r="Y52" s="113">
+        <v>26</v>
+      </c>
+      <c r="Z52" s="81">
+        <v>27</v>
+      </c>
+      <c r="AA52" s="78">
+        <v>28</v>
+      </c>
+      <c r="AD52" s="77">
+        <v>22</v>
+      </c>
+      <c r="AE52" s="81">
+        <v>23</v>
+      </c>
+      <c r="AF52" s="81">
+        <v>24</v>
+      </c>
+      <c r="AG52" s="113">
+        <v>25</v>
+      </c>
+      <c r="AH52" s="113">
+        <v>26</v>
+      </c>
+      <c r="AI52" s="113">
+        <v>27</v>
+      </c>
+      <c r="AJ52" s="78">
+        <v>28</v>
+      </c>
+      <c r="AM52" s="77">
+        <v>22</v>
+      </c>
+      <c r="AN52" s="81">
+        <v>23</v>
+      </c>
+      <c r="AO52" s="81">
+        <v>24</v>
+      </c>
+      <c r="AP52" s="81">
+        <v>25</v>
+      </c>
+      <c r="AQ52" s="113">
+        <v>26</v>
+      </c>
+      <c r="AR52" s="113">
+        <v>27</v>
+      </c>
+      <c r="AS52" s="114">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C53" s="77">
+        <v>15</v>
+      </c>
+      <c r="D53" s="77">
+        <v>16</v>
+      </c>
+      <c r="E53" s="77">
+        <v>17</v>
+      </c>
+      <c r="F53" s="77">
+        <v>18</v>
+      </c>
+      <c r="G53" s="77">
+        <v>19</v>
+      </c>
+      <c r="H53" s="77">
+        <v>20</v>
+      </c>
+      <c r="I53" s="77">
+        <v>21</v>
+      </c>
+      <c r="L53" s="77">
+        <v>15</v>
+      </c>
+      <c r="M53" s="77">
+        <v>16</v>
+      </c>
+      <c r="N53" s="77">
+        <v>17</v>
+      </c>
+      <c r="O53" s="77">
+        <v>18</v>
+      </c>
+      <c r="P53" s="77">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="77">
+        <v>20</v>
+      </c>
+      <c r="R53" s="77">
+        <v>21</v>
+      </c>
+      <c r="U53" s="77">
+        <v>15</v>
+      </c>
+      <c r="V53" s="77">
+        <v>16</v>
+      </c>
+      <c r="W53" s="77">
+        <v>17</v>
+      </c>
+      <c r="X53" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y53" s="77">
+        <v>19</v>
+      </c>
+      <c r="Z53" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA53" s="77">
+        <v>21</v>
+      </c>
+      <c r="AD53" s="77">
+        <v>15</v>
+      </c>
+      <c r="AE53" s="77">
+        <v>16</v>
+      </c>
+      <c r="AF53" s="77">
+        <v>17</v>
+      </c>
+      <c r="AG53" s="77">
+        <v>18</v>
+      </c>
+      <c r="AH53" s="77">
+        <v>19</v>
+      </c>
+      <c r="AI53" s="77">
+        <v>20</v>
+      </c>
+      <c r="AJ53" s="77">
+        <v>21</v>
+      </c>
+      <c r="AM53" s="77">
+        <v>15</v>
+      </c>
+      <c r="AN53" s="77">
+        <v>16</v>
+      </c>
+      <c r="AO53" s="77">
+        <v>17</v>
+      </c>
+      <c r="AP53" s="77">
+        <v>18</v>
+      </c>
+      <c r="AQ53" s="77">
+        <v>19</v>
+      </c>
+      <c r="AR53" s="77">
+        <v>20</v>
+      </c>
+      <c r="AS53" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C54" s="77">
+        <v>8</v>
+      </c>
+      <c r="D54" s="81">
+        <v>9</v>
+      </c>
+      <c r="E54" s="81">
+        <v>10</v>
+      </c>
+      <c r="F54" s="81">
+        <v>11</v>
+      </c>
+      <c r="G54" s="81">
+        <v>12</v>
+      </c>
+      <c r="H54" s="81">
+        <v>13</v>
+      </c>
+      <c r="I54" s="78">
+        <v>14</v>
+      </c>
+      <c r="L54" s="77">
+        <v>8</v>
+      </c>
+      <c r="M54" s="81">
+        <v>9</v>
+      </c>
+      <c r="N54" s="81">
+        <v>10</v>
+      </c>
+      <c r="O54" s="81">
+        <v>11</v>
+      </c>
+      <c r="P54" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="81">
+        <v>13</v>
+      </c>
+      <c r="R54" s="78">
+        <v>14</v>
+      </c>
+      <c r="U54" s="77">
+        <v>8</v>
+      </c>
+      <c r="V54" s="81">
+        <v>9</v>
+      </c>
+      <c r="W54" s="81">
+        <v>10</v>
+      </c>
+      <c r="X54" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y54" s="81">
+        <v>12</v>
+      </c>
+      <c r="Z54" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA54" s="78">
+        <v>14</v>
+      </c>
+      <c r="AD54" s="77">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF54" s="81">
+        <v>10</v>
+      </c>
+      <c r="AG54" s="81">
+        <v>11</v>
+      </c>
+      <c r="AH54" s="81">
+        <v>12</v>
+      </c>
+      <c r="AI54" s="81">
+        <v>13</v>
+      </c>
+      <c r="AJ54" s="78">
+        <v>14</v>
+      </c>
+      <c r="AM54" s="77">
+        <v>8</v>
+      </c>
+      <c r="AN54" s="81">
+        <v>9</v>
+      </c>
+      <c r="AO54" s="81">
+        <v>10</v>
+      </c>
+      <c r="AP54" s="81">
+        <v>11</v>
+      </c>
+      <c r="AQ54" s="81">
+        <v>12</v>
+      </c>
+      <c r="AR54" s="81">
+        <v>13</v>
+      </c>
+      <c r="AS54" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C55" s="77">
+        <v>1</v>
+      </c>
+      <c r="D55" s="77">
+        <v>2</v>
+      </c>
+      <c r="E55" s="77">
+        <v>3</v>
+      </c>
+      <c r="F55" s="77">
+        <v>4</v>
+      </c>
+      <c r="G55" s="77">
+        <v>5</v>
+      </c>
+      <c r="H55" s="77">
+        <v>6</v>
+      </c>
+      <c r="I55" s="77">
+        <v>7</v>
+      </c>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="77">
+        <v>1</v>
+      </c>
+      <c r="M55" s="77">
+        <v>2</v>
+      </c>
+      <c r="N55" s="77">
+        <v>3</v>
+      </c>
+      <c r="O55" s="77">
+        <v>4</v>
+      </c>
+      <c r="P55" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="77">
+        <v>6</v>
+      </c>
+      <c r="R55" s="77">
+        <v>7</v>
+      </c>
+      <c r="S55" s="72"/>
+      <c r="U55" s="77">
+        <v>1</v>
+      </c>
+      <c r="V55" s="77">
+        <v>2</v>
+      </c>
+      <c r="W55" s="77">
+        <v>3</v>
+      </c>
+      <c r="X55" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA55" s="77">
+        <v>7</v>
+      </c>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="77">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG55" s="77">
+        <v>4</v>
+      </c>
+      <c r="AH55" s="77">
+        <v>5</v>
+      </c>
+      <c r="AI55" s="77">
+        <v>6</v>
+      </c>
+      <c r="AJ55" s="77">
+        <v>7</v>
+      </c>
+      <c r="AM55" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="77">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="77">
+        <v>3</v>
+      </c>
+      <c r="AP55" s="77">
+        <v>4</v>
+      </c>
+      <c r="AQ55" s="77">
+        <v>5</v>
+      </c>
+      <c r="AR55" s="77">
+        <v>6</v>
+      </c>
+      <c r="AS55" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C59" s="77">
+        <v>43</v>
+      </c>
+      <c r="D59" s="77">
+        <v>44</v>
+      </c>
+      <c r="E59" s="77">
+        <v>45</v>
+      </c>
+      <c r="F59" s="77">
+        <v>46</v>
+      </c>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="L59" s="77">
+        <v>43</v>
+      </c>
+      <c r="M59" s="77">
+        <v>44</v>
+      </c>
+      <c r="N59" s="77">
+        <v>45</v>
+      </c>
+      <c r="O59" s="77">
+        <v>46</v>
+      </c>
+      <c r="P59" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="U59" s="77">
+        <v>43</v>
+      </c>
+      <c r="V59" s="77">
+        <v>44</v>
+      </c>
+      <c r="W59" s="77">
+        <v>45</v>
+      </c>
+      <c r="X59" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y59" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z59" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA59" s="77"/>
+    </row>
+    <row r="60" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C60" s="77">
+        <v>36</v>
+      </c>
+      <c r="D60" s="81">
+        <v>37</v>
+      </c>
+      <c r="E60" s="81">
+        <v>38</v>
+      </c>
+      <c r="F60" s="81">
+        <v>39</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="78"/>
+      <c r="L60" s="77">
+        <v>36</v>
+      </c>
+      <c r="M60" s="81">
+        <v>37</v>
+      </c>
+      <c r="N60" s="81">
+        <v>38</v>
+      </c>
+      <c r="O60" s="81">
+        <v>39</v>
+      </c>
+      <c r="P60" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="78"/>
+      <c r="U60" s="77">
+        <v>36</v>
+      </c>
+      <c r="V60" s="81">
+        <v>37</v>
+      </c>
+      <c r="W60" s="81">
+        <v>38</v>
+      </c>
+      <c r="X60" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y60" s="81">
+        <v>40</v>
+      </c>
+      <c r="Z60" s="81">
+        <v>41</v>
+      </c>
+      <c r="AA60" s="78"/>
+    </row>
+    <row r="61" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C61" s="77">
+        <v>29</v>
+      </c>
+      <c r="D61" s="77">
+        <v>30</v>
+      </c>
+      <c r="E61" s="77">
+        <v>31</v>
+      </c>
+      <c r="F61" s="77">
+        <v>32</v>
+      </c>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="L61" s="77">
+        <v>29</v>
+      </c>
+      <c r="M61" s="77">
+        <v>30</v>
+      </c>
+      <c r="N61" s="77">
+        <v>31</v>
+      </c>
+      <c r="O61" s="77">
+        <v>32</v>
+      </c>
+      <c r="P61" s="77">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="77"/>
+      <c r="U61" s="77">
+        <v>29</v>
+      </c>
+      <c r="V61" s="77">
+        <v>30</v>
+      </c>
+      <c r="W61" s="77">
+        <v>31</v>
+      </c>
+      <c r="X61" s="77">
+        <v>32</v>
+      </c>
+      <c r="Y61" s="77">
+        <v>33</v>
+      </c>
+      <c r="Z61" s="77">
+        <v>34</v>
+      </c>
+      <c r="AA61" s="77"/>
+    </row>
+    <row r="62" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C62" s="77">
+        <v>22</v>
+      </c>
+      <c r="D62" s="81">
+        <v>23</v>
+      </c>
+      <c r="E62" s="81">
+        <v>24</v>
+      </c>
+      <c r="F62" s="81">
+        <v>25</v>
+      </c>
+      <c r="G62" s="81">
+        <v>26</v>
+      </c>
+      <c r="H62" s="81">
+        <v>27</v>
+      </c>
+      <c r="I62" s="78">
+        <v>28</v>
+      </c>
+      <c r="L62" s="77">
+        <v>22</v>
+      </c>
+      <c r="M62" s="81">
+        <v>23</v>
+      </c>
+      <c r="N62" s="81">
+        <v>24</v>
+      </c>
+      <c r="O62" s="81">
+        <v>25</v>
+      </c>
+      <c r="P62" s="81">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="81">
+        <v>27</v>
+      </c>
+      <c r="R62" s="78">
+        <v>28</v>
+      </c>
+      <c r="U62" s="77">
+        <v>22</v>
+      </c>
+      <c r="V62" s="81">
+        <v>23</v>
+      </c>
+      <c r="W62" s="81">
+        <v>24</v>
+      </c>
+      <c r="X62" s="81">
+        <v>25</v>
+      </c>
+      <c r="Y62" s="81">
+        <v>26</v>
+      </c>
+      <c r="Z62" s="81">
+        <v>27</v>
+      </c>
+      <c r="AA62" s="78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C63" s="77">
+        <v>15</v>
+      </c>
+      <c r="D63" s="77">
+        <v>16</v>
+      </c>
+      <c r="E63" s="77">
+        <v>17</v>
+      </c>
+      <c r="F63" s="77">
+        <v>18</v>
+      </c>
+      <c r="G63" s="77">
+        <v>19</v>
+      </c>
+      <c r="H63" s="77">
+        <v>20</v>
+      </c>
+      <c r="I63" s="77">
+        <v>21</v>
+      </c>
+      <c r="L63" s="77">
+        <v>15</v>
+      </c>
+      <c r="M63" s="77">
+        <v>16</v>
+      </c>
+      <c r="N63" s="77">
+        <v>17</v>
+      </c>
+      <c r="O63" s="77">
+        <v>18</v>
+      </c>
+      <c r="P63" s="77">
+        <v>19</v>
+      </c>
+      <c r="Q63" s="77">
+        <v>20</v>
+      </c>
+      <c r="R63" s="77">
+        <v>21</v>
+      </c>
+      <c r="U63" s="77">
+        <v>15</v>
+      </c>
+      <c r="V63" s="77">
+        <v>16</v>
+      </c>
+      <c r="W63" s="77">
+        <v>17</v>
+      </c>
+      <c r="X63" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y63" s="77">
+        <v>19</v>
+      </c>
+      <c r="Z63" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA63" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="C64" s="77">
+        <v>8</v>
+      </c>
+      <c r="D64" s="81">
+        <v>9</v>
+      </c>
+      <c r="E64" s="81">
+        <v>10</v>
+      </c>
+      <c r="F64" s="81">
+        <v>11</v>
+      </c>
+      <c r="G64" s="81">
+        <v>12</v>
+      </c>
+      <c r="H64" s="81">
+        <v>13</v>
+      </c>
+      <c r="I64" s="78">
+        <v>14</v>
+      </c>
+      <c r="L64" s="77">
+        <v>8</v>
+      </c>
+      <c r="M64" s="81">
+        <v>9</v>
+      </c>
+      <c r="N64" s="81">
+        <v>10</v>
+      </c>
+      <c r="O64" s="81">
+        <v>11</v>
+      </c>
+      <c r="P64" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q64" s="81">
+        <v>13</v>
+      </c>
+      <c r="R64" s="78">
+        <v>14</v>
+      </c>
+      <c r="U64" s="77">
+        <v>8</v>
+      </c>
+      <c r="V64" s="81">
+        <v>9</v>
+      </c>
+      <c r="W64" s="81">
+        <v>10</v>
+      </c>
+      <c r="X64" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y64" s="81">
+        <v>12</v>
+      </c>
+      <c r="Z64" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA64" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C65" s="77">
+        <v>1</v>
+      </c>
+      <c r="D65" s="77">
+        <v>2</v>
+      </c>
+      <c r="E65" s="77">
+        <v>3</v>
+      </c>
+      <c r="F65" s="77">
+        <v>4</v>
+      </c>
+      <c r="G65" s="77">
+        <v>5</v>
+      </c>
+      <c r="H65" s="77">
+        <v>6</v>
+      </c>
+      <c r="I65" s="77">
+        <v>7</v>
+      </c>
+      <c r="L65" s="77">
+        <v>1</v>
+      </c>
+      <c r="M65" s="77">
+        <v>2</v>
+      </c>
+      <c r="N65" s="77">
+        <v>3</v>
+      </c>
+      <c r="O65" s="77">
+        <v>4</v>
+      </c>
+      <c r="P65" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="77">
+        <v>6</v>
+      </c>
+      <c r="R65" s="77">
+        <v>7</v>
+      </c>
+      <c r="U65" s="77">
+        <v>1</v>
+      </c>
+      <c r="V65" s="77">
+        <v>2</v>
+      </c>
+      <c r="W65" s="77">
+        <v>3</v>
+      </c>
+      <c r="X65" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y65" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z65" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA65" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C68" s="77">
+        <v>43</v>
+      </c>
+      <c r="D68" s="77">
+        <v>44</v>
+      </c>
+      <c r="E68" s="77">
+        <v>45</v>
+      </c>
+      <c r="F68" s="77">
+        <v>46</v>
+      </c>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="L68" s="77">
+        <v>43</v>
+      </c>
+      <c r="M68" s="77">
+        <v>44</v>
+      </c>
+      <c r="N68" s="77">
+        <v>45</v>
+      </c>
+      <c r="O68" s="77">
+        <v>46</v>
+      </c>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="U68" s="77">
+        <v>43</v>
+      </c>
+      <c r="V68" s="77">
+        <v>44</v>
+      </c>
+      <c r="W68" s="77">
+        <v>45</v>
+      </c>
+      <c r="X68" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y68" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z68" s="77"/>
+      <c r="AA68" s="77"/>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C69" s="77">
+        <v>36</v>
+      </c>
+      <c r="D69" s="81">
+        <v>37</v>
+      </c>
+      <c r="E69" s="81">
+        <v>38</v>
+      </c>
+      <c r="F69" s="81">
+        <v>39</v>
+      </c>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="78"/>
+      <c r="L69" s="77">
+        <v>36</v>
+      </c>
+      <c r="M69" s="81">
+        <v>37</v>
+      </c>
+      <c r="N69" s="81">
+        <v>38</v>
+      </c>
+      <c r="O69" s="81">
+        <v>39</v>
+      </c>
+      <c r="P69" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="81">
+        <v>41</v>
+      </c>
+      <c r="R69" s="78">
+        <v>42</v>
+      </c>
+      <c r="U69" s="77">
+        <v>36</v>
+      </c>
+      <c r="V69" s="81">
+        <v>37</v>
+      </c>
+      <c r="W69" s="81">
+        <v>38</v>
+      </c>
+      <c r="X69" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y69" s="81">
+        <v>40</v>
+      </c>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="78"/>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C70" s="77">
+        <v>29</v>
+      </c>
+      <c r="D70" s="77">
+        <v>30</v>
+      </c>
+      <c r="E70" s="77">
+        <v>31</v>
+      </c>
+      <c r="F70" s="77">
+        <v>32</v>
+      </c>
+      <c r="G70" s="77">
+        <v>33</v>
+      </c>
+      <c r="H70" s="77">
+        <v>34</v>
+      </c>
+      <c r="I70" s="77">
+        <v>35</v>
+      </c>
+      <c r="L70" s="77">
+        <v>29</v>
+      </c>
+      <c r="M70" s="77">
+        <v>30</v>
+      </c>
+      <c r="N70" s="77">
+        <v>31</v>
+      </c>
+      <c r="O70" s="77">
+        <v>32</v>
+      </c>
+      <c r="P70" s="77">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="77">
+        <v>34</v>
+      </c>
+      <c r="R70" s="77">
+        <v>35</v>
+      </c>
+      <c r="U70" s="77">
+        <v>29</v>
+      </c>
+      <c r="V70" s="77">
+        <v>30</v>
+      </c>
+      <c r="W70" s="77">
+        <v>31</v>
+      </c>
+      <c r="X70" s="77">
+        <v>32</v>
+      </c>
+      <c r="Y70" s="77">
+        <v>33</v>
+      </c>
+      <c r="Z70" s="77">
+        <v>34</v>
+      </c>
+      <c r="AA70" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C71" s="77">
+        <v>22</v>
+      </c>
+      <c r="D71" s="81">
+        <v>23</v>
+      </c>
+      <c r="E71" s="81">
+        <v>24</v>
+      </c>
+      <c r="F71" s="81">
+        <v>25</v>
+      </c>
+      <c r="G71" s="81">
+        <v>26</v>
+      </c>
+      <c r="H71" s="81">
+        <v>27</v>
+      </c>
+      <c r="I71" s="78">
+        <v>28</v>
+      </c>
+      <c r="L71" s="77">
+        <v>22</v>
+      </c>
+      <c r="M71" s="81">
+        <v>23</v>
+      </c>
+      <c r="N71" s="81">
+        <v>24</v>
+      </c>
+      <c r="O71" s="81">
+        <v>25</v>
+      </c>
+      <c r="P71" s="81">
+        <v>26</v>
+      </c>
+      <c r="Q71" s="81">
+        <v>27</v>
+      </c>
+      <c r="R71" s="78">
+        <v>28</v>
+      </c>
+      <c r="U71" s="77">
+        <v>22</v>
+      </c>
+      <c r="V71" s="81">
+        <v>23</v>
+      </c>
+      <c r="W71" s="81">
+        <v>24</v>
+      </c>
+      <c r="X71" s="81">
+        <v>25</v>
+      </c>
+      <c r="Y71" s="81">
+        <v>26</v>
+      </c>
+      <c r="Z71" s="81">
+        <v>27</v>
+      </c>
+      <c r="AA71" s="78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C72" s="77">
+        <v>15</v>
+      </c>
+      <c r="D72" s="77">
+        <v>16</v>
+      </c>
+      <c r="E72" s="77">
+        <v>17</v>
+      </c>
+      <c r="F72" s="77">
+        <v>18</v>
+      </c>
+      <c r="G72" s="77">
+        <v>19</v>
+      </c>
+      <c r="H72" s="77">
+        <v>20</v>
+      </c>
+      <c r="I72" s="77">
+        <v>21</v>
+      </c>
+      <c r="L72" s="77">
+        <v>15</v>
+      </c>
+      <c r="M72" s="77">
+        <v>16</v>
+      </c>
+      <c r="N72" s="77">
+        <v>17</v>
+      </c>
+      <c r="O72" s="77">
+        <v>18</v>
+      </c>
+      <c r="P72" s="77">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="77">
+        <v>20</v>
+      </c>
+      <c r="R72" s="77">
+        <v>21</v>
+      </c>
+      <c r="U72" s="77">
+        <v>15</v>
+      </c>
+      <c r="V72" s="77">
+        <v>16</v>
+      </c>
+      <c r="W72" s="77">
+        <v>17</v>
+      </c>
+      <c r="X72" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y72" s="77">
+        <v>19</v>
+      </c>
+      <c r="Z72" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA72" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C73" s="77">
+        <v>8</v>
+      </c>
+      <c r="D73" s="81">
+        <v>9</v>
+      </c>
+      <c r="E73" s="81">
+        <v>10</v>
+      </c>
+      <c r="F73" s="81">
+        <v>11</v>
+      </c>
+      <c r="G73" s="81">
+        <v>12</v>
+      </c>
+      <c r="H73" s="81">
+        <v>13</v>
+      </c>
+      <c r="I73" s="78">
+        <v>14</v>
+      </c>
+      <c r="L73" s="77">
+        <v>8</v>
+      </c>
+      <c r="M73" s="81">
+        <v>9</v>
+      </c>
+      <c r="N73" s="81">
+        <v>10</v>
+      </c>
+      <c r="O73" s="81">
+        <v>11</v>
+      </c>
+      <c r="P73" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q73" s="81">
+        <v>13</v>
+      </c>
+      <c r="R73" s="78">
+        <v>14</v>
+      </c>
+      <c r="U73" s="77">
+        <v>8</v>
+      </c>
+      <c r="V73" s="81">
+        <v>9</v>
+      </c>
+      <c r="W73" s="81">
+        <v>10</v>
+      </c>
+      <c r="X73" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y73" s="81">
+        <v>12</v>
+      </c>
+      <c r="Z73" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA73" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C74" s="77">
+        <v>1</v>
+      </c>
+      <c r="D74" s="77">
+        <v>2</v>
+      </c>
+      <c r="E74" s="77">
+        <v>3</v>
+      </c>
+      <c r="F74" s="77">
+        <v>4</v>
+      </c>
+      <c r="G74" s="77">
+        <v>5</v>
+      </c>
+      <c r="H74" s="77">
+        <v>6</v>
+      </c>
+      <c r="I74" s="77">
+        <v>7</v>
+      </c>
+      <c r="L74" s="77">
+        <v>1</v>
+      </c>
+      <c r="M74" s="77">
+        <v>2</v>
+      </c>
+      <c r="N74" s="77">
+        <v>3</v>
+      </c>
+      <c r="O74" s="77">
+        <v>4</v>
+      </c>
+      <c r="P74" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="77">
+        <v>6</v>
+      </c>
+      <c r="R74" s="77">
+        <v>7</v>
+      </c>
+      <c r="U74" s="77">
+        <v>1</v>
+      </c>
+      <c r="V74" s="77">
+        <v>2</v>
+      </c>
+      <c r="W74" s="77">
+        <v>3</v>
+      </c>
+      <c r="X74" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y74" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z74" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA74" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C77" s="77">
+        <v>43</v>
+      </c>
+      <c r="D77" s="77">
+        <v>44</v>
+      </c>
+      <c r="E77" s="77">
+        <v>45</v>
+      </c>
+      <c r="F77" s="77">
+        <v>46</v>
+      </c>
+      <c r="G77" s="77">
+        <v>47</v>
+      </c>
+      <c r="H77" s="77">
+        <v>48</v>
+      </c>
+      <c r="I77" s="77"/>
+      <c r="L77" s="77">
+        <v>43</v>
+      </c>
+      <c r="M77" s="77">
+        <v>44</v>
+      </c>
+      <c r="N77" s="77">
+        <v>45</v>
+      </c>
+      <c r="O77" s="77">
+        <v>46</v>
+      </c>
+      <c r="P77" s="77">
+        <v>47</v>
+      </c>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="U77" s="77">
+        <v>43</v>
+      </c>
+      <c r="V77" s="77">
+        <v>44</v>
+      </c>
+      <c r="W77" s="77">
+        <v>45</v>
+      </c>
+      <c r="X77" s="77">
+        <v>46</v>
+      </c>
+      <c r="Y77" s="77">
+        <v>47</v>
+      </c>
+      <c r="Z77" s="77">
+        <v>48</v>
+      </c>
+      <c r="AA77" s="77"/>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C78" s="77">
+        <v>36</v>
+      </c>
+      <c r="D78" s="81">
+        <v>37</v>
+      </c>
+      <c r="E78" s="81">
+        <v>38</v>
+      </c>
+      <c r="F78" s="81">
+        <v>39</v>
+      </c>
+      <c r="G78" s="81">
+        <v>40</v>
+      </c>
+      <c r="H78" s="81">
+        <v>41</v>
+      </c>
+      <c r="I78" s="78"/>
+      <c r="L78" s="77">
+        <v>36</v>
+      </c>
+      <c r="M78" s="81">
+        <v>37</v>
+      </c>
+      <c r="N78" s="81">
+        <v>38</v>
+      </c>
+      <c r="O78" s="81">
+        <v>39</v>
+      </c>
+      <c r="P78" s="81">
+        <v>40</v>
+      </c>
+      <c r="Q78" s="81">
+        <v>41</v>
+      </c>
+      <c r="R78" s="78">
+        <v>42</v>
+      </c>
+      <c r="U78" s="77">
+        <v>36</v>
+      </c>
+      <c r="V78" s="81">
+        <v>37</v>
+      </c>
+      <c r="W78" s="81">
+        <v>38</v>
+      </c>
+      <c r="X78" s="81">
+        <v>39</v>
+      </c>
+      <c r="Y78" s="81">
+        <v>40</v>
+      </c>
+      <c r="Z78" s="81">
+        <v>41</v>
+      </c>
+      <c r="AA78" s="78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C79" s="77">
+        <v>29</v>
+      </c>
+      <c r="D79" s="77">
+        <v>30</v>
+      </c>
+      <c r="E79" s="77">
+        <v>31</v>
+      </c>
+      <c r="F79" s="77">
+        <v>32</v>
+      </c>
+      <c r="G79" s="77">
+        <v>33</v>
+      </c>
+      <c r="H79" s="77">
+        <v>34</v>
+      </c>
+      <c r="I79" s="77">
+        <v>35</v>
+      </c>
+      <c r="L79" s="77">
+        <v>29</v>
+      </c>
+      <c r="M79" s="77">
+        <v>30</v>
+      </c>
+      <c r="N79" s="77">
+        <v>31</v>
+      </c>
+      <c r="O79" s="77">
+        <v>32</v>
+      </c>
+      <c r="P79" s="77">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="77">
+        <v>34</v>
+      </c>
+      <c r="R79" s="77">
+        <v>35</v>
+      </c>
+      <c r="U79" s="77">
+        <v>29</v>
+      </c>
+      <c r="V79" s="77">
+        <v>30</v>
+      </c>
+      <c r="W79" s="77">
+        <v>31</v>
+      </c>
+      <c r="X79" s="77">
+        <v>32</v>
+      </c>
+      <c r="Y79" s="77">
+        <v>33</v>
+      </c>
+      <c r="Z79" s="77">
+        <v>34</v>
+      </c>
+      <c r="AA79" s="77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C80" s="77">
+        <v>22</v>
+      </c>
+      <c r="D80" s="81">
+        <v>23</v>
+      </c>
+      <c r="E80" s="81">
+        <v>24</v>
+      </c>
+      <c r="F80" s="81">
+        <v>25</v>
+      </c>
+      <c r="G80" s="81">
+        <v>26</v>
+      </c>
+      <c r="H80" s="81">
+        <v>27</v>
+      </c>
+      <c r="I80" s="78">
+        <v>28</v>
+      </c>
+      <c r="L80" s="77">
+        <v>22</v>
+      </c>
+      <c r="M80" s="81">
+        <v>23</v>
+      </c>
+      <c r="N80" s="81">
+        <v>24</v>
+      </c>
+      <c r="O80" s="81">
+        <v>25</v>
+      </c>
+      <c r="P80" s="81">
+        <v>26</v>
+      </c>
+      <c r="Q80" s="81">
+        <v>27</v>
+      </c>
+      <c r="R80" s="78">
+        <v>28</v>
+      </c>
+      <c r="U80" s="77">
+        <v>22</v>
+      </c>
+      <c r="V80" s="81">
+        <v>23</v>
+      </c>
+      <c r="W80" s="81">
+        <v>24</v>
+      </c>
+      <c r="X80" s="81">
+        <v>25</v>
+      </c>
+      <c r="Y80" s="81">
+        <v>26</v>
+      </c>
+      <c r="Z80" s="81">
+        <v>27</v>
+      </c>
+      <c r="AA80" s="78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C81" s="77">
+        <v>15</v>
+      </c>
+      <c r="D81" s="77">
+        <v>16</v>
+      </c>
+      <c r="E81" s="77">
+        <v>17</v>
+      </c>
+      <c r="F81" s="77">
+        <v>18</v>
+      </c>
+      <c r="G81" s="77">
+        <v>19</v>
+      </c>
+      <c r="H81" s="77">
+        <v>20</v>
+      </c>
+      <c r="I81" s="77">
+        <v>21</v>
+      </c>
+      <c r="L81" s="77">
+        <v>15</v>
+      </c>
+      <c r="M81" s="77">
+        <v>16</v>
+      </c>
+      <c r="N81" s="77">
+        <v>17</v>
+      </c>
+      <c r="O81" s="77">
+        <v>18</v>
+      </c>
+      <c r="P81" s="77">
+        <v>19</v>
+      </c>
+      <c r="Q81" s="77">
+        <v>20</v>
+      </c>
+      <c r="R81" s="77">
+        <v>21</v>
+      </c>
+      <c r="U81" s="77">
+        <v>15</v>
+      </c>
+      <c r="V81" s="77">
+        <v>16</v>
+      </c>
+      <c r="W81" s="77">
+        <v>17</v>
+      </c>
+      <c r="X81" s="77">
+        <v>18</v>
+      </c>
+      <c r="Y81" s="77">
+        <v>19</v>
+      </c>
+      <c r="Z81" s="77">
+        <v>20</v>
+      </c>
+      <c r="AA81" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C82" s="77">
+        <v>8</v>
+      </c>
+      <c r="D82" s="81">
+        <v>9</v>
+      </c>
+      <c r="E82" s="81">
+        <v>10</v>
+      </c>
+      <c r="F82" s="81">
+        <v>11</v>
+      </c>
+      <c r="G82" s="81">
+        <v>12</v>
+      </c>
+      <c r="H82" s="81">
+        <v>13</v>
+      </c>
+      <c r="I82" s="78">
+        <v>14</v>
+      </c>
+      <c r="L82" s="77">
+        <v>8</v>
+      </c>
+      <c r="M82" s="81">
+        <v>9</v>
+      </c>
+      <c r="N82" s="81">
+        <v>10</v>
+      </c>
+      <c r="O82" s="81">
+        <v>11</v>
+      </c>
+      <c r="P82" s="81">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="81">
+        <v>13</v>
+      </c>
+      <c r="R82" s="78">
+        <v>14</v>
+      </c>
+      <c r="U82" s="77">
+        <v>8</v>
+      </c>
+      <c r="V82" s="81">
+        <v>9</v>
+      </c>
+      <c r="W82" s="81">
+        <v>10</v>
+      </c>
+      <c r="X82" s="81">
+        <v>11</v>
+      </c>
+      <c r="Y82" s="81">
+        <v>12</v>
+      </c>
+      <c r="Z82" s="81">
+        <v>13</v>
+      </c>
+      <c r="AA82" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C83" s="77">
+        <v>1</v>
+      </c>
+      <c r="D83" s="77">
+        <v>2</v>
+      </c>
+      <c r="E83" s="77">
+        <v>3</v>
+      </c>
+      <c r="F83" s="77">
+        <v>4</v>
+      </c>
+      <c r="G83" s="77">
+        <v>5</v>
+      </c>
+      <c r="H83" s="77">
+        <v>6</v>
+      </c>
+      <c r="I83" s="77">
+        <v>7</v>
+      </c>
+      <c r="L83" s="77">
+        <v>1</v>
+      </c>
+      <c r="M83" s="77">
+        <v>2</v>
+      </c>
+      <c r="N83" s="77">
+        <v>3</v>
+      </c>
+      <c r="O83" s="77">
+        <v>4</v>
+      </c>
+      <c r="P83" s="77">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="77">
+        <v>6</v>
+      </c>
+      <c r="R83" s="77">
+        <v>7</v>
+      </c>
+      <c r="U83" s="77">
+        <v>1</v>
+      </c>
+      <c r="V83" s="77">
+        <v>2</v>
+      </c>
+      <c r="W83" s="77">
+        <v>3</v>
+      </c>
+      <c r="X83" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="77">
+        <v>6</v>
+      </c>
+      <c r="AA83" s="77">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E4C8E-E42C-41AA-8C34-E7D4F4BE01CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFBF76-E8EE-4082-B55E-FF0CB6FE526E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="1446" windowWidth="16650" windowHeight="10206" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5724" yWindow="1446" windowWidth="16650" windowHeight="10206" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1024,6 +1024,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1465,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2693,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:AE38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2702,10 +2814,10 @@
     <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C2" s="19">
         <v>21</v>
       </c>
@@ -2722,7 +2834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="12">
         <v>16</v>
       </c>
@@ -2739,7 +2851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="12">
         <v>11</v>
       </c>
@@ -2755,8 +2867,13 @@
       <c r="G4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="119"/>
+    </row>
+    <row r="5" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C5" s="12">
         <v>6</v>
       </c>
@@ -2772,8 +2889,25 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="120">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="116">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="116">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="116">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="122"/>
+    </row>
+    <row r="6" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -2789,8 +2923,44 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:19" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="121">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="121">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="123"/>
+    </row>
+    <row r="7" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="121">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="121">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="123"/>
+    </row>
+    <row r="8" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="38">
         <v>1</v>
       </c>
@@ -2800,8 +2970,25 @@
       <c r="O8" s="40">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="121">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="121">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="123"/>
+    </row>
+    <row r="9" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="19">
         <v>21</v>
       </c>
@@ -2847,8 +3034,25 @@
       <c r="S9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="116">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="116">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="116">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="124"/>
+    </row>
+    <row r="10" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="12">
         <v>16</v>
       </c>
@@ -2894,8 +3098,13 @@
       <c r="S10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:19" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="119"/>
+    </row>
+    <row r="11" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C11" s="12">
         <v>11</v>
       </c>
@@ -2942,7 +3151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="12">
         <v>6</v>
       </c>
@@ -2989,7 +3198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -3036,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C14" s="40">
         <v>4</v>
       </c>
@@ -3047,7 +3256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:19" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="19">
         <v>21</v>
       </c>
@@ -3094,7 +3303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:19" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="12">
         <v>16</v>
       </c>
@@ -4234,8 +4443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
   <dimension ref="B1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AD75" sqref="AD75"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFBF76-E8EE-4082-B55E-FF0CB6FE526E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44134DC2-BA69-4C0E-8333-8580880533EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="1446" windowWidth="16650" windowHeight="10206" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16830" yWindow="3040" windowWidth="21060" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -899,66 +899,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right style="thin">
@@ -1118,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,76 +1239,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1383,7 +1311,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1464,12 +1392,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1477,21 +1420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,19 +1700,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -1792,14 +1720,14 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>7</v>
       </c>
@@ -1812,7 +1740,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -1825,7 +1753,7 @@
       <c r="F5" s="53"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1838,10 +1766,10 @@
       <c r="F6" s="53"/>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:24" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="55">
         <v>1</v>
       </c>
@@ -1861,16 +1789,16 @@
       <c r="O8" s="57">
         <v>3</v>
       </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
-      <c r="V8" s="65">
+      <c r="V8" s="61">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -1895,33 +1823,33 @@
       <c r="L9" s="50"/>
       <c r="M9" s="50"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <v>7</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="2">
         <v>9</v>
       </c>
       <c r="R9" s="53"/>
       <c r="S9" s="50"/>
       <c r="T9" s="56"/>
-      <c r="V9" s="60">
+      <c r="V9" s="12">
         <v>7</v>
       </c>
-      <c r="W9" s="61">
+      <c r="W9" s="9">
         <v>8</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="60">
+    <row r="10" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="2">
@@ -1933,42 +1861,42 @@
       <c r="I10" s="12">
         <v>4</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="9">
         <v>5</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="5">
         <v>6</v>
       </c>
       <c r="L10" s="53"/>
       <c r="M10" s="50"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>4</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="8">
         <v>5</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="Q10" s="2">
         <v>6</v>
       </c>
       <c r="R10" s="53"/>
       <c r="S10" s="50"/>
       <c r="T10" s="56"/>
-      <c r="V10" s="62">
+      <c r="V10" s="12">
         <v>4</v>
       </c>
-      <c r="W10" s="63">
+      <c r="W10" s="11">
         <v>5</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="62">
+    <row r="11" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="2">
@@ -1980,38 +1908,38 @@
       <c r="I11" s="12">
         <v>1</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="11">
         <v>2</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="8">
         <v>3</v>
       </c>
       <c r="L11" s="53"/>
       <c r="M11" s="50"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="3">
         <v>2</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="1">
         <v>3</v>
       </c>
       <c r="R11" s="50"/>
       <c r="S11" s="50"/>
       <c r="T11" s="56"/>
-      <c r="V11" s="3">
+      <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="3">
         <v>2</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:24" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="50"/>
@@ -2031,7 +1959,7 @@
       <c r="S12" s="50"/>
       <c r="T12" s="56"/>
     </row>
-    <row r="13" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -2051,7 +1979,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="56"/>
     </row>
-    <row r="14" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -2070,7 +1998,7 @@
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
     </row>
-    <row r="15" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="58"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -2090,7 +2018,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="56"/>
     </row>
-    <row r="16" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -2104,13 +2032,10 @@
       <c r="M16" s="50"/>
       <c r="N16" s="56"/>
       <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
       <c r="S16" s="50"/>
       <c r="T16" s="56"/>
     </row>
-    <row r="17" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2124,13 +2049,10 @@
       <c r="M17" s="50"/>
       <c r="N17" s="56"/>
       <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
       <c r="S17" s="50"/>
       <c r="T17" s="56"/>
     </row>
-    <row r="18" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
@@ -2144,13 +2066,10 @@
       <c r="M18" s="50"/>
       <c r="N18" s="56"/>
       <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
       <c r="S18" s="50"/>
       <c r="T18" s="56"/>
     </row>
-    <row r="19" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -2170,7 +2089,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="56"/>
     </row>
-    <row r="20" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -2190,7 +2109,7 @@
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
     </row>
-    <row r="21" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="58"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -2210,7 +2129,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="56"/>
     </row>
-    <row r="22" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -2230,7 +2149,7 @@
       <c r="S22" s="50"/>
       <c r="T22" s="56"/>
     </row>
-    <row r="23" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -2250,7 +2169,7 @@
       <c r="S23" s="50"/>
       <c r="T23" s="56"/>
     </row>
-    <row r="24" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -2270,7 +2189,7 @@
       <c r="S24" s="50"/>
       <c r="T24" s="56"/>
     </row>
-    <row r="25" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -2290,7 +2209,7 @@
       <c r="S25" s="50"/>
       <c r="T25" s="56"/>
     </row>
-    <row r="27" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="56"/>
       <c r="C27" s="50"/>
       <c r="D27" s="56"/>
@@ -2326,7 +2245,7 @@
       <c r="AH27" s="56"/>
       <c r="AI27" s="56"/>
     </row>
-    <row r="28" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
       <c r="D28" s="50"/>
@@ -2362,7 +2281,7 @@
       <c r="AH28" s="56"/>
       <c r="AI28" s="56"/>
     </row>
-    <row r="29" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="56"/>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -2398,7 +2317,7 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="56"/>
     </row>
-    <row r="30" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="56"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -2434,7 +2353,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="56"/>
     </row>
-    <row r="31" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="56"/>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
@@ -2470,7 +2389,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="56"/>
     </row>
-    <row r="32" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="56"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
@@ -2506,7 +2425,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="56"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
@@ -2542,7 +2461,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="56"/>
     </row>
-    <row r="34" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -2578,7 +2497,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="56"/>
     </row>
-    <row r="35" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
@@ -2614,7 +2533,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="56"/>
     </row>
-    <row r="36" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -2650,7 +2569,7 @@
       <c r="AH36" s="56"/>
       <c r="AI36" s="56"/>
     </row>
-    <row r="37" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
@@ -2686,7 +2605,7 @@
       <c r="AH37" s="56"/>
       <c r="AI37" s="56"/>
     </row>
-    <row r="38" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -2722,7 +2641,7 @@
       <c r="AH38" s="56"/>
       <c r="AI38" s="56"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
@@ -2758,7 +2677,7 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="56"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -2805,19 +2724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="19">
         <v>21</v>
       </c>
@@ -2833,8 +2752,13 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="115"/>
+    </row>
+    <row r="3" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="12">
         <v>16</v>
       </c>
@@ -2850,8 +2774,25 @@
       <c r="G3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W3" s="118"/>
+      <c r="X3" s="116">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="112">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="112">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="112">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="118"/>
+    </row>
+    <row r="4" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12">
         <v>11</v>
       </c>
@@ -2867,13 +2808,25 @@
       <c r="G4" s="2">
         <v>15</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="119"/>
-    </row>
-    <row r="5" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="W4" s="119"/>
+      <c r="X4" s="117">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="117">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="119"/>
+    </row>
+    <row r="5" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12">
         <v>6</v>
       </c>
@@ -2889,25 +2842,25 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="120">
-        <v>21</v>
-      </c>
-      <c r="AA5" s="116">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="116">
-        <v>23</v>
-      </c>
-      <c r="AC5" s="116">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="15">
-        <v>25</v>
-      </c>
-      <c r="AE5" s="122"/>
-    </row>
-    <row r="6" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W5" s="119"/>
+      <c r="X5" s="117">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="117">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="119"/>
+    </row>
+    <row r="6" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -2923,44 +2876,44 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="121">
-        <v>16</v>
+      <c r="W6" s="119"/>
+      <c r="X6" s="117">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>8</v>
       </c>
       <c r="AA6" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="121">
-        <v>20</v>
-      </c>
-      <c r="AE6" s="123"/>
-    </row>
-    <row r="7" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="121">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>14</v>
-      </c>
-      <c r="AD7" s="121">
-        <v>15</v>
-      </c>
-      <c r="AE7" s="123"/>
-    </row>
-    <row r="8" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="117">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="119"/>
+    </row>
+    <row r="7" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="120"/>
+      <c r="X7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="112">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="112">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="112">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="120"/>
+    </row>
+    <row r="8" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>1</v>
       </c>
@@ -2970,25 +2923,13 @@
       <c r="O8" s="40">
         <v>3</v>
       </c>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="121">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD8" s="121">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="123"/>
-    </row>
-    <row r="9" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X8" s="113"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="115"/>
+    </row>
+    <row r="9" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="19">
         <v>21</v>
       </c>
@@ -3004,7 +2945,7 @@
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>21</v>
       </c>
       <c r="J9" s="18">
@@ -3034,218 +2975,196 @@
       <c r="S9" s="1">
         <v>25</v>
       </c>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="116">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="116">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="116">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="124"/>
-    </row>
-    <row r="10" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="12">
+    </row>
+    <row r="10" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="18">
         <v>17</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="18">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="12">
         <v>16</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="18">
         <v>17</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="18">
         <v>18</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="18">
         <v>19</v>
       </c>
       <c r="M10" s="2">
         <v>20</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>16</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="1">
         <v>17</v>
       </c>
       <c r="Q10" s="18">
         <v>18</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="18">
         <v>19</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="16">
         <v>20</v>
       </c>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="119"/>
-    </row>
-    <row r="11" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="12">
+    </row>
+    <row r="11" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="17">
         <v>11</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="4">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>13</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="12">
         <v>11</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="9">
         <v>12</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>13</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>14</v>
       </c>
       <c r="M11" s="2">
         <v>15</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="12">
         <v>11</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="12">
         <v>12</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="9">
         <v>13</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="4">
         <v>14</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="12">
+    <row r="12" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27">
         <v>6</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>8</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="2">
         <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="12">
         <v>6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="10">
         <v>7</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="1">
         <v>8</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="6">
         <v>9</v>
       </c>
       <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="12">
         <v>6</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="12">
         <v>7</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="10">
         <v>8</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>9</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="1">
+    <row r="13" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="29">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="13">
         <v>4</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="30">
         <v>2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="28">
         <v>3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="29">
         <v>4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>5</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="15">
         <v>2</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="30">
         <v>3</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="28">
         <v>4</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="40">
         <v>4</v>
       </c>
@@ -3256,8 +3175,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="19">
+    <row r="15" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="21">
         <v>21</v>
       </c>
       <c r="D15" s="18">
@@ -3303,17 +3222,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="12">
+    <row r="16" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="23">
         <v>16</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="24">
         <v>17</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="5">
         <v>18</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="2">
         <v>19</v>
       </c>
       <c r="G16" s="2">
@@ -3322,16 +3241,16 @@
       <c r="I16" s="12">
         <v>16</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="9">
         <v>17</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="4">
         <v>18</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="5">
         <v>19</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="2">
         <v>20</v>
       </c>
       <c r="O16" s="12">
@@ -3350,17 +3269,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="12">
+    <row r="17" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>13</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>14</v>
       </c>
       <c r="G17" s="2">
@@ -3369,16 +3288,16 @@
       <c r="I17" s="12">
         <v>11</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>12</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="1">
         <v>13</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="2">
         <v>15</v>
       </c>
       <c r="O17" s="12">
@@ -3397,17 +3316,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="12">
+    <row r="18" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="26">
         <v>6</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="8">
         <v>8</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="2">
         <v>9</v>
       </c>
       <c r="G18" s="2">
@@ -3416,16 +3335,16 @@
       <c r="I18" s="12">
         <v>6</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>7</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <v>8</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="8">
         <v>9</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="2">
         <v>10</v>
       </c>
       <c r="O18" s="12">
@@ -3444,35 +3363,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="12">
+    <row r="19" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="3">
         <v>4</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="1">
         <v>5</v>
       </c>
       <c r="O19" s="1">
@@ -3491,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:31" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="41">
         <v>7</v>
       </c>
@@ -3502,20 +3421,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="19">
+    <row r="21" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="36">
         <v>21</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="34">
         <v>22</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="35">
         <v>23</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="16">
         <v>24</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>25</v>
       </c>
       <c r="I21" s="22">
@@ -3533,36 +3452,36 @@
       <c r="M21" s="2">
         <v>25</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="19">
         <v>21</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="14">
         <v>22</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="33">
         <v>23</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="34">
         <v>24</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="12">
+    <row r="22" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="27">
         <v>16</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="1">
         <v>17</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>19</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="2">
         <v>20</v>
       </c>
       <c r="I22" s="12">
@@ -3580,36 +3499,36 @@
       <c r="M22" s="2">
         <v>20</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="12">
         <v>16</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="12">
         <v>17</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="10">
         <v>18</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>19</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="12">
+    <row r="23" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="26">
         <v>11</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="7">
         <v>12</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>13</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="2">
         <v>14</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="2">
         <v>15</v>
       </c>
       <c r="I23" s="12">
@@ -3627,36 +3546,36 @@
       <c r="M23" s="2">
         <v>15</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="12">
         <v>11</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="12">
         <v>12</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="11">
         <v>13</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="7">
         <v>14</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="12">
+    <row r="24" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="15">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>7</v>
       </c>
       <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>9</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="2">
         <v>10</v>
       </c>
       <c r="I24" s="12">
@@ -3674,23 +3593,23 @@
       <c r="M24" s="2">
         <v>10</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="12">
         <v>6</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <v>7</v>
       </c>
       <c r="Q24" s="3">
         <v>8</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="3">
         <v>9</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -3737,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>1</v>
       </c>
@@ -3754,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="19">
         <v>21</v>
       </c>
@@ -3819,7 +3738,7 @@
       </c>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="12">
         <v>16</v>
       </c>
@@ -3890,7 +3809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="12">
         <v>11</v>
       </c>
@@ -3967,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="12">
         <v>6</v>
       </c>
@@ -4044,7 +3963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -4121,7 +4040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="44">
         <v>21</v>
       </c>
@@ -4183,7 +4102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="43">
         <v>16</v>
       </c>
@@ -4245,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="43">
         <v>11</v>
       </c>
@@ -4307,7 +4226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="43">
         <v>6</v>
       </c>
@@ -4369,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="44">
         <v>1</v>
       </c>
@@ -4443,5626 +4362,5626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
   <dimension ref="B1:AT83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" style="66" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="66"/>
+    <col min="1" max="256" width="2.6640625" style="62" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="68"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="68"/>
-      <c r="C3" s="77">
+    <row r="1" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+      <c r="C3" s="73">
         <v>43</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="73">
         <v>44</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="73">
         <v>45</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="73">
         <v>46</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="73">
         <v>47</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="73">
         <v>48</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="73">
         <v>49</v>
       </c>
-      <c r="J3" s="69"/>
-    </row>
-    <row r="4" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="68"/>
-      <c r="C4" s="77">
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="73">
         <v>36</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="77">
         <v>37</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="77">
         <v>38</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="77">
         <v>39</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="77">
         <v>40</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="77">
         <v>41</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="74">
         <v>42</v>
       </c>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="68"/>
-      <c r="C5" s="77">
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="73">
         <v>29</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="73">
         <v>30</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="73">
         <v>31</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="73">
         <v>32</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="73">
         <v>33</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="73">
         <v>34</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="73">
         <v>35</v>
       </c>
-      <c r="J5" s="69"/>
-    </row>
-    <row r="6" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="68"/>
-      <c r="C6" s="77">
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="64"/>
+      <c r="C6" s="73">
         <v>22</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="77">
         <v>23</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="77">
         <v>24</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="77">
         <v>25</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="77">
         <v>26</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="77">
         <v>27</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="74">
         <v>28</v>
       </c>
-      <c r="J6" s="69"/>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.45">
-      <c r="B7" s="68"/>
-      <c r="C7" s="77">
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B7" s="64"/>
+      <c r="C7" s="73">
         <v>15</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="73">
         <v>16</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="73">
         <v>17</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="73">
         <v>18</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="73">
         <v>19</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="73">
         <v>20</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="73">
         <v>21</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="68"/>
-      <c r="C8" s="77">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+      <c r="C8" s="73">
         <v>8</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="77">
         <v>9</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="77">
         <v>10</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="77">
         <v>11</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="77">
         <v>12</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="77">
         <v>13</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="74">
         <v>14</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="O8" s="70"/>
-      <c r="V8" s="70"/>
-    </row>
-    <row r="9" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="77">
+      <c r="J8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="V8" s="66"/>
+    </row>
+    <row r="9" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="64"/>
+      <c r="C9" s="73">
         <v>1</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="73">
         <v>2</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="73">
         <v>3</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="73">
         <v>4</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="73">
         <v>5</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="73">
         <v>6</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="73">
         <v>7</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-    </row>
-    <row r="10" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-    </row>
-    <row r="11" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-    </row>
-    <row r="12" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="82" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+    </row>
+    <row r="10" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+    </row>
+    <row r="11" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+    </row>
+    <row r="12" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="82" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="U12" s="83" t="s">
+      <c r="M12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="U12" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" s="83" t="s">
+      <c r="AD12" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AM12" s="83" t="s">
+      <c r="AM12" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="77">
+    <row r="13" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="73">
         <v>43</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="73">
         <v>44</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="73">
         <v>45</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="73">
         <v>46</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="73">
         <v>47</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="73">
         <v>48</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="73">
         <v>49</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="77">
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="73">
         <v>43</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="73">
         <v>44</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="73">
         <v>45</v>
       </c>
-      <c r="O13" s="77">
+      <c r="O13" s="73">
         <v>46</v>
       </c>
-      <c r="P13" s="77">
+      <c r="P13" s="73">
         <v>47</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="73">
         <v>48</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="73">
         <v>49</v>
       </c>
-      <c r="S13" s="72"/>
-      <c r="U13" s="77">
+      <c r="S13" s="68"/>
+      <c r="U13" s="73">
         <v>43</v>
       </c>
-      <c r="V13" s="77">
+      <c r="V13" s="73">
         <v>44</v>
       </c>
-      <c r="W13" s="77">
+      <c r="W13" s="73">
         <v>45</v>
       </c>
-      <c r="X13" s="77">
+      <c r="X13" s="73">
         <v>46</v>
       </c>
-      <c r="Y13" s="77">
+      <c r="Y13" s="73">
         <v>47</v>
       </c>
-      <c r="Z13" s="77">
+      <c r="Z13" s="73">
         <v>48</v>
       </c>
-      <c r="AA13" s="77">
+      <c r="AA13" s="73">
         <v>49</v>
       </c>
-      <c r="AD13" s="77">
+      <c r="AD13" s="73">
         <v>43</v>
       </c>
-      <c r="AE13" s="77">
+      <c r="AE13" s="73">
         <v>44</v>
       </c>
-      <c r="AF13" s="77">
+      <c r="AF13" s="73">
         <v>45</v>
       </c>
-      <c r="AG13" s="77">
+      <c r="AG13" s="73">
         <v>46</v>
       </c>
-      <c r="AH13" s="77">
+      <c r="AH13" s="73">
         <v>47</v>
       </c>
-      <c r="AI13" s="77">
+      <c r="AI13" s="73">
         <v>48</v>
       </c>
-      <c r="AJ13" s="77">
+      <c r="AJ13" s="73">
         <v>49</v>
       </c>
-      <c r="AM13" s="77">
+      <c r="AM13" s="73">
         <v>43</v>
       </c>
-      <c r="AN13" s="77">
+      <c r="AN13" s="73">
         <v>44</v>
       </c>
-      <c r="AO13" s="77">
+      <c r="AO13" s="73">
         <v>45</v>
       </c>
-      <c r="AP13" s="77">
+      <c r="AP13" s="73">
         <v>46</v>
       </c>
-      <c r="AQ13" s="77">
+      <c r="AQ13" s="73">
         <v>47</v>
       </c>
-      <c r="AR13" s="77">
+      <c r="AR13" s="73">
         <v>48</v>
       </c>
-      <c r="AS13" s="77">
+      <c r="AS13" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="77">
+    <row r="14" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="73">
         <v>36</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="77">
         <v>37</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="77">
         <v>38</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="77">
         <v>39</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="77">
         <v>40</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="77">
         <v>41</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="74">
         <v>42</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="73">
         <v>36</v>
       </c>
-      <c r="M14" s="81">
+      <c r="M14" s="77">
         <v>37</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="77">
         <v>38</v>
       </c>
-      <c r="O14" s="81">
+      <c r="O14" s="77">
         <v>39</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="77">
         <v>40</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="Q14" s="77">
         <v>41</v>
       </c>
-      <c r="R14" s="78">
+      <c r="R14" s="74">
         <v>42</v>
       </c>
-      <c r="U14" s="77">
+      <c r="U14" s="73">
         <v>36</v>
       </c>
-      <c r="V14" s="81">
+      <c r="V14" s="77">
         <v>37</v>
       </c>
-      <c r="W14" s="81">
+      <c r="W14" s="77">
         <v>38</v>
       </c>
-      <c r="X14" s="81">
+      <c r="X14" s="77">
         <v>39</v>
       </c>
-      <c r="Y14" s="81">
+      <c r="Y14" s="77">
         <v>40</v>
       </c>
-      <c r="Z14" s="81">
+      <c r="Z14" s="77">
         <v>41</v>
       </c>
-      <c r="AA14" s="78">
+      <c r="AA14" s="74">
         <v>42</v>
       </c>
-      <c r="AD14" s="77">
+      <c r="AD14" s="73">
         <v>36</v>
       </c>
-      <c r="AE14" s="81">
+      <c r="AE14" s="77">
         <v>37</v>
       </c>
-      <c r="AF14" s="81">
+      <c r="AF14" s="77">
         <v>38</v>
       </c>
-      <c r="AG14" s="81">
+      <c r="AG14" s="77">
         <v>39</v>
       </c>
-      <c r="AH14" s="81">
+      <c r="AH14" s="77">
         <v>40</v>
       </c>
-      <c r="AI14" s="81">
+      <c r="AI14" s="77">
         <v>41</v>
       </c>
-      <c r="AJ14" s="78">
+      <c r="AJ14" s="74">
         <v>42</v>
       </c>
-      <c r="AM14" s="77">
+      <c r="AM14" s="73">
         <v>36</v>
       </c>
-      <c r="AN14" s="81">
+      <c r="AN14" s="77">
         <v>37</v>
       </c>
-      <c r="AO14" s="81">
+      <c r="AO14" s="77">
         <v>38</v>
       </c>
-      <c r="AP14" s="81">
+      <c r="AP14" s="77">
         <v>39</v>
       </c>
-      <c r="AQ14" s="81">
+      <c r="AQ14" s="77">
         <v>40</v>
       </c>
-      <c r="AR14" s="81">
+      <c r="AR14" s="77">
         <v>41</v>
       </c>
-      <c r="AS14" s="78">
+      <c r="AS14" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="77">
+    <row r="15" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="73">
         <v>29</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="73">
         <v>30</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="73">
         <v>31</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="73">
         <v>32</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="73">
         <v>33</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="73">
         <v>34</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="73">
         <v>35</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="77">
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="73">
         <v>29</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="73">
         <v>30</v>
       </c>
-      <c r="N15" s="77">
+      <c r="N15" s="73">
         <v>31</v>
       </c>
-      <c r="O15" s="77">
+      <c r="O15" s="73">
         <v>32</v>
       </c>
-      <c r="P15" s="77">
+      <c r="P15" s="73">
         <v>33</v>
       </c>
-      <c r="Q15" s="77">
+      <c r="Q15" s="73">
         <v>34</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="73">
         <v>35</v>
       </c>
-      <c r="S15" s="72"/>
-      <c r="U15" s="77">
+      <c r="S15" s="68"/>
+      <c r="U15" s="73">
         <v>29</v>
       </c>
-      <c r="V15" s="77">
+      <c r="V15" s="73">
         <v>30</v>
       </c>
-      <c r="W15" s="77">
+      <c r="W15" s="73">
         <v>31</v>
       </c>
-      <c r="X15" s="77">
+      <c r="X15" s="73">
         <v>32</v>
       </c>
-      <c r="Y15" s="77">
+      <c r="Y15" s="73">
         <v>33</v>
       </c>
-      <c r="Z15" s="77">
+      <c r="Z15" s="73">
         <v>34</v>
       </c>
-      <c r="AA15" s="77">
+      <c r="AA15" s="73">
         <v>35</v>
       </c>
-      <c r="AD15" s="77">
+      <c r="AD15" s="73">
         <v>29</v>
       </c>
-      <c r="AE15" s="77">
+      <c r="AE15" s="73">
         <v>30</v>
       </c>
-      <c r="AF15" s="77">
+      <c r="AF15" s="73">
         <v>31</v>
       </c>
-      <c r="AG15" s="77">
+      <c r="AG15" s="73">
         <v>32</v>
       </c>
-      <c r="AH15" s="77">
+      <c r="AH15" s="73">
         <v>33</v>
       </c>
-      <c r="AI15" s="77">
+      <c r="AI15" s="73">
         <v>34</v>
       </c>
-      <c r="AJ15" s="77">
+      <c r="AJ15" s="73">
         <v>35</v>
       </c>
-      <c r="AM15" s="77">
+      <c r="AM15" s="73">
         <v>29</v>
       </c>
-      <c r="AN15" s="77">
+      <c r="AN15" s="73">
         <v>30</v>
       </c>
-      <c r="AO15" s="77">
+      <c r="AO15" s="73">
         <v>31</v>
       </c>
-      <c r="AP15" s="77">
+      <c r="AP15" s="73">
         <v>32</v>
       </c>
-      <c r="AQ15" s="77">
+      <c r="AQ15" s="73">
         <v>33</v>
       </c>
-      <c r="AR15" s="77">
+      <c r="AR15" s="73">
         <v>34</v>
       </c>
-      <c r="AS15" s="77">
+      <c r="AS15" s="73">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="86">
+    <row r="16" spans="2:45" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="82">
         <v>22</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="83">
         <v>23</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="83">
         <v>24</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="77">
         <v>25</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="77">
         <v>26</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="77">
         <v>27</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="74">
         <v>28</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="77">
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="73">
         <v>22</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M16" s="83">
         <v>23</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="83">
         <v>24</v>
       </c>
-      <c r="O16" s="87">
+      <c r="O16" s="83">
         <v>25</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="77">
         <v>26</v>
       </c>
-      <c r="Q16" s="81">
+      <c r="Q16" s="77">
         <v>27</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="74">
         <v>28</v>
       </c>
-      <c r="S16" s="72"/>
-      <c r="U16" s="77">
+      <c r="S16" s="68"/>
+      <c r="U16" s="73">
         <v>22</v>
       </c>
-      <c r="V16" s="81">
+      <c r="V16" s="77">
         <v>23</v>
       </c>
-      <c r="W16" s="87">
+      <c r="W16" s="83">
         <v>24</v>
       </c>
-      <c r="X16" s="87">
+      <c r="X16" s="83">
         <v>25</v>
       </c>
-      <c r="Y16" s="87">
+      <c r="Y16" s="83">
         <v>26</v>
       </c>
-      <c r="Z16" s="81">
+      <c r="Z16" s="77">
         <v>27</v>
       </c>
-      <c r="AA16" s="78">
+      <c r="AA16" s="74">
         <v>28</v>
       </c>
-      <c r="AD16" s="77">
+      <c r="AD16" s="73">
         <v>22</v>
       </c>
-      <c r="AE16" s="81">
+      <c r="AE16" s="77">
         <v>23</v>
       </c>
-      <c r="AF16" s="81">
+      <c r="AF16" s="77">
         <v>24</v>
       </c>
-      <c r="AG16" s="87">
+      <c r="AG16" s="83">
         <v>25</v>
       </c>
-      <c r="AH16" s="87">
+      <c r="AH16" s="83">
         <v>26</v>
       </c>
-      <c r="AI16" s="87">
+      <c r="AI16" s="83">
         <v>27</v>
       </c>
-      <c r="AJ16" s="78">
+      <c r="AJ16" s="74">
         <v>28</v>
       </c>
-      <c r="AM16" s="77">
+      <c r="AM16" s="73">
         <v>22</v>
       </c>
-      <c r="AN16" s="81">
+      <c r="AN16" s="77">
         <v>23</v>
       </c>
-      <c r="AO16" s="81">
+      <c r="AO16" s="77">
         <v>24</v>
       </c>
-      <c r="AP16" s="81">
+      <c r="AP16" s="77">
         <v>25</v>
       </c>
-      <c r="AQ16" s="87">
+      <c r="AQ16" s="83">
         <v>26</v>
       </c>
-      <c r="AR16" s="87">
+      <c r="AR16" s="83">
         <v>27</v>
       </c>
-      <c r="AS16" s="102">
+      <c r="AS16" s="98">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="68"/>
-      <c r="C17" s="89">
+    <row r="17" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="64"/>
+      <c r="C17" s="85">
         <v>15</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="86">
         <v>16</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="87">
         <v>17</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="80">
         <v>18</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="73">
         <v>19</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="73">
         <v>20</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="73">
         <v>21</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="98">
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="94">
         <v>15</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M17" s="85">
         <v>16</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="86">
         <v>17</v>
       </c>
-      <c r="O17" s="91">
+      <c r="O17" s="87">
         <v>18</v>
       </c>
-      <c r="P17" s="84">
+      <c r="P17" s="80">
         <v>19</v>
       </c>
-      <c r="Q17" s="77">
+      <c r="Q17" s="73">
         <v>20</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="73">
         <v>21</v>
       </c>
-      <c r="S17" s="72"/>
-      <c r="U17" s="77">
+      <c r="S17" s="68"/>
+      <c r="U17" s="73">
         <v>15</v>
       </c>
-      <c r="V17" s="98">
+      <c r="V17" s="94">
         <v>16</v>
       </c>
-      <c r="W17" s="89">
+      <c r="W17" s="85">
         <v>17</v>
       </c>
-      <c r="X17" s="90">
+      <c r="X17" s="86">
         <v>18</v>
       </c>
-      <c r="Y17" s="91">
+      <c r="Y17" s="87">
         <v>19</v>
       </c>
-      <c r="Z17" s="84">
+      <c r="Z17" s="80">
         <v>20</v>
       </c>
-      <c r="AA17" s="77">
+      <c r="AA17" s="73">
         <v>21</v>
       </c>
-      <c r="AD17" s="77">
+      <c r="AD17" s="73">
         <v>15</v>
       </c>
-      <c r="AE17" s="77">
+      <c r="AE17" s="73">
         <v>16</v>
       </c>
-      <c r="AF17" s="98">
+      <c r="AF17" s="94">
         <v>17</v>
       </c>
-      <c r="AG17" s="89">
+      <c r="AG17" s="85">
         <v>18</v>
       </c>
-      <c r="AH17" s="90">
+      <c r="AH17" s="86">
         <v>19</v>
       </c>
-      <c r="AI17" s="91">
+      <c r="AI17" s="87">
         <v>20</v>
       </c>
-      <c r="AJ17" s="84">
+      <c r="AJ17" s="80">
         <v>21</v>
       </c>
-      <c r="AM17" s="77">
+      <c r="AM17" s="73">
         <v>15</v>
       </c>
-      <c r="AN17" s="77">
+      <c r="AN17" s="73">
         <v>16</v>
       </c>
-      <c r="AO17" s="77">
+      <c r="AO17" s="73">
         <v>17</v>
       </c>
-      <c r="AP17" s="98">
+      <c r="AP17" s="94">
         <v>18</v>
       </c>
-      <c r="AQ17" s="89">
+      <c r="AQ17" s="85">
         <v>19</v>
       </c>
-      <c r="AR17" s="90">
+      <c r="AR17" s="86">
         <v>20</v>
       </c>
-      <c r="AS17" s="91">
+      <c r="AS17" s="87">
         <v>21</v>
       </c>
-      <c r="AT17" s="69"/>
-    </row>
-    <row r="18" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="68"/>
-      <c r="C18" s="92">
+      <c r="AT17" s="65"/>
+    </row>
+    <row r="18" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="64"/>
+      <c r="C18" s="88">
         <v>8</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="77">
         <v>9</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="89">
         <v>10</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="81">
         <v>11</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="77">
         <v>12</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="77">
         <v>13</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="74">
         <v>14</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="98">
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="94">
         <v>8</v>
       </c>
-      <c r="M18" s="100">
+      <c r="M18" s="96">
         <v>9</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="77">
         <v>10</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="89">
         <v>11</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="81">
         <v>12</v>
       </c>
-      <c r="Q18" s="81">
+      <c r="Q18" s="77">
         <v>13</v>
       </c>
-      <c r="R18" s="78">
+      <c r="R18" s="74">
         <v>14</v>
       </c>
-      <c r="S18" s="72"/>
-      <c r="U18" s="77">
+      <c r="S18" s="68"/>
+      <c r="U18" s="73">
         <v>8</v>
       </c>
-      <c r="V18" s="101">
+      <c r="V18" s="97">
         <v>9</v>
       </c>
-      <c r="W18" s="100">
+      <c r="W18" s="96">
         <v>10</v>
       </c>
-      <c r="X18" s="81">
+      <c r="X18" s="77">
         <v>11</v>
       </c>
-      <c r="Y18" s="93">
+      <c r="Y18" s="89">
         <v>12</v>
       </c>
-      <c r="Z18" s="85">
+      <c r="Z18" s="81">
         <v>13</v>
       </c>
-      <c r="AA18" s="78">
+      <c r="AA18" s="74">
         <v>14</v>
       </c>
-      <c r="AD18" s="77">
+      <c r="AD18" s="73">
         <v>8</v>
       </c>
-      <c r="AE18" s="81">
+      <c r="AE18" s="77">
         <v>9</v>
       </c>
-      <c r="AF18" s="101">
+      <c r="AF18" s="97">
         <v>10</v>
       </c>
-      <c r="AG18" s="100">
+      <c r="AG18" s="96">
         <v>11</v>
       </c>
-      <c r="AH18" s="81">
+      <c r="AH18" s="77">
         <v>12</v>
       </c>
-      <c r="AI18" s="93">
+      <c r="AI18" s="89">
         <v>13</v>
       </c>
-      <c r="AJ18" s="99">
+      <c r="AJ18" s="95">
         <v>14</v>
       </c>
-      <c r="AM18" s="77">
+      <c r="AM18" s="73">
         <v>8</v>
       </c>
-      <c r="AN18" s="81">
+      <c r="AN18" s="77">
         <v>9</v>
       </c>
-      <c r="AO18" s="81">
+      <c r="AO18" s="77">
         <v>10</v>
       </c>
-      <c r="AP18" s="101">
+      <c r="AP18" s="97">
         <v>11</v>
       </c>
-      <c r="AQ18" s="100">
+      <c r="AQ18" s="96">
         <v>12</v>
       </c>
-      <c r="AR18" s="81">
+      <c r="AR18" s="77">
         <v>13</v>
       </c>
-      <c r="AS18" s="103">
+      <c r="AS18" s="99">
         <v>14</v>
       </c>
-      <c r="AT18" s="69"/>
-    </row>
-    <row r="19" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="68"/>
-      <c r="C19" s="95">
+      <c r="AT18" s="65"/>
+    </row>
+    <row r="19" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="64"/>
+      <c r="C19" s="91">
         <v>1</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="92">
         <v>2</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="93">
         <v>3</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="80">
         <v>4</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="73">
         <v>5</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="73">
         <v>6</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="73">
         <v>7</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="98">
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="94">
         <v>1</v>
       </c>
-      <c r="M19" s="95">
+      <c r="M19" s="91">
         <v>2</v>
       </c>
-      <c r="N19" s="96">
+      <c r="N19" s="92">
         <v>3</v>
       </c>
-      <c r="O19" s="97">
+      <c r="O19" s="93">
         <v>4</v>
       </c>
-      <c r="P19" s="84">
+      <c r="P19" s="80">
         <v>5</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="73">
         <v>6</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="73">
         <v>7</v>
       </c>
-      <c r="S19" s="72"/>
-      <c r="U19" s="77">
+      <c r="S19" s="68"/>
+      <c r="U19" s="73">
         <v>1</v>
       </c>
-      <c r="V19" s="98">
+      <c r="V19" s="94">
         <v>2</v>
       </c>
-      <c r="W19" s="95">
+      <c r="W19" s="91">
         <v>3</v>
       </c>
-      <c r="X19" s="96">
+      <c r="X19" s="92">
         <v>4</v>
       </c>
-      <c r="Y19" s="97">
+      <c r="Y19" s="93">
         <v>5</v>
       </c>
-      <c r="Z19" s="84">
+      <c r="Z19" s="80">
         <v>6</v>
       </c>
-      <c r="AA19" s="77">
+      <c r="AA19" s="73">
         <v>7</v>
       </c>
-      <c r="AD19" s="77">
+      <c r="AD19" s="73">
         <v>1</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="73">
         <v>2</v>
       </c>
-      <c r="AF19" s="98">
+      <c r="AF19" s="94">
         <v>3</v>
       </c>
-      <c r="AG19" s="95">
+      <c r="AG19" s="91">
         <v>4</v>
       </c>
-      <c r="AH19" s="96">
+      <c r="AH19" s="92">
         <v>5</v>
       </c>
-      <c r="AI19" s="97">
+      <c r="AI19" s="93">
         <v>6</v>
       </c>
-      <c r="AJ19" s="84">
+      <c r="AJ19" s="80">
         <v>7</v>
       </c>
-      <c r="AM19" s="77">
+      <c r="AM19" s="73">
         <v>1</v>
       </c>
-      <c r="AN19" s="77">
+      <c r="AN19" s="73">
         <v>2</v>
       </c>
-      <c r="AO19" s="77">
+      <c r="AO19" s="73">
         <v>3</v>
       </c>
-      <c r="AP19" s="98">
+      <c r="AP19" s="94">
         <v>4</v>
       </c>
-      <c r="AQ19" s="95">
+      <c r="AQ19" s="91">
         <v>5</v>
       </c>
-      <c r="AR19" s="96">
+      <c r="AR19" s="92">
         <v>6</v>
       </c>
-      <c r="AS19" s="97">
+      <c r="AS19" s="93">
         <v>7</v>
       </c>
-      <c r="AT19" s="69"/>
-    </row>
-    <row r="20" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="88"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="88"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AQ20" s="74"/>
-      <c r="AR20" s="74"/>
-      <c r="AS20" s="74"/>
-    </row>
-    <row r="21" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="82" t="s">
+      <c r="AT19" s="65"/>
+    </row>
+    <row r="20" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="84"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="84"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+    </row>
+    <row r="21" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="82" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="72"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="U21" s="83" t="s">
+      <c r="M21" s="68"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="U21" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="AD21" s="83" t="s">
+      <c r="AD21" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AM21" s="83" t="s">
+      <c r="AM21" s="79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="77">
+    <row r="22" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="73">
         <v>43</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="73">
         <v>44</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="73">
         <v>45</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="73">
         <v>46</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="73">
         <v>47</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="73">
         <v>48</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="73">
         <v>49</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="77">
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="73">
         <v>43</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="73">
         <v>44</v>
       </c>
-      <c r="N22" s="77">
+      <c r="N22" s="73">
         <v>45</v>
       </c>
-      <c r="O22" s="77">
+      <c r="O22" s="73">
         <v>46</v>
       </c>
-      <c r="P22" s="77">
+      <c r="P22" s="73">
         <v>47</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="73">
         <v>48</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="73">
         <v>49</v>
       </c>
-      <c r="S22" s="72"/>
-      <c r="U22" s="77">
+      <c r="S22" s="68"/>
+      <c r="U22" s="73">
         <v>43</v>
       </c>
-      <c r="V22" s="77">
+      <c r="V22" s="73">
         <v>44</v>
       </c>
-      <c r="W22" s="77">
+      <c r="W22" s="73">
         <v>45</v>
       </c>
-      <c r="X22" s="77">
+      <c r="X22" s="73">
         <v>46</v>
       </c>
-      <c r="Y22" s="77">
+      <c r="Y22" s="73">
         <v>47</v>
       </c>
-      <c r="Z22" s="77">
+      <c r="Z22" s="73">
         <v>48</v>
       </c>
-      <c r="AA22" s="77">
+      <c r="AA22" s="73">
         <v>49</v>
       </c>
-      <c r="AD22" s="77">
+      <c r="AD22" s="73">
         <v>43</v>
       </c>
-      <c r="AE22" s="77">
+      <c r="AE22" s="73">
         <v>44</v>
       </c>
-      <c r="AF22" s="77">
+      <c r="AF22" s="73">
         <v>45</v>
       </c>
-      <c r="AG22" s="77">
+      <c r="AG22" s="73">
         <v>46</v>
       </c>
-      <c r="AH22" s="77">
+      <c r="AH22" s="73">
         <v>47</v>
       </c>
-      <c r="AI22" s="77">
+      <c r="AI22" s="73">
         <v>48</v>
       </c>
-      <c r="AJ22" s="77">
+      <c r="AJ22" s="73">
         <v>49</v>
       </c>
-      <c r="AM22" s="77">
+      <c r="AM22" s="73">
         <v>43</v>
       </c>
-      <c r="AN22" s="77">
+      <c r="AN22" s="73">
         <v>44</v>
       </c>
-      <c r="AO22" s="77">
+      <c r="AO22" s="73">
         <v>45</v>
       </c>
-      <c r="AP22" s="77">
+      <c r="AP22" s="73">
         <v>46</v>
       </c>
-      <c r="AQ22" s="77">
+      <c r="AQ22" s="73">
         <v>47</v>
       </c>
-      <c r="AR22" s="77">
+      <c r="AR22" s="73">
         <v>48</v>
       </c>
-      <c r="AS22" s="77">
+      <c r="AS22" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="77">
+    <row r="23" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="73">
         <v>36</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="77">
         <v>37</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="77">
         <v>38</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="77">
         <v>39</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="77">
         <v>40</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="77">
         <v>41</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="74">
         <v>42</v>
       </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="77">
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="73">
         <v>36</v>
       </c>
-      <c r="M23" s="81">
+      <c r="M23" s="77">
         <v>37</v>
       </c>
-      <c r="N23" s="81">
+      <c r="N23" s="77">
         <v>38</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="77">
         <v>39</v>
       </c>
-      <c r="P23" s="81">
+      <c r="P23" s="77">
         <v>40</v>
       </c>
-      <c r="Q23" s="81">
+      <c r="Q23" s="77">
         <v>41</v>
       </c>
-      <c r="R23" s="78">
+      <c r="R23" s="74">
         <v>42</v>
       </c>
-      <c r="S23" s="72"/>
-      <c r="U23" s="77">
+      <c r="S23" s="68"/>
+      <c r="U23" s="73">
         <v>36</v>
       </c>
-      <c r="V23" s="81">
+      <c r="V23" s="77">
         <v>37</v>
       </c>
-      <c r="W23" s="81">
+      <c r="W23" s="77">
         <v>38</v>
       </c>
-      <c r="X23" s="81">
+      <c r="X23" s="77">
         <v>39</v>
       </c>
-      <c r="Y23" s="81">
+      <c r="Y23" s="77">
         <v>40</v>
       </c>
-      <c r="Z23" s="81">
+      <c r="Z23" s="77">
         <v>41</v>
       </c>
-      <c r="AA23" s="78">
+      <c r="AA23" s="74">
         <v>42</v>
       </c>
-      <c r="AD23" s="77">
+      <c r="AD23" s="73">
         <v>36</v>
       </c>
-      <c r="AE23" s="81">
+      <c r="AE23" s="77">
         <v>37</v>
       </c>
-      <c r="AF23" s="81">
+      <c r="AF23" s="77">
         <v>38</v>
       </c>
-      <c r="AG23" s="81">
+      <c r="AG23" s="77">
         <v>39</v>
       </c>
-      <c r="AH23" s="81">
+      <c r="AH23" s="77">
         <v>40</v>
       </c>
-      <c r="AI23" s="81">
+      <c r="AI23" s="77">
         <v>41</v>
       </c>
-      <c r="AJ23" s="78">
+      <c r="AJ23" s="74">
         <v>42</v>
       </c>
-      <c r="AM23" s="77">
+      <c r="AM23" s="73">
         <v>36</v>
       </c>
-      <c r="AN23" s="81">
+      <c r="AN23" s="77">
         <v>37</v>
       </c>
-      <c r="AO23" s="81">
+      <c r="AO23" s="77">
         <v>38</v>
       </c>
-      <c r="AP23" s="81">
+      <c r="AP23" s="77">
         <v>39</v>
       </c>
-      <c r="AQ23" s="81">
+      <c r="AQ23" s="77">
         <v>40</v>
       </c>
-      <c r="AR23" s="81">
+      <c r="AR23" s="77">
         <v>41</v>
       </c>
-      <c r="AS23" s="78">
+      <c r="AS23" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="86">
+    <row r="24" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="82">
         <v>29</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="82">
         <v>30</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="82">
         <v>31</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="73">
         <v>32</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="73">
         <v>33</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="73">
         <v>34</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="73">
         <v>35</v>
       </c>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="77">
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="73">
         <v>29</v>
       </c>
-      <c r="M24" s="86">
+      <c r="M24" s="82">
         <v>30</v>
       </c>
-      <c r="N24" s="86">
+      <c r="N24" s="82">
         <v>31</v>
       </c>
-      <c r="O24" s="86">
+      <c r="O24" s="82">
         <v>32</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="73">
         <v>33</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="Q24" s="73">
         <v>34</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="73">
         <v>35</v>
       </c>
-      <c r="S24" s="72"/>
-      <c r="U24" s="77">
+      <c r="S24" s="68"/>
+      <c r="U24" s="73">
         <v>29</v>
       </c>
-      <c r="V24" s="77">
+      <c r="V24" s="73">
         <v>30</v>
       </c>
-      <c r="W24" s="86">
+      <c r="W24" s="82">
         <v>31</v>
       </c>
-      <c r="X24" s="86">
+      <c r="X24" s="82">
         <v>32</v>
       </c>
-      <c r="Y24" s="86">
+      <c r="Y24" s="82">
         <v>33</v>
       </c>
-      <c r="Z24" s="77">
+      <c r="Z24" s="73">
         <v>34</v>
       </c>
-      <c r="AA24" s="77">
+      <c r="AA24" s="73">
         <v>35</v>
       </c>
-      <c r="AD24" s="77">
+      <c r="AD24" s="73">
         <v>29</v>
       </c>
-      <c r="AE24" s="77">
+      <c r="AE24" s="73">
         <v>30</v>
       </c>
-      <c r="AF24" s="77">
+      <c r="AF24" s="73">
         <v>31</v>
       </c>
-      <c r="AG24" s="86">
+      <c r="AG24" s="82">
         <v>32</v>
       </c>
-      <c r="AH24" s="86">
+      <c r="AH24" s="82">
         <v>33</v>
       </c>
-      <c r="AI24" s="86">
+      <c r="AI24" s="82">
         <v>34</v>
       </c>
-      <c r="AJ24" s="77">
+      <c r="AJ24" s="73">
         <v>35</v>
       </c>
-      <c r="AM24" s="77">
+      <c r="AM24" s="73">
         <v>29</v>
       </c>
-      <c r="AN24" s="77">
+      <c r="AN24" s="73">
         <v>30</v>
       </c>
-      <c r="AO24" s="77">
+      <c r="AO24" s="73">
         <v>31</v>
       </c>
-      <c r="AP24" s="77">
+      <c r="AP24" s="73">
         <v>32</v>
       </c>
-      <c r="AQ24" s="86">
+      <c r="AQ24" s="82">
         <v>33</v>
       </c>
-      <c r="AR24" s="86">
+      <c r="AR24" s="82">
         <v>34</v>
       </c>
-      <c r="AS24" s="86">
+      <c r="AS24" s="82">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="68"/>
-      <c r="C25" s="89">
+    <row r="25" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="64"/>
+      <c r="C25" s="85">
         <v>22</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="101">
         <v>23</v>
       </c>
-      <c r="E25" s="106">
+      <c r="E25" s="102">
         <v>24</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="81">
         <v>25</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="77">
         <v>26</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="77">
         <v>27</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="74">
         <v>28</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="98">
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="94">
         <v>22</v>
       </c>
-      <c r="M25" s="109">
+      <c r="M25" s="105">
         <v>23</v>
       </c>
-      <c r="N25" s="105">
+      <c r="N25" s="101">
         <v>24</v>
       </c>
-      <c r="O25" s="106">
+      <c r="O25" s="102">
         <v>25</v>
       </c>
-      <c r="P25" s="85">
+      <c r="P25" s="81">
         <v>26</v>
       </c>
-      <c r="Q25" s="81">
+      <c r="Q25" s="77">
         <v>27</v>
       </c>
-      <c r="R25" s="78">
+      <c r="R25" s="74">
         <v>28</v>
       </c>
-      <c r="S25" s="72"/>
-      <c r="U25" s="77">
+      <c r="S25" s="68"/>
+      <c r="U25" s="73">
         <v>22</v>
       </c>
-      <c r="V25" s="101">
+      <c r="V25" s="97">
         <v>23</v>
       </c>
-      <c r="W25" s="109">
+      <c r="W25" s="105">
         <v>24</v>
       </c>
-      <c r="X25" s="105">
+      <c r="X25" s="101">
         <v>25</v>
       </c>
-      <c r="Y25" s="106">
+      <c r="Y25" s="102">
         <v>26</v>
       </c>
-      <c r="Z25" s="85">
+      <c r="Z25" s="81">
         <v>27</v>
       </c>
-      <c r="AA25" s="78">
+      <c r="AA25" s="74">
         <v>28</v>
       </c>
-      <c r="AD25" s="77">
+      <c r="AD25" s="73">
         <v>22</v>
       </c>
-      <c r="AE25" s="81">
+      <c r="AE25" s="77">
         <v>23</v>
       </c>
-      <c r="AF25" s="101">
+      <c r="AF25" s="97">
         <v>24</v>
       </c>
-      <c r="AG25" s="109">
+      <c r="AG25" s="105">
         <v>25</v>
       </c>
-      <c r="AH25" s="105">
+      <c r="AH25" s="101">
         <v>26</v>
       </c>
-      <c r="AI25" s="106">
+      <c r="AI25" s="102">
         <v>27</v>
       </c>
-      <c r="AJ25" s="99">
+      <c r="AJ25" s="95">
         <v>28</v>
       </c>
-      <c r="AM25" s="77">
+      <c r="AM25" s="73">
         <v>22</v>
       </c>
-      <c r="AN25" s="81">
+      <c r="AN25" s="77">
         <v>23</v>
       </c>
-      <c r="AO25" s="81">
+      <c r="AO25" s="77">
         <v>24</v>
       </c>
-      <c r="AP25" s="101">
+      <c r="AP25" s="97">
         <v>25</v>
       </c>
-      <c r="AQ25" s="109">
+      <c r="AQ25" s="105">
         <v>26</v>
       </c>
-      <c r="AR25" s="105">
+      <c r="AR25" s="101">
         <v>27</v>
       </c>
-      <c r="AS25" s="111">
+      <c r="AS25" s="107">
         <v>28</v>
       </c>
-      <c r="AT25" s="69"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B26" s="68"/>
-      <c r="C26" s="92">
+      <c r="AT25" s="65"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B26" s="64"/>
+      <c r="C26" s="88">
         <v>15</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="73">
         <v>16</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="90">
         <v>17</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="80">
         <v>18</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="73">
         <v>19</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="73">
         <v>20</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="73">
         <v>21</v>
       </c>
-      <c r="L26" s="98">
+      <c r="L26" s="94">
         <v>15</v>
       </c>
-      <c r="M26" s="92">
+      <c r="M26" s="88">
         <v>16</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="73">
         <v>17</v>
       </c>
-      <c r="O26" s="94">
+      <c r="O26" s="90">
         <v>18</v>
       </c>
-      <c r="P26" s="84">
+      <c r="P26" s="80">
         <v>19</v>
       </c>
-      <c r="Q26" s="77">
+      <c r="Q26" s="73">
         <v>20</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="73">
         <v>21</v>
       </c>
-      <c r="U26" s="77">
+      <c r="U26" s="73">
         <v>15</v>
       </c>
-      <c r="V26" s="98">
+      <c r="V26" s="94">
         <v>16</v>
       </c>
-      <c r="W26" s="92">
+      <c r="W26" s="88">
         <v>17</v>
       </c>
-      <c r="X26" s="77">
+      <c r="X26" s="73">
         <v>18</v>
       </c>
-      <c r="Y26" s="94">
+      <c r="Y26" s="90">
         <v>19</v>
       </c>
-      <c r="Z26" s="84">
+      <c r="Z26" s="80">
         <v>20</v>
       </c>
-      <c r="AA26" s="77">
+      <c r="AA26" s="73">
         <v>21</v>
       </c>
-      <c r="AD26" s="77">
+      <c r="AD26" s="73">
         <v>15</v>
       </c>
-      <c r="AE26" s="77">
+      <c r="AE26" s="73">
         <v>16</v>
       </c>
-      <c r="AF26" s="98">
+      <c r="AF26" s="94">
         <v>17</v>
       </c>
-      <c r="AG26" s="92">
+      <c r="AG26" s="88">
         <v>18</v>
       </c>
-      <c r="AH26" s="77">
+      <c r="AH26" s="73">
         <v>19</v>
       </c>
-      <c r="AI26" s="94">
+      <c r="AI26" s="90">
         <v>20</v>
       </c>
-      <c r="AJ26" s="84">
+      <c r="AJ26" s="80">
         <v>21</v>
       </c>
-      <c r="AM26" s="77">
+      <c r="AM26" s="73">
         <v>15</v>
       </c>
-      <c r="AN26" s="77">
+      <c r="AN26" s="73">
         <v>16</v>
       </c>
-      <c r="AO26" s="77">
+      <c r="AO26" s="73">
         <v>17</v>
       </c>
-      <c r="AP26" s="98">
+      <c r="AP26" s="94">
         <v>18</v>
       </c>
-      <c r="AQ26" s="92">
+      <c r="AQ26" s="88">
         <v>19</v>
       </c>
-      <c r="AR26" s="77">
+      <c r="AR26" s="73">
         <v>20</v>
       </c>
-      <c r="AS26" s="94">
+      <c r="AS26" s="90">
         <v>21</v>
       </c>
-      <c r="AT26" s="69"/>
-    </row>
-    <row r="27" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="68"/>
-      <c r="C27" s="95">
+      <c r="AT26" s="65"/>
+    </row>
+    <row r="27" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="91">
         <v>8</v>
       </c>
-      <c r="D27" s="107">
+      <c r="D27" s="103">
         <v>9</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="104">
         <v>10</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="81">
         <v>11</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="77">
         <v>12</v>
       </c>
-      <c r="H27" s="81">
+      <c r="H27" s="77">
         <v>13</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="74">
         <v>14</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="94">
         <v>8</v>
       </c>
-      <c r="M27" s="110">
+      <c r="M27" s="106">
         <v>9</v>
       </c>
-      <c r="N27" s="107">
+      <c r="N27" s="103">
         <v>10</v>
       </c>
-      <c r="O27" s="108">
+      <c r="O27" s="104">
         <v>11</v>
       </c>
-      <c r="P27" s="85">
+      <c r="P27" s="81">
         <v>12</v>
       </c>
-      <c r="Q27" s="81">
+      <c r="Q27" s="77">
         <v>13</v>
       </c>
-      <c r="R27" s="78">
+      <c r="R27" s="74">
         <v>14</v>
       </c>
-      <c r="U27" s="77">
+      <c r="U27" s="73">
         <v>8</v>
       </c>
-      <c r="V27" s="101">
+      <c r="V27" s="97">
         <v>9</v>
       </c>
-      <c r="W27" s="110">
+      <c r="W27" s="106">
         <v>10</v>
       </c>
-      <c r="X27" s="107">
+      <c r="X27" s="103">
         <v>11</v>
       </c>
-      <c r="Y27" s="108">
+      <c r="Y27" s="104">
         <v>12</v>
       </c>
-      <c r="Z27" s="85">
+      <c r="Z27" s="81">
         <v>13</v>
       </c>
-      <c r="AA27" s="78">
+      <c r="AA27" s="74">
         <v>14</v>
       </c>
-      <c r="AD27" s="77">
+      <c r="AD27" s="73">
         <v>8</v>
       </c>
-      <c r="AE27" s="81">
+      <c r="AE27" s="77">
         <v>9</v>
       </c>
-      <c r="AF27" s="101">
+      <c r="AF27" s="97">
         <v>10</v>
       </c>
-      <c r="AG27" s="110">
+      <c r="AG27" s="106">
         <v>11</v>
       </c>
-      <c r="AH27" s="107">
+      <c r="AH27" s="103">
         <v>12</v>
       </c>
-      <c r="AI27" s="108">
+      <c r="AI27" s="104">
         <v>13</v>
       </c>
-      <c r="AJ27" s="99">
+      <c r="AJ27" s="95">
         <v>14</v>
       </c>
-      <c r="AM27" s="77">
+      <c r="AM27" s="73">
         <v>8</v>
       </c>
-      <c r="AN27" s="81">
+      <c r="AN27" s="77">
         <v>9</v>
       </c>
-      <c r="AO27" s="81">
+      <c r="AO27" s="77">
         <v>10</v>
       </c>
-      <c r="AP27" s="101">
+      <c r="AP27" s="97">
         <v>11</v>
       </c>
-      <c r="AQ27" s="110">
+      <c r="AQ27" s="106">
         <v>12</v>
       </c>
-      <c r="AR27" s="107">
+      <c r="AR27" s="103">
         <v>13</v>
       </c>
-      <c r="AS27" s="112">
+      <c r="AS27" s="108">
         <v>14</v>
       </c>
-      <c r="AT27" s="69"/>
-    </row>
-    <row r="28" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="104">
+      <c r="AT27" s="65"/>
+    </row>
+    <row r="28" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="100">
         <v>1</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="100">
         <v>2</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="100">
         <v>3</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="73">
         <v>4</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="73">
         <v>5</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="73">
         <v>6</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="73">
         <v>7</v>
       </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="77">
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="73">
         <v>1</v>
       </c>
-      <c r="M28" s="104">
+      <c r="M28" s="100">
         <v>2</v>
       </c>
-      <c r="N28" s="104">
+      <c r="N28" s="100">
         <v>3</v>
       </c>
-      <c r="O28" s="104">
+      <c r="O28" s="100">
         <v>4</v>
       </c>
-      <c r="P28" s="77">
+      <c r="P28" s="73">
         <v>5</v>
       </c>
-      <c r="Q28" s="77">
+      <c r="Q28" s="73">
         <v>6</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="73">
         <v>7</v>
       </c>
-      <c r="S28" s="72"/>
-      <c r="U28" s="77">
+      <c r="S28" s="68"/>
+      <c r="U28" s="73">
         <v>1</v>
       </c>
-      <c r="V28" s="77">
+      <c r="V28" s="73">
         <v>2</v>
       </c>
-      <c r="W28" s="104">
+      <c r="W28" s="100">
         <v>3</v>
       </c>
-      <c r="X28" s="104">
+      <c r="X28" s="100">
         <v>4</v>
       </c>
-      <c r="Y28" s="104">
+      <c r="Y28" s="100">
         <v>5</v>
       </c>
-      <c r="Z28" s="77">
+      <c r="Z28" s="73">
         <v>6</v>
       </c>
-      <c r="AA28" s="77">
+      <c r="AA28" s="73">
         <v>7</v>
       </c>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="77">
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="73">
         <v>1</v>
       </c>
-      <c r="AE28" s="77">
+      <c r="AE28" s="73">
         <v>2</v>
       </c>
-      <c r="AF28" s="77">
+      <c r="AF28" s="73">
         <v>3</v>
       </c>
-      <c r="AG28" s="104">
+      <c r="AG28" s="100">
         <v>4</v>
       </c>
-      <c r="AH28" s="104">
+      <c r="AH28" s="100">
         <v>5</v>
       </c>
-      <c r="AI28" s="104">
+      <c r="AI28" s="100">
         <v>6</v>
       </c>
-      <c r="AJ28" s="77">
+      <c r="AJ28" s="73">
         <v>7</v>
       </c>
-      <c r="AM28" s="77">
+      <c r="AM28" s="73">
         <v>1</v>
       </c>
-      <c r="AN28" s="77">
+      <c r="AN28" s="73">
         <v>2</v>
       </c>
-      <c r="AO28" s="77">
+      <c r="AO28" s="73">
         <v>3</v>
       </c>
-      <c r="AP28" s="77">
+      <c r="AP28" s="73">
         <v>4</v>
       </c>
-      <c r="AQ28" s="104">
+      <c r="AQ28" s="100">
         <v>5</v>
       </c>
-      <c r="AR28" s="104">
+      <c r="AR28" s="100">
         <v>6</v>
       </c>
-      <c r="AS28" s="104">
+      <c r="AS28" s="100">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-    </row>
-    <row r="30" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="82" t="s">
+    <row r="29" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+    </row>
+    <row r="30" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="82" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="U30" s="82" t="s">
+      <c r="M30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="U30" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="82" t="s">
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AE30" s="72"/>
-      <c r="AM30" s="83" t="s">
+      <c r="AE30" s="68"/>
+      <c r="AM30" s="79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="77">
+    <row r="31" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="73">
         <v>43</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="73">
         <v>44</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="73">
         <v>45</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="73">
         <v>46</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="73">
         <v>47</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="73">
         <v>48</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I31" s="73">
         <v>49</v>
       </c>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="77">
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="73">
         <v>43</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="73">
         <v>44</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="73">
         <v>45</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="73">
         <v>46</v>
       </c>
-      <c r="P31" s="77">
+      <c r="P31" s="73">
         <v>47</v>
       </c>
-      <c r="Q31" s="77">
+      <c r="Q31" s="73">
         <v>48</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="73">
         <v>49</v>
       </c>
-      <c r="S31" s="72"/>
-      <c r="U31" s="77">
+      <c r="S31" s="68"/>
+      <c r="U31" s="73">
         <v>43</v>
       </c>
-      <c r="V31" s="77">
+      <c r="V31" s="73">
         <v>44</v>
       </c>
-      <c r="W31" s="77">
+      <c r="W31" s="73">
         <v>45</v>
       </c>
-      <c r="X31" s="77">
+      <c r="X31" s="73">
         <v>46</v>
       </c>
-      <c r="Y31" s="77">
+      <c r="Y31" s="73">
         <v>47</v>
       </c>
-      <c r="Z31" s="77">
+      <c r="Z31" s="73">
         <v>48</v>
       </c>
-      <c r="AA31" s="77">
+      <c r="AA31" s="73">
         <v>49</v>
       </c>
-      <c r="AD31" s="77">
+      <c r="AD31" s="73">
         <v>43</v>
       </c>
-      <c r="AE31" s="77">
+      <c r="AE31" s="73">
         <v>44</v>
       </c>
-      <c r="AF31" s="77">
+      <c r="AF31" s="73">
         <v>45</v>
       </c>
-      <c r="AG31" s="77">
+      <c r="AG31" s="73">
         <v>46</v>
       </c>
-      <c r="AH31" s="77">
+      <c r="AH31" s="73">
         <v>47</v>
       </c>
-      <c r="AI31" s="77">
+      <c r="AI31" s="73">
         <v>48</v>
       </c>
-      <c r="AJ31" s="77">
+      <c r="AJ31" s="73">
         <v>49</v>
       </c>
-      <c r="AM31" s="77">
+      <c r="AM31" s="73">
         <v>43</v>
       </c>
-      <c r="AN31" s="77">
+      <c r="AN31" s="73">
         <v>44</v>
       </c>
-      <c r="AO31" s="77">
+      <c r="AO31" s="73">
         <v>45</v>
       </c>
-      <c r="AP31" s="77">
+      <c r="AP31" s="73">
         <v>46</v>
       </c>
-      <c r="AQ31" s="77">
+      <c r="AQ31" s="73">
         <v>47</v>
       </c>
-      <c r="AR31" s="77">
+      <c r="AR31" s="73">
         <v>48</v>
       </c>
-      <c r="AS31" s="77">
+      <c r="AS31" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="86">
+    <row r="32" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="82">
         <v>36</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="83">
         <v>37</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="83">
         <v>38</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="77">
         <v>39</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="77">
         <v>40</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H32" s="77">
         <v>41</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="74">
         <v>42</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="73">
         <v>36</v>
       </c>
-      <c r="M32" s="87">
+      <c r="M32" s="83">
         <v>37</v>
       </c>
-      <c r="N32" s="87">
+      <c r="N32" s="83">
         <v>38</v>
       </c>
-      <c r="O32" s="87">
+      <c r="O32" s="83">
         <v>39</v>
       </c>
-      <c r="P32" s="81">
+      <c r="P32" s="77">
         <v>40</v>
       </c>
-      <c r="Q32" s="81">
+      <c r="Q32" s="77">
         <v>41</v>
       </c>
-      <c r="R32" s="78">
+      <c r="R32" s="74">
         <v>42</v>
       </c>
-      <c r="U32" s="77">
+      <c r="U32" s="73">
         <v>36</v>
       </c>
-      <c r="V32" s="81">
+      <c r="V32" s="77">
         <v>37</v>
       </c>
-      <c r="W32" s="87">
+      <c r="W32" s="83">
         <v>38</v>
       </c>
-      <c r="X32" s="87">
+      <c r="X32" s="83">
         <v>39</v>
       </c>
-      <c r="Y32" s="87">
+      <c r="Y32" s="83">
         <v>40</v>
       </c>
-      <c r="Z32" s="81">
+      <c r="Z32" s="77">
         <v>41</v>
       </c>
-      <c r="AA32" s="78">
+      <c r="AA32" s="74">
         <v>42</v>
       </c>
-      <c r="AD32" s="77">
+      <c r="AD32" s="73">
         <v>36</v>
       </c>
-      <c r="AE32" s="81">
+      <c r="AE32" s="77">
         <v>37</v>
       </c>
-      <c r="AF32" s="81">
+      <c r="AF32" s="77">
         <v>38</v>
       </c>
-      <c r="AG32" s="87">
+      <c r="AG32" s="83">
         <v>39</v>
       </c>
-      <c r="AH32" s="87">
+      <c r="AH32" s="83">
         <v>40</v>
       </c>
-      <c r="AI32" s="87">
+      <c r="AI32" s="83">
         <v>41</v>
       </c>
-      <c r="AJ32" s="78">
+      <c r="AJ32" s="74">
         <v>42</v>
       </c>
-      <c r="AM32" s="77">
+      <c r="AM32" s="73">
         <v>36</v>
       </c>
-      <c r="AN32" s="81">
+      <c r="AN32" s="77">
         <v>37</v>
       </c>
-      <c r="AO32" s="81">
+      <c r="AO32" s="77">
         <v>38</v>
       </c>
-      <c r="AP32" s="81">
+      <c r="AP32" s="77">
         <v>39</v>
       </c>
-      <c r="AQ32" s="87">
+      <c r="AQ32" s="83">
         <v>40</v>
       </c>
-      <c r="AR32" s="87">
+      <c r="AR32" s="83">
         <v>41</v>
       </c>
-      <c r="AS32" s="102">
+      <c r="AS32" s="98">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="68"/>
-      <c r="C33" s="89">
+    <row r="33" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="64"/>
+      <c r="C33" s="85">
         <v>29</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="86">
         <v>30</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="87">
         <v>31</v>
       </c>
-      <c r="F33" s="84">
+      <c r="F33" s="80">
         <v>32</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="73">
         <v>33</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="73">
         <v>34</v>
       </c>
-      <c r="I33" s="77">
+      <c r="I33" s="73">
         <v>35</v>
       </c>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="98">
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="94">
         <v>29</v>
       </c>
-      <c r="M33" s="89">
+      <c r="M33" s="85">
         <v>30</v>
       </c>
-      <c r="N33" s="90">
+      <c r="N33" s="86">
         <v>31</v>
       </c>
-      <c r="O33" s="91">
+      <c r="O33" s="87">
         <v>32</v>
       </c>
-      <c r="P33" s="84">
+      <c r="P33" s="80">
         <v>33</v>
       </c>
-      <c r="Q33" s="77">
+      <c r="Q33" s="73">
         <v>34</v>
       </c>
-      <c r="R33" s="77">
+      <c r="R33" s="73">
         <v>35</v>
       </c>
-      <c r="S33" s="72"/>
-      <c r="U33" s="77">
+      <c r="S33" s="68"/>
+      <c r="U33" s="73">
         <v>29</v>
       </c>
-      <c r="V33" s="98">
+      <c r="V33" s="94">
         <v>30</v>
       </c>
-      <c r="W33" s="89">
+      <c r="W33" s="85">
         <v>31</v>
       </c>
-      <c r="X33" s="90">
+      <c r="X33" s="86">
         <v>32</v>
       </c>
-      <c r="Y33" s="91">
+      <c r="Y33" s="87">
         <v>33</v>
       </c>
-      <c r="Z33" s="84">
+      <c r="Z33" s="80">
         <v>34</v>
       </c>
-      <c r="AA33" s="77">
+      <c r="AA33" s="73">
         <v>35</v>
       </c>
-      <c r="AD33" s="77">
+      <c r="AD33" s="73">
         <v>29</v>
       </c>
-      <c r="AE33" s="77">
+      <c r="AE33" s="73">
         <v>30</v>
       </c>
-      <c r="AF33" s="98">
+      <c r="AF33" s="94">
         <v>31</v>
       </c>
-      <c r="AG33" s="89">
+      <c r="AG33" s="85">
         <v>32</v>
       </c>
-      <c r="AH33" s="90">
+      <c r="AH33" s="86">
         <v>33</v>
       </c>
-      <c r="AI33" s="91">
+      <c r="AI33" s="87">
         <v>34</v>
       </c>
-      <c r="AJ33" s="84">
+      <c r="AJ33" s="80">
         <v>35</v>
       </c>
-      <c r="AM33" s="77">
+      <c r="AM33" s="73">
         <v>29</v>
       </c>
-      <c r="AN33" s="77">
+      <c r="AN33" s="73">
         <v>30</v>
       </c>
-      <c r="AO33" s="77">
+      <c r="AO33" s="73">
         <v>31</v>
       </c>
-      <c r="AP33" s="98">
+      <c r="AP33" s="94">
         <v>32</v>
       </c>
-      <c r="AQ33" s="89">
+      <c r="AQ33" s="85">
         <v>33</v>
       </c>
-      <c r="AR33" s="90">
+      <c r="AR33" s="86">
         <v>34</v>
       </c>
-      <c r="AS33" s="91">
+      <c r="AS33" s="87">
         <v>35</v>
       </c>
-      <c r="AT33" s="69"/>
-    </row>
-    <row r="34" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="68"/>
-      <c r="C34" s="92">
+      <c r="AT33" s="65"/>
+    </row>
+    <row r="34" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="88">
         <v>22</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="77">
         <v>23</v>
       </c>
-      <c r="E34" s="93">
+      <c r="E34" s="89">
         <v>24</v>
       </c>
-      <c r="F34" s="85">
+      <c r="F34" s="81">
         <v>25</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="77">
         <v>26</v>
       </c>
-      <c r="H34" s="81">
+      <c r="H34" s="77">
         <v>27</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="74">
         <v>28</v>
       </c>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="98">
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="94">
         <v>22</v>
       </c>
-      <c r="M34" s="100">
+      <c r="M34" s="96">
         <v>23</v>
       </c>
-      <c r="N34" s="81">
+      <c r="N34" s="77">
         <v>24</v>
       </c>
-      <c r="O34" s="93">
+      <c r="O34" s="89">
         <v>25</v>
       </c>
-      <c r="P34" s="85">
+      <c r="P34" s="81">
         <v>26</v>
       </c>
-      <c r="Q34" s="81">
+      <c r="Q34" s="77">
         <v>27</v>
       </c>
-      <c r="R34" s="78">
+      <c r="R34" s="74">
         <v>28</v>
       </c>
-      <c r="S34" s="72"/>
-      <c r="U34" s="77">
+      <c r="S34" s="68"/>
+      <c r="U34" s="73">
         <v>22</v>
       </c>
-      <c r="V34" s="101">
+      <c r="V34" s="97">
         <v>23</v>
       </c>
-      <c r="W34" s="100">
+      <c r="W34" s="96">
         <v>24</v>
       </c>
-      <c r="X34" s="81">
+      <c r="X34" s="77">
         <v>25</v>
       </c>
-      <c r="Y34" s="93">
+      <c r="Y34" s="89">
         <v>26</v>
       </c>
-      <c r="Z34" s="85">
+      <c r="Z34" s="81">
         <v>27</v>
       </c>
-      <c r="AA34" s="78">
+      <c r="AA34" s="74">
         <v>28</v>
       </c>
-      <c r="AD34" s="77">
+      <c r="AD34" s="73">
         <v>22</v>
       </c>
-      <c r="AE34" s="81">
+      <c r="AE34" s="77">
         <v>23</v>
       </c>
-      <c r="AF34" s="101">
+      <c r="AF34" s="97">
         <v>24</v>
       </c>
-      <c r="AG34" s="100">
+      <c r="AG34" s="96">
         <v>25</v>
       </c>
-      <c r="AH34" s="81">
+      <c r="AH34" s="77">
         <v>26</v>
       </c>
-      <c r="AI34" s="93">
+      <c r="AI34" s="89">
         <v>27</v>
       </c>
-      <c r="AJ34" s="99">
+      <c r="AJ34" s="95">
         <v>28</v>
       </c>
-      <c r="AM34" s="77">
+      <c r="AM34" s="73">
         <v>22</v>
       </c>
-      <c r="AN34" s="81">
+      <c r="AN34" s="77">
         <v>23</v>
       </c>
-      <c r="AO34" s="81">
+      <c r="AO34" s="77">
         <v>24</v>
       </c>
-      <c r="AP34" s="101">
+      <c r="AP34" s="97">
         <v>25</v>
       </c>
-      <c r="AQ34" s="100">
+      <c r="AQ34" s="96">
         <v>26</v>
       </c>
-      <c r="AR34" s="81">
+      <c r="AR34" s="77">
         <v>27</v>
       </c>
-      <c r="AS34" s="103">
+      <c r="AS34" s="99">
         <v>28</v>
       </c>
-      <c r="AT34" s="69"/>
-    </row>
-    <row r="35" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="68"/>
-      <c r="C35" s="95">
+      <c r="AT34" s="65"/>
+    </row>
+    <row r="35" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="64"/>
+      <c r="C35" s="91">
         <v>15</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="92">
         <v>16</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="93">
         <v>17</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="80">
         <v>18</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="73">
         <v>19</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="73">
         <v>20</v>
       </c>
-      <c r="I35" s="77">
+      <c r="I35" s="73">
         <v>21</v>
       </c>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="98">
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="94">
         <v>15</v>
       </c>
-      <c r="M35" s="95">
+      <c r="M35" s="91">
         <v>16</v>
       </c>
-      <c r="N35" s="96">
+      <c r="N35" s="92">
         <v>17</v>
       </c>
-      <c r="O35" s="97">
+      <c r="O35" s="93">
         <v>18</v>
       </c>
-      <c r="P35" s="84">
+      <c r="P35" s="80">
         <v>19</v>
       </c>
-      <c r="Q35" s="77">
+      <c r="Q35" s="73">
         <v>20</v>
       </c>
-      <c r="R35" s="77">
+      <c r="R35" s="73">
         <v>21</v>
       </c>
-      <c r="S35" s="72"/>
-      <c r="U35" s="77">
+      <c r="S35" s="68"/>
+      <c r="U35" s="73">
         <v>15</v>
       </c>
-      <c r="V35" s="98">
+      <c r="V35" s="94">
         <v>16</v>
       </c>
-      <c r="W35" s="95">
+      <c r="W35" s="91">
         <v>17</v>
       </c>
-      <c r="X35" s="96">
+      <c r="X35" s="92">
         <v>18</v>
       </c>
-      <c r="Y35" s="97">
+      <c r="Y35" s="93">
         <v>19</v>
       </c>
-      <c r="Z35" s="84">
+      <c r="Z35" s="80">
         <v>20</v>
       </c>
-      <c r="AA35" s="77">
+      <c r="AA35" s="73">
         <v>21</v>
       </c>
-      <c r="AD35" s="77">
+      <c r="AD35" s="73">
         <v>15</v>
       </c>
-      <c r="AE35" s="77">
+      <c r="AE35" s="73">
         <v>16</v>
       </c>
-      <c r="AF35" s="98">
+      <c r="AF35" s="94">
         <v>17</v>
       </c>
-      <c r="AG35" s="95">
+      <c r="AG35" s="91">
         <v>18</v>
       </c>
-      <c r="AH35" s="96">
+      <c r="AH35" s="92">
         <v>19</v>
       </c>
-      <c r="AI35" s="97">
+      <c r="AI35" s="93">
         <v>20</v>
       </c>
-      <c r="AJ35" s="84">
+      <c r="AJ35" s="80">
         <v>21</v>
       </c>
-      <c r="AM35" s="77">
+      <c r="AM35" s="73">
         <v>15</v>
       </c>
-      <c r="AN35" s="77">
+      <c r="AN35" s="73">
         <v>16</v>
       </c>
-      <c r="AO35" s="77">
+      <c r="AO35" s="73">
         <v>17</v>
       </c>
-      <c r="AP35" s="98">
+      <c r="AP35" s="94">
         <v>18</v>
       </c>
-      <c r="AQ35" s="95">
+      <c r="AQ35" s="91">
         <v>19</v>
       </c>
-      <c r="AR35" s="96">
+      <c r="AR35" s="92">
         <v>20</v>
       </c>
-      <c r="AS35" s="97">
+      <c r="AS35" s="93">
         <v>21</v>
       </c>
-      <c r="AT35" s="69"/>
-    </row>
-    <row r="36" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="104">
+      <c r="AT35" s="65"/>
+    </row>
+    <row r="36" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="100">
         <v>8</v>
       </c>
-      <c r="D36" s="113">
+      <c r="D36" s="109">
         <v>9</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="109">
         <v>10</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="77">
         <v>11</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="77">
         <v>12</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="77">
         <v>13</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="74">
         <v>14</v>
       </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="77">
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="73">
         <v>8</v>
       </c>
-      <c r="M36" s="113">
+      <c r="M36" s="109">
         <v>9</v>
       </c>
-      <c r="N36" s="113">
+      <c r="N36" s="109">
         <v>10</v>
       </c>
-      <c r="O36" s="113">
+      <c r="O36" s="109">
         <v>11</v>
       </c>
-      <c r="P36" s="81">
+      <c r="P36" s="77">
         <v>12</v>
       </c>
-      <c r="Q36" s="81">
+      <c r="Q36" s="77">
         <v>13</v>
       </c>
-      <c r="R36" s="78">
+      <c r="R36" s="74">
         <v>14</v>
       </c>
-      <c r="S36" s="72"/>
-      <c r="U36" s="77">
+      <c r="S36" s="68"/>
+      <c r="U36" s="73">
         <v>8</v>
       </c>
-      <c r="V36" s="81">
+      <c r="V36" s="77">
         <v>9</v>
       </c>
-      <c r="W36" s="113">
+      <c r="W36" s="109">
         <v>10</v>
       </c>
-      <c r="X36" s="113">
+      <c r="X36" s="109">
         <v>11</v>
       </c>
-      <c r="Y36" s="113">
+      <c r="Y36" s="109">
         <v>12</v>
       </c>
-      <c r="Z36" s="81">
+      <c r="Z36" s="77">
         <v>13</v>
       </c>
-      <c r="AA36" s="78">
+      <c r="AA36" s="74">
         <v>14</v>
       </c>
-      <c r="AD36" s="77">
+      <c r="AD36" s="73">
         <v>8</v>
       </c>
-      <c r="AE36" s="81">
+      <c r="AE36" s="77">
         <v>9</v>
       </c>
-      <c r="AF36" s="81">
+      <c r="AF36" s="77">
         <v>10</v>
       </c>
-      <c r="AG36" s="113">
+      <c r="AG36" s="109">
         <v>11</v>
       </c>
-      <c r="AH36" s="113">
+      <c r="AH36" s="109">
         <v>12</v>
       </c>
-      <c r="AI36" s="113">
+      <c r="AI36" s="109">
         <v>13</v>
       </c>
-      <c r="AJ36" s="78">
+      <c r="AJ36" s="74">
         <v>14</v>
       </c>
-      <c r="AM36" s="77">
+      <c r="AM36" s="73">
         <v>8</v>
       </c>
-      <c r="AN36" s="81">
+      <c r="AN36" s="77">
         <v>9</v>
       </c>
-      <c r="AO36" s="81">
+      <c r="AO36" s="77">
         <v>10</v>
       </c>
-      <c r="AP36" s="81">
+      <c r="AP36" s="77">
         <v>11</v>
       </c>
-      <c r="AQ36" s="113">
+      <c r="AQ36" s="109">
         <v>12</v>
       </c>
-      <c r="AR36" s="113">
+      <c r="AR36" s="109">
         <v>13</v>
       </c>
-      <c r="AS36" s="114">
+      <c r="AS36" s="110">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="77">
+    <row r="37" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="73">
         <v>1</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="73">
         <v>2</v>
       </c>
-      <c r="E37" s="77">
+      <c r="E37" s="73">
         <v>3</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="73">
         <v>4</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="73">
         <v>5</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="73">
         <v>6</v>
       </c>
-      <c r="I37" s="77">
+      <c r="I37" s="73">
         <v>7</v>
       </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="77">
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="73">
         <v>1</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="73">
         <v>2</v>
       </c>
-      <c r="N37" s="77">
+      <c r="N37" s="73">
         <v>3</v>
       </c>
-      <c r="O37" s="77">
+      <c r="O37" s="73">
         <v>4</v>
       </c>
-      <c r="P37" s="77">
+      <c r="P37" s="73">
         <v>5</v>
       </c>
-      <c r="Q37" s="77">
+      <c r="Q37" s="73">
         <v>6</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="73">
         <v>7</v>
       </c>
-      <c r="S37" s="72"/>
-      <c r="U37" s="77">
+      <c r="S37" s="68"/>
+      <c r="U37" s="73">
         <v>1</v>
       </c>
-      <c r="V37" s="77">
+      <c r="V37" s="73">
         <v>2</v>
       </c>
-      <c r="W37" s="77">
+      <c r="W37" s="73">
         <v>3</v>
       </c>
-      <c r="X37" s="77">
+      <c r="X37" s="73">
         <v>4</v>
       </c>
-      <c r="Y37" s="77">
+      <c r="Y37" s="73">
         <v>5</v>
       </c>
-      <c r="Z37" s="77">
+      <c r="Z37" s="73">
         <v>6</v>
       </c>
-      <c r="AA37" s="77">
+      <c r="AA37" s="73">
         <v>7</v>
       </c>
-      <c r="AD37" s="77">
+      <c r="AD37" s="73">
         <v>1</v>
       </c>
-      <c r="AE37" s="77">
+      <c r="AE37" s="73">
         <v>2</v>
       </c>
-      <c r="AF37" s="77">
+      <c r="AF37" s="73">
         <v>3</v>
       </c>
-      <c r="AG37" s="77">
+      <c r="AG37" s="73">
         <v>4</v>
       </c>
-      <c r="AH37" s="77">
+      <c r="AH37" s="73">
         <v>5</v>
       </c>
-      <c r="AI37" s="77">
+      <c r="AI37" s="73">
         <v>6</v>
       </c>
-      <c r="AJ37" s="77">
+      <c r="AJ37" s="73">
         <v>7</v>
       </c>
-      <c r="AM37" s="77">
+      <c r="AM37" s="73">
         <v>1</v>
       </c>
-      <c r="AN37" s="77">
+      <c r="AN37" s="73">
         <v>2</v>
       </c>
-      <c r="AO37" s="77">
+      <c r="AO37" s="73">
         <v>3</v>
       </c>
-      <c r="AP37" s="77">
+      <c r="AP37" s="73">
         <v>4</v>
       </c>
-      <c r="AQ37" s="77">
+      <c r="AQ37" s="73">
         <v>5</v>
       </c>
-      <c r="AR37" s="77">
+      <c r="AR37" s="73">
         <v>6</v>
       </c>
-      <c r="AS37" s="77">
+      <c r="AS37" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="O38" s="75"/>
-    </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C39" s="82" t="s">
+    <row r="38" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="O38" s="71"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C39" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="82" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="U39" s="83" t="s">
+      <c r="M39" s="68"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="U39" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AD39" s="83" t="s">
+      <c r="AD39" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AM39" s="83" t="s">
+      <c r="AM39" s="79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="86">
+    <row r="40" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="82">
         <v>43</v>
       </c>
-      <c r="D40" s="86">
+      <c r="D40" s="82">
         <v>44</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="82">
         <v>45</v>
       </c>
-      <c r="F40" s="77">
+      <c r="F40" s="73">
         <v>46</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="73">
         <v>47</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="73">
         <v>48</v>
       </c>
-      <c r="I40" s="77">
+      <c r="I40" s="73">
         <v>49</v>
       </c>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="77">
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="73">
         <v>43</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M40" s="82">
         <v>44</v>
       </c>
-      <c r="N40" s="86">
+      <c r="N40" s="82">
         <v>45</v>
       </c>
-      <c r="O40" s="86">
+      <c r="O40" s="82">
         <v>46</v>
       </c>
-      <c r="P40" s="77">
+      <c r="P40" s="73">
         <v>47</v>
       </c>
-      <c r="Q40" s="77">
+      <c r="Q40" s="73">
         <v>48</v>
       </c>
-      <c r="R40" s="77">
+      <c r="R40" s="73">
         <v>49</v>
       </c>
-      <c r="S40" s="72"/>
-      <c r="U40" s="77">
+      <c r="S40" s="68"/>
+      <c r="U40" s="73">
         <v>43</v>
       </c>
-      <c r="V40" s="77">
+      <c r="V40" s="73">
         <v>44</v>
       </c>
-      <c r="W40" s="86">
+      <c r="W40" s="82">
         <v>45</v>
       </c>
-      <c r="X40" s="86">
+      <c r="X40" s="82">
         <v>46</v>
       </c>
-      <c r="Y40" s="86">
+      <c r="Y40" s="82">
         <v>47</v>
       </c>
-      <c r="Z40" s="77">
+      <c r="Z40" s="73">
         <v>48</v>
       </c>
-      <c r="AA40" s="77">
+      <c r="AA40" s="73">
         <v>49</v>
       </c>
-      <c r="AD40" s="77">
+      <c r="AD40" s="73">
         <v>43</v>
       </c>
-      <c r="AE40" s="77">
+      <c r="AE40" s="73">
         <v>44</v>
       </c>
-      <c r="AF40" s="77">
+      <c r="AF40" s="73">
         <v>45</v>
       </c>
-      <c r="AG40" s="86">
+      <c r="AG40" s="82">
         <v>46</v>
       </c>
-      <c r="AH40" s="86">
+      <c r="AH40" s="82">
         <v>47</v>
       </c>
-      <c r="AI40" s="86">
+      <c r="AI40" s="82">
         <v>48</v>
       </c>
-      <c r="AJ40" s="77">
+      <c r="AJ40" s="73">
         <v>49</v>
       </c>
-      <c r="AM40" s="77">
+      <c r="AM40" s="73">
         <v>43</v>
       </c>
-      <c r="AN40" s="77">
+      <c r="AN40" s="73">
         <v>44</v>
       </c>
-      <c r="AO40" s="77">
+      <c r="AO40" s="73">
         <v>45</v>
       </c>
-      <c r="AP40" s="77">
+      <c r="AP40" s="73">
         <v>46</v>
       </c>
-      <c r="AQ40" s="86">
+      <c r="AQ40" s="82">
         <v>47</v>
       </c>
-      <c r="AR40" s="86">
+      <c r="AR40" s="82">
         <v>48</v>
       </c>
-      <c r="AS40" s="86">
+      <c r="AS40" s="82">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="68"/>
-      <c r="C41" s="89">
+    <row r="41" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="64"/>
+      <c r="C41" s="85">
         <v>36</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="101">
         <v>37</v>
       </c>
-      <c r="E41" s="106">
+      <c r="E41" s="102">
         <v>38</v>
       </c>
-      <c r="F41" s="85">
+      <c r="F41" s="81">
         <v>39</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="77">
         <v>40</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="77">
         <v>41</v>
       </c>
-      <c r="I41" s="78">
+      <c r="I41" s="74">
         <v>42</v>
       </c>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="98">
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="94">
         <v>36</v>
       </c>
-      <c r="M41" s="109">
+      <c r="M41" s="105">
         <v>37</v>
       </c>
-      <c r="N41" s="105">
+      <c r="N41" s="101">
         <v>38</v>
       </c>
-      <c r="O41" s="106">
+      <c r="O41" s="102">
         <v>39</v>
       </c>
-      <c r="P41" s="85">
+      <c r="P41" s="81">
         <v>40</v>
       </c>
-      <c r="Q41" s="81">
+      <c r="Q41" s="77">
         <v>41</v>
       </c>
-      <c r="R41" s="78">
+      <c r="R41" s="74">
         <v>42</v>
       </c>
-      <c r="S41" s="72"/>
-      <c r="U41" s="77">
+      <c r="S41" s="68"/>
+      <c r="U41" s="73">
         <v>36</v>
       </c>
-      <c r="V41" s="101">
+      <c r="V41" s="97">
         <v>37</v>
       </c>
-      <c r="W41" s="109">
+      <c r="W41" s="105">
         <v>38</v>
       </c>
-      <c r="X41" s="105">
+      <c r="X41" s="101">
         <v>39</v>
       </c>
-      <c r="Y41" s="106">
+      <c r="Y41" s="102">
         <v>40</v>
       </c>
-      <c r="Z41" s="85">
+      <c r="Z41" s="81">
         <v>41</v>
       </c>
-      <c r="AA41" s="78">
+      <c r="AA41" s="74">
         <v>42</v>
       </c>
-      <c r="AD41" s="77">
+      <c r="AD41" s="73">
         <v>36</v>
       </c>
-      <c r="AE41" s="81">
+      <c r="AE41" s="77">
         <v>37</v>
       </c>
-      <c r="AF41" s="101">
+      <c r="AF41" s="97">
         <v>38</v>
       </c>
-      <c r="AG41" s="109">
+      <c r="AG41" s="105">
         <v>39</v>
       </c>
-      <c r="AH41" s="105">
+      <c r="AH41" s="101">
         <v>40</v>
       </c>
-      <c r="AI41" s="106">
+      <c r="AI41" s="102">
         <v>41</v>
       </c>
-      <c r="AJ41" s="99">
+      <c r="AJ41" s="95">
         <v>42</v>
       </c>
-      <c r="AM41" s="77">
+      <c r="AM41" s="73">
         <v>36</v>
       </c>
-      <c r="AN41" s="81">
+      <c r="AN41" s="77">
         <v>37</v>
       </c>
-      <c r="AO41" s="81">
+      <c r="AO41" s="77">
         <v>38</v>
       </c>
-      <c r="AP41" s="101">
+      <c r="AP41" s="97">
         <v>39</v>
       </c>
-      <c r="AQ41" s="109">
+      <c r="AQ41" s="105">
         <v>40</v>
       </c>
-      <c r="AR41" s="105">
+      <c r="AR41" s="101">
         <v>41</v>
       </c>
-      <c r="AS41" s="111">
+      <c r="AS41" s="107">
         <v>42</v>
       </c>
-      <c r="AT41" s="69"/>
-    </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B42" s="68"/>
-      <c r="C42" s="92">
+      <c r="AT41" s="65"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B42" s="64"/>
+      <c r="C42" s="88">
         <v>29</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="73">
         <v>30</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="90">
         <v>31</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="80">
         <v>32</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="73">
         <v>33</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="73">
         <v>34</v>
       </c>
-      <c r="I42" s="77">
+      <c r="I42" s="73">
         <v>35</v>
       </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="98">
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="94">
         <v>29</v>
       </c>
-      <c r="M42" s="92">
+      <c r="M42" s="88">
         <v>30</v>
       </c>
-      <c r="N42" s="77">
+      <c r="N42" s="73">
         <v>31</v>
       </c>
-      <c r="O42" s="94">
+      <c r="O42" s="90">
         <v>32</v>
       </c>
-      <c r="P42" s="84">
+      <c r="P42" s="80">
         <v>33</v>
       </c>
-      <c r="Q42" s="77">
+      <c r="Q42" s="73">
         <v>34</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="73">
         <v>35</v>
       </c>
-      <c r="S42" s="72"/>
-      <c r="U42" s="77">
+      <c r="S42" s="68"/>
+      <c r="U42" s="73">
         <v>29</v>
       </c>
-      <c r="V42" s="98">
+      <c r="V42" s="94">
         <v>30</v>
       </c>
-      <c r="W42" s="92">
+      <c r="W42" s="88">
         <v>31</v>
       </c>
-      <c r="X42" s="77">
+      <c r="X42" s="73">
         <v>32</v>
       </c>
-      <c r="Y42" s="94">
+      <c r="Y42" s="90">
         <v>33</v>
       </c>
-      <c r="Z42" s="84">
+      <c r="Z42" s="80">
         <v>34</v>
       </c>
-      <c r="AA42" s="77">
+      <c r="AA42" s="73">
         <v>35</v>
       </c>
-      <c r="AD42" s="77">
+      <c r="AD42" s="73">
         <v>29</v>
       </c>
-      <c r="AE42" s="77">
+      <c r="AE42" s="73">
         <v>30</v>
       </c>
-      <c r="AF42" s="98">
+      <c r="AF42" s="94">
         <v>31</v>
       </c>
-      <c r="AG42" s="92">
+      <c r="AG42" s="88">
         <v>32</v>
       </c>
-      <c r="AH42" s="77">
+      <c r="AH42" s="73">
         <v>33</v>
       </c>
-      <c r="AI42" s="94">
+      <c r="AI42" s="90">
         <v>34</v>
       </c>
-      <c r="AJ42" s="84">
+      <c r="AJ42" s="80">
         <v>35</v>
       </c>
-      <c r="AM42" s="77">
+      <c r="AM42" s="73">
         <v>29</v>
       </c>
-      <c r="AN42" s="77">
+      <c r="AN42" s="73">
         <v>30</v>
       </c>
-      <c r="AO42" s="77">
+      <c r="AO42" s="73">
         <v>31</v>
       </c>
-      <c r="AP42" s="98">
+      <c r="AP42" s="94">
         <v>32</v>
       </c>
-      <c r="AQ42" s="92">
+      <c r="AQ42" s="88">
         <v>33</v>
       </c>
-      <c r="AR42" s="77">
+      <c r="AR42" s="73">
         <v>34</v>
       </c>
-      <c r="AS42" s="94">
+      <c r="AS42" s="90">
         <v>35</v>
       </c>
-      <c r="AT42" s="69"/>
-    </row>
-    <row r="43" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="68"/>
-      <c r="C43" s="95">
+      <c r="AT42" s="65"/>
+    </row>
+    <row r="43" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="64"/>
+      <c r="C43" s="91">
         <v>22</v>
       </c>
-      <c r="D43" s="107">
+      <c r="D43" s="103">
         <v>23</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="104">
         <v>24</v>
       </c>
-      <c r="F43" s="85">
+      <c r="F43" s="81">
         <v>25</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="77">
         <v>26</v>
       </c>
-      <c r="H43" s="81">
+      <c r="H43" s="77">
         <v>27</v>
       </c>
-      <c r="I43" s="78">
+      <c r="I43" s="74">
         <v>28</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="98">
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="94">
         <v>22</v>
       </c>
-      <c r="M43" s="110">
+      <c r="M43" s="106">
         <v>23</v>
       </c>
-      <c r="N43" s="107">
+      <c r="N43" s="103">
         <v>24</v>
       </c>
-      <c r="O43" s="108">
+      <c r="O43" s="104">
         <v>25</v>
       </c>
-      <c r="P43" s="85">
+      <c r="P43" s="81">
         <v>26</v>
       </c>
-      <c r="Q43" s="81">
+      <c r="Q43" s="77">
         <v>27</v>
       </c>
-      <c r="R43" s="78">
+      <c r="R43" s="74">
         <v>28</v>
       </c>
-      <c r="S43" s="72"/>
-      <c r="U43" s="77">
+      <c r="S43" s="68"/>
+      <c r="U43" s="73">
         <v>22</v>
       </c>
-      <c r="V43" s="101">
+      <c r="V43" s="97">
         <v>23</v>
       </c>
-      <c r="W43" s="110">
+      <c r="W43" s="106">
         <v>24</v>
       </c>
-      <c r="X43" s="107">
+      <c r="X43" s="103">
         <v>25</v>
       </c>
-      <c r="Y43" s="108">
+      <c r="Y43" s="104">
         <v>26</v>
       </c>
-      <c r="Z43" s="85">
+      <c r="Z43" s="81">
         <v>27</v>
       </c>
-      <c r="AA43" s="78">
+      <c r="AA43" s="74">
         <v>28</v>
       </c>
-      <c r="AD43" s="77">
+      <c r="AD43" s="73">
         <v>22</v>
       </c>
-      <c r="AE43" s="81">
+      <c r="AE43" s="77">
         <v>23</v>
       </c>
-      <c r="AF43" s="101">
+      <c r="AF43" s="97">
         <v>24</v>
       </c>
-      <c r="AG43" s="110">
+      <c r="AG43" s="106">
         <v>25</v>
       </c>
-      <c r="AH43" s="107">
+      <c r="AH43" s="103">
         <v>26</v>
       </c>
-      <c r="AI43" s="108">
+      <c r="AI43" s="104">
         <v>27</v>
       </c>
-      <c r="AJ43" s="99">
+      <c r="AJ43" s="95">
         <v>28</v>
       </c>
-      <c r="AM43" s="77">
+      <c r="AM43" s="73">
         <v>22</v>
       </c>
-      <c r="AN43" s="81">
+      <c r="AN43" s="77">
         <v>23</v>
       </c>
-      <c r="AO43" s="81">
+      <c r="AO43" s="77">
         <v>24</v>
       </c>
-      <c r="AP43" s="101">
+      <c r="AP43" s="97">
         <v>25</v>
       </c>
-      <c r="AQ43" s="110">
+      <c r="AQ43" s="106">
         <v>26</v>
       </c>
-      <c r="AR43" s="107">
+      <c r="AR43" s="103">
         <v>27</v>
       </c>
-      <c r="AS43" s="112">
+      <c r="AS43" s="108">
         <v>28</v>
       </c>
-      <c r="AT43" s="69"/>
-    </row>
-    <row r="44" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="104">
+      <c r="AT43" s="65"/>
+    </row>
+    <row r="44" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="100">
         <v>15</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="100">
         <v>16</v>
       </c>
-      <c r="E44" s="104">
+      <c r="E44" s="100">
         <v>17</v>
       </c>
-      <c r="F44" s="77">
+      <c r="F44" s="73">
         <v>18</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="73">
         <v>19</v>
       </c>
-      <c r="H44" s="77">
+      <c r="H44" s="73">
         <v>20</v>
       </c>
-      <c r="I44" s="77">
+      <c r="I44" s="73">
         <v>21</v>
       </c>
-      <c r="L44" s="77">
+      <c r="L44" s="73">
         <v>15</v>
       </c>
-      <c r="M44" s="104">
+      <c r="M44" s="100">
         <v>16</v>
       </c>
-      <c r="N44" s="104">
+      <c r="N44" s="100">
         <v>17</v>
       </c>
-      <c r="O44" s="104">
+      <c r="O44" s="100">
         <v>18</v>
       </c>
-      <c r="P44" s="77">
+      <c r="P44" s="73">
         <v>19</v>
       </c>
-      <c r="Q44" s="77">
+      <c r="Q44" s="73">
         <v>20</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="73">
         <v>21</v>
       </c>
-      <c r="U44" s="77">
+      <c r="U44" s="73">
         <v>15</v>
       </c>
-      <c r="V44" s="77">
+      <c r="V44" s="73">
         <v>16</v>
       </c>
-      <c r="W44" s="104">
+      <c r="W44" s="100">
         <v>17</v>
       </c>
-      <c r="X44" s="104">
+      <c r="X44" s="100">
         <v>18</v>
       </c>
-      <c r="Y44" s="104">
+      <c r="Y44" s="100">
         <v>19</v>
       </c>
-      <c r="Z44" s="77">
+      <c r="Z44" s="73">
         <v>20</v>
       </c>
-      <c r="AA44" s="77">
+      <c r="AA44" s="73">
         <v>21</v>
       </c>
-      <c r="AD44" s="77">
+      <c r="AD44" s="73">
         <v>15</v>
       </c>
-      <c r="AE44" s="77">
+      <c r="AE44" s="73">
         <v>16</v>
       </c>
-      <c r="AF44" s="77">
+      <c r="AF44" s="73">
         <v>17</v>
       </c>
-      <c r="AG44" s="104">
+      <c r="AG44" s="100">
         <v>18</v>
       </c>
-      <c r="AH44" s="104">
+      <c r="AH44" s="100">
         <v>19</v>
       </c>
-      <c r="AI44" s="104">
+      <c r="AI44" s="100">
         <v>20</v>
       </c>
-      <c r="AJ44" s="77">
+      <c r="AJ44" s="73">
         <v>21</v>
       </c>
-      <c r="AM44" s="77">
+      <c r="AM44" s="73">
         <v>15</v>
       </c>
-      <c r="AN44" s="77">
+      <c r="AN44" s="73">
         <v>16</v>
       </c>
-      <c r="AO44" s="77">
+      <c r="AO44" s="73">
         <v>17</v>
       </c>
-      <c r="AP44" s="77">
+      <c r="AP44" s="73">
         <v>18</v>
       </c>
-      <c r="AQ44" s="104">
+      <c r="AQ44" s="100">
         <v>19</v>
       </c>
-      <c r="AR44" s="104">
+      <c r="AR44" s="100">
         <v>20</v>
       </c>
-      <c r="AS44" s="104">
+      <c r="AS44" s="100">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C45" s="77">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C45" s="73">
         <v>8</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="77">
         <v>9</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="77">
         <v>10</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="77">
         <v>11</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="77">
         <v>12</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="77">
         <v>13</v>
       </c>
-      <c r="I45" s="78">
+      <c r="I45" s="74">
         <v>14</v>
       </c>
-      <c r="L45" s="77">
+      <c r="L45" s="73">
         <v>8</v>
       </c>
-      <c r="M45" s="81">
+      <c r="M45" s="77">
         <v>9</v>
       </c>
-      <c r="N45" s="81">
+      <c r="N45" s="77">
         <v>10</v>
       </c>
-      <c r="O45" s="81">
+      <c r="O45" s="77">
         <v>11</v>
       </c>
-      <c r="P45" s="81">
+      <c r="P45" s="77">
         <v>12</v>
       </c>
-      <c r="Q45" s="81">
+      <c r="Q45" s="77">
         <v>13</v>
       </c>
-      <c r="R45" s="78">
+      <c r="R45" s="74">
         <v>14</v>
       </c>
-      <c r="U45" s="77">
+      <c r="U45" s="73">
         <v>8</v>
       </c>
-      <c r="V45" s="81">
+      <c r="V45" s="77">
         <v>9</v>
       </c>
-      <c r="W45" s="81">
+      <c r="W45" s="77">
         <v>10</v>
       </c>
-      <c r="X45" s="81">
+      <c r="X45" s="77">
         <v>11</v>
       </c>
-      <c r="Y45" s="81">
+      <c r="Y45" s="77">
         <v>12</v>
       </c>
-      <c r="Z45" s="81">
+      <c r="Z45" s="77">
         <v>13</v>
       </c>
-      <c r="AA45" s="78">
+      <c r="AA45" s="74">
         <v>14</v>
       </c>
-      <c r="AD45" s="77">
+      <c r="AD45" s="73">
         <v>8</v>
       </c>
-      <c r="AE45" s="81">
+      <c r="AE45" s="77">
         <v>9</v>
       </c>
-      <c r="AF45" s="81">
+      <c r="AF45" s="77">
         <v>10</v>
       </c>
-      <c r="AG45" s="81">
+      <c r="AG45" s="77">
         <v>11</v>
       </c>
-      <c r="AH45" s="81">
+      <c r="AH45" s="77">
         <v>12</v>
       </c>
-      <c r="AI45" s="81">
+      <c r="AI45" s="77">
         <v>13</v>
       </c>
-      <c r="AJ45" s="78">
+      <c r="AJ45" s="74">
         <v>14</v>
       </c>
-      <c r="AM45" s="77">
+      <c r="AM45" s="73">
         <v>8</v>
       </c>
-      <c r="AN45" s="81">
+      <c r="AN45" s="77">
         <v>9</v>
       </c>
-      <c r="AO45" s="81">
+      <c r="AO45" s="77">
         <v>10</v>
       </c>
-      <c r="AP45" s="81">
+      <c r="AP45" s="77">
         <v>11</v>
       </c>
-      <c r="AQ45" s="81">
+      <c r="AQ45" s="77">
         <v>12</v>
       </c>
-      <c r="AR45" s="81">
+      <c r="AR45" s="77">
         <v>13</v>
       </c>
-      <c r="AS45" s="78">
+      <c r="AS45" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C46" s="77">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C46" s="73">
         <v>1</v>
       </c>
-      <c r="D46" s="77">
+      <c r="D46" s="73">
         <v>2</v>
       </c>
-      <c r="E46" s="77">
+      <c r="E46" s="73">
         <v>3</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="73">
         <v>4</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="73">
         <v>5</v>
       </c>
-      <c r="H46" s="77">
+      <c r="H46" s="73">
         <v>6</v>
       </c>
-      <c r="I46" s="77">
+      <c r="I46" s="73">
         <v>7</v>
       </c>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="77">
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="73">
         <v>1</v>
       </c>
-      <c r="M46" s="77">
+      <c r="M46" s="73">
         <v>2</v>
       </c>
-      <c r="N46" s="77">
+      <c r="N46" s="73">
         <v>3</v>
       </c>
-      <c r="O46" s="77">
+      <c r="O46" s="73">
         <v>4</v>
       </c>
-      <c r="P46" s="77">
+      <c r="P46" s="73">
         <v>5</v>
       </c>
-      <c r="Q46" s="77">
+      <c r="Q46" s="73">
         <v>6</v>
       </c>
-      <c r="R46" s="77">
+      <c r="R46" s="73">
         <v>7</v>
       </c>
-      <c r="S46" s="72"/>
-      <c r="U46" s="77">
+      <c r="S46" s="68"/>
+      <c r="U46" s="73">
         <v>1</v>
       </c>
-      <c r="V46" s="77">
+      <c r="V46" s="73">
         <v>2</v>
       </c>
-      <c r="W46" s="77">
+      <c r="W46" s="73">
         <v>3</v>
       </c>
-      <c r="X46" s="77">
+      <c r="X46" s="73">
         <v>4</v>
       </c>
-      <c r="Y46" s="77">
+      <c r="Y46" s="73">
         <v>5</v>
       </c>
-      <c r="Z46" s="77">
+      <c r="Z46" s="73">
         <v>6</v>
       </c>
-      <c r="AA46" s="77">
+      <c r="AA46" s="73">
         <v>7</v>
       </c>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="77">
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="73">
         <v>1</v>
       </c>
-      <c r="AE46" s="77">
+      <c r="AE46" s="73">
         <v>2</v>
       </c>
-      <c r="AF46" s="77">
+      <c r="AF46" s="73">
         <v>3</v>
       </c>
-      <c r="AG46" s="77">
+      <c r="AG46" s="73">
         <v>4</v>
       </c>
-      <c r="AH46" s="77">
+      <c r="AH46" s="73">
         <v>5</v>
       </c>
-      <c r="AI46" s="77">
+      <c r="AI46" s="73">
         <v>6</v>
       </c>
-      <c r="AJ46" s="77">
+      <c r="AJ46" s="73">
         <v>7</v>
       </c>
-      <c r="AM46" s="77">
+      <c r="AM46" s="73">
         <v>1</v>
       </c>
-      <c r="AN46" s="77">
+      <c r="AN46" s="73">
         <v>2</v>
       </c>
-      <c r="AO46" s="77">
+      <c r="AO46" s="73">
         <v>3</v>
       </c>
-      <c r="AP46" s="77">
+      <c r="AP46" s="73">
         <v>4</v>
       </c>
-      <c r="AQ46" s="77">
+      <c r="AQ46" s="73">
         <v>5</v>
       </c>
-      <c r="AR46" s="77">
+      <c r="AR46" s="73">
         <v>6</v>
       </c>
-      <c r="AS46" s="77">
+      <c r="AS46" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="115" t="s">
+    <row r="48" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="L48" s="83" t="s">
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="L48" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="U48" s="83" t="s">
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="U48" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="AD48" s="83" t="s">
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="AD48" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AM48" s="83" t="s">
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AM48" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="67"/>
-      <c r="AS48" s="67"/>
-    </row>
-    <row r="49" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="68"/>
-      <c r="C49" s="89">
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+    </row>
+    <row r="49" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+      <c r="C49" s="85">
         <v>43</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49" s="86">
         <v>44</v>
       </c>
-      <c r="E49" s="91">
+      <c r="E49" s="87">
         <v>45</v>
       </c>
-      <c r="F49" s="84">
+      <c r="F49" s="80">
         <v>46</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="73">
         <v>47</v>
       </c>
-      <c r="H49" s="77">
+      <c r="H49" s="73">
         <v>48</v>
       </c>
-      <c r="I49" s="77">
+      <c r="I49" s="73">
         <v>49</v>
       </c>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="98">
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="94">
         <v>43</v>
       </c>
-      <c r="M49" s="89">
+      <c r="M49" s="85">
         <v>44</v>
       </c>
-      <c r="N49" s="90">
+      <c r="N49" s="86">
         <v>45</v>
       </c>
-      <c r="O49" s="91">
+      <c r="O49" s="87">
         <v>46</v>
       </c>
-      <c r="P49" s="84">
+      <c r="P49" s="80">
         <v>47</v>
       </c>
-      <c r="Q49" s="77">
+      <c r="Q49" s="73">
         <v>48</v>
       </c>
-      <c r="R49" s="77">
+      <c r="R49" s="73">
         <v>49</v>
       </c>
-      <c r="S49" s="72"/>
-      <c r="U49" s="77">
+      <c r="S49" s="68"/>
+      <c r="U49" s="73">
         <v>43</v>
       </c>
-      <c r="V49" s="98">
+      <c r="V49" s="94">
         <v>44</v>
       </c>
-      <c r="W49" s="89">
+      <c r="W49" s="85">
         <v>45</v>
       </c>
-      <c r="X49" s="90">
+      <c r="X49" s="86">
         <v>46</v>
       </c>
-      <c r="Y49" s="91">
+      <c r="Y49" s="87">
         <v>47</v>
       </c>
-      <c r="Z49" s="84">
+      <c r="Z49" s="80">
         <v>48</v>
       </c>
-      <c r="AA49" s="77">
+      <c r="AA49" s="73">
         <v>49</v>
       </c>
-      <c r="AD49" s="77">
+      <c r="AD49" s="73">
         <v>43</v>
       </c>
-      <c r="AE49" s="77">
+      <c r="AE49" s="73">
         <v>44</v>
       </c>
-      <c r="AF49" s="98">
+      <c r="AF49" s="94">
         <v>45</v>
       </c>
-      <c r="AG49" s="89">
+      <c r="AG49" s="85">
         <v>46</v>
       </c>
-      <c r="AH49" s="90">
+      <c r="AH49" s="86">
         <v>47</v>
       </c>
-      <c r="AI49" s="91">
+      <c r="AI49" s="87">
         <v>48</v>
       </c>
-      <c r="AJ49" s="84">
+      <c r="AJ49" s="80">
         <v>49</v>
       </c>
-      <c r="AM49" s="77">
+      <c r="AM49" s="73">
         <v>43</v>
       </c>
-      <c r="AN49" s="77">
+      <c r="AN49" s="73">
         <v>44</v>
       </c>
-      <c r="AO49" s="77">
+      <c r="AO49" s="73">
         <v>45</v>
       </c>
-      <c r="AP49" s="98">
+      <c r="AP49" s="94">
         <v>46</v>
       </c>
-      <c r="AQ49" s="89">
+      <c r="AQ49" s="85">
         <v>47</v>
       </c>
-      <c r="AR49" s="90">
+      <c r="AR49" s="86">
         <v>48</v>
       </c>
-      <c r="AS49" s="91">
+      <c r="AS49" s="87">
         <v>49</v>
       </c>
-      <c r="AT49" s="69"/>
-    </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B50" s="68"/>
-      <c r="C50" s="92">
+      <c r="AT49" s="65"/>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B50" s="64"/>
+      <c r="C50" s="88">
         <v>36</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="77">
         <v>37</v>
       </c>
-      <c r="E50" s="93">
+      <c r="E50" s="89">
         <v>38</v>
       </c>
-      <c r="F50" s="85">
+      <c r="F50" s="81">
         <v>39</v>
       </c>
-      <c r="G50" s="81">
+      <c r="G50" s="77">
         <v>40</v>
       </c>
-      <c r="H50" s="81">
+      <c r="H50" s="77">
         <v>41</v>
       </c>
-      <c r="I50" s="78">
+      <c r="I50" s="74">
         <v>42</v>
       </c>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="98">
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="94">
         <v>36</v>
       </c>
-      <c r="M50" s="100">
+      <c r="M50" s="96">
         <v>37</v>
       </c>
-      <c r="N50" s="81">
+      <c r="N50" s="77">
         <v>38</v>
       </c>
-      <c r="O50" s="93">
+      <c r="O50" s="89">
         <v>39</v>
       </c>
-      <c r="P50" s="85">
+      <c r="P50" s="81">
         <v>40</v>
       </c>
-      <c r="Q50" s="81">
+      <c r="Q50" s="77">
         <v>41</v>
       </c>
-      <c r="R50" s="78">
+      <c r="R50" s="74">
         <v>42</v>
       </c>
-      <c r="S50" s="72"/>
-      <c r="U50" s="77">
+      <c r="S50" s="68"/>
+      <c r="U50" s="73">
         <v>36</v>
       </c>
-      <c r="V50" s="101">
+      <c r="V50" s="97">
         <v>37</v>
       </c>
-      <c r="W50" s="100">
+      <c r="W50" s="96">
         <v>38</v>
       </c>
-      <c r="X50" s="81">
+      <c r="X50" s="77">
         <v>39</v>
       </c>
-      <c r="Y50" s="93">
+      <c r="Y50" s="89">
         <v>40</v>
       </c>
-      <c r="Z50" s="85">
+      <c r="Z50" s="81">
         <v>41</v>
       </c>
-      <c r="AA50" s="78">
+      <c r="AA50" s="74">
         <v>42</v>
       </c>
-      <c r="AD50" s="77">
+      <c r="AD50" s="73">
         <v>36</v>
       </c>
-      <c r="AE50" s="81">
+      <c r="AE50" s="77">
         <v>37</v>
       </c>
-      <c r="AF50" s="101">
+      <c r="AF50" s="97">
         <v>38</v>
       </c>
-      <c r="AG50" s="100">
+      <c r="AG50" s="96">
         <v>39</v>
       </c>
-      <c r="AH50" s="81">
+      <c r="AH50" s="77">
         <v>40</v>
       </c>
-      <c r="AI50" s="93">
+      <c r="AI50" s="89">
         <v>41</v>
       </c>
-      <c r="AJ50" s="99">
+      <c r="AJ50" s="95">
         <v>42</v>
       </c>
-      <c r="AM50" s="77">
+      <c r="AM50" s="73">
         <v>36</v>
       </c>
-      <c r="AN50" s="81">
+      <c r="AN50" s="77">
         <v>37</v>
       </c>
-      <c r="AO50" s="81">
+      <c r="AO50" s="77">
         <v>38</v>
       </c>
-      <c r="AP50" s="101">
+      <c r="AP50" s="97">
         <v>39</v>
       </c>
-      <c r="AQ50" s="100">
+      <c r="AQ50" s="96">
         <v>40</v>
       </c>
-      <c r="AR50" s="81">
+      <c r="AR50" s="77">
         <v>41</v>
       </c>
-      <c r="AS50" s="103">
+      <c r="AS50" s="99">
         <v>42</v>
       </c>
-      <c r="AT50" s="69"/>
-    </row>
-    <row r="51" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="68"/>
-      <c r="C51" s="95">
+      <c r="AT50" s="65"/>
+    </row>
+    <row r="51" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="64"/>
+      <c r="C51" s="91">
         <v>29</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="92">
         <v>30</v>
       </c>
-      <c r="E51" s="97">
+      <c r="E51" s="93">
         <v>31</v>
       </c>
-      <c r="F51" s="84">
+      <c r="F51" s="80">
         <v>32</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="73">
         <v>33</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="73">
         <v>34</v>
       </c>
-      <c r="I51" s="77">
+      <c r="I51" s="73">
         <v>35</v>
       </c>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="98">
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="94">
         <v>29</v>
       </c>
-      <c r="M51" s="95">
+      <c r="M51" s="91">
         <v>30</v>
       </c>
-      <c r="N51" s="96">
+      <c r="N51" s="92">
         <v>31</v>
       </c>
-      <c r="O51" s="97">
+      <c r="O51" s="93">
         <v>32</v>
       </c>
-      <c r="P51" s="84">
+      <c r="P51" s="80">
         <v>33</v>
       </c>
-      <c r="Q51" s="77">
+      <c r="Q51" s="73">
         <v>34</v>
       </c>
-      <c r="R51" s="77">
+      <c r="R51" s="73">
         <v>35</v>
       </c>
-      <c r="S51" s="72"/>
-      <c r="U51" s="77">
+      <c r="S51" s="68"/>
+      <c r="U51" s="73">
         <v>29</v>
       </c>
-      <c r="V51" s="98">
+      <c r="V51" s="94">
         <v>30</v>
       </c>
-      <c r="W51" s="95">
+      <c r="W51" s="91">
         <v>31</v>
       </c>
-      <c r="X51" s="96">
+      <c r="X51" s="92">
         <v>32</v>
       </c>
-      <c r="Y51" s="97">
+      <c r="Y51" s="93">
         <v>33</v>
       </c>
-      <c r="Z51" s="84">
+      <c r="Z51" s="80">
         <v>34</v>
       </c>
-      <c r="AA51" s="77">
+      <c r="AA51" s="73">
         <v>35</v>
       </c>
-      <c r="AD51" s="77">
+      <c r="AD51" s="73">
         <v>29</v>
       </c>
-      <c r="AE51" s="77">
+      <c r="AE51" s="73">
         <v>30</v>
       </c>
-      <c r="AF51" s="98">
+      <c r="AF51" s="94">
         <v>31</v>
       </c>
-      <c r="AG51" s="95">
+      <c r="AG51" s="91">
         <v>32</v>
       </c>
-      <c r="AH51" s="96">
+      <c r="AH51" s="92">
         <v>33</v>
       </c>
-      <c r="AI51" s="97">
+      <c r="AI51" s="93">
         <v>34</v>
       </c>
-      <c r="AJ51" s="84">
+      <c r="AJ51" s="80">
         <v>35</v>
       </c>
-      <c r="AM51" s="77">
+      <c r="AM51" s="73">
         <v>29</v>
       </c>
-      <c r="AN51" s="77">
+      <c r="AN51" s="73">
         <v>30</v>
       </c>
-      <c r="AO51" s="77">
+      <c r="AO51" s="73">
         <v>31</v>
       </c>
-      <c r="AP51" s="98">
+      <c r="AP51" s="94">
         <v>32</v>
       </c>
-      <c r="AQ51" s="95">
+      <c r="AQ51" s="91">
         <v>33</v>
       </c>
-      <c r="AR51" s="96">
+      <c r="AR51" s="92">
         <v>34</v>
       </c>
-      <c r="AS51" s="97">
+      <c r="AS51" s="93">
         <v>35</v>
       </c>
-      <c r="AT51" s="69"/>
-    </row>
-    <row r="52" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="104">
+      <c r="AT51" s="65"/>
+    </row>
+    <row r="52" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="100">
         <v>22</v>
       </c>
-      <c r="D52" s="113">
+      <c r="D52" s="109">
         <v>23</v>
       </c>
-      <c r="E52" s="113">
+      <c r="E52" s="109">
         <v>24</v>
       </c>
-      <c r="F52" s="81">
+      <c r="F52" s="77">
         <v>25</v>
       </c>
-      <c r="G52" s="81">
+      <c r="G52" s="77">
         <v>26</v>
       </c>
-      <c r="H52" s="81">
+      <c r="H52" s="77">
         <v>27</v>
       </c>
-      <c r="I52" s="78">
+      <c r="I52" s="74">
         <v>28</v>
       </c>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="77">
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="73">
         <v>22</v>
       </c>
-      <c r="M52" s="113">
+      <c r="M52" s="109">
         <v>23</v>
       </c>
-      <c r="N52" s="113">
+      <c r="N52" s="109">
         <v>24</v>
       </c>
-      <c r="O52" s="113">
+      <c r="O52" s="109">
         <v>25</v>
       </c>
-      <c r="P52" s="81">
+      <c r="P52" s="77">
         <v>26</v>
       </c>
-      <c r="Q52" s="81">
+      <c r="Q52" s="77">
         <v>27</v>
       </c>
-      <c r="R52" s="78">
+      <c r="R52" s="74">
         <v>28</v>
       </c>
-      <c r="S52" s="72"/>
-      <c r="U52" s="77">
+      <c r="S52" s="68"/>
+      <c r="U52" s="73">
         <v>22</v>
       </c>
-      <c r="V52" s="81">
+      <c r="V52" s="77">
         <v>23</v>
       </c>
-      <c r="W52" s="113">
+      <c r="W52" s="109">
         <v>24</v>
       </c>
-      <c r="X52" s="113">
+      <c r="X52" s="109">
         <v>25</v>
       </c>
-      <c r="Y52" s="113">
+      <c r="Y52" s="109">
         <v>26</v>
       </c>
-      <c r="Z52" s="81">
+      <c r="Z52" s="77">
         <v>27</v>
       </c>
-      <c r="AA52" s="78">
+      <c r="AA52" s="74">
         <v>28</v>
       </c>
-      <c r="AD52" s="77">
+      <c r="AD52" s="73">
         <v>22</v>
       </c>
-      <c r="AE52" s="81">
+      <c r="AE52" s="77">
         <v>23</v>
       </c>
-      <c r="AF52" s="81">
+      <c r="AF52" s="77">
         <v>24</v>
       </c>
-      <c r="AG52" s="113">
+      <c r="AG52" s="109">
         <v>25</v>
       </c>
-      <c r="AH52" s="113">
+      <c r="AH52" s="109">
         <v>26</v>
       </c>
-      <c r="AI52" s="113">
+      <c r="AI52" s="109">
         <v>27</v>
       </c>
-      <c r="AJ52" s="78">
+      <c r="AJ52" s="74">
         <v>28</v>
       </c>
-      <c r="AM52" s="77">
+      <c r="AM52" s="73">
         <v>22</v>
       </c>
-      <c r="AN52" s="81">
+      <c r="AN52" s="77">
         <v>23</v>
       </c>
-      <c r="AO52" s="81">
+      <c r="AO52" s="77">
         <v>24</v>
       </c>
-      <c r="AP52" s="81">
+      <c r="AP52" s="77">
         <v>25</v>
       </c>
-      <c r="AQ52" s="113">
+      <c r="AQ52" s="109">
         <v>26</v>
       </c>
-      <c r="AR52" s="113">
+      <c r="AR52" s="109">
         <v>27</v>
       </c>
-      <c r="AS52" s="114">
+      <c r="AS52" s="110">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C53" s="77">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C53" s="73">
         <v>15</v>
       </c>
-      <c r="D53" s="77">
+      <c r="D53" s="73">
         <v>16</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E53" s="73">
         <v>17</v>
       </c>
-      <c r="F53" s="77">
+      <c r="F53" s="73">
         <v>18</v>
       </c>
-      <c r="G53" s="77">
+      <c r="G53" s="73">
         <v>19</v>
       </c>
-      <c r="H53" s="77">
+      <c r="H53" s="73">
         <v>20</v>
       </c>
-      <c r="I53" s="77">
+      <c r="I53" s="73">
         <v>21</v>
       </c>
-      <c r="L53" s="77">
+      <c r="L53" s="73">
         <v>15</v>
       </c>
-      <c r="M53" s="77">
+      <c r="M53" s="73">
         <v>16</v>
       </c>
-      <c r="N53" s="77">
+      <c r="N53" s="73">
         <v>17</v>
       </c>
-      <c r="O53" s="77">
+      <c r="O53" s="73">
         <v>18</v>
       </c>
-      <c r="P53" s="77">
+      <c r="P53" s="73">
         <v>19</v>
       </c>
-      <c r="Q53" s="77">
+      <c r="Q53" s="73">
         <v>20</v>
       </c>
-      <c r="R53" s="77">
+      <c r="R53" s="73">
         <v>21</v>
       </c>
-      <c r="U53" s="77">
+      <c r="U53" s="73">
         <v>15</v>
       </c>
-      <c r="V53" s="77">
+      <c r="V53" s="73">
         <v>16</v>
       </c>
-      <c r="W53" s="77">
+      <c r="W53" s="73">
         <v>17</v>
       </c>
-      <c r="X53" s="77">
+      <c r="X53" s="73">
         <v>18</v>
       </c>
-      <c r="Y53" s="77">
+      <c r="Y53" s="73">
         <v>19</v>
       </c>
-      <c r="Z53" s="77">
+      <c r="Z53" s="73">
         <v>20</v>
       </c>
-      <c r="AA53" s="77">
+      <c r="AA53" s="73">
         <v>21</v>
       </c>
-      <c r="AD53" s="77">
+      <c r="AD53" s="73">
         <v>15</v>
       </c>
-      <c r="AE53" s="77">
+      <c r="AE53" s="73">
         <v>16</v>
       </c>
-      <c r="AF53" s="77">
+      <c r="AF53" s="73">
         <v>17</v>
       </c>
-      <c r="AG53" s="77">
+      <c r="AG53" s="73">
         <v>18</v>
       </c>
-      <c r="AH53" s="77">
+      <c r="AH53" s="73">
         <v>19</v>
       </c>
-      <c r="AI53" s="77">
+      <c r="AI53" s="73">
         <v>20</v>
       </c>
-      <c r="AJ53" s="77">
+      <c r="AJ53" s="73">
         <v>21</v>
       </c>
-      <c r="AM53" s="77">
+      <c r="AM53" s="73">
         <v>15</v>
       </c>
-      <c r="AN53" s="77">
+      <c r="AN53" s="73">
         <v>16</v>
       </c>
-      <c r="AO53" s="77">
+      <c r="AO53" s="73">
         <v>17</v>
       </c>
-      <c r="AP53" s="77">
+      <c r="AP53" s="73">
         <v>18</v>
       </c>
-      <c r="AQ53" s="77">
+      <c r="AQ53" s="73">
         <v>19</v>
       </c>
-      <c r="AR53" s="77">
+      <c r="AR53" s="73">
         <v>20</v>
       </c>
-      <c r="AS53" s="77">
+      <c r="AS53" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C54" s="77">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C54" s="73">
         <v>8</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="77">
         <v>9</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="77">
         <v>10</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="77">
         <v>11</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="77">
         <v>12</v>
       </c>
-      <c r="H54" s="81">
+      <c r="H54" s="77">
         <v>13</v>
       </c>
-      <c r="I54" s="78">
+      <c r="I54" s="74">
         <v>14</v>
       </c>
-      <c r="L54" s="77">
+      <c r="L54" s="73">
         <v>8</v>
       </c>
-      <c r="M54" s="81">
+      <c r="M54" s="77">
         <v>9</v>
       </c>
-      <c r="N54" s="81">
+      <c r="N54" s="77">
         <v>10</v>
       </c>
-      <c r="O54" s="81">
+      <c r="O54" s="77">
         <v>11</v>
       </c>
-      <c r="P54" s="81">
+      <c r="P54" s="77">
         <v>12</v>
       </c>
-      <c r="Q54" s="81">
+      <c r="Q54" s="77">
         <v>13</v>
       </c>
-      <c r="R54" s="78">
+      <c r="R54" s="74">
         <v>14</v>
       </c>
-      <c r="U54" s="77">
+      <c r="U54" s="73">
         <v>8</v>
       </c>
-      <c r="V54" s="81">
+      <c r="V54" s="77">
         <v>9</v>
       </c>
-      <c r="W54" s="81">
+      <c r="W54" s="77">
         <v>10</v>
       </c>
-      <c r="X54" s="81">
+      <c r="X54" s="77">
         <v>11</v>
       </c>
-      <c r="Y54" s="81">
+      <c r="Y54" s="77">
         <v>12</v>
       </c>
-      <c r="Z54" s="81">
+      <c r="Z54" s="77">
         <v>13</v>
       </c>
-      <c r="AA54" s="78">
+      <c r="AA54" s="74">
         <v>14</v>
       </c>
-      <c r="AD54" s="77">
+      <c r="AD54" s="73">
         <v>8</v>
       </c>
-      <c r="AE54" s="81">
+      <c r="AE54" s="77">
         <v>9</v>
       </c>
-      <c r="AF54" s="81">
+      <c r="AF54" s="77">
         <v>10</v>
       </c>
-      <c r="AG54" s="81">
+      <c r="AG54" s="77">
         <v>11</v>
       </c>
-      <c r="AH54" s="81">
+      <c r="AH54" s="77">
         <v>12</v>
       </c>
-      <c r="AI54" s="81">
+      <c r="AI54" s="77">
         <v>13</v>
       </c>
-      <c r="AJ54" s="78">
+      <c r="AJ54" s="74">
         <v>14</v>
       </c>
-      <c r="AM54" s="77">
+      <c r="AM54" s="73">
         <v>8</v>
       </c>
-      <c r="AN54" s="81">
+      <c r="AN54" s="77">
         <v>9</v>
       </c>
-      <c r="AO54" s="81">
+      <c r="AO54" s="77">
         <v>10</v>
       </c>
-      <c r="AP54" s="81">
+      <c r="AP54" s="77">
         <v>11</v>
       </c>
-      <c r="AQ54" s="81">
+      <c r="AQ54" s="77">
         <v>12</v>
       </c>
-      <c r="AR54" s="81">
+      <c r="AR54" s="77">
         <v>13</v>
       </c>
-      <c r="AS54" s="78">
+      <c r="AS54" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C55" s="77">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C55" s="73">
         <v>1</v>
       </c>
-      <c r="D55" s="77">
+      <c r="D55" s="73">
         <v>2</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E55" s="73">
         <v>3</v>
       </c>
-      <c r="F55" s="77">
+      <c r="F55" s="73">
         <v>4</v>
       </c>
-      <c r="G55" s="77">
+      <c r="G55" s="73">
         <v>5</v>
       </c>
-      <c r="H55" s="77">
+      <c r="H55" s="73">
         <v>6</v>
       </c>
-      <c r="I55" s="77">
+      <c r="I55" s="73">
         <v>7</v>
       </c>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="77">
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="73">
         <v>1</v>
       </c>
-      <c r="M55" s="77">
+      <c r="M55" s="73">
         <v>2</v>
       </c>
-      <c r="N55" s="77">
+      <c r="N55" s="73">
         <v>3</v>
       </c>
-      <c r="O55" s="77">
+      <c r="O55" s="73">
         <v>4</v>
       </c>
-      <c r="P55" s="77">
+      <c r="P55" s="73">
         <v>5</v>
       </c>
-      <c r="Q55" s="77">
+      <c r="Q55" s="73">
         <v>6</v>
       </c>
-      <c r="R55" s="77">
+      <c r="R55" s="73">
         <v>7</v>
       </c>
-      <c r="S55" s="72"/>
-      <c r="U55" s="77">
+      <c r="S55" s="68"/>
+      <c r="U55" s="73">
         <v>1</v>
       </c>
-      <c r="V55" s="77">
+      <c r="V55" s="73">
         <v>2</v>
       </c>
-      <c r="W55" s="77">
+      <c r="W55" s="73">
         <v>3</v>
       </c>
-      <c r="X55" s="77">
+      <c r="X55" s="73">
         <v>4</v>
       </c>
-      <c r="Y55" s="77">
+      <c r="Y55" s="73">
         <v>5</v>
       </c>
-      <c r="Z55" s="77">
+      <c r="Z55" s="73">
         <v>6</v>
       </c>
-      <c r="AA55" s="77">
+      <c r="AA55" s="73">
         <v>7</v>
       </c>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="77">
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="73">
         <v>1</v>
       </c>
-      <c r="AE55" s="77">
+      <c r="AE55" s="73">
         <v>2</v>
       </c>
-      <c r="AF55" s="77">
+      <c r="AF55" s="73">
         <v>3</v>
       </c>
-      <c r="AG55" s="77">
+      <c r="AG55" s="73">
         <v>4</v>
       </c>
-      <c r="AH55" s="77">
+      <c r="AH55" s="73">
         <v>5</v>
       </c>
-      <c r="AI55" s="77">
+      <c r="AI55" s="73">
         <v>6</v>
       </c>
-      <c r="AJ55" s="77">
+      <c r="AJ55" s="73">
         <v>7</v>
       </c>
-      <c r="AM55" s="77">
+      <c r="AM55" s="73">
         <v>1</v>
       </c>
-      <c r="AN55" s="77">
+      <c r="AN55" s="73">
         <v>2</v>
       </c>
-      <c r="AO55" s="77">
+      <c r="AO55" s="73">
         <v>3</v>
       </c>
-      <c r="AP55" s="77">
+      <c r="AP55" s="73">
         <v>4</v>
       </c>
-      <c r="AQ55" s="77">
+      <c r="AQ55" s="73">
         <v>5</v>
       </c>
-      <c r="AR55" s="77">
+      <c r="AR55" s="73">
         <v>6</v>
       </c>
-      <c r="AS55" s="77">
+      <c r="AS55" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C59" s="77">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C59" s="73">
         <v>43</v>
       </c>
-      <c r="D59" s="77">
+      <c r="D59" s="73">
         <v>44</v>
       </c>
-      <c r="E59" s="77">
+      <c r="E59" s="73">
         <v>45</v>
       </c>
-      <c r="F59" s="77">
+      <c r="F59" s="73">
         <v>46</v>
       </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="L59" s="77">
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="L59" s="73">
         <v>43</v>
       </c>
-      <c r="M59" s="77">
+      <c r="M59" s="73">
         <v>44</v>
       </c>
-      <c r="N59" s="77">
+      <c r="N59" s="73">
         <v>45</v>
       </c>
-      <c r="O59" s="77">
+      <c r="O59" s="73">
         <v>46</v>
       </c>
-      <c r="P59" s="77">
+      <c r="P59" s="73">
         <v>47</v>
       </c>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="77"/>
-      <c r="U59" s="77">
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="U59" s="73">
         <v>43</v>
       </c>
-      <c r="V59" s="77">
+      <c r="V59" s="73">
         <v>44</v>
       </c>
-      <c r="W59" s="77">
+      <c r="W59" s="73">
         <v>45</v>
       </c>
-      <c r="X59" s="77">
+      <c r="X59" s="73">
         <v>46</v>
       </c>
-      <c r="Y59" s="77">
+      <c r="Y59" s="73">
         <v>47</v>
       </c>
-      <c r="Z59" s="77">
+      <c r="Z59" s="73">
         <v>48</v>
       </c>
-      <c r="AA59" s="77"/>
-    </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C60" s="77">
+      <c r="AA59" s="73"/>
+    </row>
+    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C60" s="73">
         <v>36</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="77">
         <v>37</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="77">
         <v>38</v>
       </c>
-      <c r="F60" s="81">
+      <c r="F60" s="77">
         <v>39</v>
       </c>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="78"/>
-      <c r="L60" s="77">
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="74"/>
+      <c r="L60" s="73">
         <v>36</v>
       </c>
-      <c r="M60" s="81">
+      <c r="M60" s="77">
         <v>37</v>
       </c>
-      <c r="N60" s="81">
+      <c r="N60" s="77">
         <v>38</v>
       </c>
-      <c r="O60" s="81">
+      <c r="O60" s="77">
         <v>39</v>
       </c>
-      <c r="P60" s="81">
+      <c r="P60" s="77">
         <v>40</v>
       </c>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="78"/>
-      <c r="U60" s="77">
+      <c r="Q60" s="77"/>
+      <c r="R60" s="74"/>
+      <c r="U60" s="73">
         <v>36</v>
       </c>
-      <c r="V60" s="81">
+      <c r="V60" s="77">
         <v>37</v>
       </c>
-      <c r="W60" s="81">
+      <c r="W60" s="77">
         <v>38</v>
       </c>
-      <c r="X60" s="81">
+      <c r="X60" s="77">
         <v>39</v>
       </c>
-      <c r="Y60" s="81">
+      <c r="Y60" s="77">
         <v>40</v>
       </c>
-      <c r="Z60" s="81">
+      <c r="Z60" s="77">
         <v>41</v>
       </c>
-      <c r="AA60" s="78"/>
-    </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C61" s="77">
+      <c r="AA60" s="74"/>
+    </row>
+    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C61" s="73">
         <v>29</v>
       </c>
-      <c r="D61" s="77">
+      <c r="D61" s="73">
         <v>30</v>
       </c>
-      <c r="E61" s="77">
+      <c r="E61" s="73">
         <v>31</v>
       </c>
-      <c r="F61" s="77">
+      <c r="F61" s="73">
         <v>32</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="L61" s="77">
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="L61" s="73">
         <v>29</v>
       </c>
-      <c r="M61" s="77">
+      <c r="M61" s="73">
         <v>30</v>
       </c>
-      <c r="N61" s="77">
+      <c r="N61" s="73">
         <v>31</v>
       </c>
-      <c r="O61" s="77">
+      <c r="O61" s="73">
         <v>32</v>
       </c>
-      <c r="P61" s="77">
+      <c r="P61" s="73">
         <v>33</v>
       </c>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="77"/>
-      <c r="U61" s="77">
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="U61" s="73">
         <v>29</v>
       </c>
-      <c r="V61" s="77">
+      <c r="V61" s="73">
         <v>30</v>
       </c>
-      <c r="W61" s="77">
+      <c r="W61" s="73">
         <v>31</v>
       </c>
-      <c r="X61" s="77">
+      <c r="X61" s="73">
         <v>32</v>
       </c>
-      <c r="Y61" s="77">
+      <c r="Y61" s="73">
         <v>33</v>
       </c>
-      <c r="Z61" s="77">
+      <c r="Z61" s="73">
         <v>34</v>
       </c>
-      <c r="AA61" s="77"/>
-    </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C62" s="77">
+      <c r="AA61" s="73"/>
+    </row>
+    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C62" s="73">
         <v>22</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="77">
         <v>23</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="77">
         <v>24</v>
       </c>
-      <c r="F62" s="81">
+      <c r="F62" s="77">
         <v>25</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="77">
         <v>26</v>
       </c>
-      <c r="H62" s="81">
+      <c r="H62" s="77">
         <v>27</v>
       </c>
-      <c r="I62" s="78">
+      <c r="I62" s="74">
         <v>28</v>
       </c>
-      <c r="L62" s="77">
+      <c r="L62" s="73">
         <v>22</v>
       </c>
-      <c r="M62" s="81">
+      <c r="M62" s="77">
         <v>23</v>
       </c>
-      <c r="N62" s="81">
+      <c r="N62" s="77">
         <v>24</v>
       </c>
-      <c r="O62" s="81">
+      <c r="O62" s="77">
         <v>25</v>
       </c>
-      <c r="P62" s="81">
+      <c r="P62" s="77">
         <v>26</v>
       </c>
-      <c r="Q62" s="81">
+      <c r="Q62" s="77">
         <v>27</v>
       </c>
-      <c r="R62" s="78">
+      <c r="R62" s="74">
         <v>28</v>
       </c>
-      <c r="U62" s="77">
+      <c r="U62" s="73">
         <v>22</v>
       </c>
-      <c r="V62" s="81">
+      <c r="V62" s="77">
         <v>23</v>
       </c>
-      <c r="W62" s="81">
+      <c r="W62" s="77">
         <v>24</v>
       </c>
-      <c r="X62" s="81">
+      <c r="X62" s="77">
         <v>25</v>
       </c>
-      <c r="Y62" s="81">
+      <c r="Y62" s="77">
         <v>26</v>
       </c>
-      <c r="Z62" s="81">
+      <c r="Z62" s="77">
         <v>27</v>
       </c>
-      <c r="AA62" s="78">
+      <c r="AA62" s="74">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C63" s="77">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C63" s="73">
         <v>15</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D63" s="73">
         <v>16</v>
       </c>
-      <c r="E63" s="77">
+      <c r="E63" s="73">
         <v>17</v>
       </c>
-      <c r="F63" s="77">
+      <c r="F63" s="73">
         <v>18</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="73">
         <v>19</v>
       </c>
-      <c r="H63" s="77">
+      <c r="H63" s="73">
         <v>20</v>
       </c>
-      <c r="I63" s="77">
+      <c r="I63" s="73">
         <v>21</v>
       </c>
-      <c r="L63" s="77">
+      <c r="L63" s="73">
         <v>15</v>
       </c>
-      <c r="M63" s="77">
+      <c r="M63" s="73">
         <v>16</v>
       </c>
-      <c r="N63" s="77">
+      <c r="N63" s="73">
         <v>17</v>
       </c>
-      <c r="O63" s="77">
+      <c r="O63" s="73">
         <v>18</v>
       </c>
-      <c r="P63" s="77">
+      <c r="P63" s="73">
         <v>19</v>
       </c>
-      <c r="Q63" s="77">
+      <c r="Q63" s="73">
         <v>20</v>
       </c>
-      <c r="R63" s="77">
+      <c r="R63" s="73">
         <v>21</v>
       </c>
-      <c r="U63" s="77">
+      <c r="U63" s="73">
         <v>15</v>
       </c>
-      <c r="V63" s="77">
+      <c r="V63" s="73">
         <v>16</v>
       </c>
-      <c r="W63" s="77">
+      <c r="W63" s="73">
         <v>17</v>
       </c>
-      <c r="X63" s="77">
+      <c r="X63" s="73">
         <v>18</v>
       </c>
-      <c r="Y63" s="77">
+      <c r="Y63" s="73">
         <v>19</v>
       </c>
-      <c r="Z63" s="77">
+      <c r="Z63" s="73">
         <v>20</v>
       </c>
-      <c r="AA63" s="77">
+      <c r="AA63" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="C64" s="77">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="C64" s="73">
         <v>8</v>
       </c>
-      <c r="D64" s="81">
+      <c r="D64" s="77">
         <v>9</v>
       </c>
-      <c r="E64" s="81">
+      <c r="E64" s="77">
         <v>10</v>
       </c>
-      <c r="F64" s="81">
+      <c r="F64" s="77">
         <v>11</v>
       </c>
-      <c r="G64" s="81">
+      <c r="G64" s="77">
         <v>12</v>
       </c>
-      <c r="H64" s="81">
+      <c r="H64" s="77">
         <v>13</v>
       </c>
-      <c r="I64" s="78">
+      <c r="I64" s="74">
         <v>14</v>
       </c>
-      <c r="L64" s="77">
+      <c r="L64" s="73">
         <v>8</v>
       </c>
-      <c r="M64" s="81">
+      <c r="M64" s="77">
         <v>9</v>
       </c>
-      <c r="N64" s="81">
+      <c r="N64" s="77">
         <v>10</v>
       </c>
-      <c r="O64" s="81">
+      <c r="O64" s="77">
         <v>11</v>
       </c>
-      <c r="P64" s="81">
+      <c r="P64" s="77">
         <v>12</v>
       </c>
-      <c r="Q64" s="81">
+      <c r="Q64" s="77">
         <v>13</v>
       </c>
-      <c r="R64" s="78">
+      <c r="R64" s="74">
         <v>14</v>
       </c>
-      <c r="U64" s="77">
+      <c r="U64" s="73">
         <v>8</v>
       </c>
-      <c r="V64" s="81">
+      <c r="V64" s="77">
         <v>9</v>
       </c>
-      <c r="W64" s="81">
+      <c r="W64" s="77">
         <v>10</v>
       </c>
-      <c r="X64" s="81">
+      <c r="X64" s="77">
         <v>11</v>
       </c>
-      <c r="Y64" s="81">
+      <c r="Y64" s="77">
         <v>12</v>
       </c>
-      <c r="Z64" s="81">
+      <c r="Z64" s="77">
         <v>13</v>
       </c>
-      <c r="AA64" s="78">
+      <c r="AA64" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C65" s="77">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C65" s="73">
         <v>1</v>
       </c>
-      <c r="D65" s="77">
+      <c r="D65" s="73">
         <v>2</v>
       </c>
-      <c r="E65" s="77">
+      <c r="E65" s="73">
         <v>3</v>
       </c>
-      <c r="F65" s="77">
+      <c r="F65" s="73">
         <v>4</v>
       </c>
-      <c r="G65" s="77">
+      <c r="G65" s="73">
         <v>5</v>
       </c>
-      <c r="H65" s="77">
+      <c r="H65" s="73">
         <v>6</v>
       </c>
-      <c r="I65" s="77">
+      <c r="I65" s="73">
         <v>7</v>
       </c>
-      <c r="L65" s="77">
+      <c r="L65" s="73">
         <v>1</v>
       </c>
-      <c r="M65" s="77">
+      <c r="M65" s="73">
         <v>2</v>
       </c>
-      <c r="N65" s="77">
+      <c r="N65" s="73">
         <v>3</v>
       </c>
-      <c r="O65" s="77">
+      <c r="O65" s="73">
         <v>4</v>
       </c>
-      <c r="P65" s="77">
+      <c r="P65" s="73">
         <v>5</v>
       </c>
-      <c r="Q65" s="77">
+      <c r="Q65" s="73">
         <v>6</v>
       </c>
-      <c r="R65" s="77">
+      <c r="R65" s="73">
         <v>7</v>
       </c>
-      <c r="U65" s="77">
+      <c r="U65" s="73">
         <v>1</v>
       </c>
-      <c r="V65" s="77">
+      <c r="V65" s="73">
         <v>2</v>
       </c>
-      <c r="W65" s="77">
+      <c r="W65" s="73">
         <v>3</v>
       </c>
-      <c r="X65" s="77">
+      <c r="X65" s="73">
         <v>4</v>
       </c>
-      <c r="Y65" s="77">
+      <c r="Y65" s="73">
         <v>5</v>
       </c>
-      <c r="Z65" s="77">
+      <c r="Z65" s="73">
         <v>6</v>
       </c>
-      <c r="AA65" s="77">
+      <c r="AA65" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C68" s="77">
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C68" s="73">
         <v>43</v>
       </c>
-      <c r="D68" s="77">
+      <c r="D68" s="73">
         <v>44</v>
       </c>
-      <c r="E68" s="77">
+      <c r="E68" s="73">
         <v>45</v>
       </c>
-      <c r="F68" s="77">
+      <c r="F68" s="73">
         <v>46</v>
       </c>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="L68" s="77">
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="L68" s="73">
         <v>43</v>
       </c>
-      <c r="M68" s="77">
+      <c r="M68" s="73">
         <v>44</v>
       </c>
-      <c r="N68" s="77">
+      <c r="N68" s="73">
         <v>45</v>
       </c>
-      <c r="O68" s="77">
+      <c r="O68" s="73">
         <v>46</v>
       </c>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="77"/>
-      <c r="U68" s="77">
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="U68" s="73">
         <v>43</v>
       </c>
-      <c r="V68" s="77">
+      <c r="V68" s="73">
         <v>44</v>
       </c>
-      <c r="W68" s="77">
+      <c r="W68" s="73">
         <v>45</v>
       </c>
-      <c r="X68" s="77">
+      <c r="X68" s="73">
         <v>46</v>
       </c>
-      <c r="Y68" s="77">
+      <c r="Y68" s="73">
         <v>47</v>
       </c>
-      <c r="Z68" s="77"/>
-      <c r="AA68" s="77"/>
-    </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C69" s="77">
+      <c r="Z68" s="73"/>
+      <c r="AA68" s="73"/>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69" s="73">
         <v>36</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="77">
         <v>37</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="77">
         <v>38</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="77">
         <v>39</v>
       </c>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="78"/>
-      <c r="L69" s="77">
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="74"/>
+      <c r="L69" s="73">
         <v>36</v>
       </c>
-      <c r="M69" s="81">
+      <c r="M69" s="77">
         <v>37</v>
       </c>
-      <c r="N69" s="81">
+      <c r="N69" s="77">
         <v>38</v>
       </c>
-      <c r="O69" s="81">
+      <c r="O69" s="77">
         <v>39</v>
       </c>
-      <c r="P69" s="81">
+      <c r="P69" s="77">
         <v>40</v>
       </c>
-      <c r="Q69" s="81">
+      <c r="Q69" s="77">
         <v>41</v>
       </c>
-      <c r="R69" s="78">
+      <c r="R69" s="74">
         <v>42</v>
       </c>
-      <c r="U69" s="77">
+      <c r="U69" s="73">
         <v>36</v>
       </c>
-      <c r="V69" s="81">
+      <c r="V69" s="77">
         <v>37</v>
       </c>
-      <c r="W69" s="81">
+      <c r="W69" s="77">
         <v>38</v>
       </c>
-      <c r="X69" s="81">
+      <c r="X69" s="77">
         <v>39</v>
       </c>
-      <c r="Y69" s="81">
+      <c r="Y69" s="77">
         <v>40</v>
       </c>
-      <c r="Z69" s="81"/>
-      <c r="AA69" s="78"/>
-    </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C70" s="77">
+      <c r="Z69" s="77"/>
+      <c r="AA69" s="74"/>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C70" s="73">
         <v>29</v>
       </c>
-      <c r="D70" s="77">
+      <c r="D70" s="73">
         <v>30</v>
       </c>
-      <c r="E70" s="77">
+      <c r="E70" s="73">
         <v>31</v>
       </c>
-      <c r="F70" s="77">
+      <c r="F70" s="73">
         <v>32</v>
       </c>
-      <c r="G70" s="77">
+      <c r="G70" s="73">
         <v>33</v>
       </c>
-      <c r="H70" s="77">
+      <c r="H70" s="73">
         <v>34</v>
       </c>
-      <c r="I70" s="77">
+      <c r="I70" s="73">
         <v>35</v>
       </c>
-      <c r="L70" s="77">
+      <c r="L70" s="73">
         <v>29</v>
       </c>
-      <c r="M70" s="77">
+      <c r="M70" s="73">
         <v>30</v>
       </c>
-      <c r="N70" s="77">
+      <c r="N70" s="73">
         <v>31</v>
       </c>
-      <c r="O70" s="77">
+      <c r="O70" s="73">
         <v>32</v>
       </c>
-      <c r="P70" s="77">
+      <c r="P70" s="73">
         <v>33</v>
       </c>
-      <c r="Q70" s="77">
+      <c r="Q70" s="73">
         <v>34</v>
       </c>
-      <c r="R70" s="77">
+      <c r="R70" s="73">
         <v>35</v>
       </c>
-      <c r="U70" s="77">
+      <c r="U70" s="73">
         <v>29</v>
       </c>
-      <c r="V70" s="77">
+      <c r="V70" s="73">
         <v>30</v>
       </c>
-      <c r="W70" s="77">
+      <c r="W70" s="73">
         <v>31</v>
       </c>
-      <c r="X70" s="77">
+      <c r="X70" s="73">
         <v>32</v>
       </c>
-      <c r="Y70" s="77">
+      <c r="Y70" s="73">
         <v>33</v>
       </c>
-      <c r="Z70" s="77">
+      <c r="Z70" s="73">
         <v>34</v>
       </c>
-      <c r="AA70" s="77">
+      <c r="AA70" s="73">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C71" s="77">
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C71" s="73">
         <v>22</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="77">
         <v>23</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="77">
         <v>24</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="77">
         <v>25</v>
       </c>
-      <c r="G71" s="81">
+      <c r="G71" s="77">
         <v>26</v>
       </c>
-      <c r="H71" s="81">
+      <c r="H71" s="77">
         <v>27</v>
       </c>
-      <c r="I71" s="78">
+      <c r="I71" s="74">
         <v>28</v>
       </c>
-      <c r="L71" s="77">
+      <c r="L71" s="73">
         <v>22</v>
       </c>
-      <c r="M71" s="81">
+      <c r="M71" s="77">
         <v>23</v>
       </c>
-      <c r="N71" s="81">
+      <c r="N71" s="77">
         <v>24</v>
       </c>
-      <c r="O71" s="81">
+      <c r="O71" s="77">
         <v>25</v>
       </c>
-      <c r="P71" s="81">
+      <c r="P71" s="77">
         <v>26</v>
       </c>
-      <c r="Q71" s="81">
+      <c r="Q71" s="77">
         <v>27</v>
       </c>
-      <c r="R71" s="78">
+      <c r="R71" s="74">
         <v>28</v>
       </c>
-      <c r="U71" s="77">
+      <c r="U71" s="73">
         <v>22</v>
       </c>
-      <c r="V71" s="81">
+      <c r="V71" s="77">
         <v>23</v>
       </c>
-      <c r="W71" s="81">
+      <c r="W71" s="77">
         <v>24</v>
       </c>
-      <c r="X71" s="81">
+      <c r="X71" s="77">
         <v>25</v>
       </c>
-      <c r="Y71" s="81">
+      <c r="Y71" s="77">
         <v>26</v>
       </c>
-      <c r="Z71" s="81">
+      <c r="Z71" s="77">
         <v>27</v>
       </c>
-      <c r="AA71" s="78">
+      <c r="AA71" s="74">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C72" s="77">
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C72" s="73">
         <v>15</v>
       </c>
-      <c r="D72" s="77">
+      <c r="D72" s="73">
         <v>16</v>
       </c>
-      <c r="E72" s="77">
+      <c r="E72" s="73">
         <v>17</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="73">
         <v>18</v>
       </c>
-      <c r="G72" s="77">
+      <c r="G72" s="73">
         <v>19</v>
       </c>
-      <c r="H72" s="77">
+      <c r="H72" s="73">
         <v>20</v>
       </c>
-      <c r="I72" s="77">
+      <c r="I72" s="73">
         <v>21</v>
       </c>
-      <c r="L72" s="77">
+      <c r="L72" s="73">
         <v>15</v>
       </c>
-      <c r="M72" s="77">
+      <c r="M72" s="73">
         <v>16</v>
       </c>
-      <c r="N72" s="77">
+      <c r="N72" s="73">
         <v>17</v>
       </c>
-      <c r="O72" s="77">
+      <c r="O72" s="73">
         <v>18</v>
       </c>
-      <c r="P72" s="77">
+      <c r="P72" s="73">
         <v>19</v>
       </c>
-      <c r="Q72" s="77">
+      <c r="Q72" s="73">
         <v>20</v>
       </c>
-      <c r="R72" s="77">
+      <c r="R72" s="73">
         <v>21</v>
       </c>
-      <c r="U72" s="77">
+      <c r="U72" s="73">
         <v>15</v>
       </c>
-      <c r="V72" s="77">
+      <c r="V72" s="73">
         <v>16</v>
       </c>
-      <c r="W72" s="77">
+      <c r="W72" s="73">
         <v>17</v>
       </c>
-      <c r="X72" s="77">
+      <c r="X72" s="73">
         <v>18</v>
       </c>
-      <c r="Y72" s="77">
+      <c r="Y72" s="73">
         <v>19</v>
       </c>
-      <c r="Z72" s="77">
+      <c r="Z72" s="73">
         <v>20</v>
       </c>
-      <c r="AA72" s="77">
+      <c r="AA72" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C73" s="77">
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73" s="73">
         <v>8</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="77">
         <v>9</v>
       </c>
-      <c r="E73" s="81">
+      <c r="E73" s="77">
         <v>10</v>
       </c>
-      <c r="F73" s="81">
+      <c r="F73" s="77">
         <v>11</v>
       </c>
-      <c r="G73" s="81">
+      <c r="G73" s="77">
         <v>12</v>
       </c>
-      <c r="H73" s="81">
+      <c r="H73" s="77">
         <v>13</v>
       </c>
-      <c r="I73" s="78">
+      <c r="I73" s="74">
         <v>14</v>
       </c>
-      <c r="L73" s="77">
+      <c r="L73" s="73">
         <v>8</v>
       </c>
-      <c r="M73" s="81">
+      <c r="M73" s="77">
         <v>9</v>
       </c>
-      <c r="N73" s="81">
+      <c r="N73" s="77">
         <v>10</v>
       </c>
-      <c r="O73" s="81">
+      <c r="O73" s="77">
         <v>11</v>
       </c>
-      <c r="P73" s="81">
+      <c r="P73" s="77">
         <v>12</v>
       </c>
-      <c r="Q73" s="81">
+      <c r="Q73" s="77">
         <v>13</v>
       </c>
-      <c r="R73" s="78">
+      <c r="R73" s="74">
         <v>14</v>
       </c>
-      <c r="U73" s="77">
+      <c r="U73" s="73">
         <v>8</v>
       </c>
-      <c r="V73" s="81">
+      <c r="V73" s="77">
         <v>9</v>
       </c>
-      <c r="W73" s="81">
+      <c r="W73" s="77">
         <v>10</v>
       </c>
-      <c r="X73" s="81">
+      <c r="X73" s="77">
         <v>11</v>
       </c>
-      <c r="Y73" s="81">
+      <c r="Y73" s="77">
         <v>12</v>
       </c>
-      <c r="Z73" s="81">
+      <c r="Z73" s="77">
         <v>13</v>
       </c>
-      <c r="AA73" s="78">
+      <c r="AA73" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C74" s="77">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="73">
         <v>1</v>
       </c>
-      <c r="D74" s="77">
+      <c r="D74" s="73">
         <v>2</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E74" s="73">
         <v>3</v>
       </c>
-      <c r="F74" s="77">
+      <c r="F74" s="73">
         <v>4</v>
       </c>
-      <c r="G74" s="77">
+      <c r="G74" s="73">
         <v>5</v>
       </c>
-      <c r="H74" s="77">
+      <c r="H74" s="73">
         <v>6</v>
       </c>
-      <c r="I74" s="77">
+      <c r="I74" s="73">
         <v>7</v>
       </c>
-      <c r="L74" s="77">
+      <c r="L74" s="73">
         <v>1</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="73">
         <v>2</v>
       </c>
-      <c r="N74" s="77">
+      <c r="N74" s="73">
         <v>3</v>
       </c>
-      <c r="O74" s="77">
+      <c r="O74" s="73">
         <v>4</v>
       </c>
-      <c r="P74" s="77">
+      <c r="P74" s="73">
         <v>5</v>
       </c>
-      <c r="Q74" s="77">
+      <c r="Q74" s="73">
         <v>6</v>
       </c>
-      <c r="R74" s="77">
+      <c r="R74" s="73">
         <v>7</v>
       </c>
-      <c r="U74" s="77">
+      <c r="U74" s="73">
         <v>1</v>
       </c>
-      <c r="V74" s="77">
+      <c r="V74" s="73">
         <v>2</v>
       </c>
-      <c r="W74" s="77">
+      <c r="W74" s="73">
         <v>3</v>
       </c>
-      <c r="X74" s="77">
+      <c r="X74" s="73">
         <v>4</v>
       </c>
-      <c r="Y74" s="77">
+      <c r="Y74" s="73">
         <v>5</v>
       </c>
-      <c r="Z74" s="77">
+      <c r="Z74" s="73">
         <v>6</v>
       </c>
-      <c r="AA74" s="77">
+      <c r="AA74" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C77" s="77">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77" s="73">
         <v>43</v>
       </c>
-      <c r="D77" s="77">
+      <c r="D77" s="73">
         <v>44</v>
       </c>
-      <c r="E77" s="77">
+      <c r="E77" s="73">
         <v>45</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="73">
         <v>46</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="73">
         <v>47</v>
       </c>
-      <c r="H77" s="77">
+      <c r="H77" s="73">
         <v>48</v>
       </c>
-      <c r="I77" s="77"/>
-      <c r="L77" s="77">
+      <c r="I77" s="73"/>
+      <c r="L77" s="73">
         <v>43</v>
       </c>
-      <c r="M77" s="77">
+      <c r="M77" s="73">
         <v>44</v>
       </c>
-      <c r="N77" s="77">
+      <c r="N77" s="73">
         <v>45</v>
       </c>
-      <c r="O77" s="77">
+      <c r="O77" s="73">
         <v>46</v>
       </c>
-      <c r="P77" s="77">
+      <c r="P77" s="73">
         <v>47</v>
       </c>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="77"/>
-      <c r="U77" s="77">
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="U77" s="73">
         <v>43</v>
       </c>
-      <c r="V77" s="77">
+      <c r="V77" s="73">
         <v>44</v>
       </c>
-      <c r="W77" s="77">
+      <c r="W77" s="73">
         <v>45</v>
       </c>
-      <c r="X77" s="77">
+      <c r="X77" s="73">
         <v>46</v>
       </c>
-      <c r="Y77" s="77">
+      <c r="Y77" s="73">
         <v>47</v>
       </c>
-      <c r="Z77" s="77">
+      <c r="Z77" s="73">
         <v>48</v>
       </c>
-      <c r="AA77" s="77"/>
-    </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C78" s="77">
+      <c r="AA77" s="73"/>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C78" s="73">
         <v>36</v>
       </c>
-      <c r="D78" s="81">
+      <c r="D78" s="77">
         <v>37</v>
       </c>
-      <c r="E78" s="81">
+      <c r="E78" s="77">
         <v>38</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F78" s="77">
         <v>39</v>
       </c>
-      <c r="G78" s="81">
+      <c r="G78" s="77">
         <v>40</v>
       </c>
-      <c r="H78" s="81">
+      <c r="H78" s="77">
         <v>41</v>
       </c>
-      <c r="I78" s="78"/>
-      <c r="L78" s="77">
+      <c r="I78" s="74"/>
+      <c r="L78" s="73">
         <v>36</v>
       </c>
-      <c r="M78" s="81">
+      <c r="M78" s="77">
         <v>37</v>
       </c>
-      <c r="N78" s="81">
+      <c r="N78" s="77">
         <v>38</v>
       </c>
-      <c r="O78" s="81">
+      <c r="O78" s="77">
         <v>39</v>
       </c>
-      <c r="P78" s="81">
+      <c r="P78" s="77">
         <v>40</v>
       </c>
-      <c r="Q78" s="81">
+      <c r="Q78" s="77">
         <v>41</v>
       </c>
-      <c r="R78" s="78">
+      <c r="R78" s="74">
         <v>42</v>
       </c>
-      <c r="U78" s="77">
+      <c r="U78" s="73">
         <v>36</v>
       </c>
-      <c r="V78" s="81">
+      <c r="V78" s="77">
         <v>37</v>
       </c>
-      <c r="W78" s="81">
+      <c r="W78" s="77">
         <v>38</v>
       </c>
-      <c r="X78" s="81">
+      <c r="X78" s="77">
         <v>39</v>
       </c>
-      <c r="Y78" s="81">
+      <c r="Y78" s="77">
         <v>40</v>
       </c>
-      <c r="Z78" s="81">
+      <c r="Z78" s="77">
         <v>41</v>
       </c>
-      <c r="AA78" s="78">
+      <c r="AA78" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C79" s="77">
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C79" s="73">
         <v>29</v>
       </c>
-      <c r="D79" s="77">
+      <c r="D79" s="73">
         <v>30</v>
       </c>
-      <c r="E79" s="77">
+      <c r="E79" s="73">
         <v>31</v>
       </c>
-      <c r="F79" s="77">
+      <c r="F79" s="73">
         <v>32</v>
       </c>
-      <c r="G79" s="77">
+      <c r="G79" s="73">
         <v>33</v>
       </c>
-      <c r="H79" s="77">
+      <c r="H79" s="73">
         <v>34</v>
       </c>
-      <c r="I79" s="77">
+      <c r="I79" s="73">
         <v>35</v>
       </c>
-      <c r="L79" s="77">
+      <c r="L79" s="73">
         <v>29</v>
       </c>
-      <c r="M79" s="77">
+      <c r="M79" s="73">
         <v>30</v>
       </c>
-      <c r="N79" s="77">
+      <c r="N79" s="73">
         <v>31</v>
       </c>
-      <c r="O79" s="77">
+      <c r="O79" s="73">
         <v>32</v>
       </c>
-      <c r="P79" s="77">
+      <c r="P79" s="73">
         <v>33</v>
       </c>
-      <c r="Q79" s="77">
+      <c r="Q79" s="73">
         <v>34</v>
       </c>
-      <c r="R79" s="77">
+      <c r="R79" s="73">
         <v>35</v>
       </c>
-      <c r="U79" s="77">
+      <c r="U79" s="73">
         <v>29</v>
       </c>
-      <c r="V79" s="77">
+      <c r="V79" s="73">
         <v>30</v>
       </c>
-      <c r="W79" s="77">
+      <c r="W79" s="73">
         <v>31</v>
       </c>
-      <c r="X79" s="77">
+      <c r="X79" s="73">
         <v>32</v>
       </c>
-      <c r="Y79" s="77">
+      <c r="Y79" s="73">
         <v>33</v>
       </c>
-      <c r="Z79" s="77">
+      <c r="Z79" s="73">
         <v>34</v>
       </c>
-      <c r="AA79" s="77">
+      <c r="AA79" s="73">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C80" s="77">
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C80" s="73">
         <v>22</v>
       </c>
-      <c r="D80" s="81">
+      <c r="D80" s="77">
         <v>23</v>
       </c>
-      <c r="E80" s="81">
+      <c r="E80" s="77">
         <v>24</v>
       </c>
-      <c r="F80" s="81">
+      <c r="F80" s="77">
         <v>25</v>
       </c>
-      <c r="G80" s="81">
+      <c r="G80" s="77">
         <v>26</v>
       </c>
-      <c r="H80" s="81">
+      <c r="H80" s="77">
         <v>27</v>
       </c>
-      <c r="I80" s="78">
+      <c r="I80" s="74">
         <v>28</v>
       </c>
-      <c r="L80" s="77">
+      <c r="L80" s="73">
         <v>22</v>
       </c>
-      <c r="M80" s="81">
+      <c r="M80" s="77">
         <v>23</v>
       </c>
-      <c r="N80" s="81">
+      <c r="N80" s="77">
         <v>24</v>
       </c>
-      <c r="O80" s="81">
+      <c r="O80" s="77">
         <v>25</v>
       </c>
-      <c r="P80" s="81">
+      <c r="P80" s="77">
         <v>26</v>
       </c>
-      <c r="Q80" s="81">
+      <c r="Q80" s="77">
         <v>27</v>
       </c>
-      <c r="R80" s="78">
+      <c r="R80" s="74">
         <v>28</v>
       </c>
-      <c r="U80" s="77">
+      <c r="U80" s="73">
         <v>22</v>
       </c>
-      <c r="V80" s="81">
+      <c r="V80" s="77">
         <v>23</v>
       </c>
-      <c r="W80" s="81">
+      <c r="W80" s="77">
         <v>24</v>
       </c>
-      <c r="X80" s="81">
+      <c r="X80" s="77">
         <v>25</v>
       </c>
-      <c r="Y80" s="81">
+      <c r="Y80" s="77">
         <v>26</v>
       </c>
-      <c r="Z80" s="81">
+      <c r="Z80" s="77">
         <v>27</v>
       </c>
-      <c r="AA80" s="78">
+      <c r="AA80" s="74">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C81" s="77">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C81" s="73">
         <v>15</v>
       </c>
-      <c r="D81" s="77">
+      <c r="D81" s="73">
         <v>16</v>
       </c>
-      <c r="E81" s="77">
+      <c r="E81" s="73">
         <v>17</v>
       </c>
-      <c r="F81" s="77">
+      <c r="F81" s="73">
         <v>18</v>
       </c>
-      <c r="G81" s="77">
+      <c r="G81" s="73">
         <v>19</v>
       </c>
-      <c r="H81" s="77">
+      <c r="H81" s="73">
         <v>20</v>
       </c>
-      <c r="I81" s="77">
+      <c r="I81" s="73">
         <v>21</v>
       </c>
-      <c r="L81" s="77">
+      <c r="L81" s="73">
         <v>15</v>
       </c>
-      <c r="M81" s="77">
+      <c r="M81" s="73">
         <v>16</v>
       </c>
-      <c r="N81" s="77">
+      <c r="N81" s="73">
         <v>17</v>
       </c>
-      <c r="O81" s="77">
+      <c r="O81" s="73">
         <v>18</v>
       </c>
-      <c r="P81" s="77">
+      <c r="P81" s="73">
         <v>19</v>
       </c>
-      <c r="Q81" s="77">
+      <c r="Q81" s="73">
         <v>20</v>
       </c>
-      <c r="R81" s="77">
+      <c r="R81" s="73">
         <v>21</v>
       </c>
-      <c r="U81" s="77">
+      <c r="U81" s="73">
         <v>15</v>
       </c>
-      <c r="V81" s="77">
+      <c r="V81" s="73">
         <v>16</v>
       </c>
-      <c r="W81" s="77">
+      <c r="W81" s="73">
         <v>17</v>
       </c>
-      <c r="X81" s="77">
+      <c r="X81" s="73">
         <v>18</v>
       </c>
-      <c r="Y81" s="77">
+      <c r="Y81" s="73">
         <v>19</v>
       </c>
-      <c r="Z81" s="77">
+      <c r="Z81" s="73">
         <v>20</v>
       </c>
-      <c r="AA81" s="77">
+      <c r="AA81" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C82" s="77">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C82" s="73">
         <v>8</v>
       </c>
-      <c r="D82" s="81">
+      <c r="D82" s="77">
         <v>9</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="77">
         <v>10</v>
       </c>
-      <c r="F82" s="81">
+      <c r="F82" s="77">
         <v>11</v>
       </c>
-      <c r="G82" s="81">
+      <c r="G82" s="77">
         <v>12</v>
       </c>
-      <c r="H82" s="81">
+      <c r="H82" s="77">
         <v>13</v>
       </c>
-      <c r="I82" s="78">
+      <c r="I82" s="74">
         <v>14</v>
       </c>
-      <c r="L82" s="77">
+      <c r="L82" s="73">
         <v>8</v>
       </c>
-      <c r="M82" s="81">
+      <c r="M82" s="77">
         <v>9</v>
       </c>
-      <c r="N82" s="81">
+      <c r="N82" s="77">
         <v>10</v>
       </c>
-      <c r="O82" s="81">
+      <c r="O82" s="77">
         <v>11</v>
       </c>
-      <c r="P82" s="81">
+      <c r="P82" s="77">
         <v>12</v>
       </c>
-      <c r="Q82" s="81">
+      <c r="Q82" s="77">
         <v>13</v>
       </c>
-      <c r="R82" s="78">
+      <c r="R82" s="74">
         <v>14</v>
       </c>
-      <c r="U82" s="77">
+      <c r="U82" s="73">
         <v>8</v>
       </c>
-      <c r="V82" s="81">
+      <c r="V82" s="77">
         <v>9</v>
       </c>
-      <c r="W82" s="81">
+      <c r="W82" s="77">
         <v>10</v>
       </c>
-      <c r="X82" s="81">
+      <c r="X82" s="77">
         <v>11</v>
       </c>
-      <c r="Y82" s="81">
+      <c r="Y82" s="77">
         <v>12</v>
       </c>
-      <c r="Z82" s="81">
+      <c r="Z82" s="77">
         <v>13</v>
       </c>
-      <c r="AA82" s="78">
+      <c r="AA82" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C83" s="77">
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C83" s="73">
         <v>1</v>
       </c>
-      <c r="D83" s="77">
+      <c r="D83" s="73">
         <v>2</v>
       </c>
-      <c r="E83" s="77">
+      <c r="E83" s="73">
         <v>3</v>
       </c>
-      <c r="F83" s="77">
+      <c r="F83" s="73">
         <v>4</v>
       </c>
-      <c r="G83" s="77">
+      <c r="G83" s="73">
         <v>5</v>
       </c>
-      <c r="H83" s="77">
+      <c r="H83" s="73">
         <v>6</v>
       </c>
-      <c r="I83" s="77">
+      <c r="I83" s="73">
         <v>7</v>
       </c>
-      <c r="L83" s="77">
+      <c r="L83" s="73">
         <v>1</v>
       </c>
-      <c r="M83" s="77">
+      <c r="M83" s="73">
         <v>2</v>
       </c>
-      <c r="N83" s="77">
+      <c r="N83" s="73">
         <v>3</v>
       </c>
-      <c r="O83" s="77">
+      <c r="O83" s="73">
         <v>4</v>
       </c>
-      <c r="P83" s="77">
+      <c r="P83" s="73">
         <v>5</v>
       </c>
-      <c r="Q83" s="77">
+      <c r="Q83" s="73">
         <v>6</v>
       </c>
-      <c r="R83" s="77">
+      <c r="R83" s="73">
         <v>7</v>
       </c>
-      <c r="U83" s="77">
+      <c r="U83" s="73">
         <v>1</v>
       </c>
-      <c r="V83" s="77">
+      <c r="V83" s="73">
         <v>2</v>
       </c>
-      <c r="W83" s="77">
+      <c r="W83" s="73">
         <v>3</v>
       </c>
-      <c r="X83" s="77">
+      <c r="X83" s="73">
         <v>4</v>
       </c>
-      <c r="Y83" s="77">
+      <c r="Y83" s="73">
         <v>5</v>
       </c>
-      <c r="Z83" s="77">
+      <c r="Z83" s="73">
         <v>6</v>
       </c>
-      <c r="AA83" s="77">
+      <c r="AA83" s="73">
         <v>7</v>
       </c>
     </row>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44134DC2-BA69-4C0E-8333-8580880533EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A79290-B4F0-4275-A3DF-07872B1D7FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="3040" windowWidth="21060" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="1386" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1049,6 +1049,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1058,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1561,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,19 +1883,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="256" width="2.6640625" customWidth="1"/>
+    <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -1720,14 +1903,14 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>7</v>
       </c>
@@ -1740,7 +1923,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -1753,7 +1936,7 @@
       <c r="F5" s="53"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1766,10 +1949,10 @@
       <c r="F6" s="53"/>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="2:24" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="55">
         <v>1</v>
       </c>
@@ -1798,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -1845,7 +2028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -1892,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="11">
         <v>1</v>
       </c>
@@ -1939,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="50"/>
@@ -1959,103 +2142,206 @@
       <c r="S12" s="50"/>
       <c r="T12" s="56"/>
     </row>
-    <row r="13" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+    <row r="13" spans="2:24" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="124">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="I13" s="55">
+        <v>2</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
+      <c r="O13" s="131">
+        <v>3</v>
+      </c>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
       <c r="T13" s="56"/>
-    </row>
-    <row r="14" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="V13" s="131">
+        <v>4</v>
+      </c>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+    </row>
+    <row r="14" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="123"/>
+      <c r="C14" s="121">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="8">
+        <v>8</v>
+      </c>
+      <c r="K14" s="128">
+        <v>9</v>
+      </c>
+      <c r="L14" s="126"/>
       <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="13">
+        <v>7</v>
+      </c>
+      <c r="P14" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="125">
+        <v>9</v>
+      </c>
+      <c r="R14" s="126"/>
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
-    </row>
-    <row r="15" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="58"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="134">
+        <v>7</v>
+      </c>
+      <c r="W14" s="3">
+        <v>8</v>
+      </c>
+      <c r="X14" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="123"/>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6</v>
+      </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="I15" s="8">
+        <v>4</v>
+      </c>
+      <c r="J15" s="13">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>6</v>
+      </c>
+      <c r="L15" s="53"/>
       <c r="M15" s="50"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+      <c r="P15" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>6</v>
+      </c>
       <c r="R15" s="50"/>
       <c r="S15" s="50"/>
       <c r="T15" s="56"/>
-    </row>
-    <row r="16" spans="2:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="V15" s="5">
+        <v>4</v>
+      </c>
+      <c r="W15" s="11">
+        <v>5</v>
+      </c>
+      <c r="X15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="123"/>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="125">
+        <v>3</v>
+      </c>
+      <c r="F16" s="53"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="129">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="53"/>
       <c r="M16" s="50"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="50"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="122">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
       <c r="S16" s="50"/>
       <c r="T16" s="56"/>
-    </row>
-    <row r="17" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2</v>
+      </c>
+      <c r="X16" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="51"/>
       <c r="S17" s="50"/>
       <c r="T17" s="56"/>
     </row>
-    <row r="18" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+    <row r="18" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="56"/>
@@ -2069,10 +2355,16 @@
       <c r="S18" s="50"/>
       <c r="T18" s="56"/>
     </row>
-    <row r="19" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+    <row r="19" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="56"/>
@@ -2089,10 +2381,16 @@
       <c r="S19" s="50"/>
       <c r="T19" s="56"/>
     </row>
-    <row r="20" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+    <row r="20" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
@@ -2109,7 +2407,7 @@
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
     </row>
-    <row r="21" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="58"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -2129,7 +2427,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="56"/>
     </row>
-    <row r="22" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -2149,7 +2447,7 @@
       <c r="S22" s="50"/>
       <c r="T22" s="56"/>
     </row>
-    <row r="23" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -2169,7 +2467,7 @@
       <c r="S23" s="50"/>
       <c r="T23" s="56"/>
     </row>
-    <row r="24" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -2189,7 +2487,7 @@
       <c r="S24" s="50"/>
       <c r="T24" s="56"/>
     </row>
-    <row r="25" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -2209,7 +2507,7 @@
       <c r="S25" s="50"/>
       <c r="T25" s="56"/>
     </row>
-    <row r="27" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="56"/>
       <c r="C27" s="50"/>
       <c r="D27" s="56"/>
@@ -2245,7 +2543,7 @@
       <c r="AH27" s="56"/>
       <c r="AI27" s="56"/>
     </row>
-    <row r="28" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
       <c r="D28" s="50"/>
@@ -2281,7 +2579,7 @@
       <c r="AH28" s="56"/>
       <c r="AI28" s="56"/>
     </row>
-    <row r="29" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="56"/>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -2317,7 +2615,7 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="56"/>
     </row>
-    <row r="30" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="56"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -2353,7 +2651,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="56"/>
     </row>
-    <row r="31" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="56"/>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
@@ -2389,7 +2687,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="56"/>
     </row>
-    <row r="32" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="56"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
@@ -2425,7 +2723,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="56"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
@@ -2461,7 +2759,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="56"/>
     </row>
-    <row r="34" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -2497,7 +2795,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="56"/>
     </row>
-    <row r="35" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
@@ -2533,7 +2831,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="56"/>
     </row>
-    <row r="36" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -2569,7 +2867,7 @@
       <c r="AH36" s="56"/>
       <c r="AI36" s="56"/>
     </row>
-    <row r="37" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
@@ -2605,7 +2903,7 @@
       <c r="AH37" s="56"/>
       <c r="AI37" s="56"/>
     </row>
-    <row r="38" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -2641,7 +2939,7 @@
       <c r="AH38" s="56"/>
       <c r="AI38" s="56"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
@@ -2677,7 +2975,7 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="56"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -2725,18 +3023,18 @@
   <dimension ref="C1:AE38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="256" width="2.6640625" customWidth="1"/>
+    <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="19">
         <v>21</v>
       </c>
@@ -2758,7 +3056,7 @@
       <c r="AA2" s="114"/>
       <c r="AB2" s="115"/>
     </row>
-    <row r="3" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C3" s="12">
         <v>16</v>
       </c>
@@ -2792,7 +3090,7 @@
       </c>
       <c r="AC3" s="118"/>
     </row>
-    <row r="4" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="12">
         <v>11</v>
       </c>
@@ -2826,7 +3124,7 @@
       </c>
       <c r="AC4" s="119"/>
     </row>
-    <row r="5" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="12">
         <v>6</v>
       </c>
@@ -2860,7 +3158,7 @@
       </c>
       <c r="AC5" s="119"/>
     </row>
-    <row r="6" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -2894,7 +3192,7 @@
       </c>
       <c r="AC6" s="119"/>
     </row>
-    <row r="7" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="W7" s="120"/>
       <c r="X7" s="16">
         <v>1</v>
@@ -2913,7 +3211,7 @@
       </c>
       <c r="AC7" s="120"/>
     </row>
-    <row r="8" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="38">
         <v>1</v>
       </c>
@@ -2929,7 +3227,7 @@
       <c r="AA8" s="114"/>
       <c r="AB8" s="115"/>
     </row>
-    <row r="9" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C9" s="19">
         <v>21</v>
       </c>
@@ -2976,7 +3274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="14">
         <v>16</v>
       </c>
@@ -3023,7 +3321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C11" s="17">
         <v>11</v>
       </c>
@@ -3070,7 +3368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="27">
         <v>6</v>
       </c>
@@ -3117,7 +3415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -3164,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:29" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C14" s="40">
         <v>4</v>
       </c>
@@ -3175,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:29" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="21">
         <v>21</v>
       </c>
@@ -3222,7 +3520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:29" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="23">
         <v>16</v>
       </c>
@@ -3269,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="25">
         <v>11</v>
       </c>
@@ -3316,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="26">
         <v>6</v>
       </c>
@@ -3363,7 +3661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <v>1</v>
       </c>
@@ -3410,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="41">
         <v>7</v>
       </c>
@@ -3421,7 +3719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C21" s="36">
         <v>21</v>
       </c>
@@ -3468,7 +3766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="27">
         <v>16</v>
       </c>
@@ -3515,7 +3813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="26">
         <v>11</v>
       </c>
@@ -3562,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C24" s="15">
         <v>6</v>
       </c>
@@ -3609,7 +3907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -3656,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="37">
         <v>1</v>
       </c>
@@ -3673,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="19">
         <v>21</v>
       </c>
@@ -3738,7 +4036,7 @@
       </c>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="12">
         <v>16</v>
       </c>
@@ -3809,7 +4107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="12">
         <v>11</v>
       </c>
@@ -3886,7 +4184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="12">
         <v>6</v>
       </c>
@@ -3963,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -4040,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" s="44">
         <v>21</v>
       </c>
@@ -4102,7 +4400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I35" s="43">
         <v>16</v>
       </c>
@@ -4164,7 +4462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I36" s="43">
         <v>11</v>
       </c>
@@ -4226,7 +4524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I37" s="43">
         <v>6</v>
       </c>
@@ -4288,7 +4586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="9:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I38" s="44">
         <v>1</v>
       </c>
@@ -4362,17 +4660,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
   <dimension ref="B1:AT83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="256" width="2.6640625" style="62" customWidth="1"/>
+    <col min="1" max="256" width="2.6484375" style="62" customWidth="1"/>
     <col min="257" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
@@ -4381,7 +4679,7 @@
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="64"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -4392,7 +4690,7 @@
       <c r="I2" s="76"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="64"/>
       <c r="C3" s="73">
         <v>43</v>
@@ -4417,7 +4715,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="64"/>
       <c r="C4" s="73">
         <v>36</v>
@@ -4442,7 +4740,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="64"/>
       <c r="C5" s="73">
         <v>29</v>
@@ -4467,7 +4765,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="64"/>
       <c r="C6" s="73">
         <v>22</v>
@@ -4492,7 +4790,7 @@
       </c>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B7" s="64"/>
       <c r="C7" s="73">
         <v>15</v>
@@ -4517,7 +4815,7 @@
       </c>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="64"/>
       <c r="C8" s="73">
         <v>8</v>
@@ -4544,7 +4842,7 @@
       <c r="O8" s="66"/>
       <c r="V8" s="66"/>
     </row>
-    <row r="9" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="64"/>
       <c r="C9" s="73">
         <v>1</v>
@@ -4580,7 +4878,7 @@
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
     </row>
-    <row r="10" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
@@ -4601,7 +4899,7 @@
       <c r="W10" s="68"/>
       <c r="X10" s="68"/>
     </row>
-    <row r="11" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -4621,7 +4919,7 @@
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
     </row>
-    <row r="12" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="78" t="s">
         <v>0</v>
       </c>
@@ -4651,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="73">
         <v>43</v>
       </c>
@@ -4761,7 +5059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="73">
         <v>36</v>
       </c>
@@ -4868,7 +5166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="73">
         <v>29</v>
       </c>
@@ -4978,7 +5276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:45" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="82">
         <v>22</v>
       </c>
@@ -5088,7 +5386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B17" s="64"/>
       <c r="C17" s="85">
         <v>15</v>
@@ -5200,7 +5498,7 @@
       </c>
       <c r="AT17" s="65"/>
     </row>
-    <row r="18" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="64"/>
       <c r="C18" s="88">
         <v>8</v>
@@ -5312,7 +5610,7 @@
       </c>
       <c r="AT18" s="65"/>
     </row>
-    <row r="19" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="64"/>
       <c r="C19" s="91">
         <v>1</v>
@@ -5424,7 +5722,7 @@
       </c>
       <c r="AT19" s="65"/>
     </row>
-    <row r="20" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C20" s="84"/>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -5442,7 +5740,7 @@
       <c r="AR20" s="70"/>
       <c r="AS20" s="70"/>
     </row>
-    <row r="21" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="78" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="73">
         <v>43</v>
       </c>
@@ -5582,7 +5880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="73">
         <v>36</v>
       </c>
@@ -5692,7 +5990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="82">
         <v>29</v>
       </c>
@@ -5802,7 +6100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B25" s="64"/>
       <c r="C25" s="85">
         <v>22</v>
@@ -5914,7 +6212,7 @@
       </c>
       <c r="AT25" s="65"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.45">
       <c r="B26" s="64"/>
       <c r="C26" s="88">
         <v>15</v>
@@ -6023,7 +6321,7 @@
       </c>
       <c r="AT26" s="65"/>
     </row>
-    <row r="27" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="64"/>
       <c r="C27" s="91">
         <v>8</v>
@@ -6132,7 +6430,7 @@
       </c>
       <c r="AT27" s="65"/>
     </row>
-    <row r="28" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C28" s="100">
         <v>1</v>
       </c>
@@ -6244,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -6271,7 +6569,7 @@
       <c r="AD29" s="68"/>
       <c r="AE29" s="68"/>
     </row>
-    <row r="30" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="78" t="s">
         <v>10</v>
       </c>
@@ -6309,7 +6607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="73">
         <v>43</v>
       </c>
@@ -6419,7 +6717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C32" s="82">
         <v>36</v>
       </c>
@@ -6526,7 +6824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B33" s="64"/>
       <c r="C33" s="85">
         <v>29</v>
@@ -6638,7 +6936,7 @@
       </c>
       <c r="AT33" s="65"/>
     </row>
-    <row r="34" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="64"/>
       <c r="C34" s="88">
         <v>22</v>
@@ -6750,7 +7048,7 @@
       </c>
       <c r="AT34" s="65"/>
     </row>
-    <row r="35" spans="2:46" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="64"/>
       <c r="C35" s="91">
         <v>15</v>
@@ -6862,7 +7160,7 @@
       </c>
       <c r="AT35" s="65"/>
     </row>
-    <row r="36" spans="2:46" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C36" s="100">
         <v>8</v>
       </c>
@@ -6972,7 +7270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" s="73">
         <v>1</v>
       </c>
@@ -7082,12 +7380,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="71"/>
       <c r="I38" s="71"/>
       <c r="O38" s="71"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C39" s="78" t="s">
         <v>15</v>
       </c>
@@ -7117,7 +7415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C40" s="82">
         <v>43</v>
       </c>
@@ -7227,7 +7525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B41" s="64"/>
       <c r="C41" s="85">
         <v>36</v>
@@ -7339,7 +7637,7 @@
       </c>
       <c r="AT41" s="65"/>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.45">
       <c r="B42" s="64"/>
       <c r="C42" s="88">
         <v>29</v>
@@ -7451,7 +7749,7 @@
       </c>
       <c r="AT42" s="65"/>
     </row>
-    <row r="43" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="64"/>
       <c r="C43" s="91">
         <v>22</v>
@@ -7563,7 +7861,7 @@
       </c>
       <c r="AT43" s="65"/>
     </row>
-    <row r="44" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C44" s="100">
         <v>15</v>
       </c>
@@ -7670,7 +7968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C45" s="73">
         <v>8</v>
       </c>
@@ -7777,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C46" s="73">
         <v>1</v>
       </c>
@@ -7889,7 +8187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C48" s="111" t="s">
         <v>20</v>
       </c>
@@ -7920,7 +8218,7 @@
       <c r="AR48" s="63"/>
       <c r="AS48" s="63"/>
     </row>
-    <row r="49" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B49" s="64"/>
       <c r="C49" s="85">
         <v>43</v>
@@ -8032,7 +8330,7 @@
       </c>
       <c r="AT49" s="65"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.45">
       <c r="B50" s="64"/>
       <c r="C50" s="88">
         <v>36</v>
@@ -8144,7 +8442,7 @@
       </c>
       <c r="AT50" s="65"/>
     </row>
-    <row r="51" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="64"/>
       <c r="C51" s="91">
         <v>29</v>
@@ -8256,7 +8554,7 @@
       </c>
       <c r="AT51" s="65"/>
     </row>
-    <row r="52" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C52" s="100">
         <v>22</v>
       </c>
@@ -8366,7 +8664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C53" s="73">
         <v>15</v>
       </c>
@@ -8473,7 +8771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C54" s="73">
         <v>8</v>
       </c>
@@ -8580,7 +8878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C55" s="73">
         <v>1</v>
       </c>
@@ -8692,7 +8990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C59" s="73">
         <v>43</v>
       </c>
@@ -8745,7 +9043,7 @@
       </c>
       <c r="AA59" s="73"/>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C60" s="73">
         <v>36</v>
       </c>
@@ -8798,7 +9096,7 @@
       </c>
       <c r="AA60" s="74"/>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C61" s="73">
         <v>29</v>
       </c>
@@ -8851,7 +9149,7 @@
       </c>
       <c r="AA61" s="73"/>
     </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C62" s="73">
         <v>22</v>
       </c>
@@ -8916,7 +9214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C63" s="73">
         <v>15</v>
       </c>
@@ -8981,7 +9279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.45">
       <c r="C64" s="73">
         <v>8</v>
       </c>
@@ -9046,7 +9344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C65" s="73">
         <v>1</v>
       </c>
@@ -9111,7 +9409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C68" s="73">
         <v>43</v>
       </c>
@@ -9139,7 +9437,9 @@
       <c r="O68" s="73">
         <v>46</v>
       </c>
-      <c r="P68" s="73"/>
+      <c r="P68" s="73">
+        <v>47</v>
+      </c>
       <c r="Q68" s="73"/>
       <c r="R68" s="73"/>
       <c r="U68" s="73">
@@ -9157,10 +9457,12 @@
       <c r="Y68" s="73">
         <v>47</v>
       </c>
-      <c r="Z68" s="73"/>
+      <c r="Z68" s="73">
+        <v>48</v>
+      </c>
       <c r="AA68" s="73"/>
     </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C69" s="73">
         <v>36</v>
       </c>
@@ -9191,12 +9493,8 @@
       <c r="P69" s="77">
         <v>40</v>
       </c>
-      <c r="Q69" s="77">
-        <v>41</v>
-      </c>
-      <c r="R69" s="74">
-        <v>42</v>
-      </c>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="74"/>
       <c r="U69" s="73">
         <v>36</v>
       </c>
@@ -9212,10 +9510,12 @@
       <c r="Y69" s="77">
         <v>40</v>
       </c>
-      <c r="Z69" s="77"/>
+      <c r="Z69" s="77">
+        <v>41</v>
+      </c>
       <c r="AA69" s="74"/>
     </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C70" s="73">
         <v>29</v>
       </c>
@@ -9280,7 +9580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C71" s="73">
         <v>22</v>
       </c>
@@ -9345,7 +9645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C72" s="73">
         <v>15</v>
       </c>
@@ -9410,7 +9710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C73" s="73">
         <v>8</v>
       </c>
@@ -9475,7 +9775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C74" s="73">
         <v>1</v>
       </c>
@@ -9540,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C77" s="73">
         <v>43</v>
       </c>
@@ -9553,12 +9853,8 @@
       <c r="F77" s="73">
         <v>46</v>
       </c>
-      <c r="G77" s="73">
-        <v>47</v>
-      </c>
-      <c r="H77" s="73">
-        <v>48</v>
-      </c>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
       <c r="I77" s="73"/>
       <c r="L77" s="73">
         <v>43</v>
@@ -9597,7 +9893,7 @@
       </c>
       <c r="AA77" s="73"/>
     </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C78" s="73">
         <v>36</v>
       </c>
@@ -9616,7 +9912,9 @@
       <c r="H78" s="77">
         <v>41</v>
       </c>
-      <c r="I78" s="74"/>
+      <c r="I78" s="74">
+        <v>42</v>
+      </c>
       <c r="L78" s="73">
         <v>36</v>
       </c>
@@ -9660,7 +9958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C79" s="73">
         <v>29</v>
       </c>
@@ -9725,7 +10023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C80" s="73">
         <v>22</v>
       </c>
@@ -9790,7 +10088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C81" s="73">
         <v>15</v>
       </c>
@@ -9855,7 +10153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C82" s="73">
         <v>8</v>
       </c>
@@ -9920,7 +10218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C83" s="73">
         <v>1</v>
       </c>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A79290-B4F0-4275-A3DF-07872B1D7FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D020B52-B7DB-43DA-8A69-103A5695A522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1386" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>1</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -299,6 +299,147 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -1165,17 +1306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
@@ -1190,6 +1320,393 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1199,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,10 +2116,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
@@ -1892,10 +2565,10 @@
     <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -1903,14 +2576,14 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>7</v>
       </c>
@@ -1921,9 +2594,9 @@
         <v>9</v>
       </c>
       <c r="F4" s="53"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="134"/>
+    </row>
+    <row r="5" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -1936,7 +2609,7 @@
       <c r="F5" s="53"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:24" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1949,10 +2622,10 @@
       <c r="F6" s="53"/>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="2:24" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:23" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="55">
         <v>1</v>
       </c>
@@ -1977,11 +2650,11 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
-      <c r="V8" s="61">
+      <c r="U8" s="61">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -2018,17 +2691,17 @@
       <c r="R9" s="53"/>
       <c r="S9" s="50"/>
       <c r="T9" s="56"/>
-      <c r="V9" s="12">
+      <c r="U9" s="12">
         <v>7</v>
       </c>
-      <c r="W9" s="9">
+      <c r="V9" s="9">
         <v>8</v>
       </c>
-      <c r="X9" s="5">
+      <c r="W9" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -2065,17 +2738,17 @@
       <c r="R10" s="53"/>
       <c r="S10" s="50"/>
       <c r="T10" s="56"/>
-      <c r="V10" s="12">
+      <c r="U10" s="12">
         <v>4</v>
       </c>
-      <c r="W10" s="11">
+      <c r="V10" s="11">
         <v>5</v>
       </c>
-      <c r="X10" s="8">
+      <c r="W10" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="11">
         <v>1</v>
       </c>
@@ -2112,17 +2785,17 @@
       <c r="R11" s="50"/>
       <c r="S11" s="50"/>
       <c r="T11" s="56"/>
-      <c r="V11" s="1">
+      <c r="U11" s="1">
         <v>1</v>
       </c>
+      <c r="V11" s="3">
+        <v>2</v>
+      </c>
       <c r="W11" s="3">
-        <v>2</v>
-      </c>
-      <c r="X11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="50"/>
@@ -2142,7 +2815,7 @@
       <c r="S12" s="50"/>
       <c r="T12" s="56"/>
     </row>
-    <row r="13" spans="2:24" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:23" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="124">
         <v>1</v>
       </c>
@@ -2167,13 +2840,13 @@
       <c r="R13" s="56"/>
       <c r="S13" s="56"/>
       <c r="T13" s="56"/>
-      <c r="V13" s="131">
+      <c r="U13" s="131">
         <v>4</v>
       </c>
+      <c r="V13" s="132"/>
       <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-    </row>
-    <row r="14" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="123"/>
       <c r="C14" s="121">
         <v>7</v>
@@ -2211,18 +2884,17 @@
       <c r="R14" s="126"/>
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="134">
+      <c r="U14" s="133">
         <v>7</v>
       </c>
-      <c r="W14" s="3">
+      <c r="V14" s="3">
         <v>8</v>
       </c>
-      <c r="X14" s="5">
+      <c r="W14" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="123"/>
       <c r="C15" s="2">
         <v>4</v>
@@ -2260,17 +2932,17 @@
       <c r="R15" s="50"/>
       <c r="S15" s="50"/>
       <c r="T15" s="56"/>
-      <c r="V15" s="5">
+      <c r="U15" s="5">
         <v>4</v>
       </c>
-      <c r="W15" s="11">
+      <c r="V15" s="11">
         <v>5</v>
       </c>
-      <c r="X15" s="6">
+      <c r="W15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="123"/>
       <c r="C16" s="11">
         <v>1</v>
@@ -2307,13 +2979,13 @@
       </c>
       <c r="S16" s="50"/>
       <c r="T16" s="56"/>
-      <c r="V16" s="1">
+      <c r="U16" s="1">
         <v>1</v>
       </c>
-      <c r="W16" s="5">
+      <c r="V16" s="5">
         <v>2</v>
       </c>
-      <c r="X16" s="122">
+      <c r="W16" s="122">
         <v>3</v>
       </c>
     </row>
@@ -3020,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:AE38"/>
+  <dimension ref="C1:CY38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="BV19" sqref="BV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3031,10 +3703,12 @@
     <col min="1" max="256" width="2.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:103" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P1" s="48"/>
-    </row>
-    <row r="2" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AU1" s="149"/>
+      <c r="CD1" s="149"/>
+    </row>
+    <row r="2" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="19">
         <v>21</v>
       </c>
@@ -3055,8 +3729,13 @@
       <c r="Z2" s="114"/>
       <c r="AA2" s="114"/>
       <c r="AB2" s="115"/>
-    </row>
-    <row r="3" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="149"/>
+      <c r="CC2" s="150"/>
+      <c r="CD2" s="157"/>
+    </row>
+    <row r="3" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="12">
         <v>16</v>
       </c>
@@ -3089,8 +3768,25 @@
         <v>25</v>
       </c>
       <c r="AC3" s="118"/>
-    </row>
-    <row r="4" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AI3" s="135">
+        <v>13</v>
+      </c>
+      <c r="AS3" s="151"/>
+      <c r="AT3" s="159"/>
+      <c r="AU3" s="157">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="149"/>
+      <c r="BQ3" s="165">
+        <v>9</v>
+      </c>
+      <c r="CC3" s="150"/>
+      <c r="CD3" s="184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="12">
         <v>11</v>
       </c>
@@ -3123,8 +3819,43 @@
         <v>20</v>
       </c>
       <c r="AC4" s="119"/>
-    </row>
-    <row r="5" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AH4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="136"/>
+      <c r="AR4" s="151"/>
+      <c r="AS4" s="159"/>
+      <c r="AT4" s="13">
+        <v>10</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV4" s="164">
+        <v>12</v>
+      </c>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="149"/>
+      <c r="BQ4" s="166">
+        <v>8</v>
+      </c>
+      <c r="CA4" s="149"/>
+      <c r="CB4" s="149"/>
+      <c r="CC4" s="151"/>
+      <c r="CD4" s="183">
+        <v>8</v>
+      </c>
+      <c r="CE4" s="149"/>
+      <c r="CF4" s="149"/>
+      <c r="CG4" s="149"/>
+    </row>
+    <row r="5" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="12">
         <v>6</v>
       </c>
@@ -3157,8 +3888,74 @@
         <v>15</v>
       </c>
       <c r="AC5" s="119"/>
-    </row>
-    <row r="6" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG5" s="135">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="135">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="152">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW5" s="156">
+        <v>9</v>
+      </c>
+      <c r="AX5" s="151"/>
+      <c r="BO5" s="167">
+        <v>3</v>
+      </c>
+      <c r="BP5" s="168">
+        <v>4</v>
+      </c>
+      <c r="BQ5" s="135">
+        <v>5</v>
+      </c>
+      <c r="BR5" s="168">
+        <v>6</v>
+      </c>
+      <c r="BS5" s="162">
+        <v>7</v>
+      </c>
+      <c r="BZ5" s="150"/>
+      <c r="CA5" s="152"/>
+      <c r="CB5" s="181">
+        <v>3</v>
+      </c>
+      <c r="CC5" s="182">
+        <v>4</v>
+      </c>
+      <c r="CD5" s="135">
+        <v>5</v>
+      </c>
+      <c r="CE5" s="155">
+        <v>6</v>
+      </c>
+      <c r="CF5" s="185">
+        <v>7</v>
+      </c>
+      <c r="CG5" s="156"/>
+    </row>
+    <row r="6" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -3191,8 +3988,36 @@
         <v>10</v>
       </c>
       <c r="AC6" s="119"/>
-    </row>
-    <row r="7" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="161">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="163">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="151"/>
+      <c r="BQ6" s="166">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="153"/>
+      <c r="CD6" s="184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="W7" s="120"/>
       <c r="X7" s="16">
         <v>1</v>
@@ -3210,8 +4035,24 @@
         <v>5</v>
       </c>
       <c r="AC7" s="120"/>
-    </row>
-    <row r="8" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AI7" s="135">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="153"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="154">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="151"/>
+      <c r="BQ7" s="158">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="150"/>
+      <c r="CD7" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="38">
         <v>1</v>
       </c>
@@ -3226,8 +4067,12 @@
       <c r="Z8" s="114"/>
       <c r="AA8" s="114"/>
       <c r="AB8" s="115"/>
-    </row>
-    <row r="9" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="120"/>
+      <c r="CC8" s="150"/>
+      <c r="CD8" s="154"/>
+    </row>
+    <row r="9" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="19">
         <v>21</v>
       </c>
@@ -3273,8 +4118,12 @@
       <c r="S9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY9" s="132"/>
+      <c r="BG9" s="132"/>
+      <c r="CO9" s="132"/>
+      <c r="CW9" s="132"/>
+    </row>
+    <row r="10" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="14">
         <v>16</v>
       </c>
@@ -3320,8 +4169,40 @@
       <c r="S10" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AI10" s="135">
+        <v>13</v>
+      </c>
+      <c r="AQ10" s="135">
+        <v>13</v>
+      </c>
+      <c r="AX10" s="145"/>
+      <c r="AY10" s="146">
+        <v>13</v>
+      </c>
+      <c r="BF10" s="147"/>
+      <c r="BG10" s="148">
+        <v>13</v>
+      </c>
+      <c r="BH10" s="132"/>
+      <c r="BQ10" s="176">
+        <v>9</v>
+      </c>
+      <c r="BY10" s="165">
+        <v>9</v>
+      </c>
+      <c r="CG10" s="165">
+        <v>9</v>
+      </c>
+      <c r="CN10" s="123"/>
+      <c r="CO10" s="123">
+        <v>9</v>
+      </c>
+      <c r="CV10" s="123"/>
+      <c r="CW10" s="180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="17">
         <v>11</v>
       </c>
@@ -3367,8 +4248,76 @@
       <c r="S11" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="3:29" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>11</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="136"/>
+      <c r="AP11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>11</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>12</v>
+      </c>
+      <c r="AS11" s="144"/>
+      <c r="AW11" s="145"/>
+      <c r="AX11" s="13">
+        <v>10</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>11</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>12</v>
+      </c>
+      <c r="BA11" s="136"/>
+      <c r="BF11" s="6">
+        <v>10</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>11</v>
+      </c>
+      <c r="BH11" s="141">
+        <v>12</v>
+      </c>
+      <c r="BI11" s="132"/>
+      <c r="BP11" s="145"/>
+      <c r="BQ11" s="146">
+        <v>8</v>
+      </c>
+      <c r="BR11" s="132"/>
+      <c r="BW11" s="132"/>
+      <c r="BX11" s="139"/>
+      <c r="BY11" s="169">
+        <v>8</v>
+      </c>
+      <c r="CG11" s="169">
+        <v>8</v>
+      </c>
+      <c r="CH11" s="144"/>
+      <c r="CI11" s="132"/>
+      <c r="CM11" s="132"/>
+      <c r="CN11" s="145"/>
+      <c r="CO11" s="147">
+        <v>8</v>
+      </c>
+      <c r="CV11" s="147"/>
+      <c r="CW11" s="148">
+        <v>8</v>
+      </c>
+      <c r="CX11" s="132"/>
+      <c r="CY11" s="132"/>
+    </row>
+    <row r="12" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="27">
         <v>6</v>
       </c>
@@ -3414,8 +4363,147 @@
       <c r="S12" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="137">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI12" s="141">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="135">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="135">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>8</v>
+      </c>
+      <c r="AS12" s="143">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="139">
+        <v>5</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>6</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>7</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>8</v>
+      </c>
+      <c r="BA12" s="135">
+        <v>9</v>
+      </c>
+      <c r="BE12" s="135">
+        <v>5</v>
+      </c>
+      <c r="BF12" s="6">
+        <v>6</v>
+      </c>
+      <c r="BG12" s="11">
+        <v>7</v>
+      </c>
+      <c r="BH12" s="7">
+        <v>8</v>
+      </c>
+      <c r="BI12" s="143">
+        <v>9</v>
+      </c>
+      <c r="BO12" s="186">
+        <v>3</v>
+      </c>
+      <c r="BP12" s="137">
+        <v>4</v>
+      </c>
+      <c r="BQ12" s="135">
+        <v>5</v>
+      </c>
+      <c r="BR12" s="143">
+        <v>6</v>
+      </c>
+      <c r="BS12" s="162">
+        <v>7</v>
+      </c>
+      <c r="BV12" s="123"/>
+      <c r="BW12" s="172">
+        <v>3</v>
+      </c>
+      <c r="BX12" s="171">
+        <v>4</v>
+      </c>
+      <c r="BY12" s="170">
+        <v>5</v>
+      </c>
+      <c r="BZ12" s="168">
+        <v>6</v>
+      </c>
+      <c r="CA12" s="162">
+        <v>7</v>
+      </c>
+      <c r="CE12" s="167">
+        <v>3</v>
+      </c>
+      <c r="CF12" s="173">
+        <v>4</v>
+      </c>
+      <c r="CG12" s="160">
+        <v>5</v>
+      </c>
+      <c r="CH12" s="175">
+        <v>6</v>
+      </c>
+      <c r="CI12" s="174">
+        <v>7</v>
+      </c>
+      <c r="CL12" s="123"/>
+      <c r="CM12" s="178">
+        <v>3</v>
+      </c>
+      <c r="CN12" s="139">
+        <v>4</v>
+      </c>
+      <c r="CO12" s="177">
+        <v>5</v>
+      </c>
+      <c r="CP12" s="168">
+        <v>6</v>
+      </c>
+      <c r="CQ12" s="162">
+        <v>7</v>
+      </c>
+      <c r="CU12" s="167">
+        <v>3</v>
+      </c>
+      <c r="CV12" s="173">
+        <v>4</v>
+      </c>
+      <c r="CW12" s="179">
+        <v>5</v>
+      </c>
+      <c r="CX12" s="144">
+        <v>6</v>
+      </c>
+      <c r="CY12" s="145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -3461,8 +4549,63 @@
       <c r="S13" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="3:29" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>4</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>3</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>4</v>
+      </c>
+      <c r="BP13" s="138"/>
+      <c r="BQ13" s="140">
+        <v>2</v>
+      </c>
+      <c r="BX13" s="123"/>
+      <c r="BY13" s="142">
+        <v>2</v>
+      </c>
+      <c r="CF13" s="142"/>
+      <c r="CG13" s="142">
+        <v>2</v>
+      </c>
+      <c r="CO13" s="166">
+        <v>2</v>
+      </c>
+      <c r="CW13" s="166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="40">
         <v>4</v>
       </c>
@@ -3472,8 +4615,39 @@
       <c r="O14" s="42">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:29" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="140">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="142"/>
+      <c r="AQ14" s="140">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="135">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="135">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="158">
+        <v>1</v>
+      </c>
+      <c r="BX14" s="123"/>
+      <c r="BY14" s="145">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="123"/>
+      <c r="CG14" s="145">
+        <v>1</v>
+      </c>
+      <c r="CO14" s="158">
+        <v>1</v>
+      </c>
+      <c r="CW14" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="21">
         <v>21</v>
       </c>
@@ -3520,7 +4694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:29" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="23">
         <v>16</v>
       </c>
@@ -3567,7 +4741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="25">
         <v>11</v>
       </c>
@@ -3613,8 +4787,11 @@
       <c r="S17" s="20">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AI17" s="135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="26">
         <v>6</v>
       </c>
@@ -3660,8 +4837,16 @@
       <c r="S18" s="32">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AH18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>11</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="136"/>
+    </row>
+    <row r="19" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <v>1</v>
       </c>
@@ -3707,8 +4892,23 @@
       <c r="S19" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AG19" s="135">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK19" s="135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="41">
         <v>7</v>
       </c>
@@ -3718,8 +4918,17 @@
       <c r="O20" s="38">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AH20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C21" s="36">
         <v>21</v>
       </c>
@@ -3765,8 +4974,11 @@
       <c r="S21" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AI21" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="27">
         <v>16</v>
       </c>
@@ -3813,7 +5025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="26">
         <v>11</v>
       </c>
@@ -3860,7 +5072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C24" s="15">
         <v>6</v>
       </c>
@@ -3907,7 +5119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -3954,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="37">
         <v>1</v>
       </c>
@@ -3971,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="19">
         <v>21</v>
       </c>
@@ -4036,7 +5248,7 @@
       </c>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="12">
         <v>16</v>
       </c>
@@ -4107,7 +5319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="12">
         <v>11</v>
       </c>
@@ -4184,7 +5396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="12">
         <v>6</v>
       </c>
@@ -4261,7 +5473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -4658,10 +5870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
-  <dimension ref="B1:AT83"/>
+  <dimension ref="B1:CJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView tabSelected="1" topLeftCell="W31" workbookViewId="0">
+      <selection activeCell="BT47" sqref="BT47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
@@ -4670,7 +5882,7 @@
     <col min="257" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
@@ -4679,7 +5891,7 @@
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="64"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -4690,7 +5902,7 @@
       <c r="I2" s="76"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="64"/>
       <c r="C3" s="73">
         <v>43</v>
@@ -4715,7 +5927,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="64"/>
       <c r="C4" s="73">
         <v>36</v>
@@ -4740,7 +5952,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="64"/>
       <c r="C5" s="73">
         <v>29</v>
@@ -4765,7 +5977,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="64"/>
       <c r="C6" s="73">
         <v>22</v>
@@ -4790,7 +6002,7 @@
       </c>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:88" x14ac:dyDescent="0.45">
       <c r="B7" s="64"/>
       <c r="C7" s="73">
         <v>15</v>
@@ -4815,7 +6027,7 @@
       </c>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="64"/>
       <c r="C8" s="73">
         <v>8</v>
@@ -4842,7 +6054,7 @@
       <c r="O8" s="66"/>
       <c r="V8" s="66"/>
     </row>
-    <row r="9" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="64"/>
       <c r="C9" s="73">
         <v>1</v>
@@ -4878,7 +6090,7 @@
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
     </row>
-    <row r="10" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
@@ -4899,7 +6111,7 @@
       <c r="W10" s="68"/>
       <c r="X10" s="68"/>
     </row>
-    <row r="11" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -4919,7 +6131,7 @@
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
     </row>
-    <row r="12" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="78" t="s">
         <v>0</v>
       </c>
@@ -4948,8 +6160,20 @@
       <c r="AM12" s="79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY12" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI12" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS12" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC12" s="79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="73">
         <v>43</v>
       </c>
@@ -5058,8 +6282,92 @@
       <c r="AS13" s="73">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY13" s="73">
+        <v>43</v>
+      </c>
+      <c r="AZ13" s="73">
+        <v>44</v>
+      </c>
+      <c r="BA13" s="73">
+        <v>45</v>
+      </c>
+      <c r="BB13" s="73">
+        <v>46</v>
+      </c>
+      <c r="BC13" s="73">
+        <v>47</v>
+      </c>
+      <c r="BD13" s="73">
+        <v>48</v>
+      </c>
+      <c r="BE13" s="73">
+        <v>49</v>
+      </c>
+      <c r="BI13" s="73">
+        <v>43</v>
+      </c>
+      <c r="BJ13" s="73">
+        <v>44</v>
+      </c>
+      <c r="BK13" s="73">
+        <v>45</v>
+      </c>
+      <c r="BL13" s="73">
+        <v>46</v>
+      </c>
+      <c r="BM13" s="73">
+        <v>47</v>
+      </c>
+      <c r="BN13" s="73">
+        <v>48</v>
+      </c>
+      <c r="BO13" s="73">
+        <v>49</v>
+      </c>
+      <c r="BS13" s="73">
+        <v>43</v>
+      </c>
+      <c r="BT13" s="73">
+        <v>44</v>
+      </c>
+      <c r="BU13" s="73">
+        <v>45</v>
+      </c>
+      <c r="BV13" s="73">
+        <v>46</v>
+      </c>
+      <c r="BW13" s="73">
+        <v>47</v>
+      </c>
+      <c r="BX13" s="73">
+        <v>48</v>
+      </c>
+      <c r="BY13" s="73">
+        <v>49</v>
+      </c>
+      <c r="CC13" s="73">
+        <v>43</v>
+      </c>
+      <c r="CD13" s="73">
+        <v>44</v>
+      </c>
+      <c r="CE13" s="73">
+        <v>45</v>
+      </c>
+      <c r="CF13" s="73">
+        <v>46</v>
+      </c>
+      <c r="CG13" s="73">
+        <v>47</v>
+      </c>
+      <c r="CH13" s="73">
+        <v>48</v>
+      </c>
+      <c r="CI13" s="73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="73">
         <v>36</v>
       </c>
@@ -5165,8 +6473,92 @@
       <c r="AS14" s="74">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="2:45" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY14" s="73">
+        <v>36</v>
+      </c>
+      <c r="AZ14" s="77">
+        <v>37</v>
+      </c>
+      <c r="BA14" s="77">
+        <v>38</v>
+      </c>
+      <c r="BB14" s="77">
+        <v>39</v>
+      </c>
+      <c r="BC14" s="77">
+        <v>40</v>
+      </c>
+      <c r="BD14" s="77">
+        <v>41</v>
+      </c>
+      <c r="BE14" s="74">
+        <v>42</v>
+      </c>
+      <c r="BI14" s="73">
+        <v>36</v>
+      </c>
+      <c r="BJ14" s="77">
+        <v>37</v>
+      </c>
+      <c r="BK14" s="77">
+        <v>38</v>
+      </c>
+      <c r="BL14" s="77">
+        <v>39</v>
+      </c>
+      <c r="BM14" s="77">
+        <v>40</v>
+      </c>
+      <c r="BN14" s="77">
+        <v>41</v>
+      </c>
+      <c r="BO14" s="74">
+        <v>42</v>
+      </c>
+      <c r="BS14" s="73">
+        <v>36</v>
+      </c>
+      <c r="BT14" s="77">
+        <v>37</v>
+      </c>
+      <c r="BU14" s="77">
+        <v>38</v>
+      </c>
+      <c r="BV14" s="77">
+        <v>39</v>
+      </c>
+      <c r="BW14" s="77">
+        <v>40</v>
+      </c>
+      <c r="BX14" s="77">
+        <v>41</v>
+      </c>
+      <c r="BY14" s="74">
+        <v>42</v>
+      </c>
+      <c r="CC14" s="73">
+        <v>36</v>
+      </c>
+      <c r="CD14" s="77">
+        <v>37</v>
+      </c>
+      <c r="CE14" s="77">
+        <v>38</v>
+      </c>
+      <c r="CF14" s="77">
+        <v>39</v>
+      </c>
+      <c r="CG14" s="77">
+        <v>40</v>
+      </c>
+      <c r="CH14" s="77">
+        <v>41</v>
+      </c>
+      <c r="CI14" s="74">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="73">
         <v>29</v>
       </c>
@@ -5275,8 +6667,92 @@
       <c r="AS15" s="73">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="2:45" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY15" s="82">
+        <v>29</v>
+      </c>
+      <c r="AZ15" s="82">
+        <v>30</v>
+      </c>
+      <c r="BA15" s="82">
+        <v>31</v>
+      </c>
+      <c r="BB15" s="82">
+        <v>32</v>
+      </c>
+      <c r="BC15" s="73">
+        <v>33</v>
+      </c>
+      <c r="BD15" s="73">
+        <v>34</v>
+      </c>
+      <c r="BE15" s="73">
+        <v>35</v>
+      </c>
+      <c r="BI15" s="73">
+        <v>29</v>
+      </c>
+      <c r="BJ15" s="82">
+        <v>30</v>
+      </c>
+      <c r="BK15" s="82">
+        <v>31</v>
+      </c>
+      <c r="BL15" s="82">
+        <v>32</v>
+      </c>
+      <c r="BM15" s="82">
+        <v>33</v>
+      </c>
+      <c r="BN15" s="73">
+        <v>34</v>
+      </c>
+      <c r="BO15" s="73">
+        <v>35</v>
+      </c>
+      <c r="BS15" s="73">
+        <v>29</v>
+      </c>
+      <c r="BT15" s="73">
+        <v>30</v>
+      </c>
+      <c r="BU15" s="82">
+        <v>31</v>
+      </c>
+      <c r="BV15" s="82">
+        <v>32</v>
+      </c>
+      <c r="BW15" s="82">
+        <v>33</v>
+      </c>
+      <c r="BX15" s="82">
+        <v>34</v>
+      </c>
+      <c r="BY15" s="73">
+        <v>35</v>
+      </c>
+      <c r="CC15" s="73">
+        <v>29</v>
+      </c>
+      <c r="CD15" s="73">
+        <v>30</v>
+      </c>
+      <c r="CE15" s="73">
+        <v>31</v>
+      </c>
+      <c r="CF15" s="82">
+        <v>32</v>
+      </c>
+      <c r="CG15" s="82">
+        <v>33</v>
+      </c>
+      <c r="CH15" s="82">
+        <v>34</v>
+      </c>
+      <c r="CI15" s="82">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="82">
         <v>22</v>
       </c>
@@ -5385,8 +6861,94 @@
       <c r="AS16" s="98">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="85">
+        <v>22</v>
+      </c>
+      <c r="AZ16" s="101">
+        <v>23</v>
+      </c>
+      <c r="BA16" s="101">
+        <v>24</v>
+      </c>
+      <c r="BB16" s="102">
+        <v>25</v>
+      </c>
+      <c r="BC16" s="81">
+        <v>26</v>
+      </c>
+      <c r="BD16" s="77">
+        <v>27</v>
+      </c>
+      <c r="BE16" s="74">
+        <v>28</v>
+      </c>
+      <c r="BI16" s="94">
+        <v>22</v>
+      </c>
+      <c r="BJ16" s="105">
+        <v>23</v>
+      </c>
+      <c r="BK16" s="101">
+        <v>24</v>
+      </c>
+      <c r="BL16" s="101">
+        <v>25</v>
+      </c>
+      <c r="BM16" s="102">
+        <v>26</v>
+      </c>
+      <c r="BN16" s="81">
+        <v>27</v>
+      </c>
+      <c r="BO16" s="74">
+        <v>28</v>
+      </c>
+      <c r="BS16" s="73">
+        <v>22</v>
+      </c>
+      <c r="BT16" s="97">
+        <v>23</v>
+      </c>
+      <c r="BU16" s="105">
+        <v>24</v>
+      </c>
+      <c r="BV16" s="101">
+        <v>25</v>
+      </c>
+      <c r="BW16" s="101">
+        <v>26</v>
+      </c>
+      <c r="BX16" s="102">
+        <v>27</v>
+      </c>
+      <c r="BY16" s="95">
+        <v>28</v>
+      </c>
+      <c r="CC16" s="73">
+        <v>22</v>
+      </c>
+      <c r="CD16" s="77">
+        <v>23</v>
+      </c>
+      <c r="CE16" s="97">
+        <v>24</v>
+      </c>
+      <c r="CF16" s="105">
+        <v>25</v>
+      </c>
+      <c r="CG16" s="101">
+        <v>26</v>
+      </c>
+      <c r="CH16" s="101">
+        <v>27</v>
+      </c>
+      <c r="CI16" s="107">
+        <v>28</v>
+      </c>
+      <c r="CJ16" s="65"/>
+    </row>
+    <row r="17" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B17" s="64"/>
       <c r="C17" s="85">
         <v>15</v>
@@ -5497,8 +7059,94 @@
         <v>21</v>
       </c>
       <c r="AT17" s="65"/>
-    </row>
-    <row r="18" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="88">
+        <v>15</v>
+      </c>
+      <c r="AZ17" s="73">
+        <v>16</v>
+      </c>
+      <c r="BA17" s="73">
+        <v>17</v>
+      </c>
+      <c r="BB17" s="90">
+        <v>18</v>
+      </c>
+      <c r="BC17" s="80">
+        <v>19</v>
+      </c>
+      <c r="BD17" s="73">
+        <v>20</v>
+      </c>
+      <c r="BE17" s="73">
+        <v>21</v>
+      </c>
+      <c r="BI17" s="94">
+        <v>15</v>
+      </c>
+      <c r="BJ17" s="88">
+        <v>16</v>
+      </c>
+      <c r="BK17" s="73">
+        <v>17</v>
+      </c>
+      <c r="BL17" s="73">
+        <v>18</v>
+      </c>
+      <c r="BM17" s="90">
+        <v>19</v>
+      </c>
+      <c r="BN17" s="80">
+        <v>20</v>
+      </c>
+      <c r="BO17" s="73">
+        <v>21</v>
+      </c>
+      <c r="BS17" s="73">
+        <v>15</v>
+      </c>
+      <c r="BT17" s="94">
+        <v>16</v>
+      </c>
+      <c r="BU17" s="88">
+        <v>17</v>
+      </c>
+      <c r="BV17" s="73">
+        <v>18</v>
+      </c>
+      <c r="BW17" s="73">
+        <v>19</v>
+      </c>
+      <c r="BX17" s="90">
+        <v>20</v>
+      </c>
+      <c r="BY17" s="80">
+        <v>21</v>
+      </c>
+      <c r="CC17" s="73">
+        <v>15</v>
+      </c>
+      <c r="CD17" s="73">
+        <v>16</v>
+      </c>
+      <c r="CE17" s="94">
+        <v>17</v>
+      </c>
+      <c r="CF17" s="88">
+        <v>18</v>
+      </c>
+      <c r="CG17" s="73">
+        <v>19</v>
+      </c>
+      <c r="CH17" s="73">
+        <v>20</v>
+      </c>
+      <c r="CI17" s="90">
+        <v>21</v>
+      </c>
+      <c r="CJ17" s="65"/>
+    </row>
+    <row r="18" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="64"/>
       <c r="C18" s="88">
         <v>8</v>
@@ -5609,8 +7257,94 @@
         <v>14</v>
       </c>
       <c r="AT18" s="65"/>
-    </row>
-    <row r="19" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="88">
+        <v>8</v>
+      </c>
+      <c r="AZ18" s="77">
+        <v>9</v>
+      </c>
+      <c r="BA18" s="77">
+        <v>10</v>
+      </c>
+      <c r="BB18" s="89">
+        <v>11</v>
+      </c>
+      <c r="BC18" s="81">
+        <v>12</v>
+      </c>
+      <c r="BD18" s="77">
+        <v>13</v>
+      </c>
+      <c r="BE18" s="74">
+        <v>14</v>
+      </c>
+      <c r="BI18" s="94">
+        <v>8</v>
+      </c>
+      <c r="BJ18" s="96">
+        <v>9</v>
+      </c>
+      <c r="BK18" s="77">
+        <v>10</v>
+      </c>
+      <c r="BL18" s="77">
+        <v>11</v>
+      </c>
+      <c r="BM18" s="89">
+        <v>12</v>
+      </c>
+      <c r="BN18" s="81">
+        <v>13</v>
+      </c>
+      <c r="BO18" s="74">
+        <v>14</v>
+      </c>
+      <c r="BS18" s="73">
+        <v>8</v>
+      </c>
+      <c r="BT18" s="97">
+        <v>9</v>
+      </c>
+      <c r="BU18" s="96">
+        <v>10</v>
+      </c>
+      <c r="BV18" s="77">
+        <v>11</v>
+      </c>
+      <c r="BW18" s="77">
+        <v>12</v>
+      </c>
+      <c r="BX18" s="89">
+        <v>13</v>
+      </c>
+      <c r="BY18" s="95">
+        <v>14</v>
+      </c>
+      <c r="CC18" s="73">
+        <v>8</v>
+      </c>
+      <c r="CD18" s="77">
+        <v>9</v>
+      </c>
+      <c r="CE18" s="97">
+        <v>10</v>
+      </c>
+      <c r="CF18" s="96">
+        <v>11</v>
+      </c>
+      <c r="CG18" s="77">
+        <v>12</v>
+      </c>
+      <c r="CH18" s="77">
+        <v>13</v>
+      </c>
+      <c r="CI18" s="99">
+        <v>14</v>
+      </c>
+      <c r="CJ18" s="65"/>
+    </row>
+    <row r="19" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="64"/>
       <c r="C19" s="91">
         <v>1</v>
@@ -5721,8 +7455,94 @@
         <v>7</v>
       </c>
       <c r="AT19" s="65"/>
-    </row>
-    <row r="20" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="92">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="92">
+        <v>3</v>
+      </c>
+      <c r="BB19" s="93">
+        <v>4</v>
+      </c>
+      <c r="BC19" s="80">
+        <v>5</v>
+      </c>
+      <c r="BD19" s="73">
+        <v>6</v>
+      </c>
+      <c r="BE19" s="73">
+        <v>7</v>
+      </c>
+      <c r="BI19" s="94">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="91">
+        <v>2</v>
+      </c>
+      <c r="BK19" s="92">
+        <v>3</v>
+      </c>
+      <c r="BL19" s="92">
+        <v>4</v>
+      </c>
+      <c r="BM19" s="93">
+        <v>5</v>
+      </c>
+      <c r="BN19" s="80">
+        <v>6</v>
+      </c>
+      <c r="BO19" s="73">
+        <v>7</v>
+      </c>
+      <c r="BS19" s="73">
+        <v>1</v>
+      </c>
+      <c r="BT19" s="94">
+        <v>2</v>
+      </c>
+      <c r="BU19" s="91">
+        <v>3</v>
+      </c>
+      <c r="BV19" s="92">
+        <v>4</v>
+      </c>
+      <c r="BW19" s="92">
+        <v>5</v>
+      </c>
+      <c r="BX19" s="93">
+        <v>6</v>
+      </c>
+      <c r="BY19" s="80">
+        <v>7</v>
+      </c>
+      <c r="CC19" s="73">
+        <v>1</v>
+      </c>
+      <c r="CD19" s="73">
+        <v>2</v>
+      </c>
+      <c r="CE19" s="94">
+        <v>3</v>
+      </c>
+      <c r="CF19" s="91">
+        <v>4</v>
+      </c>
+      <c r="CG19" s="92">
+        <v>5</v>
+      </c>
+      <c r="CH19" s="92">
+        <v>6</v>
+      </c>
+      <c r="CI19" s="93">
+        <v>7</v>
+      </c>
+      <c r="CJ19" s="65"/>
+    </row>
+    <row r="20" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C20" s="84"/>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -5739,8 +7559,24 @@
       <c r="AQ20" s="70"/>
       <c r="AR20" s="70"/>
       <c r="AS20" s="70"/>
-    </row>
-    <row r="21" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="70"/>
+      <c r="BU20" s="70"/>
+      <c r="BV20" s="70"/>
+      <c r="BW20" s="70"/>
+      <c r="BX20" s="70"/>
+      <c r="CF20" s="70"/>
+      <c r="CG20" s="70"/>
+      <c r="CH20" s="70"/>
+      <c r="CI20" s="70"/>
+    </row>
+    <row r="21" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="78" t="s">
         <v>5</v>
       </c>
@@ -5769,8 +7605,20 @@
       <c r="AM21" s="79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY21" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI21" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS21" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC21" s="79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="73">
         <v>43</v>
       </c>
@@ -5879,8 +7727,92 @@
       <c r="AS22" s="73">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY22" s="73">
+        <v>43</v>
+      </c>
+      <c r="AZ22" s="73">
+        <v>44</v>
+      </c>
+      <c r="BA22" s="73">
+        <v>45</v>
+      </c>
+      <c r="BB22" s="73">
+        <v>46</v>
+      </c>
+      <c r="BC22" s="73">
+        <v>47</v>
+      </c>
+      <c r="BD22" s="73">
+        <v>48</v>
+      </c>
+      <c r="BE22" s="73">
+        <v>49</v>
+      </c>
+      <c r="BI22" s="73">
+        <v>43</v>
+      </c>
+      <c r="BJ22" s="73">
+        <v>44</v>
+      </c>
+      <c r="BK22" s="73">
+        <v>45</v>
+      </c>
+      <c r="BL22" s="73">
+        <v>46</v>
+      </c>
+      <c r="BM22" s="73">
+        <v>47</v>
+      </c>
+      <c r="BN22" s="73">
+        <v>48</v>
+      </c>
+      <c r="BO22" s="73">
+        <v>49</v>
+      </c>
+      <c r="BS22" s="73">
+        <v>43</v>
+      </c>
+      <c r="BT22" s="73">
+        <v>44</v>
+      </c>
+      <c r="BU22" s="73">
+        <v>45</v>
+      </c>
+      <c r="BV22" s="73">
+        <v>46</v>
+      </c>
+      <c r="BW22" s="73">
+        <v>47</v>
+      </c>
+      <c r="BX22" s="73">
+        <v>48</v>
+      </c>
+      <c r="BY22" s="73">
+        <v>49</v>
+      </c>
+      <c r="CC22" s="73">
+        <v>43</v>
+      </c>
+      <c r="CD22" s="73">
+        <v>44</v>
+      </c>
+      <c r="CE22" s="73">
+        <v>45</v>
+      </c>
+      <c r="CF22" s="73">
+        <v>46</v>
+      </c>
+      <c r="CG22" s="73">
+        <v>47</v>
+      </c>
+      <c r="CH22" s="73">
+        <v>48</v>
+      </c>
+      <c r="CI22" s="73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="73">
         <v>36</v>
       </c>
@@ -5989,8 +7921,92 @@
       <c r="AS23" s="74">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY23" s="82">
+        <v>36</v>
+      </c>
+      <c r="AZ23" s="83">
+        <v>37</v>
+      </c>
+      <c r="BA23" s="83">
+        <v>38</v>
+      </c>
+      <c r="BB23" s="83">
+        <v>39</v>
+      </c>
+      <c r="BC23" s="77">
+        <v>40</v>
+      </c>
+      <c r="BD23" s="77">
+        <v>41</v>
+      </c>
+      <c r="BE23" s="74">
+        <v>42</v>
+      </c>
+      <c r="BI23" s="73">
+        <v>36</v>
+      </c>
+      <c r="BJ23" s="83">
+        <v>37</v>
+      </c>
+      <c r="BK23" s="83">
+        <v>38</v>
+      </c>
+      <c r="BL23" s="83">
+        <v>39</v>
+      </c>
+      <c r="BM23" s="83">
+        <v>40</v>
+      </c>
+      <c r="BN23" s="77">
+        <v>41</v>
+      </c>
+      <c r="BO23" s="74">
+        <v>42</v>
+      </c>
+      <c r="BS23" s="73">
+        <v>36</v>
+      </c>
+      <c r="BT23" s="77">
+        <v>37</v>
+      </c>
+      <c r="BU23" s="83">
+        <v>38</v>
+      </c>
+      <c r="BV23" s="83">
+        <v>39</v>
+      </c>
+      <c r="BW23" s="83">
+        <v>40</v>
+      </c>
+      <c r="BX23" s="83">
+        <v>41</v>
+      </c>
+      <c r="BY23" s="74">
+        <v>42</v>
+      </c>
+      <c r="CC23" s="73">
+        <v>36</v>
+      </c>
+      <c r="CD23" s="77">
+        <v>37</v>
+      </c>
+      <c r="CE23" s="77">
+        <v>38</v>
+      </c>
+      <c r="CF23" s="83">
+        <v>39</v>
+      </c>
+      <c r="CG23" s="83">
+        <v>40</v>
+      </c>
+      <c r="CH23" s="83">
+        <v>41</v>
+      </c>
+      <c r="CI23" s="98">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="82">
         <v>29</v>
       </c>
@@ -6099,8 +8115,94 @@
       <c r="AS24" s="82">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="85">
+        <v>29</v>
+      </c>
+      <c r="AZ24" s="86">
+        <v>30</v>
+      </c>
+      <c r="BA24" s="86">
+        <v>31</v>
+      </c>
+      <c r="BB24" s="87">
+        <v>32</v>
+      </c>
+      <c r="BC24" s="80">
+        <v>33</v>
+      </c>
+      <c r="BD24" s="73">
+        <v>34</v>
+      </c>
+      <c r="BE24" s="73">
+        <v>35</v>
+      </c>
+      <c r="BI24" s="94">
+        <v>29</v>
+      </c>
+      <c r="BJ24" s="85">
+        <v>30</v>
+      </c>
+      <c r="BK24" s="86">
+        <v>31</v>
+      </c>
+      <c r="BL24" s="86">
+        <v>32</v>
+      </c>
+      <c r="BM24" s="87">
+        <v>33</v>
+      </c>
+      <c r="BN24" s="80">
+        <v>34</v>
+      </c>
+      <c r="BO24" s="73">
+        <v>35</v>
+      </c>
+      <c r="BS24" s="73">
+        <v>29</v>
+      </c>
+      <c r="BT24" s="94">
+        <v>30</v>
+      </c>
+      <c r="BU24" s="85">
+        <v>31</v>
+      </c>
+      <c r="BV24" s="86">
+        <v>32</v>
+      </c>
+      <c r="BW24" s="86">
+        <v>33</v>
+      </c>
+      <c r="BX24" s="87">
+        <v>34</v>
+      </c>
+      <c r="BY24" s="80">
+        <v>35</v>
+      </c>
+      <c r="CC24" s="73">
+        <v>29</v>
+      </c>
+      <c r="CD24" s="73">
+        <v>30</v>
+      </c>
+      <c r="CE24" s="94">
+        <v>31</v>
+      </c>
+      <c r="CF24" s="85">
+        <v>32</v>
+      </c>
+      <c r="CG24" s="86">
+        <v>33</v>
+      </c>
+      <c r="CH24" s="86">
+        <v>34</v>
+      </c>
+      <c r="CI24" s="87">
+        <v>35</v>
+      </c>
+      <c r="CJ24" s="65"/>
+    </row>
+    <row r="25" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B25" s="64"/>
       <c r="C25" s="85">
         <v>22</v>
@@ -6211,8 +8313,94 @@
         <v>28</v>
       </c>
       <c r="AT25" s="65"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="88">
+        <v>22</v>
+      </c>
+      <c r="AZ25" s="77">
+        <v>23</v>
+      </c>
+      <c r="BA25" s="77">
+        <v>24</v>
+      </c>
+      <c r="BB25" s="89">
+        <v>25</v>
+      </c>
+      <c r="BC25" s="81">
+        <v>26</v>
+      </c>
+      <c r="BD25" s="77">
+        <v>27</v>
+      </c>
+      <c r="BE25" s="74">
+        <v>28</v>
+      </c>
+      <c r="BI25" s="94">
+        <v>22</v>
+      </c>
+      <c r="BJ25" s="96">
+        <v>23</v>
+      </c>
+      <c r="BK25" s="77">
+        <v>24</v>
+      </c>
+      <c r="BL25" s="77">
+        <v>25</v>
+      </c>
+      <c r="BM25" s="89">
+        <v>26</v>
+      </c>
+      <c r="BN25" s="81">
+        <v>27</v>
+      </c>
+      <c r="BO25" s="74">
+        <v>28</v>
+      </c>
+      <c r="BS25" s="73">
+        <v>22</v>
+      </c>
+      <c r="BT25" s="97">
+        <v>23</v>
+      </c>
+      <c r="BU25" s="96">
+        <v>24</v>
+      </c>
+      <c r="BV25" s="77">
+        <v>25</v>
+      </c>
+      <c r="BW25" s="77">
+        <v>26</v>
+      </c>
+      <c r="BX25" s="89">
+        <v>27</v>
+      </c>
+      <c r="BY25" s="95">
+        <v>28</v>
+      </c>
+      <c r="CC25" s="73">
+        <v>22</v>
+      </c>
+      <c r="CD25" s="77">
+        <v>23</v>
+      </c>
+      <c r="CE25" s="97">
+        <v>24</v>
+      </c>
+      <c r="CF25" s="96">
+        <v>25</v>
+      </c>
+      <c r="CG25" s="77">
+        <v>26</v>
+      </c>
+      <c r="CH25" s="77">
+        <v>27</v>
+      </c>
+      <c r="CI25" s="99">
+        <v>28</v>
+      </c>
+      <c r="CJ25" s="65"/>
+    </row>
+    <row r="26" spans="2:88" x14ac:dyDescent="0.45">
       <c r="B26" s="64"/>
       <c r="C26" s="88">
         <v>15</v>
@@ -6320,8 +8508,94 @@
         <v>21</v>
       </c>
       <c r="AT26" s="65"/>
-    </row>
-    <row r="27" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="88">
+        <v>15</v>
+      </c>
+      <c r="AZ26" s="73">
+        <v>16</v>
+      </c>
+      <c r="BA26" s="73">
+        <v>17</v>
+      </c>
+      <c r="BB26" s="90">
+        <v>18</v>
+      </c>
+      <c r="BC26" s="80">
+        <v>19</v>
+      </c>
+      <c r="BD26" s="73">
+        <v>20</v>
+      </c>
+      <c r="BE26" s="73">
+        <v>21</v>
+      </c>
+      <c r="BI26" s="94">
+        <v>15</v>
+      </c>
+      <c r="BJ26" s="88">
+        <v>16</v>
+      </c>
+      <c r="BK26" s="73">
+        <v>17</v>
+      </c>
+      <c r="BL26" s="73">
+        <v>18</v>
+      </c>
+      <c r="BM26" s="90">
+        <v>19</v>
+      </c>
+      <c r="BN26" s="80">
+        <v>20</v>
+      </c>
+      <c r="BO26" s="73">
+        <v>21</v>
+      </c>
+      <c r="BS26" s="73">
+        <v>15</v>
+      </c>
+      <c r="BT26" s="94">
+        <v>16</v>
+      </c>
+      <c r="BU26" s="88">
+        <v>17</v>
+      </c>
+      <c r="BV26" s="73">
+        <v>18</v>
+      </c>
+      <c r="BW26" s="73">
+        <v>19</v>
+      </c>
+      <c r="BX26" s="90">
+        <v>20</v>
+      </c>
+      <c r="BY26" s="80">
+        <v>21</v>
+      </c>
+      <c r="CC26" s="73">
+        <v>15</v>
+      </c>
+      <c r="CD26" s="73">
+        <v>16</v>
+      </c>
+      <c r="CE26" s="94">
+        <v>17</v>
+      </c>
+      <c r="CF26" s="88">
+        <v>18</v>
+      </c>
+      <c r="CG26" s="73">
+        <v>19</v>
+      </c>
+      <c r="CH26" s="73">
+        <v>20</v>
+      </c>
+      <c r="CI26" s="90">
+        <v>21</v>
+      </c>
+      <c r="CJ26" s="65"/>
+    </row>
+    <row r="27" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="64"/>
       <c r="C27" s="91">
         <v>8</v>
@@ -6429,8 +8703,94 @@
         <v>14</v>
       </c>
       <c r="AT27" s="65"/>
-    </row>
-    <row r="28" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="91">
+        <v>8</v>
+      </c>
+      <c r="AZ27" s="103">
+        <v>9</v>
+      </c>
+      <c r="BA27" s="103">
+        <v>10</v>
+      </c>
+      <c r="BB27" s="104">
+        <v>11</v>
+      </c>
+      <c r="BC27" s="81">
+        <v>12</v>
+      </c>
+      <c r="BD27" s="77">
+        <v>13</v>
+      </c>
+      <c r="BE27" s="74">
+        <v>14</v>
+      </c>
+      <c r="BI27" s="94">
+        <v>8</v>
+      </c>
+      <c r="BJ27" s="106">
+        <v>9</v>
+      </c>
+      <c r="BK27" s="103">
+        <v>10</v>
+      </c>
+      <c r="BL27" s="103">
+        <v>11</v>
+      </c>
+      <c r="BM27" s="104">
+        <v>12</v>
+      </c>
+      <c r="BN27" s="81">
+        <v>13</v>
+      </c>
+      <c r="BO27" s="74">
+        <v>14</v>
+      </c>
+      <c r="BS27" s="73">
+        <v>8</v>
+      </c>
+      <c r="BT27" s="97">
+        <v>9</v>
+      </c>
+      <c r="BU27" s="106">
+        <v>10</v>
+      </c>
+      <c r="BV27" s="103">
+        <v>11</v>
+      </c>
+      <c r="BW27" s="103">
+        <v>12</v>
+      </c>
+      <c r="BX27" s="104">
+        <v>13</v>
+      </c>
+      <c r="BY27" s="95">
+        <v>14</v>
+      </c>
+      <c r="CC27" s="73">
+        <v>8</v>
+      </c>
+      <c r="CD27" s="77">
+        <v>9</v>
+      </c>
+      <c r="CE27" s="97">
+        <v>10</v>
+      </c>
+      <c r="CF27" s="106">
+        <v>11</v>
+      </c>
+      <c r="CG27" s="103">
+        <v>12</v>
+      </c>
+      <c r="CH27" s="103">
+        <v>13</v>
+      </c>
+      <c r="CI27" s="108">
+        <v>14</v>
+      </c>
+      <c r="CJ27" s="65"/>
+    </row>
+    <row r="28" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C28" s="100">
         <v>1</v>
       </c>
@@ -6541,8 +8901,92 @@
       <c r="AS28" s="100">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY28" s="100">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="100">
+        <v>2</v>
+      </c>
+      <c r="BA28" s="100">
+        <v>3</v>
+      </c>
+      <c r="BB28" s="100">
+        <v>4</v>
+      </c>
+      <c r="BC28" s="73">
+        <v>5</v>
+      </c>
+      <c r="BD28" s="73">
+        <v>6</v>
+      </c>
+      <c r="BE28" s="73">
+        <v>7</v>
+      </c>
+      <c r="BI28" s="73">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="100">
+        <v>2</v>
+      </c>
+      <c r="BK28" s="100">
+        <v>3</v>
+      </c>
+      <c r="BL28" s="100">
+        <v>4</v>
+      </c>
+      <c r="BM28" s="100">
+        <v>5</v>
+      </c>
+      <c r="BN28" s="73">
+        <v>6</v>
+      </c>
+      <c r="BO28" s="73">
+        <v>7</v>
+      </c>
+      <c r="BS28" s="73">
+        <v>1</v>
+      </c>
+      <c r="BT28" s="73">
+        <v>2</v>
+      </c>
+      <c r="BU28" s="100">
+        <v>3</v>
+      </c>
+      <c r="BV28" s="100">
+        <v>4</v>
+      </c>
+      <c r="BW28" s="100">
+        <v>5</v>
+      </c>
+      <c r="BX28" s="100">
+        <v>6</v>
+      </c>
+      <c r="BY28" s="73">
+        <v>7</v>
+      </c>
+      <c r="CC28" s="73">
+        <v>1</v>
+      </c>
+      <c r="CD28" s="73">
+        <v>2</v>
+      </c>
+      <c r="CE28" s="73">
+        <v>3</v>
+      </c>
+      <c r="CF28" s="100">
+        <v>4</v>
+      </c>
+      <c r="CG28" s="100">
+        <v>5</v>
+      </c>
+      <c r="CH28" s="100">
+        <v>6</v>
+      </c>
+      <c r="CI28" s="100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -6569,7 +9013,7 @@
       <c r="AD29" s="68"/>
       <c r="AE29" s="68"/>
     </row>
-    <row r="30" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="78" t="s">
         <v>10</v>
       </c>
@@ -6606,8 +9050,20 @@
       <c r="AM30" s="79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY30" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI30" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS30" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC30" s="79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C31" s="73">
         <v>43</v>
       </c>
@@ -6716,8 +9172,92 @@
       <c r="AS31" s="73">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY31" s="82">
+        <v>43</v>
+      </c>
+      <c r="AZ31" s="82">
+        <v>44</v>
+      </c>
+      <c r="BA31" s="82">
+        <v>45</v>
+      </c>
+      <c r="BB31" s="82">
+        <v>46</v>
+      </c>
+      <c r="BC31" s="73">
+        <v>47</v>
+      </c>
+      <c r="BD31" s="73">
+        <v>48</v>
+      </c>
+      <c r="BE31" s="73">
+        <v>49</v>
+      </c>
+      <c r="BI31" s="73">
+        <v>43</v>
+      </c>
+      <c r="BJ31" s="82">
+        <v>44</v>
+      </c>
+      <c r="BK31" s="82">
+        <v>45</v>
+      </c>
+      <c r="BL31" s="82">
+        <v>46</v>
+      </c>
+      <c r="BM31" s="82">
+        <v>47</v>
+      </c>
+      <c r="BN31" s="73">
+        <v>48</v>
+      </c>
+      <c r="BO31" s="73">
+        <v>49</v>
+      </c>
+      <c r="BS31" s="73">
+        <v>43</v>
+      </c>
+      <c r="BT31" s="73">
+        <v>44</v>
+      </c>
+      <c r="BU31" s="82">
+        <v>45</v>
+      </c>
+      <c r="BV31" s="82">
+        <v>46</v>
+      </c>
+      <c r="BW31" s="82">
+        <v>47</v>
+      </c>
+      <c r="BX31" s="82">
+        <v>48</v>
+      </c>
+      <c r="BY31" s="73">
+        <v>49</v>
+      </c>
+      <c r="CC31" s="73">
+        <v>43</v>
+      </c>
+      <c r="CD31" s="73">
+        <v>44</v>
+      </c>
+      <c r="CE31" s="73">
+        <v>45</v>
+      </c>
+      <c r="CF31" s="82">
+        <v>46</v>
+      </c>
+      <c r="CG31" s="82">
+        <v>47</v>
+      </c>
+      <c r="CH31" s="82">
+        <v>48</v>
+      </c>
+      <c r="CI31" s="82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C32" s="82">
         <v>36</v>
       </c>
@@ -6823,8 +9363,94 @@
       <c r="AS32" s="98">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="85">
+        <v>36</v>
+      </c>
+      <c r="AZ32" s="101">
+        <v>37</v>
+      </c>
+      <c r="BA32" s="101">
+        <v>38</v>
+      </c>
+      <c r="BB32" s="102">
+        <v>39</v>
+      </c>
+      <c r="BC32" s="81">
+        <v>40</v>
+      </c>
+      <c r="BD32" s="77">
+        <v>41</v>
+      </c>
+      <c r="BE32" s="74">
+        <v>42</v>
+      </c>
+      <c r="BI32" s="94">
+        <v>36</v>
+      </c>
+      <c r="BJ32" s="105">
+        <v>37</v>
+      </c>
+      <c r="BK32" s="101">
+        <v>38</v>
+      </c>
+      <c r="BL32" s="101">
+        <v>39</v>
+      </c>
+      <c r="BM32" s="102">
+        <v>40</v>
+      </c>
+      <c r="BN32" s="81">
+        <v>41</v>
+      </c>
+      <c r="BO32" s="74">
+        <v>42</v>
+      </c>
+      <c r="BS32" s="73">
+        <v>36</v>
+      </c>
+      <c r="BT32" s="97">
+        <v>37</v>
+      </c>
+      <c r="BU32" s="105">
+        <v>38</v>
+      </c>
+      <c r="BV32" s="101">
+        <v>39</v>
+      </c>
+      <c r="BW32" s="101">
+        <v>40</v>
+      </c>
+      <c r="BX32" s="102">
+        <v>41</v>
+      </c>
+      <c r="BY32" s="95">
+        <v>42</v>
+      </c>
+      <c r="CC32" s="73">
+        <v>36</v>
+      </c>
+      <c r="CD32" s="77">
+        <v>37</v>
+      </c>
+      <c r="CE32" s="97">
+        <v>38</v>
+      </c>
+      <c r="CF32" s="105">
+        <v>39</v>
+      </c>
+      <c r="CG32" s="101">
+        <v>40</v>
+      </c>
+      <c r="CH32" s="101">
+        <v>41</v>
+      </c>
+      <c r="CI32" s="107">
+        <v>42</v>
+      </c>
+      <c r="CJ32" s="65"/>
+    </row>
+    <row r="33" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B33" s="64"/>
       <c r="C33" s="85">
         <v>29</v>
@@ -6935,8 +9561,94 @@
         <v>35</v>
       </c>
       <c r="AT33" s="65"/>
-    </row>
-    <row r="34" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="88">
+        <v>29</v>
+      </c>
+      <c r="AZ33" s="73">
+        <v>30</v>
+      </c>
+      <c r="BA33" s="73">
+        <v>31</v>
+      </c>
+      <c r="BB33" s="90">
+        <v>32</v>
+      </c>
+      <c r="BC33" s="80">
+        <v>33</v>
+      </c>
+      <c r="BD33" s="73">
+        <v>34</v>
+      </c>
+      <c r="BE33" s="73">
+        <v>35</v>
+      </c>
+      <c r="BI33" s="94">
+        <v>29</v>
+      </c>
+      <c r="BJ33" s="88">
+        <v>30</v>
+      </c>
+      <c r="BK33" s="73">
+        <v>31</v>
+      </c>
+      <c r="BL33" s="73">
+        <v>32</v>
+      </c>
+      <c r="BM33" s="90">
+        <v>33</v>
+      </c>
+      <c r="BN33" s="80">
+        <v>34</v>
+      </c>
+      <c r="BO33" s="73">
+        <v>35</v>
+      </c>
+      <c r="BS33" s="73">
+        <v>29</v>
+      </c>
+      <c r="BT33" s="94">
+        <v>30</v>
+      </c>
+      <c r="BU33" s="88">
+        <v>31</v>
+      </c>
+      <c r="BV33" s="73">
+        <v>32</v>
+      </c>
+      <c r="BW33" s="73">
+        <v>33</v>
+      </c>
+      <c r="BX33" s="90">
+        <v>34</v>
+      </c>
+      <c r="BY33" s="80">
+        <v>35</v>
+      </c>
+      <c r="CC33" s="73">
+        <v>29</v>
+      </c>
+      <c r="CD33" s="73">
+        <v>30</v>
+      </c>
+      <c r="CE33" s="94">
+        <v>31</v>
+      </c>
+      <c r="CF33" s="88">
+        <v>32</v>
+      </c>
+      <c r="CG33" s="73">
+        <v>33</v>
+      </c>
+      <c r="CH33" s="73">
+        <v>34</v>
+      </c>
+      <c r="CI33" s="90">
+        <v>35</v>
+      </c>
+      <c r="CJ33" s="65"/>
+    </row>
+    <row r="34" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="64"/>
       <c r="C34" s="88">
         <v>22</v>
@@ -7047,8 +9759,94 @@
         <v>28</v>
       </c>
       <c r="AT34" s="65"/>
-    </row>
-    <row r="35" spans="2:46" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="88">
+        <v>22</v>
+      </c>
+      <c r="AZ34" s="77">
+        <v>23</v>
+      </c>
+      <c r="BA34" s="77">
+        <v>24</v>
+      </c>
+      <c r="BB34" s="89">
+        <v>25</v>
+      </c>
+      <c r="BC34" s="81">
+        <v>26</v>
+      </c>
+      <c r="BD34" s="77">
+        <v>27</v>
+      </c>
+      <c r="BE34" s="74">
+        <v>28</v>
+      </c>
+      <c r="BI34" s="94">
+        <v>22</v>
+      </c>
+      <c r="BJ34" s="96">
+        <v>23</v>
+      </c>
+      <c r="BK34" s="77">
+        <v>24</v>
+      </c>
+      <c r="BL34" s="77">
+        <v>25</v>
+      </c>
+      <c r="BM34" s="89">
+        <v>26</v>
+      </c>
+      <c r="BN34" s="81">
+        <v>27</v>
+      </c>
+      <c r="BO34" s="74">
+        <v>28</v>
+      </c>
+      <c r="BS34" s="73">
+        <v>22</v>
+      </c>
+      <c r="BT34" s="97">
+        <v>23</v>
+      </c>
+      <c r="BU34" s="96">
+        <v>24</v>
+      </c>
+      <c r="BV34" s="77">
+        <v>25</v>
+      </c>
+      <c r="BW34" s="77">
+        <v>26</v>
+      </c>
+      <c r="BX34" s="89">
+        <v>27</v>
+      </c>
+      <c r="BY34" s="95">
+        <v>28</v>
+      </c>
+      <c r="CC34" s="73">
+        <v>22</v>
+      </c>
+      <c r="CD34" s="77">
+        <v>23</v>
+      </c>
+      <c r="CE34" s="97">
+        <v>24</v>
+      </c>
+      <c r="CF34" s="96">
+        <v>25</v>
+      </c>
+      <c r="CG34" s="77">
+        <v>26</v>
+      </c>
+      <c r="CH34" s="77">
+        <v>27</v>
+      </c>
+      <c r="CI34" s="99">
+        <v>28</v>
+      </c>
+      <c r="CJ34" s="65"/>
+    </row>
+    <row r="35" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="64"/>
       <c r="C35" s="91">
         <v>15</v>
@@ -7159,8 +9957,94 @@
         <v>21</v>
       </c>
       <c r="AT35" s="65"/>
-    </row>
-    <row r="36" spans="2:46" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="91">
+        <v>15</v>
+      </c>
+      <c r="AZ35" s="92">
+        <v>16</v>
+      </c>
+      <c r="BA35" s="92">
+        <v>17</v>
+      </c>
+      <c r="BB35" s="93">
+        <v>18</v>
+      </c>
+      <c r="BC35" s="80">
+        <v>19</v>
+      </c>
+      <c r="BD35" s="73">
+        <v>20</v>
+      </c>
+      <c r="BE35" s="73">
+        <v>21</v>
+      </c>
+      <c r="BI35" s="94">
+        <v>15</v>
+      </c>
+      <c r="BJ35" s="91">
+        <v>16</v>
+      </c>
+      <c r="BK35" s="92">
+        <v>17</v>
+      </c>
+      <c r="BL35" s="92">
+        <v>18</v>
+      </c>
+      <c r="BM35" s="93">
+        <v>19</v>
+      </c>
+      <c r="BN35" s="80">
+        <v>20</v>
+      </c>
+      <c r="BO35" s="73">
+        <v>21</v>
+      </c>
+      <c r="BS35" s="73">
+        <v>15</v>
+      </c>
+      <c r="BT35" s="94">
+        <v>16</v>
+      </c>
+      <c r="BU35" s="91">
+        <v>17</v>
+      </c>
+      <c r="BV35" s="92">
+        <v>18</v>
+      </c>
+      <c r="BW35" s="92">
+        <v>19</v>
+      </c>
+      <c r="BX35" s="93">
+        <v>20</v>
+      </c>
+      <c r="BY35" s="80">
+        <v>21</v>
+      </c>
+      <c r="CC35" s="73">
+        <v>15</v>
+      </c>
+      <c r="CD35" s="73">
+        <v>16</v>
+      </c>
+      <c r="CE35" s="94">
+        <v>17</v>
+      </c>
+      <c r="CF35" s="91">
+        <v>18</v>
+      </c>
+      <c r="CG35" s="92">
+        <v>19</v>
+      </c>
+      <c r="CH35" s="92">
+        <v>20</v>
+      </c>
+      <c r="CI35" s="93">
+        <v>21</v>
+      </c>
+      <c r="CJ35" s="65"/>
+    </row>
+    <row r="36" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C36" s="100">
         <v>8</v>
       </c>
@@ -7269,8 +10153,92 @@
       <c r="AS36" s="110">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY36" s="100">
+        <v>8</v>
+      </c>
+      <c r="AZ36" s="109">
+        <v>9</v>
+      </c>
+      <c r="BA36" s="109">
+        <v>10</v>
+      </c>
+      <c r="BB36" s="109">
+        <v>11</v>
+      </c>
+      <c r="BC36" s="77">
+        <v>12</v>
+      </c>
+      <c r="BD36" s="77">
+        <v>13</v>
+      </c>
+      <c r="BE36" s="74">
+        <v>14</v>
+      </c>
+      <c r="BI36" s="73">
+        <v>8</v>
+      </c>
+      <c r="BJ36" s="109">
+        <v>9</v>
+      </c>
+      <c r="BK36" s="109">
+        <v>10</v>
+      </c>
+      <c r="BL36" s="109">
+        <v>11</v>
+      </c>
+      <c r="BM36" s="109">
+        <v>12</v>
+      </c>
+      <c r="BN36" s="77">
+        <v>13</v>
+      </c>
+      <c r="BO36" s="74">
+        <v>14</v>
+      </c>
+      <c r="BS36" s="73">
+        <v>8</v>
+      </c>
+      <c r="BT36" s="77">
+        <v>9</v>
+      </c>
+      <c r="BU36" s="109">
+        <v>10</v>
+      </c>
+      <c r="BV36" s="109">
+        <v>11</v>
+      </c>
+      <c r="BW36" s="109">
+        <v>12</v>
+      </c>
+      <c r="BX36" s="109">
+        <v>13</v>
+      </c>
+      <c r="BY36" s="74">
+        <v>14</v>
+      </c>
+      <c r="CC36" s="73">
+        <v>8</v>
+      </c>
+      <c r="CD36" s="77">
+        <v>9</v>
+      </c>
+      <c r="CE36" s="77">
+        <v>10</v>
+      </c>
+      <c r="CF36" s="109">
+        <v>11</v>
+      </c>
+      <c r="CG36" s="109">
+        <v>12</v>
+      </c>
+      <c r="CH36" s="109">
+        <v>13</v>
+      </c>
+      <c r="CI36" s="110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" s="73">
         <v>1</v>
       </c>
@@ -7379,13 +10347,97 @@
       <c r="AS37" s="73">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AY37" s="73">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="73">
+        <v>2</v>
+      </c>
+      <c r="BA37" s="73">
+        <v>3</v>
+      </c>
+      <c r="BB37" s="73">
+        <v>4</v>
+      </c>
+      <c r="BC37" s="73">
+        <v>5</v>
+      </c>
+      <c r="BD37" s="73">
+        <v>6</v>
+      </c>
+      <c r="BE37" s="73">
+        <v>7</v>
+      </c>
+      <c r="BI37" s="73">
+        <v>1</v>
+      </c>
+      <c r="BJ37" s="73">
+        <v>2</v>
+      </c>
+      <c r="BK37" s="73">
+        <v>3</v>
+      </c>
+      <c r="BL37" s="73">
+        <v>4</v>
+      </c>
+      <c r="BM37" s="73">
+        <v>5</v>
+      </c>
+      <c r="BN37" s="73">
+        <v>6</v>
+      </c>
+      <c r="BO37" s="73">
+        <v>7</v>
+      </c>
+      <c r="BS37" s="73">
+        <v>1</v>
+      </c>
+      <c r="BT37" s="73">
+        <v>2</v>
+      </c>
+      <c r="BU37" s="73">
+        <v>3</v>
+      </c>
+      <c r="BV37" s="73">
+        <v>4</v>
+      </c>
+      <c r="BW37" s="73">
+        <v>5</v>
+      </c>
+      <c r="BX37" s="73">
+        <v>6</v>
+      </c>
+      <c r="BY37" s="73">
+        <v>7</v>
+      </c>
+      <c r="CC37" s="73">
+        <v>1</v>
+      </c>
+      <c r="CD37" s="73">
+        <v>2</v>
+      </c>
+      <c r="CE37" s="73">
+        <v>3</v>
+      </c>
+      <c r="CF37" s="73">
+        <v>4</v>
+      </c>
+      <c r="CG37" s="73">
+        <v>5</v>
+      </c>
+      <c r="CH37" s="73">
+        <v>6</v>
+      </c>
+      <c r="CI37" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="71"/>
       <c r="I38" s="71"/>
       <c r="O38" s="71"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="78" t="s">
         <v>15</v>
       </c>
@@ -7414,8 +10466,35 @@
       <c r="AM39" s="79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY39" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="63"/>
+      <c r="BI39" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ39" s="63"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BS39" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU39" s="63"/>
+      <c r="BV39" s="63"/>
+      <c r="BW39" s="63"/>
+      <c r="BX39" s="63"/>
+      <c r="CC39" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF39" s="63"/>
+      <c r="CG39" s="63"/>
+      <c r="CH39" s="63"/>
+      <c r="CI39" s="63"/>
+    </row>
+    <row r="40" spans="2:88" ht="15.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C40" s="82">
         <v>43</v>
       </c>
@@ -7524,8 +10603,94 @@
       <c r="AS40" s="82">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="85">
+        <v>43</v>
+      </c>
+      <c r="AZ40" s="86">
+        <v>44</v>
+      </c>
+      <c r="BA40" s="86">
+        <v>45</v>
+      </c>
+      <c r="BB40" s="87">
+        <v>46</v>
+      </c>
+      <c r="BC40" s="80">
+        <v>47</v>
+      </c>
+      <c r="BD40" s="73">
+        <v>48</v>
+      </c>
+      <c r="BE40" s="73">
+        <v>49</v>
+      </c>
+      <c r="BI40" s="94">
+        <v>43</v>
+      </c>
+      <c r="BJ40" s="85">
+        <v>44</v>
+      </c>
+      <c r="BK40" s="86">
+        <v>45</v>
+      </c>
+      <c r="BL40" s="86">
+        <v>46</v>
+      </c>
+      <c r="BM40" s="87">
+        <v>47</v>
+      </c>
+      <c r="BN40" s="80">
+        <v>48</v>
+      </c>
+      <c r="BO40" s="73">
+        <v>49</v>
+      </c>
+      <c r="BS40" s="73">
+        <v>43</v>
+      </c>
+      <c r="BT40" s="94">
+        <v>44</v>
+      </c>
+      <c r="BU40" s="85">
+        <v>45</v>
+      </c>
+      <c r="BV40" s="86">
+        <v>46</v>
+      </c>
+      <c r="BW40" s="86">
+        <v>47</v>
+      </c>
+      <c r="BX40" s="87">
+        <v>48</v>
+      </c>
+      <c r="BY40" s="80">
+        <v>49</v>
+      </c>
+      <c r="CC40" s="73">
+        <v>43</v>
+      </c>
+      <c r="CD40" s="73">
+        <v>44</v>
+      </c>
+      <c r="CE40" s="94">
+        <v>45</v>
+      </c>
+      <c r="CF40" s="85">
+        <v>46</v>
+      </c>
+      <c r="CG40" s="86">
+        <v>47</v>
+      </c>
+      <c r="CH40" s="86">
+        <v>48</v>
+      </c>
+      <c r="CI40" s="87">
+        <v>49</v>
+      </c>
+      <c r="CJ40" s="65"/>
+    </row>
+    <row r="41" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B41" s="64"/>
       <c r="C41" s="85">
         <v>36</v>
@@ -7636,8 +10801,94 @@
         <v>42</v>
       </c>
       <c r="AT41" s="65"/>
-    </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="88">
+        <v>36</v>
+      </c>
+      <c r="AZ41" s="77">
+        <v>37</v>
+      </c>
+      <c r="BA41" s="77">
+        <v>38</v>
+      </c>
+      <c r="BB41" s="89">
+        <v>39</v>
+      </c>
+      <c r="BC41" s="81">
+        <v>40</v>
+      </c>
+      <c r="BD41" s="77">
+        <v>41</v>
+      </c>
+      <c r="BE41" s="74">
+        <v>42</v>
+      </c>
+      <c r="BI41" s="94">
+        <v>36</v>
+      </c>
+      <c r="BJ41" s="96">
+        <v>37</v>
+      </c>
+      <c r="BK41" s="77">
+        <v>38</v>
+      </c>
+      <c r="BL41" s="77">
+        <v>39</v>
+      </c>
+      <c r="BM41" s="89">
+        <v>40</v>
+      </c>
+      <c r="BN41" s="81">
+        <v>41</v>
+      </c>
+      <c r="BO41" s="74">
+        <v>42</v>
+      </c>
+      <c r="BS41" s="73">
+        <v>36</v>
+      </c>
+      <c r="BT41" s="97">
+        <v>37</v>
+      </c>
+      <c r="BU41" s="96">
+        <v>38</v>
+      </c>
+      <c r="BV41" s="77">
+        <v>39</v>
+      </c>
+      <c r="BW41" s="77">
+        <v>40</v>
+      </c>
+      <c r="BX41" s="89">
+        <v>41</v>
+      </c>
+      <c r="BY41" s="95">
+        <v>42</v>
+      </c>
+      <c r="CC41" s="73">
+        <v>36</v>
+      </c>
+      <c r="CD41" s="77">
+        <v>37</v>
+      </c>
+      <c r="CE41" s="97">
+        <v>38</v>
+      </c>
+      <c r="CF41" s="96">
+        <v>39</v>
+      </c>
+      <c r="CG41" s="77">
+        <v>40</v>
+      </c>
+      <c r="CH41" s="77">
+        <v>41</v>
+      </c>
+      <c r="CI41" s="99">
+        <v>42</v>
+      </c>
+      <c r="CJ41" s="65"/>
+    </row>
+    <row r="42" spans="2:88" x14ac:dyDescent="0.45">
       <c r="B42" s="64"/>
       <c r="C42" s="88">
         <v>29</v>
@@ -7748,8 +10999,94 @@
         <v>35</v>
       </c>
       <c r="AT42" s="65"/>
-    </row>
-    <row r="43" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="88">
+        <v>29</v>
+      </c>
+      <c r="AZ42" s="73">
+        <v>30</v>
+      </c>
+      <c r="BA42" s="73">
+        <v>31</v>
+      </c>
+      <c r="BB42" s="90">
+        <v>32</v>
+      </c>
+      <c r="BC42" s="80">
+        <v>33</v>
+      </c>
+      <c r="BD42" s="73">
+        <v>34</v>
+      </c>
+      <c r="BE42" s="73">
+        <v>35</v>
+      </c>
+      <c r="BI42" s="94">
+        <v>29</v>
+      </c>
+      <c r="BJ42" s="88">
+        <v>30</v>
+      </c>
+      <c r="BK42" s="73">
+        <v>31</v>
+      </c>
+      <c r="BL42" s="73">
+        <v>32</v>
+      </c>
+      <c r="BM42" s="90">
+        <v>33</v>
+      </c>
+      <c r="BN42" s="80">
+        <v>34</v>
+      </c>
+      <c r="BO42" s="73">
+        <v>35</v>
+      </c>
+      <c r="BS42" s="73">
+        <v>29</v>
+      </c>
+      <c r="BT42" s="94">
+        <v>30</v>
+      </c>
+      <c r="BU42" s="88">
+        <v>31</v>
+      </c>
+      <c r="BV42" s="73">
+        <v>32</v>
+      </c>
+      <c r="BW42" s="73">
+        <v>33</v>
+      </c>
+      <c r="BX42" s="90">
+        <v>34</v>
+      </c>
+      <c r="BY42" s="80">
+        <v>35</v>
+      </c>
+      <c r="CC42" s="73">
+        <v>29</v>
+      </c>
+      <c r="CD42" s="73">
+        <v>30</v>
+      </c>
+      <c r="CE42" s="94">
+        <v>31</v>
+      </c>
+      <c r="CF42" s="88">
+        <v>32</v>
+      </c>
+      <c r="CG42" s="73">
+        <v>33</v>
+      </c>
+      <c r="CH42" s="73">
+        <v>34</v>
+      </c>
+      <c r="CI42" s="90">
+        <v>35</v>
+      </c>
+      <c r="CJ42" s="65"/>
+    </row>
+    <row r="43" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="64"/>
       <c r="C43" s="91">
         <v>22</v>
@@ -7860,8 +11197,94 @@
         <v>28</v>
       </c>
       <c r="AT43" s="65"/>
-    </row>
-    <row r="44" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AX43" s="64"/>
+      <c r="AY43" s="91">
+        <v>22</v>
+      </c>
+      <c r="AZ43" s="103">
+        <v>23</v>
+      </c>
+      <c r="BA43" s="103">
+        <v>24</v>
+      </c>
+      <c r="BB43" s="104">
+        <v>25</v>
+      </c>
+      <c r="BC43" s="81">
+        <v>26</v>
+      </c>
+      <c r="BD43" s="77">
+        <v>27</v>
+      </c>
+      <c r="BE43" s="74">
+        <v>28</v>
+      </c>
+      <c r="BI43" s="94">
+        <v>22</v>
+      </c>
+      <c r="BJ43" s="106">
+        <v>23</v>
+      </c>
+      <c r="BK43" s="103">
+        <v>24</v>
+      </c>
+      <c r="BL43" s="103">
+        <v>25</v>
+      </c>
+      <c r="BM43" s="104">
+        <v>26</v>
+      </c>
+      <c r="BN43" s="81">
+        <v>27</v>
+      </c>
+      <c r="BO43" s="74">
+        <v>28</v>
+      </c>
+      <c r="BS43" s="73">
+        <v>22</v>
+      </c>
+      <c r="BT43" s="97">
+        <v>23</v>
+      </c>
+      <c r="BU43" s="106">
+        <v>24</v>
+      </c>
+      <c r="BV43" s="103">
+        <v>25</v>
+      </c>
+      <c r="BW43" s="103">
+        <v>26</v>
+      </c>
+      <c r="BX43" s="104">
+        <v>27</v>
+      </c>
+      <c r="BY43" s="95">
+        <v>28</v>
+      </c>
+      <c r="CC43" s="73">
+        <v>22</v>
+      </c>
+      <c r="CD43" s="77">
+        <v>23</v>
+      </c>
+      <c r="CE43" s="97">
+        <v>24</v>
+      </c>
+      <c r="CF43" s="106">
+        <v>25</v>
+      </c>
+      <c r="CG43" s="103">
+        <v>26</v>
+      </c>
+      <c r="CH43" s="103">
+        <v>27</v>
+      </c>
+      <c r="CI43" s="108">
+        <v>28</v>
+      </c>
+      <c r="CJ43" s="65"/>
+    </row>
+    <row r="44" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C44" s="100">
         <v>15</v>
       </c>
@@ -7967,8 +11390,92 @@
       <c r="AS44" s="100">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="AY44" s="100">
+        <v>15</v>
+      </c>
+      <c r="AZ44" s="100">
+        <v>16</v>
+      </c>
+      <c r="BA44" s="100">
+        <v>17</v>
+      </c>
+      <c r="BB44" s="100">
+        <v>18</v>
+      </c>
+      <c r="BC44" s="73">
+        <v>19</v>
+      </c>
+      <c r="BD44" s="73">
+        <v>20</v>
+      </c>
+      <c r="BE44" s="73">
+        <v>21</v>
+      </c>
+      <c r="BI44" s="73">
+        <v>15</v>
+      </c>
+      <c r="BJ44" s="100">
+        <v>16</v>
+      </c>
+      <c r="BK44" s="100">
+        <v>17</v>
+      </c>
+      <c r="BL44" s="100">
+        <v>18</v>
+      </c>
+      <c r="BM44" s="100">
+        <v>19</v>
+      </c>
+      <c r="BN44" s="73">
+        <v>20</v>
+      </c>
+      <c r="BO44" s="73">
+        <v>21</v>
+      </c>
+      <c r="BS44" s="73">
+        <v>15</v>
+      </c>
+      <c r="BT44" s="73">
+        <v>16</v>
+      </c>
+      <c r="BU44" s="100">
+        <v>17</v>
+      </c>
+      <c r="BV44" s="100">
+        <v>18</v>
+      </c>
+      <c r="BW44" s="100">
+        <v>19</v>
+      </c>
+      <c r="BX44" s="100">
+        <v>20</v>
+      </c>
+      <c r="BY44" s="73">
+        <v>21</v>
+      </c>
+      <c r="CC44" s="73">
+        <v>15</v>
+      </c>
+      <c r="CD44" s="73">
+        <v>16</v>
+      </c>
+      <c r="CE44" s="73">
+        <v>17</v>
+      </c>
+      <c r="CF44" s="100">
+        <v>18</v>
+      </c>
+      <c r="CG44" s="100">
+        <v>19</v>
+      </c>
+      <c r="CH44" s="100">
+        <v>20</v>
+      </c>
+      <c r="CI44" s="100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:88" x14ac:dyDescent="0.45">
       <c r="C45" s="73">
         <v>8</v>
       </c>
@@ -8074,8 +11581,92 @@
       <c r="AS45" s="74">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="AY45" s="73">
+        <v>8</v>
+      </c>
+      <c r="AZ45" s="77">
+        <v>9</v>
+      </c>
+      <c r="BA45" s="77">
+        <v>10</v>
+      </c>
+      <c r="BB45" s="77">
+        <v>11</v>
+      </c>
+      <c r="BC45" s="77">
+        <v>12</v>
+      </c>
+      <c r="BD45" s="77">
+        <v>13</v>
+      </c>
+      <c r="BE45" s="74">
+        <v>14</v>
+      </c>
+      <c r="BI45" s="73">
+        <v>8</v>
+      </c>
+      <c r="BJ45" s="77">
+        <v>9</v>
+      </c>
+      <c r="BK45" s="77">
+        <v>10</v>
+      </c>
+      <c r="BL45" s="77">
+        <v>11</v>
+      </c>
+      <c r="BM45" s="77">
+        <v>12</v>
+      </c>
+      <c r="BN45" s="77">
+        <v>13</v>
+      </c>
+      <c r="BO45" s="74">
+        <v>14</v>
+      </c>
+      <c r="BS45" s="73">
+        <v>8</v>
+      </c>
+      <c r="BT45" s="77">
+        <v>9</v>
+      </c>
+      <c r="BU45" s="77">
+        <v>10</v>
+      </c>
+      <c r="BV45" s="77">
+        <v>11</v>
+      </c>
+      <c r="BW45" s="77">
+        <v>12</v>
+      </c>
+      <c r="BX45" s="77">
+        <v>13</v>
+      </c>
+      <c r="BY45" s="74">
+        <v>14</v>
+      </c>
+      <c r="CC45" s="73">
+        <v>8</v>
+      </c>
+      <c r="CD45" s="77">
+        <v>9</v>
+      </c>
+      <c r="CE45" s="77">
+        <v>10</v>
+      </c>
+      <c r="CF45" s="77">
+        <v>11</v>
+      </c>
+      <c r="CG45" s="77">
+        <v>12</v>
+      </c>
+      <c r="CH45" s="77">
+        <v>13</v>
+      </c>
+      <c r="CI45" s="74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:88" x14ac:dyDescent="0.45">
       <c r="C46" s="73">
         <v>1</v>
       </c>
@@ -8186,8 +11777,92 @@
       <c r="AS46" s="73">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AY46" s="73">
+        <v>1</v>
+      </c>
+      <c r="AZ46" s="73">
+        <v>2</v>
+      </c>
+      <c r="BA46" s="73">
+        <v>3</v>
+      </c>
+      <c r="BB46" s="73">
+        <v>4</v>
+      </c>
+      <c r="BC46" s="73">
+        <v>5</v>
+      </c>
+      <c r="BD46" s="73">
+        <v>6</v>
+      </c>
+      <c r="BE46" s="73">
+        <v>7</v>
+      </c>
+      <c r="BI46" s="73">
+        <v>1</v>
+      </c>
+      <c r="BJ46" s="73">
+        <v>2</v>
+      </c>
+      <c r="BK46" s="73">
+        <v>3</v>
+      </c>
+      <c r="BL46" s="73">
+        <v>4</v>
+      </c>
+      <c r="BM46" s="73">
+        <v>5</v>
+      </c>
+      <c r="BN46" s="73">
+        <v>6</v>
+      </c>
+      <c r="BO46" s="73">
+        <v>7</v>
+      </c>
+      <c r="BS46" s="73">
+        <v>1</v>
+      </c>
+      <c r="BT46" s="73">
+        <v>2</v>
+      </c>
+      <c r="BU46" s="73">
+        <v>3</v>
+      </c>
+      <c r="BV46" s="73">
+        <v>4</v>
+      </c>
+      <c r="BW46" s="73">
+        <v>5</v>
+      </c>
+      <c r="BX46" s="73">
+        <v>6</v>
+      </c>
+      <c r="BY46" s="73">
+        <v>7</v>
+      </c>
+      <c r="CC46" s="73">
+        <v>1</v>
+      </c>
+      <c r="CD46" s="73">
+        <v>2</v>
+      </c>
+      <c r="CE46" s="73">
+        <v>3</v>
+      </c>
+      <c r="CF46" s="73">
+        <v>4</v>
+      </c>
+      <c r="CG46" s="73">
+        <v>5</v>
+      </c>
+      <c r="CH46" s="73">
+        <v>6</v>
+      </c>
+      <c r="CI46" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C48" s="111" t="s">
         <v>20</v>
       </c>

--- a/doc/WENO2D/stencil.xlsx
+++ b/doc/WENO2D/stencil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\WENO2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D020B52-B7DB-43DA-8A69-103A5695A522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80FC69B-13BF-459A-96B0-434D761B7BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3rd" sheetId="3" r:id="rId1"/>
@@ -445,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -488,6 +488,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -503,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="156">
     <border>
       <left/>
       <right/>
@@ -1707,6 +1714,799 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1716,7 +2516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2276,6 +3076,228 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="114" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="115" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="116" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="117" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="118" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="119" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="120" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="121" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="123" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="122" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="124" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="125" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="126" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="127" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="128" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="129" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="130" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="131" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="132" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="134" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="133" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="135" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="136" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="137" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="138" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="139" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="140" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="141" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="142" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="143" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="144" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="145" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="147" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="148" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="149" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="150" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="151" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="152" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="153" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="154" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="155" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2556,19 +3578,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -2576,14 +3598,14 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>7</v>
       </c>
@@ -2596,7 +3618,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="134"/>
     </row>
-    <row r="5" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -2609,7 +3631,7 @@
       <c r="F5" s="53"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:23" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -2622,10 +3644,10 @@
       <c r="F6" s="53"/>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="2:23" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:23" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="55">
         <v>1</v>
       </c>
@@ -2654,7 +3676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -2701,7 +3723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -2748,7 +3770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="11">
         <v>1</v>
       </c>
@@ -2795,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="50"/>
@@ -2815,7 +3837,7 @@
       <c r="S12" s="50"/>
       <c r="T12" s="56"/>
     </row>
-    <row r="13" spans="2:23" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:23" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="124">
         <v>1</v>
       </c>
@@ -2846,7 +3868,7 @@
       <c r="V13" s="132"/>
       <c r="W13" s="132"/>
     </row>
-    <row r="14" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="123"/>
       <c r="C14" s="121">
         <v>7</v>
@@ -2894,7 +3916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="123"/>
       <c r="C15" s="2">
         <v>4</v>
@@ -2942,7 +3964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:23" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="123"/>
       <c r="C16" s="11">
         <v>1</v>
@@ -2989,7 +4011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:35" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:35" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
@@ -3006,7 +4028,7 @@
       <c r="S17" s="50"/>
       <c r="T17" s="56"/>
     </row>
-    <row r="18" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>7</v>
       </c>
@@ -3027,7 +4049,7 @@
       <c r="S18" s="50"/>
       <c r="T18" s="56"/>
     </row>
-    <row r="19" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -3053,7 +4075,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="56"/>
     </row>
-    <row r="20" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -3079,7 +4101,7 @@
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
     </row>
-    <row r="21" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="58"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -3099,7 +4121,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="56"/>
     </row>
-    <row r="22" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -3119,18 +4141,18 @@
       <c r="S22" s="50"/>
       <c r="T22" s="56"/>
     </row>
-    <row r="23" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:35" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="56"/>
       <c r="O23" s="50"/>
       <c r="P23" s="50"/>
@@ -3139,19 +4161,19 @@
       <c r="S23" s="50"/>
       <c r="T23" s="56"/>
     </row>
-    <row r="24" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="56"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="126"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
@@ -3159,19 +4181,19 @@
       <c r="S24" s="50"/>
       <c r="T24" s="56"/>
     </row>
-    <row r="25" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="56"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="227"/>
+      <c r="M25" s="247"/>
+      <c r="N25" s="126"/>
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
       <c r="Q25" s="50"/>
@@ -3179,20 +4201,37 @@
       <c r="S25" s="50"/>
       <c r="T25" s="56"/>
     </row>
-    <row r="27" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:35" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="248"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="220"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="150"/>
+    </row>
+    <row r="27" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="56"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="237"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="210">
+        <v>7</v>
+      </c>
+      <c r="I27" s="258">
+        <v>8</v>
+      </c>
+      <c r="J27" s="259">
+        <v>9</v>
+      </c>
+      <c r="K27" s="222"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="250"/>
+      <c r="N27" s="126"/>
       <c r="O27" s="50"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="56"/>
@@ -3215,20 +4254,26 @@
       <c r="AH27" s="56"/>
       <c r="AI27" s="56"/>
     </row>
-    <row r="28" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="56"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="260">
+        <v>4</v>
+      </c>
+      <c r="I28" s="217">
+        <v>5</v>
+      </c>
+      <c r="J28" s="216">
+        <v>6</v>
+      </c>
+      <c r="K28" s="222"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="252"/>
+      <c r="N28" s="126"/>
       <c r="O28" s="58"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="50"/>
@@ -3251,20 +4296,26 @@
       <c r="AH28" s="56"/>
       <c r="AI28" s="56"/>
     </row>
-    <row r="29" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="56"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="56"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="207">
+        <v>1</v>
+      </c>
+      <c r="I29" s="215">
+        <v>2</v>
+      </c>
+      <c r="J29" s="208">
+        <v>3</v>
+      </c>
+      <c r="K29" s="222"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="252"/>
+      <c r="N29" s="126"/>
       <c r="O29" s="50"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="50"/>
@@ -3287,20 +4338,20 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="56"/>
     </row>
-    <row r="30" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="56"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="56"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="230"/>
+      <c r="M30" s="252"/>
+      <c r="N30" s="126"/>
       <c r="O30" s="50"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="50"/>
@@ -3323,20 +4374,20 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="56"/>
     </row>
-    <row r="31" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="56"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="56"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="247"/>
+      <c r="N31" s="126"/>
       <c r="O31" s="50"/>
       <c r="P31" s="50"/>
       <c r="Q31" s="50"/>
@@ -3359,20 +4410,20 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="56"/>
     </row>
-    <row r="32" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:35" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="56"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="56"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="255"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="257"/>
+      <c r="N32" s="126"/>
       <c r="O32" s="50"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
@@ -3395,19 +4446,19 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="56"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:35" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
       <c r="P33" s="56"/>
@@ -3431,7 +4482,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="56"/>
     </row>
-    <row r="34" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -3467,7 +4518,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="56"/>
     </row>
-    <row r="35" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
@@ -3503,7 +4554,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="56"/>
     </row>
-    <row r="36" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -3539,7 +4590,7 @@
       <c r="AH36" s="56"/>
       <c r="AI36" s="56"/>
     </row>
-    <row r="37" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
@@ -3575,7 +4626,7 @@
       <c r="AH37" s="56"/>
       <c r="AI37" s="56"/>
     </row>
-    <row r="38" spans="2:35" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:35" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -3611,7 +4662,7 @@
       <c r="AH38" s="56"/>
       <c r="AI38" s="56"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
@@ -3647,7 +4698,7 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="56"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -3692,23 +4743,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:CY38"/>
+  <dimension ref="C1:CY55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV19" sqref="BV19"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:103" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:103" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P1" s="48"/>
       <c r="AU1" s="149"/>
       <c r="CD1" s="149"/>
     </row>
-    <row r="2" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="19">
         <v>21</v>
       </c>
@@ -3735,7 +4786,7 @@
       <c r="CC2" s="150"/>
       <c r="CD2" s="157"/>
     </row>
-    <row r="3" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>16</v>
       </c>
@@ -3786,7 +4837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="12">
         <v>11</v>
       </c>
@@ -3855,7 +4906,7 @@
       <c r="CF4" s="149"/>
       <c r="CG4" s="149"/>
     </row>
-    <row r="5" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="12">
         <v>6</v>
       </c>
@@ -3955,7 +5006,7 @@
       </c>
       <c r="CG5" s="156"/>
     </row>
-    <row r="6" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -4017,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W7" s="120"/>
       <c r="X7" s="16">
         <v>1</v>
@@ -4052,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>1</v>
       </c>
@@ -4072,7 +5123,7 @@
       <c r="CC8" s="150"/>
       <c r="CD8" s="154"/>
     </row>
-    <row r="9" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="19">
         <v>21</v>
       </c>
@@ -4123,7 +5174,7 @@
       <c r="CO9" s="132"/>
       <c r="CW9" s="132"/>
     </row>
-    <row r="10" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>16</v>
       </c>
@@ -4202,7 +5253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="17">
         <v>11</v>
       </c>
@@ -4317,7 +5368,7 @@
       <c r="CX11" s="132"/>
       <c r="CY11" s="132"/>
     </row>
-    <row r="12" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="27">
         <v>6</v>
       </c>
@@ -4503,7 +5554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11">
         <v>1</v>
       </c>
@@ -4605,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="40">
         <v>4</v>
       </c>
@@ -4647,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="21">
         <v>21</v>
       </c>
@@ -4694,7 +5745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:103" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:103" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="23">
         <v>16</v>
       </c>
@@ -4741,7 +5792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="25">
         <v>11</v>
       </c>
@@ -4791,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:37" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="26">
         <v>6</v>
       </c>
@@ -4846,7 +5897,7 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="136"/>
     </row>
-    <row r="19" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:37" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>1</v>
       </c>
@@ -4908,7 +5959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:37" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="41">
         <v>7</v>
       </c>
@@ -4928,7 +5979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:37" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>21</v>
       </c>
@@ -4978,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="27">
         <v>16</v>
       </c>
@@ -5025,7 +6076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:37" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:37" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="26">
         <v>11</v>
       </c>
@@ -5072,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:37" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:37" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C24" s="15">
         <v>6</v>
       </c>
@@ -5119,7 +6170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -5166,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>1</v>
       </c>
@@ -5183,7 +6234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="19">
         <v>21</v>
       </c>
@@ -5248,7 +6299,7 @@
       </c>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="12">
         <v>16</v>
       </c>
@@ -5319,7 +6370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="12">
         <v>11</v>
       </c>
@@ -5396,7 +6447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="12">
         <v>6</v>
       </c>
@@ -5473,7 +6524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:37" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:37" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -5550,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:33" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="44">
         <v>21</v>
       </c>
@@ -5612,7 +6663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:33" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="43">
         <v>16</v>
       </c>
@@ -5674,7 +6725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:33" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="43">
         <v>11</v>
       </c>
@@ -5736,7 +6787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:33" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="43">
         <v>6</v>
       </c>
@@ -5798,7 +6849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="9:31" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:33" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="44">
         <v>1</v>
       </c>
@@ -5860,6 +6911,254 @@
         <v>5</v>
       </c>
     </row>
+    <row r="41" spans="6:33" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="6:33" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="187"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="190"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="190"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="153"/>
+    </row>
+    <row r="43" spans="6:33" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="188"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="150"/>
+    </row>
+    <row r="44" spans="6:33" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="188"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="200"/>
+      <c r="P44" s="178"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="150"/>
+      <c r="AG44" s="199"/>
+    </row>
+    <row r="45" spans="6:33" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="188"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="192"/>
+      <c r="K45" s="192"/>
+      <c r="L45" s="192"/>
+      <c r="M45" s="192"/>
+      <c r="N45" s="192"/>
+      <c r="O45" s="193"/>
+      <c r="P45" s="201"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="150"/>
+    </row>
+    <row r="46" spans="6:33" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="188"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="19">
+        <v>21</v>
+      </c>
+      <c r="K46" s="18">
+        <v>22</v>
+      </c>
+      <c r="L46" s="18">
+        <v>23</v>
+      </c>
+      <c r="M46" s="18">
+        <v>24</v>
+      </c>
+      <c r="N46" s="1">
+        <v>25</v>
+      </c>
+      <c r="O46" s="195"/>
+      <c r="P46" s="202"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="150"/>
+    </row>
+    <row r="47" spans="6:33" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="188"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="12">
+        <v>16</v>
+      </c>
+      <c r="K47" s="210">
+        <v>17</v>
+      </c>
+      <c r="L47" s="213">
+        <v>18</v>
+      </c>
+      <c r="M47" s="209">
+        <v>19</v>
+      </c>
+      <c r="N47" s="2">
+        <v>20</v>
+      </c>
+      <c r="O47" s="212"/>
+      <c r="P47" s="202"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="150"/>
+    </row>
+    <row r="48" spans="6:33" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="188"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="12">
+        <v>11</v>
+      </c>
+      <c r="K48" s="214">
+        <v>12</v>
+      </c>
+      <c r="L48" s="217">
+        <v>13</v>
+      </c>
+      <c r="M48" s="216">
+        <v>14</v>
+      </c>
+      <c r="N48" s="2">
+        <v>15</v>
+      </c>
+      <c r="O48" s="195"/>
+      <c r="P48" s="202"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="150"/>
+    </row>
+    <row r="49" spans="6:18" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="188"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="12">
+        <v>6</v>
+      </c>
+      <c r="K49" s="207">
+        <v>7</v>
+      </c>
+      <c r="L49" s="215">
+        <v>8</v>
+      </c>
+      <c r="M49" s="211">
+        <v>9</v>
+      </c>
+      <c r="N49" s="2">
+        <v>10</v>
+      </c>
+      <c r="O49" s="195"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="150"/>
+    </row>
+    <row r="50" spans="6:18" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="188"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>3</v>
+      </c>
+      <c r="M50" s="3">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>5</v>
+      </c>
+      <c r="O50" s="195"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="150"/>
+    </row>
+    <row r="51" spans="6:18" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="188"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="197"/>
+      <c r="L51" s="197"/>
+      <c r="M51" s="197"/>
+      <c r="N51" s="197"/>
+      <c r="O51" s="198"/>
+      <c r="P51" s="203"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="150"/>
+    </row>
+    <row r="52" spans="6:18" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="188"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="205"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="150"/>
+    </row>
+    <row r="53" spans="6:18" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="188"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="150"/>
+    </row>
+    <row r="54" spans="6:18" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="189"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
+      <c r="K54" s="149"/>
+      <c r="L54" s="149"/>
+      <c r="M54" s="149"/>
+      <c r="N54" s="149"/>
+      <c r="O54" s="149"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="149"/>
+      <c r="R54" s="151"/>
+    </row>
+    <row r="55" spans="6:18" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5872,17 +7171,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72680-F9AF-4568-9FB8-39F80A980EEB}">
   <dimension ref="B1:CJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W31" workbookViewId="0">
+    <sheetView topLeftCell="W31" workbookViewId="0">
       <selection activeCell="BT47" sqref="BT47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="2.6484375" style="62" customWidth="1"/>
+    <col min="1" max="256" width="2.6640625" style="62" customWidth="1"/>
     <col min="257" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
@@ -5891,7 +7190,7 @@
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="64"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -5902,7 +7201,7 @@
       <c r="I2" s="76"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
       <c r="C3" s="73">
         <v>43</v>
@@ -5927,7 +7226,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="73">
         <v>36</v>
@@ -5952,7 +7251,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="73">
         <v>29</v>
@@ -5977,7 +7276,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
       <c r="C6" s="73">
         <v>22</v>
@@ -6002,7 +7301,7 @@
       </c>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:88" x14ac:dyDescent="0.25">
       <c r="B7" s="64"/>
       <c r="C7" s="73">
         <v>15</v>
@@ -6027,7 +7326,7 @@
       </c>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="64"/>
       <c r="C8" s="73">
         <v>8</v>
@@ -6054,7 +7353,7 @@
       <c r="O8" s="66"/>
       <c r="V8" s="66"/>
     </row>
-    <row r="9" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="64"/>
       <c r="C9" s="73">
         <v>1</v>
@@ -6090,7 +7389,7 @@
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
     </row>
-    <row r="10" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
@@ -6111,7 +7410,7 @@
       <c r="W10" s="68"/>
       <c r="X10" s="68"/>
     </row>
-    <row r="11" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -6131,7 +7430,7 @@
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
     </row>
-    <row r="12" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="78" t="s">
         <v>0</v>
       </c>
@@ -6173,7 +7472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="73">
         <v>43</v>
       </c>
@@ -6367,7 +7666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="73">
         <v>36</v>
       </c>
@@ -6558,7 +7857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="73">
         <v>29</v>
       </c>
@@ -6752,7 +8051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:88" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="82">
         <v>22</v>
       </c>
@@ -6948,7 +8247,7 @@
       </c>
       <c r="CJ16" s="65"/>
     </row>
-    <row r="17" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:88" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="85">
         <v>15</v>
@@ -7146,7 +8445,7 @@
       </c>
       <c r="CJ17" s="65"/>
     </row>
-    <row r="18" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="88">
         <v>8</v>
@@ -7344,7 +8643,7 @@
       </c>
       <c r="CJ18" s="65"/>
     </row>
-    <row r="19" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="64"/>
       <c r="C19" s="91">
         <v>1</v>
@@ -7542,7 +8841,7 @@
       </c>
       <c r="CJ19" s="65"/>
     </row>
-    <row r="20" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:88" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C20" s="84"/>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -7576,7 +8875,7 @@
       <c r="CH20" s="70"/>
       <c r="CI20" s="70"/>
     </row>
-    <row r="21" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="78" t="s">
         <v>5</v>
       </c>
@@ -7618,7 +8917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="73">
         <v>43</v>
       </c>
@@ -7812,7 +9111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="73">
         <v>36</v>
       </c>
@@ -8006,7 +9305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:88" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="82">
         <v>29</v>
       </c>
@@ -8202,7 +9501,7 @@
       </c>
       <c r="CJ24" s="65"/>
     </row>
-    <row r="25" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:88" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" s="64"/>
       <c r="C25" s="85">
         <v>22</v>
@@ -8400,7 +9699,7 @@
       </c>
       <c r="CJ25" s="65"/>
     </row>
-    <row r="26" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:88" x14ac:dyDescent="0.25">
       <c r="B26" s="64"/>
       <c r="C26" s="88">
         <v>15</v>
@@ -8595,7 +9894,7 @@
       </c>
       <c r="CJ26" s="65"/>
     </row>
-    <row r="27" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="64"/>
       <c r="C27" s="91">
         <v>8</v>
@@ -8790,7 +10089,7 @@
       </c>
       <c r="CJ27" s="65"/>
     </row>
-    <row r="28" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:88" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="100">
         <v>1</v>
       </c>
@@ -8986,7 +10285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -9013,7 +10312,7 @@
       <c r="AD29" s="68"/>
       <c r="AE29" s="68"/>
     </row>
-    <row r="30" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="78" t="s">
         <v>10</v>
       </c>
@@ -9063,7 +10362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="73">
         <v>43</v>
       </c>
@@ -9257,7 +10556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:88" ht="16.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:88" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="82">
         <v>36</v>
       </c>
@@ -9450,7 +10749,7 @@
       </c>
       <c r="CJ32" s="65"/>
     </row>
-    <row r="33" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:88" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="64"/>
       <c r="C33" s="85">
         <v>29</v>
@@ -9648,7 +10947,7 @@
       </c>
       <c r="CJ33" s="65"/>
     </row>
-    <row r="34" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64"/>
       <c r="C34" s="88">
         <v>22</v>
@@ -9846,7 +11145,7 @@
       </c>
       <c r="CJ34" s="65"/>
     </row>
-    <row r="35" spans="2:88" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:88" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="64"/>
       <c r="C35" s="91">
         <v>15</v>
@@ -10044,7 +11343,7 @@
       </c>
       <c r="CJ35" s="65"/>
     </row>
-    <row r="36" spans="2:88" ht="16.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:88" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C36" s="100">
         <v>8</v>
       </c>
@@ -10238,7 +11537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="73">
         <v>1</v>
       </c>
@@ -10432,12 +11731,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:88" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:88" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="71"/>
       <c r="I38" s="71"/>
       <c r="O38" s="71"/>
     </row>
-    <row r="39" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:88" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="78" t="s">
         <v>15</v>
       </c>
@@ -10494,7 +11793,7 @@
       <c r="CH39" s="63"/>
       <c r="CI39" s="63"/>
     </row>
-    <row r="40" spans="2:88" ht="15.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:88" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="82">
         <v>43</v>
       </c>
@@ -10690,7 +11989,7 @@
       </c>
       <c r="CJ40" s="65"/>
     </row>
-    <row r="41" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:88" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="64"/>
       <c r="C41" s="85">
         <v>36</v>
@@ -10888,7 +12187,7 @@
       </c>
       <c r="CJ41" s="65"/>
     </row>
-    <row r="42" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:88" x14ac:dyDescent="0.25">
       <c r="B42" s="64"/>
       <c r="C42" s="88">
         <v>29</v>
@@ -11086,7 +12385,7 @@
       </c>
       <c r="CJ42" s="65"/>
     </row>
-    <row r="43" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:88" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="64"/>
       <c r="C43" s="91">
         <v>22</v>
@@ -11284,7 +12583,7 @@
       </c>
       <c r="CJ43" s="65"/>
     </row>
-    <row r="44" spans="2:88" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:88" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="100">
         <v>15</v>
       </c>
@@ -11475,7 +12774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:88" x14ac:dyDescent="0.25">
       <c r="C45" s="73">
         <v>8</v>
       </c>
@@ -11666,7 +12965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:88" x14ac:dyDescent="0.25">
       <c r="C46" s="73">
         <v>1</v>
       </c>
@@ -11862,7 +13161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:88" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:88" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="111" t="s">
         <v>20</v>
       </c>
@@ -11893,7 +13192,7 @@
       <c r="AR48" s="63"/>
       <c r="AS48" s="63"/>
     </row>
-    <row r="49" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B49" s="64"/>
       <c r="C49" s="85">
         <v>43</v>
@@ -12005,7 +13304,7 @@
       </c>
       <c r="AT49" s="65"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B50" s="64"/>
       <c r="C50" s="88">
         <v>36</v>
@@ -12117,7 +13416,7 @@
       </c>
       <c r="AT50" s="65"/>
     </row>
-    <row r="51" spans="2:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:46" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="64"/>
       <c r="C51" s="91">
         <v>29</v>
@@ -12229,7 +13528,7 @@
       </c>
       <c r="AT51" s="65"/>
     </row>
-    <row r="52" spans="2:46" ht="15.6" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:46" ht="15.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C52" s="100">
         <v>22</v>
       </c>
@@ -12339,7 +13638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C53" s="73">
         <v>15</v>
       </c>
@@ -12446,7 +13745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C54" s="73">
         <v>8</v>
       </c>
@@ -12553,7 +13852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C55" s="73">
         <v>1</v>
       </c>
@@ -12665,7 +13964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C59" s="73">
         <v>43</v>
       </c>
@@ -12718,7 +14017,7 @@
       </c>
       <c r="AA59" s="73"/>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C60" s="73">
         <v>36</v>
       </c>
@@ -12771,7 +14070,7 @@
       </c>
       <c r="AA60" s="74"/>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C61" s="73">
         <v>29</v>
       </c>
@@ -12824,7 +14123,7 @@
       </c>
       <c r="AA61" s="73"/>
     </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C62" s="73">
         <v>22</v>
       </c>
@@ -12889,7 +14188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C63" s="73">
         <v>15</v>
       </c>
@@ -12954,7 +14253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C64" s="73">
         <v>8</v>
       </c>
@@ -13019,7 +14318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C65" s="73">
         <v>1</v>
       </c>
@@ -13084,7 +14383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C68" s="73">
         <v>43</v>
       </c>
@@ -13137,7 +14436,7 @@
       </c>
       <c r="AA68" s="73"/>
     </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C69" s="73">
         <v>36</v>
       </c>
@@ -13190,7 +14489,7 @@
       </c>
       <c r="AA69" s="74"/>
     </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C70" s="73">
         <v>29</v>
       </c>
@@ -13255,7 +14554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="73">
         <v>22</v>
       </c>
@@ -13320,7 +14619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C72" s="73">
         <v>15</v>
       </c>
@@ -13385,7 +14684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C73" s="73">
         <v>8</v>
       </c>
@@ -13450,7 +14749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C74" s="73">
         <v>1</v>
       </c>
@@ -13515,7 +14814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C77" s="73">
         <v>43</v>
       </c>
@@ -13568,7 +14867,7 @@
       </c>
       <c r="AA77" s="73"/>
     </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C78" s="73">
         <v>36</v>
       </c>
@@ -13633,7 +14932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C79" s="73">
         <v>29</v>
       </c>
@@ -13698,7 +14997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C80" s="73">
         <v>22</v>
       </c>
@@ -13763,7 +15062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C81" s="73">
         <v>15</v>
       </c>
@@ -13828,7 +15127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C82" s="73">
         <v>8</v>
       </c>
@@ -13893,7 +15192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C83" s="73">
         <v>1</v>
       </c>
